--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
     <sheet name="v1.0 Milestone 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Errata" sheetId="3" r:id="rId3"/>
+    <sheet name="v1.0Milestone 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="207">
   <si>
     <t>Document</t>
   </si>
@@ -1647,20 +1647,289 @@
 </t>
   </si>
   <si>
-    <t>Validation Rules</t>
+    <t>1.0 Milestone 2</t>
   </si>
   <si>
-    <t>Added</t>
+    <t xml:space="preserve">
+Date formatting standardised</t>
   </si>
   <si>
-    <t>53 weeks changed to 56</t>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>SOAP Web Service Integration Guide examples</t>
+  </si>
+  <si>
+    <t>Date Formatting reflecting the changes in the schemas</t>
+  </si>
+  <si>
+    <t>Payroll Submission Request</t>
+  </si>
+  <si>
+    <t>All Document</t>
+  </si>
+  <si>
+    <t>New RPN Request</t>
+  </si>
+  <si>
+    <r>
+      <t>add ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employment start date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’ as an optional request field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>New PRSI exemption option '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' added</t>
+    </r>
+  </si>
+  <si>
+    <t>Submission Request Line Items</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New option</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ‘Other’ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>added to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'PRSI Exemption Reason' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Add ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employment start date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’ as an optional request field.</t>
+    </r>
+  </si>
+  <si>
+    <t>Line Item</t>
+  </si>
+  <si>
+    <t>PRSIExemptionReason</t>
+  </si>
+  <si>
+    <r>
+      <t>'New option : ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’ added</t>
+    </r>
+  </si>
+  <si>
+    <t>New RPN Examples</t>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employment start date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’ added</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Validation rule for ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employment start date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’ added</t>
+    </r>
+  </si>
+  <si>
+    <t>Date/Time formats changed</t>
+  </si>
+  <si>
+    <t>Date Formatting and pattern changes reflecting the changes in the schemas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date formatting standardised to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xs:date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xs:dateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> format</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1751,8 +2020,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1771,14 +2048,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2192,22 +2463,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF006B6E"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF006B6E"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF006B6E"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2363,6 +2663,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2380,6 +2686,34 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2480,20 +2814,121 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFD1FFEC"/>
@@ -2827,12 +3262,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2857,12 +3292,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2905,10 +3340,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="87">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -2923,8 +3358,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -2937,8 +3372,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -2951,8 +3386,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -2965,8 +3400,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -2979,8 +3414,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -2993,10 +3428,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="87">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3011,8 +3446,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -3061,12 +3496,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3109,22 +3544,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="79">
+      <c r="B21" s="91">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -3139,8 +3574,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -3163,18 +3598,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="79">
+      <c r="B25" s="91">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -3189,8 +3624,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -3203,8 +3638,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="73"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -3217,8 +3652,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -3231,8 +3666,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="73"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -3245,8 +3680,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="73"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -3259,8 +3694,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="73"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -3273,8 +3708,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="74"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -3399,12 +3834,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -3505,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3584,10 +4019,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="99" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -3598,8 +4033,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -3608,8 +4043,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -3618,8 +4053,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -3628,8 +4063,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -3638,8 +4073,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -3648,10 +4083,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="99" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -3662,8 +4097,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -3672,8 +4107,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -3682,10 +4117,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="108" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -3696,8 +4131,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -3706,8 +4141,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -3716,8 +4151,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -3726,8 +4161,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -3736,29 +4171,29 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="67" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="96"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="65" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="66" t="s">
+      <c r="A23" s="96"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="68" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="54" t="s">
@@ -3766,26 +4201,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="84" t="s">
+      <c r="A24" s="96"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="97" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="99" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -3796,8 +4231,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -3824,28 +4259,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="104" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="92"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="104"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
-      <c r="B32" s="87"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -3854,8 +4289,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="88"/>
-      <c r="B33" s="87"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -3864,18 +4299,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="88"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="67" t="s">
+      <c r="A34" s="100"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="70" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="88"/>
-      <c r="B35" s="87"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -3884,36 +4319,36 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="67" t="s">
+      <c r="A36" s="100"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="70" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="88"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="89" t="s">
+      <c r="A37" s="100"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="91" t="s">
+      <c r="D37" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="88"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="91"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="103"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="99" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -3924,8 +4359,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="86"/>
-      <c r="B40" s="87"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -3952,10 +4387,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="99" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -3964,8 +4399,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="88"/>
-      <c r="B44" s="87"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -3974,20 +4409,20 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="99" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="66" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="94"/>
-      <c r="B46" s="87"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -3996,8 +4431,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="94"/>
-      <c r="B47" s="87"/>
+      <c r="A47" s="106"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -4006,8 +4441,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="95"/>
-      <c r="B48" s="87"/>
+      <c r="A48" s="107"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -4016,10 +4451,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="96" t="s">
+      <c r="B49" s="108" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -8123,8 +8558,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -12228,8 +12663,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="108"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -16333,8 +16768,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="96"/>
-      <c r="B52" s="96"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -20438,12 +20873,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="96"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="99" t="s">
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="92" t="s">
+      <c r="D53" s="104" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -24543,10 +24978,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="96"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="92"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="104"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -28664,10 +29099,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="96" t="s">
+      <c r="B57" s="108" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -28678,8 +29113,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="100"/>
-      <c r="B58" s="96"/>
+      <c r="A58" s="112"/>
+      <c r="B58" s="108"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -28688,8 +29123,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="100"/>
-      <c r="B59" s="96"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="108"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -28698,8 +29133,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="100"/>
-      <c r="B60" s="96"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="108"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -28708,8 +29143,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
-      <c r="B61" s="96"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="108"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -28718,8 +29153,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
-      <c r="B62" s="96"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="108"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -28728,8 +29163,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="100"/>
-      <c r="B63" s="96"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="108"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -28738,16 +29173,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="100"/>
-      <c r="B64" s="96"/>
+      <c r="A64" s="112"/>
+      <c r="B64" s="108"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="100"/>
-      <c r="B65" s="96"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="108"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -28756,16 +29191,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="100"/>
-      <c r="B66" s="96"/>
+      <c r="A66" s="112"/>
+      <c r="B66" s="108"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="100"/>
-      <c r="B67" s="96"/>
+      <c r="A67" s="112"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -28774,8 +29209,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="100"/>
-      <c r="B68" s="96"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="108"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -28784,8 +29219,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="100"/>
-      <c r="B69" s="96"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -28794,8 +29229,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="100"/>
-      <c r="B70" s="96"/>
+      <c r="A70" s="112"/>
+      <c r="B70" s="108"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -28804,8 +29239,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="100"/>
-      <c r="B71" s="96"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="108"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -28814,8 +29249,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="100"/>
-      <c r="B72" s="96"/>
+      <c r="A72" s="112"/>
+      <c r="B72" s="108"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -28824,16 +29259,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="100"/>
-      <c r="B73" s="96"/>
+      <c r="A73" s="112"/>
+      <c r="B73" s="108"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="100"/>
-      <c r="B74" s="96"/>
+      <c r="A74" s="112"/>
+      <c r="B74" s="108"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -28842,18 +29277,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="100"/>
-      <c r="B75" s="96"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="101" t="s">
+      <c r="A75" s="112"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="113" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="100"/>
-      <c r="B76" s="96"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="101"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="108"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="113"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -28932,21 +29367,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -28969,102 +29404,594 @@
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="44"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>28</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="D4" s="44"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="44"/>
+    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="133" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="44"/>
+    <row r="7" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="114"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="133"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="44"/>
+    <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="114"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="49"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104">
-        <v>100</v>
-      </c>
-      <c r="D9" s="104" t="s">
-        <v>186</v>
-      </c>
+    <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="114"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="49"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="105">
-        <v>29</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>102</v>
-      </c>
+    <row r="10" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="114"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="105">
-        <v>47</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>187</v>
+      <c r="A11" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="47"/>
+    <row r="12" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="115"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="47"/>
+    <row r="13" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="115"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="47"/>
+    <row r="14" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="117"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="117"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="117"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="117"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="117"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="117"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="49"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="117"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="49"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="117"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="49"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="117"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="49"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="118"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="120"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="120"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="128" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="129" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="120"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="130"/>
+    </row>
+    <row r="32" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="120"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="130"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="120"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="130"/>
+    </row>
+    <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="120"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="130"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="120"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="130"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="121"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="131"/>
+    </row>
+    <row r="37" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="44"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="100"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="136" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="106"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="137"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="106"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="134" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="139" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="107"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="140"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="58"/>
+      <c r="D45" s="47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="123"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="123"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="123"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="47"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="123"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="104"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="124"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="104"/>
+    </row>
+    <row r="51" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="44"/>
+    </row>
+    <row r="52" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="112"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="112"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="58"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="112"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="62"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="112"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="47"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="112"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="47"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="112"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="47"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="112"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="47"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="112"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="47"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="112"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="46"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="112"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="62"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="112"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="62"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="112"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="47"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="112"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="47"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="112"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="47"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="112"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="47"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="112"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="49"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="112"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="47"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="112"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="113"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="112"/>
+      <c r="B72" s="108"/>
+      <c r="D72" s="113"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="44"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C14:C24"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A53:A72"/>
+    <mergeCell ref="B53:B72"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="B14:B24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7656" yWindow="288" windowWidth="15576" windowHeight="10032" activeTab="2"/>
+    <workbookView xWindow="7656" yWindow="288" windowWidth="15384" windowHeight="10008" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="207">
   <si>
     <t>Document</t>
   </si>
@@ -1654,9 +1654,6 @@
 Date formatting standardised</t>
   </si>
   <si>
-    <t>FAQ</t>
-  </si>
-  <si>
     <t>SOAP Web Service Integration Guide examples</t>
   </si>
   <si>
@@ -1893,7 +1890,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xs:date</t>
+      <t xml:space="preserve">xs:date </t>
     </r>
     <r>
       <rPr>
@@ -1902,7 +1899,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and </t>
+      <t>format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date formatting standardised to </t>
     </r>
     <r>
       <rPr>
@@ -1912,7 +1914,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xs:dateTime</t>
+      <t xml:space="preserve">xs:date </t>
     </r>
     <r>
       <rPr>
@@ -1921,7 +1923,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> format</t>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xs:dateTime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format</t>
     </r>
   </si>
 </sst>
@@ -2761,19 +2782,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2784,68 +2835,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2871,28 +2883,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3899,7 +3920,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3909,7 +3930,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4019,10 +4040,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="105" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4033,8 +4054,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4043,8 +4064,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4053,8 +4074,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4063,8 +4084,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4073,8 +4094,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4083,10 +4104,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="105" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4097,8 +4118,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="109"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4107,8 +4128,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="109"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4117,10 +4138,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="100" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4131,8 +4152,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4141,8 +4162,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="108"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4151,8 +4172,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="108"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4161,8 +4182,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="108"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4171,8 +4192,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
-      <c r="B21" s="108"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -4181,8 +4202,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
-      <c r="B22" s="108"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -4191,8 +4212,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="96"/>
-      <c r="B23" s="108"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="68" t="s">
         <v>159</v>
       </c>
@@ -4201,26 +4222,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="96"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="96" t="s">
+      <c r="A24" s="109"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="110" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="96"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="105" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4231,8 +4252,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -4259,28 +4280,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="98" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="104"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="98"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
-      <c r="B32" s="99"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -4289,8 +4310,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="100"/>
-      <c r="B33" s="99"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -4299,8 +4320,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100"/>
-      <c r="B34" s="99"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="69" t="s">
         <v>170</v>
       </c>
@@ -4309,8 +4330,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="100"/>
-      <c r="B35" s="99"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="105"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -4319,8 +4340,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
-      <c r="B36" s="99"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="69" t="s">
         <v>159</v>
       </c>
@@ -4329,26 +4350,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="101" t="s">
+      <c r="A37" s="107"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="113" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="100"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="103"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="105" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -4359,8 +4380,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="98"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -4387,10 +4408,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="105" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -4399,8 +4420,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="100"/>
-      <c r="B44" s="99"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -4409,10 +4430,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="105" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -4421,8 +4442,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="106"/>
-      <c r="B46" s="99"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -4431,8 +4452,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="106"/>
-      <c r="B47" s="99"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -4441,8 +4462,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="B48" s="99"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -4451,10 +4472,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="100" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -8558,8 +8579,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="108"/>
-      <c r="B50" s="108"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -12663,8 +12684,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="108"/>
-      <c r="B51" s="108"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -16768,8 +16789,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="108"/>
-      <c r="B52" s="108"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -20873,12 +20894,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="108"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="111" t="s">
+      <c r="A53" s="100"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="104" t="s">
+      <c r="D53" s="98" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -24978,10 +24999,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="108"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="104"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="98"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29099,10 +29120,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="108" t="s">
+      <c r="B57" s="100" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29113,8 +29134,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="112"/>
-      <c r="B58" s="108"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29123,8 +29144,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="112"/>
-      <c r="B59" s="108"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="100"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29133,8 +29154,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="112"/>
-      <c r="B60" s="108"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29143,8 +29164,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="112"/>
-      <c r="B61" s="108"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="100"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29153,8 +29174,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="112"/>
-      <c r="B62" s="108"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29163,8 +29184,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="112"/>
-      <c r="B63" s="108"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29173,16 +29194,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="112"/>
-      <c r="B64" s="108"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="112"/>
-      <c r="B65" s="108"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="100"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29191,16 +29212,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="112"/>
-      <c r="B66" s="108"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="100"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="112"/>
-      <c r="B67" s="108"/>
+      <c r="A67" s="99"/>
+      <c r="B67" s="100"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -29209,8 +29230,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
-      <c r="B68" s="108"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -29219,8 +29240,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="112"/>
-      <c r="B69" s="108"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -29229,8 +29250,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="112"/>
-      <c r="B70" s="108"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="100"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -29239,8 +29260,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="112"/>
-      <c r="B71" s="108"/>
+      <c r="A71" s="99"/>
+      <c r="B71" s="100"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -29249,8 +29270,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="112"/>
-      <c r="B72" s="108"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -29259,16 +29280,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="112"/>
-      <c r="B73" s="108"/>
+      <c r="A73" s="99"/>
+      <c r="B73" s="100"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="108"/>
+      <c r="A74" s="99"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -29277,18 +29298,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="112"/>
-      <c r="B75" s="108"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="113" t="s">
+      <c r="A75" s="99"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="101" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="112"/>
-      <c r="B76" s="108"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="113"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="101"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -29312,8 +29333,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -29322,19 +29343,25 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="A49:A54"/>
@@ -29347,18 +29374,12 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -29367,10 +29388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:B72"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29403,593 +29424,580 @@
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="63" t="s">
+    <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>30</v>
+      <c r="C4" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="44"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="136"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>200</v>
-      </c>
+    <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="136"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="118"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="114"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="133" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="114"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="133"/>
+    <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="136"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="80"/>
       <c r="D8" s="49"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="114"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="80"/>
       <c r="D9" s="49"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="49"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="129"/>
+      <c r="D10" s="118" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="99" t="s">
+    <row r="11" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="137"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="118"/>
+    </row>
+    <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="137"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="118"/>
+    </row>
+    <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="138" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133" t="s">
-        <v>186</v>
+      <c r="C13" s="122"/>
+      <c r="D13" s="118" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="115"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-    </row>
-    <row r="13" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-    </row>
-    <row r="14" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="54" t="s">
-        <v>186</v>
-      </c>
+    <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="139"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="118"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="117"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="126"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="49"/>
     </row>
-    <row r="16" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="117"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="126"/>
+    <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="139"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="49"/>
     </row>
-    <row r="17" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="126"/>
+    <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="139"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="49"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="117"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="126"/>
+    <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="139"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="126"/>
+    <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="139"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="117"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="126"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="117"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="126"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="117"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="126"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="49"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="117"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="49"/>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="140"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="58" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="118"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="58" t="s">
-        <v>197</v>
+    <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
-        <v>188</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="79" t="s">
+        <v>165</v>
       </c>
       <c r="B25" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="64" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="58" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="58" t="s">
+      <c r="A28" s="134"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="70" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="120"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="74" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="134"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="70" t="s">
-        <v>194</v>
+      <c r="D29" s="126" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="120"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="128" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="129" t="s">
-        <v>205</v>
-      </c>
+      <c r="A30" s="134"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="127"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="120"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="130"/>
+    <row r="31" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="134"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="127"/>
     </row>
-    <row r="32" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="120"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="130"/>
+    <row r="32" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="134"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="127"/>
     </row>
-    <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="120"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="130"/>
+    <row r="33" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="134"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="127"/>
     </row>
-    <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="120"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="130"/>
+    <row r="34" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="134"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="127"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="120"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="130"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="128"/>
     </row>
-    <row r="36" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="121"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="131"/>
+    <row r="36" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="50" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="63" t="s">
+    <row r="37" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="44"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="44"/>
+      <c r="C38" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="75" t="s">
-        <v>196</v>
+      <c r="A39" s="107"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="100"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>189</v>
+      <c r="A40" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="116" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="134" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="136" t="s">
-        <v>197</v>
-      </c>
+      <c r="A41" s="103"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="117"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="106"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="137"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="120" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="106"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="134" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" s="139" t="s">
-        <v>189</v>
-      </c>
+      <c r="A43" s="104"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="121"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="107"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="140"/>
+      <c r="A44" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="58"/>
+      <c r="D44" s="47" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="122" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="47" t="s">
+      <c r="A45" s="131"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="123"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60" t="s">
-        <v>204</v>
-      </c>
+      <c r="A46" s="131"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="123"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="38"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="123"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="47"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="98"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="123"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="104"/>
+      <c r="A49" s="132"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="98"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="124"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="104"/>
+    <row r="50" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="44"/>
     </row>
-    <row r="51" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="44"/>
+    <row r="51" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="49" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="52" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="63" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="49" t="s">
-        <v>110</v>
+      <c r="C52" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="108" t="s">
-        <v>185</v>
-      </c>
+      <c r="A53" s="99"/>
+      <c r="B53" s="100"/>
       <c r="C53" s="58" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="112"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>189</v>
-      </c>
+      <c r="A54" s="99"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="58"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="112"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="58"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="62"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="112"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="62"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="47"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="112"/>
-      <c r="B57" s="108"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="58"/>
       <c r="D57" s="47"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="112"/>
-      <c r="B58" s="108"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="58"/>
       <c r="D58" s="47"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="112"/>
-      <c r="B59" s="108"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="100"/>
       <c r="C59" s="58"/>
       <c r="D59" s="47"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="112"/>
-      <c r="B60" s="108"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="58"/>
       <c r="D60" s="47"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="112"/>
-      <c r="B61" s="108"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="100"/>
       <c r="C61" s="58"/>
-      <c r="D61" s="47"/>
+      <c r="D61" s="46"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="112"/>
-      <c r="B62" s="108"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="58"/>
-      <c r="D62" s="46"/>
+      <c r="D62" s="62"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="112"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="58"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="62"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="112"/>
-      <c r="B64" s="108"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
+      <c r="D64" s="47"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="112"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="61"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="58"/>
       <c r="D65" s="47"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="112"/>
-      <c r="B66" s="108"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="100"/>
       <c r="C66" s="58"/>
       <c r="D66" s="47"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="112"/>
-      <c r="B67" s="108"/>
+      <c r="A67" s="99"/>
+      <c r="B67" s="100"/>
       <c r="C67" s="58"/>
       <c r="D67" s="47"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
-      <c r="B68" s="108"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="58"/>
-      <c r="D68" s="47"/>
+      <c r="D68" s="49"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="112"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="49"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="47"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="112"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="47"/>
+      <c r="A70" s="99"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="101"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="112"/>
-      <c r="B71" s="108"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="113"/>
+      <c r="A71" s="99"/>
+      <c r="B71" s="100"/>
+      <c r="D71" s="101"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="112"/>
-      <c r="B72" s="108"/>
-      <c r="D72" s="113"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="39" t="s">
+      <c r="A72" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="44"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C14:C24"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A53:A72"/>
-    <mergeCell ref="B53:B72"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="B14:B24"/>
+  <mergeCells count="32">
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="B52:B71"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -13,15 +13,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="229">
   <si>
     <t>Document</t>
   </si>
@@ -1669,56 +1669,6 @@
     <t>New RPN Request</t>
   </si>
   <si>
-    <r>
-      <t>add ‘</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>employment start date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>’ as an optional request field.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>New PRSI exemption option '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' added</t>
-    </r>
-  </si>
-  <si>
     <t>Submission Request Line Items</t>
   </si>
   <si>
@@ -1943,6 +1893,496 @@
         <scheme val="minor"/>
       </rPr>
       <t>format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>New PRSI exemption option '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' added                                                                                     Payslip requirement removed                                                                                               </t>
+    </r>
+  </si>
+  <si>
+    <t>Example 4.2</t>
+  </si>
+  <si>
+    <t>Example 5.2</t>
+  </si>
+  <si>
+    <t>Example 5.3</t>
+  </si>
+  <si>
+    <t>Example 5.9</t>
+  </si>
+  <si>
+    <t>Example 5.10</t>
+  </si>
+  <si>
+    <t>Example 9.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ppsn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' corrected</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employeePpsn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lineItemIDToDelete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' corrected to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lineItemIDsToDelete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newEmployeeDetails</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> element added</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>taxYear'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>totalRPNCount'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> removed from NewRPNResponse example</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lineItemIDToDelete'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> corrected to '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lineItemIDsToDelete'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pensionTracingNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' corrected to '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pensionTracingNumbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">incomeTacCalculationBasis' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corrected to '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>incomeTaxCalculationBasis'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pensionTracingNumber' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corrected format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uscPaidToDate'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> correct to '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USCDeductedToDate'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">yearlyUSCRateCutOff </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in taxRate property corrected to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yearlyRateCutOff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Added ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employment start date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’ as an optional request field.</t>
+    </r>
+  </si>
+  <si>
+    <t>REST Integration Guide</t>
+  </si>
+  <si>
+    <t>HTTP-Method-Override</t>
+  </si>
+  <si>
+    <t>Example clarified</t>
+  </si>
+  <si>
+    <t>Property description clarified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employeeIDs </t>
+  </si>
+  <si>
+    <r>
+      <t>add ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employmentStartDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’ as an optional request field.</t>
     </r>
   </si>
 </sst>
@@ -2528,7 +2968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2709,13 +3149,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2735,6 +3169,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2782,22 +3231,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2808,32 +3266,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2849,9 +3325,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2874,47 +3347,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3283,12 +3764,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3313,12 +3794,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3361,10 +3842,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B7" s="90">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3379,8 +3860,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3393,8 +3874,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3407,8 +3888,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -3421,8 +3902,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -3435,8 +3916,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="89"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -3449,10 +3930,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="90">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3467,8 +3948,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -3517,12 +3998,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3565,22 +4046,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="91">
+      <c r="B21" s="94">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -3595,8 +4076,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -3619,18 +4100,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="91">
+      <c r="B25" s="94">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -3645,8 +4126,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -3659,8 +4140,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="85"/>
-      <c r="B27" s="88"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -3673,8 +4154,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -3687,8 +4168,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -3701,8 +4182,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="85"/>
-      <c r="B30" s="88"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -3715,8 +4196,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="85"/>
-      <c r="B31" s="88"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -3729,8 +4210,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -3855,12 +4336,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -3920,7 +4401,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3930,7 +4411,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4040,10 +4521,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="102" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4054,8 +4535,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
-      <c r="B8" s="105"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4064,8 +4545,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4074,8 +4555,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4084,8 +4565,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
-      <c r="B11" s="105"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4094,8 +4575,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4104,10 +4585,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="102" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4118,8 +4599,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="105"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4128,8 +4609,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4138,10 +4619,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="111" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4152,8 +4633,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4162,8 +4643,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4172,8 +4653,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4182,8 +4663,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4192,8 +4673,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -4202,8 +4683,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
-      <c r="B22" s="100"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -4212,8 +4693,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
-      <c r="B23" s="100"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="68" t="s">
         <v>159</v>
       </c>
@@ -4222,26 +4703,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="109" t="s">
+      <c r="A24" s="99"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="100" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="102" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4252,8 +4733,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="106"/>
-      <c r="B27" s="105"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -4280,28 +4761,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="107" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="107"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="98"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="107"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="105"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -4310,8 +4791,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="107"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -4320,8 +4801,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107"/>
-      <c r="B34" s="105"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="69" t="s">
         <v>170</v>
       </c>
@@ -4330,8 +4811,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="107"/>
-      <c r="B35" s="105"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -4340,8 +4821,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
-      <c r="B36" s="105"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="69" t="s">
         <v>159</v>
       </c>
@@ -4350,26 +4831,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="107"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="111" t="s">
+      <c r="A37" s="103"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="113" t="s">
+      <c r="D37" s="106" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="107"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="113"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="106"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="102" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -4380,8 +4861,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="106"/>
-      <c r="B40" s="105"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -4408,10 +4889,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="102" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -4420,8 +4901,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="107"/>
-      <c r="B44" s="105"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -4430,10 +4911,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="102" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -4442,8 +4923,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="103"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -4452,8 +4933,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="103"/>
-      <c r="B47" s="105"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -4462,8 +4943,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="104"/>
-      <c r="B48" s="105"/>
+      <c r="A48" s="110"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -4472,10 +4953,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="100" t="s">
+      <c r="A49" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="111" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -8579,8 +9060,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="100"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -12684,8 +13165,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
-      <c r="B51" s="100"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -16789,8 +17270,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -20894,12 +21375,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="100"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="97" t="s">
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="98" t="s">
+      <c r="D53" s="107" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -24999,10 +25480,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="100"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="98"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="107"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29120,10 +29601,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="99" t="s">
+      <c r="A57" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="111" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29134,8 +29615,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="99"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29144,8 +29625,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="99"/>
-      <c r="B59" s="100"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29154,8 +29635,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="99"/>
-      <c r="B60" s="100"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29164,8 +29645,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="99"/>
-      <c r="B61" s="100"/>
+      <c r="A61" s="115"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29174,8 +29655,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="99"/>
-      <c r="B62" s="100"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="111"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29184,8 +29665,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="99"/>
-      <c r="B63" s="100"/>
+      <c r="A63" s="115"/>
+      <c r="B63" s="111"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29194,16 +29675,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="99"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="111"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="99"/>
-      <c r="B65" s="100"/>
+      <c r="A65" s="115"/>
+      <c r="B65" s="111"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29212,16 +29693,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="99"/>
-      <c r="B66" s="100"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="111"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="99"/>
-      <c r="B67" s="100"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="111"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -29230,8 +29711,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="99"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="111"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -29240,8 +29721,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="111"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -29250,8 +29731,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="99"/>
-      <c r="B70" s="100"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="111"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -29260,8 +29741,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="99"/>
-      <c r="B71" s="100"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="111"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -29270,8 +29751,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="99"/>
-      <c r="B72" s="100"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="111"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -29280,16 +29761,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="99"/>
-      <c r="B73" s="100"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="111"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="99"/>
-      <c r="B74" s="100"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="111"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -29298,18 +29779,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="99"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="101" t="s">
+      <c r="A75" s="115"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="116" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="99"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="101"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="113"/>
+      <c r="D76" s="116"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -29333,8 +29814,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -29343,13 +29824,31 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B16:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="A39:A40"/>
@@ -29362,24 +29861,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -29391,7 +29872,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="B38" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29425,175 +29906,171 @@
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="136" t="s">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="71" t="s">
-        <v>198</v>
+      <c r="C4" s="82" t="s">
+        <v>196</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="136"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="119" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="142" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="118" t="s">
-        <v>205</v>
+      <c r="D5" s="144" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="136"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="118"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="145"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="140"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="140"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="136"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="80"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="49"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
+    <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="118" t="s">
+      <c r="C10" s="126"/>
+      <c r="D10" s="144" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="137"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="118"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="149"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="137"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="118"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="145"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="118" t="s">
-        <v>206</v>
+      <c r="C13" s="133"/>
+      <c r="D13" s="130" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="139"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="118"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="130"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="139"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="123"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="139"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="123"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="139"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="123"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="139"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="123"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="139"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="123"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="139"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="123"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="139"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="123"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="139"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="123"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="140"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="124"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="58" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="76" t="s">
         <v>187</v>
       </c>
       <c r="B24" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="71" t="s">
         <v>190</v>
       </c>
       <c r="D24" s="54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="79" t="s">
+    <row r="25" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="77" t="s">
         <v>165</v>
       </c>
       <c r="B25" s="63" t="s">
@@ -29613,80 +30090,92 @@
       <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="133" t="s">
+      <c r="A27" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="83" t="s">
         <v>191</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="134"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="74" t="s">
+    <row r="28" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="121"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="72" t="s">
         <v>189</v>
       </c>
       <c r="D28" s="70" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="134"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="125" t="s">
+      <c r="A29" s="121"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="126" t="s">
-        <v>204</v>
+      <c r="D29" s="79" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="134"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="127"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="155" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="137" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="127"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="138"/>
     </row>
     <row r="32" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="134"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="127"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="79"/>
     </row>
     <row r="33" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="134"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="127"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="79"/>
     </row>
     <row r="34" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="134"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="127"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="79"/>
     </row>
-    <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="135"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="128"/>
+    <row r="35" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="80" t="s">
         <v>185</v>
       </c>
       <c r="C36" s="38"/>
@@ -29702,24 +30191,24 @@
       <c r="C37" s="39"/>
       <c r="D37" s="44"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="107" t="s">
+    <row r="38" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="75" t="s">
-        <v>195</v>
+      <c r="C38" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="73" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="107"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="72" t="s">
+    <row r="39" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="103"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="71" t="s">
         <v>190</v>
       </c>
       <c r="D39" s="52" t="s">
@@ -29727,84 +30216,84 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="116" t="s">
-        <v>196</v>
+      <c r="C40" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="128" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="117"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="129"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="114" t="s">
+      <c r="A42" s="109"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="120" t="s">
+      <c r="D42" s="131" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="104"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="121"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="132"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="130" t="s">
+      <c r="A44" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="100" t="s">
+      <c r="B44" s="111" t="s">
         <v>185</v>
       </c>
       <c r="C44" s="58"/>
       <c r="D44" s="47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="131"/>
-      <c r="B45" s="100"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="59"/>
       <c r="D45" s="60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="131"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="38"/>
       <c r="D46" s="47"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="131"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="58"/>
       <c r="D47" s="47"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="131"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="98"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="107"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="132"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="98"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="107"/>
     </row>
     <row r="50" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
@@ -29827,165 +30316,169 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="100" t="s">
+      <c r="B52" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="C52" s="58" t="s">
-        <v>200</v>
+      <c r="C52" s="83" t="s">
+        <v>198</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="99"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="58" t="s">
+      <c r="A53" s="115"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="83" t="s">
         <v>190</v>
       </c>
       <c r="D53" s="47" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="99"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="58"/>
+    <row r="54" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="115"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="152" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="99"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="62"/>
+    <row r="55" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="115"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="151" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="99"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="47"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="47" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="99"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="47"/>
+      <c r="A57" s="115"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="99"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="47"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="151" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="99"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="47"/>
+      <c r="A59" s="115"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="99"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="47"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="46" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="99"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="46"/>
+    <row r="61" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="115"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="151" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="99"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="62"/>
+    <row r="62" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="115"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="126" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="99"/>
-      <c r="B63" s="100"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="62"/>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="115"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="131" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="99"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="47"/>
+    <row r="64" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="115"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="153"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="99"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="47"/>
+    <row r="65" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="115"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="153"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="99"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="47"/>
+    <row r="66" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="115"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="132"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="99"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="47"/>
+    <row r="67" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="115"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="44"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="99"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="49"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="111"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="47"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="111"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="99"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="101"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="111"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="99"/>
-      <c r="B71" s="100"/>
-      <c r="D71" s="101"/>
+      <c r="A71" s="115"/>
+      <c r="B71" s="111"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="B52:B71"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D70:D71"/>
+  <mergeCells count="34">
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D40:D41"/>
@@ -29993,11 +30486,33 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A52:A71"/>
+    <mergeCell ref="B52:B71"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="229">
   <si>
     <t>Document</t>
   </si>
@@ -1716,32 +1716,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Add ‘</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>employment start date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>’ as an optional request field.</t>
-    </r>
-  </si>
-  <si>
     <t>Line Item</t>
   </si>
   <si>
@@ -2361,7 +2335,7 @@
   </si>
   <si>
     <r>
-      <t>add ‘</t>
+      <t>added ‘</t>
     </r>
     <r>
       <rPr>
@@ -2382,7 +2356,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>’ as an optional request field.</t>
+      <t>’ as an optional request field of newEmployeeDetails property</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Added ‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employment start date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>’ as an optional request field of NewEmployeeDetails property</t>
     </r>
   </si>
 </sst>
@@ -2510,7 +2510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2922,53 +2922,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3124,12 +3082,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3154,23 +3106,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3179,11 +3121,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3284,64 +3241,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3350,52 +3265,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3764,12 +3647,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3794,12 +3677,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3842,10 +3725,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="91">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3860,8 +3743,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="91"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3874,8 +3757,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="91"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3888,8 +3771,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="91"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -3902,8 +3785,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
-      <c r="B11" s="91"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -3916,8 +3799,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -3930,10 +3813,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B13" s="91">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3948,8 +3831,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="96"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -3998,12 +3881,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4046,22 +3929,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="94">
+      <c r="B21" s="95">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4076,8 +3959,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4100,18 +3983,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="94">
+      <c r="B25" s="95">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4126,8 +4009,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
-      <c r="B26" s="91"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4140,8 +4023,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="88"/>
-      <c r="B27" s="91"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4154,8 +4037,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="88"/>
-      <c r="B28" s="91"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4168,8 +4051,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4182,8 +4065,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
-      <c r="B30" s="91"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4196,8 +4079,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
-      <c r="B31" s="91"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4210,8 +4093,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4336,12 +4219,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4521,10 +4404,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="103" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4535,8 +4418,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4545,8 +4428,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4555,8 +4438,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4565,8 +4448,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="101"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4575,8 +4458,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4585,10 +4468,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="103" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4599,8 +4482,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4609,8 +4492,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4619,10 +4502,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4633,8 +4516,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4643,8 +4526,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4653,8 +4536,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4663,8 +4546,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4673,29 +4556,29 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="99"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="65" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="63" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="99"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="68" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="54" t="s">
@@ -4703,26 +4586,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="99" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="101" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="99"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="103" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4733,8 +4616,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="101"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -4761,28 +4644,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="108" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="103"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="107"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="108"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="103"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -4791,8 +4674,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="103"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -4801,18 +4684,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="103"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="69" t="s">
+      <c r="A34" s="104"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="70" t="s">
+      <c r="D34" s="68" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="103"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -4821,36 +4704,36 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="69" t="s">
+      <c r="A36" s="104"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="68" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="104" t="s">
+      <c r="A37" s="104"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="106" t="s">
+      <c r="D37" s="107" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="103"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="106"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="107"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="103" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -4861,8 +4744,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="101"/>
-      <c r="B40" s="102"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -4889,10 +4772,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="103" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -4901,8 +4784,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="103"/>
-      <c r="B44" s="102"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -4911,20 +4794,20 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="108" t="s">
+      <c r="A45" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="103" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="64" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="109"/>
-      <c r="B46" s="102"/>
+      <c r="A46" s="110"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -4933,8 +4816,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="109"/>
-      <c r="B47" s="102"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -4943,8 +4826,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="110"/>
-      <c r="B48" s="102"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -4953,10 +4836,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="111" t="s">
+      <c r="B49" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9060,8 +8943,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="112"/>
+      <c r="B50" s="112"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13165,8 +13048,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17270,8 +17153,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21375,12 +21258,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="114" t="s">
+      <c r="A53" s="112"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="107" t="s">
+      <c r="D53" s="108" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25480,10 +25363,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="107"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="108"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29601,10 +29484,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="111" t="s">
+      <c r="B57" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29615,8 +29498,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="112"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29625,8 +29508,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="115"/>
-      <c r="B59" s="111"/>
+      <c r="A59" s="116"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29635,8 +29518,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="115"/>
-      <c r="B60" s="111"/>
+      <c r="A60" s="116"/>
+      <c r="B60" s="112"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29645,8 +29528,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="115"/>
-      <c r="B61" s="111"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29655,8 +29538,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="115"/>
-      <c r="B62" s="111"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29665,8 +29548,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
-      <c r="B63" s="111"/>
+      <c r="A63" s="116"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29675,16 +29558,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="115"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="112"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="115"/>
-      <c r="B65" s="111"/>
+      <c r="A65" s="116"/>
+      <c r="B65" s="112"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29693,16 +29576,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
-      <c r="B66" s="111"/>
+      <c r="A66" s="116"/>
+      <c r="B66" s="112"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
-      <c r="B67" s="111"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="112"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -29711,8 +29594,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="115"/>
-      <c r="B68" s="111"/>
+      <c r="A68" s="116"/>
+      <c r="B68" s="112"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -29721,8 +29604,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
-      <c r="B69" s="111"/>
+      <c r="A69" s="116"/>
+      <c r="B69" s="112"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -29731,8 +29614,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="115"/>
-      <c r="B70" s="111"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="112"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -29741,8 +29624,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="115"/>
-      <c r="B71" s="111"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="112"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -29751,8 +29634,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="115"/>
-      <c r="B72" s="111"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="112"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -29761,16 +29644,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="115"/>
-      <c r="B73" s="111"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="112"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="115"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -29779,18 +29662,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="115"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="116" t="s">
+      <c r="A75" s="116"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="114"/>
+      <c r="D75" s="117" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="115"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="116"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="117"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -29869,10 +29752,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29906,7 +29789,7 @@
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="39"/>
@@ -29914,170 +29797,174 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>196</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="142" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="144" t="s">
-        <v>203</v>
+      <c r="D5" s="120" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="145"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="120"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
-      <c r="B7" s="140"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
-      <c r="B8" s="140"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="78"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="144" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="120" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="149"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="148"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="145"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="130" t="s">
-        <v>204</v>
+      <c r="C13" s="122"/>
+      <c r="D13" s="120" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="130"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="120"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="134"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="134"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="118"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="134"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="134"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="118"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="134"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="118"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="134"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="134"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="122"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="118"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="134"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="119"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="135"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="122"/>
       <c r="D23" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="78" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="74" t="s">
         <v>185</v>
       </c>
       <c r="C25" s="38"/>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="73" t="s">
         <v>166</v>
       </c>
     </row>
@@ -30090,92 +29977,92 @@
       <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="139" t="s">
+      <c r="B27" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="79" t="s">
         <v>191</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="121"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="72" t="s">
+      <c r="A28" s="104"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="70" t="s">
-        <v>205</v>
+      <c r="D28" s="68" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="121"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="83" t="s">
+      <c r="A29" s="104"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="79" t="s">
-        <v>202</v>
+      <c r="D29" s="76" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="121"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="155" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="137" t="s">
+      <c r="A30" s="104"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="123" t="s">
         <v>226</v>
+      </c>
+      <c r="D30" s="108" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="122"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="138"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="108"/>
     </row>
     <row r="32" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="79"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="76"/>
     </row>
     <row r="33" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="79"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="79"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="76"/>
     </row>
     <row r="35" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="B35" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="83" t="s">
+      <c r="D35" s="76" t="s">
         <v>224</v>
-      </c>
-      <c r="D35" s="79" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="74" t="s">
         <v>185</v>
       </c>
       <c r="C36" s="38"/>
@@ -30192,23 +30079,23 @@
       <c r="D37" s="44"/>
     </row>
     <row r="38" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="103" t="s">
+      <c r="A38" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="82" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="103"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="71" t="s">
+      <c r="A39" s="104"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="69" t="s">
         <v>190</v>
       </c>
       <c r="D39" s="52" t="s">
@@ -30216,84 +30103,84 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="126" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="128" t="s">
+      <c r="C40" s="119" t="s">
         <v>194</v>
+      </c>
+      <c r="D40" s="100" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="129"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="100"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="126" t="s">
+      <c r="A42" s="102"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="131" t="s">
+      <c r="D42" s="117" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="110"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="132"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="117"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="123" t="s">
+    <row r="44" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="47" t="s">
-        <v>200</v>
+      <c r="C44" s="126"/>
+      <c r="D44" s="130" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="124"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60" t="s">
-        <v>201</v>
+      <c r="A45" s="116"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="124" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="124"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="47"/>
+    <row r="46" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="116"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="129"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="124"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="47"/>
+    <row r="47" spans="1:4" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="116"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="129"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="124"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="107"/>
+    <row r="48" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="116"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="129"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="107"/>
+    <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="116"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="125"/>
     </row>
     <row r="50" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
@@ -30307,7 +30194,7 @@
       <c r="A51" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="74" t="s">
         <v>185</v>
       </c>
       <c r="C51" s="38"/>
@@ -30316,23 +30203,23 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="111" t="s">
+      <c r="B52" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="47" t="s">
         <v>198</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="115"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="83" t="s">
+      <c r="A53" s="112"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="79" t="s">
         <v>190</v>
       </c>
       <c r="D53" s="47" t="s">
@@ -30340,148 +30227,169 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="115"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="152" t="s">
-        <v>213</v>
+      <c r="A54" s="112"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="81" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="115"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="136" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" s="151" t="s">
-        <v>212</v>
+      <c r="A55" s="112"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="115"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="136"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="115"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="83" t="s">
-        <v>210</v>
+      <c r="A57" s="112"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="79" t="s">
+        <v>209</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="151" t="s">
-        <v>216</v>
+      <c r="A58" s="112"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="80" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="115"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="136" t="s">
-        <v>208</v>
+      <c r="A59" s="112"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="118" t="s">
+        <v>207</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="115"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="136"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="115"/>
-      <c r="B61" s="111"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="151" t="s">
-        <v>219</v>
+      <c r="A61" s="112"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="80" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="115"/>
-      <c r="B62" s="111"/>
-      <c r="C62" s="126" t="s">
-        <v>207</v>
+      <c r="A62" s="112"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="119" t="s">
+        <v>206</v>
       </c>
       <c r="D62" s="45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="112"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="117" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="150"/>
-      <c r="D63" s="131" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="115"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="153"/>
+      <c r="A64" s="112"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="117"/>
     </row>
     <row r="65" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="115"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="153"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="117"/>
     </row>
     <row r="66" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="132"/>
+      <c r="A66" s="112"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="117"/>
     </row>
     <row r="67" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
-      <c r="B67" s="111"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="39"/>
       <c r="D67" s="44"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="115"/>
-      <c r="B68" s="111"/>
+      <c r="A68" s="83"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
-      <c r="B69" s="111"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="115"/>
-      <c r="B70" s="111"/>
+      <c r="A70" s="83"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="115"/>
-      <c r="B71" s="111"/>
+      <c r="A71" s="83"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="39"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D40:D41"/>
+  <mergeCells count="35">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D42:D43"/>
@@ -30491,16 +30399,20 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="A52:A66"/>
+    <mergeCell ref="B52:B66"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C44:C47"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="B44:B49"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A52:A71"/>
-    <mergeCell ref="B52:B71"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D63:D66"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A40:A43"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="234">
   <si>
     <t>Document</t>
   </si>
@@ -2385,12 +2385,28 @@
       <t>’ as an optional request field of NewEmployeeDetails property</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Additional information added in relation to digest algorithms used for ‘Digest’ HTTP header.
+</t>
+  </si>
+  <si>
+    <t>Section 4.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOAP Web Service Integration Guide </t>
+  </si>
+  <si>
+    <t>4.2.2 Timestamp</t>
+  </si>
+  <si>
+    <t>Added "maximum time" line</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2485,6 +2501,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3D3C40"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2926,7 +2949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3118,9 +3141,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3140,6 +3160,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3241,25 +3291,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3274,11 +3330,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3647,12 +3712,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3677,12 +3742,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="87"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3725,10 +3790,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="100">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3743,8 +3808,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3757,8 +3822,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3771,8 +3836,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -3785,8 +3850,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -3799,8 +3864,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="90"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -3813,10 +3878,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="100">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3831,8 +3896,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -3881,12 +3946,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3929,22 +3994,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="95">
+      <c r="B21" s="104">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -3959,8 +4024,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -3983,18 +4048,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="95">
+      <c r="B25" s="104">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4009,8 +4074,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="92"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4088,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="92"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4037,8 +4102,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
-      <c r="B28" s="92"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4051,8 +4116,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="89"/>
-      <c r="B29" s="92"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4065,8 +4130,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="89"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4079,8 +4144,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="89"/>
-      <c r="B31" s="92"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4093,8 +4158,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="90"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4219,12 +4284,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="96"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4404,10 +4469,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4418,8 +4483,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4428,8 +4493,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4438,8 +4503,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4448,8 +4513,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4458,8 +4523,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="102"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4468,10 +4533,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4482,8 +4547,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4492,8 +4557,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
-      <c r="B15" s="103"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4502,10 +4567,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="121" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4516,8 +4581,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
-      <c r="B17" s="112"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4526,8 +4591,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
-      <c r="B18" s="112"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4536,8 +4601,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4546,8 +4611,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4556,8 +4621,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -4566,8 +4631,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -4576,8 +4641,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -4586,26 +4651,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="100"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="100" t="s">
+      <c r="A24" s="109"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="110" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="100"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4616,8 +4681,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102"/>
-      <c r="B27" s="103"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -4644,28 +4709,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="117" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="104"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="108"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="117"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="104"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -4674,8 +4739,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="104"/>
-      <c r="B33" s="103"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -4684,8 +4749,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="104"/>
-      <c r="B34" s="103"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -4694,8 +4759,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="104"/>
-      <c r="B35" s="103"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -4704,8 +4769,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104"/>
-      <c r="B36" s="103"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -4714,26 +4779,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="104"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="105" t="s">
+      <c r="A37" s="113"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="107" t="s">
+      <c r="D37" s="116" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="107"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="102" t="s">
+      <c r="A39" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -4744,8 +4809,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="102"/>
-      <c r="B40" s="103"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -4772,10 +4837,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -4784,8 +4849,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="104"/>
-      <c r="B44" s="103"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -4794,10 +4859,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="112" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -4806,8 +4871,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="110"/>
-      <c r="B46" s="103"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="112"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -4816,8 +4881,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="110"/>
-      <c r="B47" s="103"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -4826,8 +4891,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="111"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -4836,10 +4901,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="121" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -8943,8 +9008,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="112"/>
-      <c r="B50" s="112"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13048,8 +13113,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="112"/>
-      <c r="B51" s="112"/>
+      <c r="A51" s="121"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17153,8 +17218,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
-      <c r="B52" s="112"/>
+      <c r="A52" s="121"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21258,12 +21323,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="112"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="115" t="s">
+      <c r="A53" s="121"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="108" t="s">
+      <c r="D53" s="117" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25363,10 +25428,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="112"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="108"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="117"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29484,10 +29549,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="116" t="s">
+      <c r="A57" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="112" t="s">
+      <c r="B57" s="121" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29498,8 +29563,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="116"/>
-      <c r="B58" s="112"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="121"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29508,8 +29573,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="116"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="121"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29518,8 +29583,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="116"/>
-      <c r="B60" s="112"/>
+      <c r="A60" s="125"/>
+      <c r="B60" s="121"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29528,8 +29593,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="116"/>
-      <c r="B61" s="112"/>
+      <c r="A61" s="125"/>
+      <c r="B61" s="121"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29538,8 +29603,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="116"/>
-      <c r="B62" s="112"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="121"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29548,8 +29613,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="116"/>
-      <c r="B63" s="112"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="121"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29558,16 +29623,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="116"/>
-      <c r="B64" s="112"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="121"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="116"/>
-      <c r="B65" s="112"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="121"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29576,16 +29641,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="116"/>
-      <c r="B66" s="112"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="121"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="116"/>
-      <c r="B67" s="112"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -29594,8 +29659,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="116"/>
-      <c r="B68" s="112"/>
+      <c r="A68" s="125"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -29604,8 +29669,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="116"/>
-      <c r="B69" s="112"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="121"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -29614,8 +29679,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="116"/>
-      <c r="B70" s="112"/>
+      <c r="A70" s="125"/>
+      <c r="B70" s="121"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -29624,8 +29689,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="116"/>
-      <c r="B71" s="112"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="121"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -29634,8 +29699,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="116"/>
-      <c r="B72" s="112"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="121"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -29644,16 +29709,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="116"/>
-      <c r="B73" s="112"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="121"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="116"/>
-      <c r="B74" s="112"/>
+      <c r="A74" s="125"/>
+      <c r="B74" s="121"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -29662,18 +29727,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="116"/>
-      <c r="B75" s="112"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="117" t="s">
+      <c r="A75" s="125"/>
+      <c r="B75" s="121"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="126" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="116"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="117"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="121"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="126"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -29752,10 +29817,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29797,10 +29862,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="112" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -29811,133 +29876,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="121" t="s">
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="142" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="141" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="141"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120" t="s">
+      <c r="C10" s="133"/>
+      <c r="D10" s="141" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="141"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="141"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="120" t="s">
+      <c r="C13" s="143"/>
+      <c r="D13" s="141" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="120"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="141"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="100"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="122"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="143"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="122"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="122"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="122"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="122"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="122"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="122"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="122"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="122"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -29952,423 +30017,435 @@
       <c r="C24" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="77" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B26" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="73" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="73" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+    <row r="27" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
     </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="104" t="s">
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B28" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C28" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D28" s="58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="104"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="70" t="s">
+    <row r="29" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="85"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D29" s="68" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="76" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="123" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="85"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D31" s="86" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="104"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="108"/>
+    <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="127" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="130" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="76"/>
+    <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="128"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="75"/>
     </row>
-    <row r="33" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="76"/>
+    <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="128"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="75"/>
     </row>
-    <row r="34" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="75"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="76"/>
+    <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="128"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="75"/>
     </row>
-    <row r="35" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" s="74" t="s">
+    <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="129"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="D35" s="76" t="s">
-        <v>224</v>
+      <c r="C37" s="38"/>
+      <c r="D37" s="50" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="74" t="s">
+    <row r="38" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="44"/>
+    </row>
+    <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="50" t="s">
-        <v>79</v>
+      <c r="C39" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="81" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="44"/>
-    </row>
-    <row r="38" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="103" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="82" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="69" t="s">
+    <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="113"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D40" s="52" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="103" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="119" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="100" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="102"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="100"/>
+      <c r="A41" s="111" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="133" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="109" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="102"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="117" t="s">
-        <v>188</v>
-      </c>
+      <c r="A42" s="111"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="109"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="102"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="117"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="133" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="126" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="116" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="111"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="126"/>
+    </row>
+    <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="112" t="s">
+      <c r="B45" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="126"/>
-      <c r="D44" s="130" t="s">
+      <c r="C45" s="137"/>
+      <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="116"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="124" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="125"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="134" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="116"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="129"/>
+    <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="125"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="135"/>
     </row>
-    <row r="47" spans="1:4" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="116"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="129"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="116"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="129"/>
+    <row r="48" spans="1:4" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="125"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="135"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="116"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="125"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="135"/>
     </row>
-    <row r="50" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39" t="s">
+    <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="125"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="136"/>
+    </row>
+    <row r="51" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="44"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="44"/>
     </row>
-    <row r="51" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="s">
+    <row r="52" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B52" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="49" t="s">
+      <c r="C52" s="38"/>
+      <c r="D52" s="49" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="112" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="C52" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="112"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="79" t="s">
+      <c r="A53" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="121"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D54" s="47" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="112"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="79" t="s">
+    <row r="55" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="121"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="81" t="s">
+      <c r="D55" s="80" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="112"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="118" t="s">
+    <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="121"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="D55" s="80" t="s">
+      <c r="D56" s="79" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="112"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="47" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="112"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>214</v>
+      <c r="A57" s="121"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="47" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="112"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="79" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="80" t="s">
-        <v>215</v>
+      <c r="A58" s="121"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="112"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>216</v>
+      <c r="A59" s="121"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="112"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="118"/>
+      <c r="A60" s="121"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="140" t="s">
+        <v>207</v>
+      </c>
       <c r="D60" s="46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="121"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="112"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="80" t="s">
+    <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="121"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="112"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="119" t="s">
+    <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="121"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D63" s="45" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="112"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="117" t="s">
+    <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="121"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="126" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="112"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="117"/>
+    <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="121"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="126"/>
     </row>
-    <row r="65" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="112"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="117"/>
+    <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="121"/>
+      <c r="B66" s="121"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="126"/>
     </row>
-    <row r="66" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="112"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="117"/>
+    <row r="67" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="121"/>
+      <c r="B67" s="121"/>
+      <c r="C67" s="133"/>
+      <c r="D67" s="126"/>
     </row>
-    <row r="67" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="44"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="83"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+    <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="44"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="83"/>
-      <c r="B69" s="84"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="83"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="83"/>
-      <c r="B70" s="84"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="83"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="83"/>
-      <c r="B71" s="84"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="83"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="83"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
@@ -30382,43 +30459,47 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="33">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="A52:A66"/>
-    <mergeCell ref="B52:B66"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="B53:B67"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A10:A12"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -13,9 +13,9 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3183,14 +3183,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3238,19 +3241,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3261,53 +3294,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3333,17 +3327,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3712,12 +3712,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3742,12 +3742,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3790,10 +3790,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="101">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3808,8 +3808,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3822,8 +3822,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="101"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3836,8 +3836,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -3850,8 +3850,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
-      <c r="B11" s="101"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -3864,8 +3864,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -3878,10 +3878,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="100">
+      <c r="B13" s="101">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3896,8 +3896,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -3946,12 +3946,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3994,22 +3994,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="104">
+      <c r="B21" s="105">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4024,8 +4024,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4048,18 +4048,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="104">
+      <c r="B25" s="105">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4074,8 +4074,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4088,8 +4088,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
-      <c r="B27" s="101"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4102,8 +4102,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
-      <c r="B28" s="101"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4116,8 +4116,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
-      <c r="B29" s="101"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4130,8 +4130,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
-      <c r="B30" s="101"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4144,8 +4144,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
-      <c r="B31" s="101"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4158,8 +4158,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="99"/>
-      <c r="B32" s="102"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4284,12 +4284,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4349,7 +4349,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4359,7 +4359,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4469,10 +4469,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="119" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4483,8 +4483,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4493,8 +4493,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4503,8 +4503,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4513,8 +4513,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4523,8 +4523,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="A13" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="119" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4548,7 +4548,7 @@
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
-      <c r="B14" s="112"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="122"/>
-      <c r="B15" s="112"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4567,10 +4567,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="114" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4581,8 +4581,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4591,8 +4591,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
-      <c r="B18" s="121"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4601,8 +4601,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
-      <c r="B19" s="121"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4611,8 +4611,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
-      <c r="B20" s="121"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4621,8 +4621,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -4631,8 +4631,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -4641,8 +4641,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -4651,26 +4651,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="109" t="s">
+      <c r="A24" s="123"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="119" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4681,8 +4681,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -4709,28 +4709,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="113" t="s">
+      <c r="A30" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="112" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="113"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="117"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="112"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="113"/>
-      <c r="B32" s="112"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -4739,8 +4739,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="113"/>
-      <c r="B33" s="112"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -4749,8 +4749,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="113"/>
-      <c r="B34" s="112"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -4759,8 +4759,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="113"/>
-      <c r="B35" s="112"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -4769,8 +4769,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="113"/>
-      <c r="B36" s="112"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -4779,26 +4779,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="113"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="114" t="s">
+      <c r="A37" s="121"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="127" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="113"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="116"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="127"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="119" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -4809,8 +4809,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="111"/>
-      <c r="B40" s="112"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -4837,10 +4837,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="113" t="s">
+      <c r="A43" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="112" t="s">
+      <c r="B43" s="119" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -4849,8 +4849,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="113"/>
-      <c r="B44" s="112"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -4859,10 +4859,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="119" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -4871,8 +4871,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="119"/>
-      <c r="B46" s="112"/>
+      <c r="A46" s="117"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -4881,8 +4881,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="119"/>
-      <c r="B47" s="112"/>
+      <c r="A47" s="117"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -4891,8 +4891,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="120"/>
-      <c r="B48" s="112"/>
+      <c r="A48" s="118"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -4901,10 +4901,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="121" t="s">
+      <c r="B49" s="114" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9008,8 +9008,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="121"/>
-      <c r="B50" s="121"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="114"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13113,8 +13113,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="121"/>
-      <c r="B51" s="121"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="114"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17218,8 +17218,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="121"/>
-      <c r="B52" s="121"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="114"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21323,12 +21323,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="121"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="124" t="s">
+      <c r="A53" s="114"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="117" t="s">
+      <c r="D53" s="112" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25428,10 +25428,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="121"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="117"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="112"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29549,10 +29549,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="125" t="s">
+      <c r="A57" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="121" t="s">
+      <c r="B57" s="114" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29563,8 +29563,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="125"/>
-      <c r="B58" s="121"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="114"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29573,8 +29573,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="125"/>
-      <c r="B59" s="121"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="114"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29583,8 +29583,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="125"/>
-      <c r="B60" s="121"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29593,8 +29593,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="125"/>
-      <c r="B61" s="121"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29603,8 +29603,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="125"/>
-      <c r="B62" s="121"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29613,8 +29613,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="125"/>
-      <c r="B63" s="121"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="114"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29623,16 +29623,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="125"/>
-      <c r="B64" s="121"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="114"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="125"/>
-      <c r="B65" s="121"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="114"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29641,16 +29641,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="125"/>
-      <c r="B66" s="121"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="114"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="125"/>
-      <c r="B67" s="121"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="114"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -29659,8 +29659,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="125"/>
-      <c r="B68" s="121"/>
+      <c r="A68" s="113"/>
+      <c r="B68" s="114"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -29669,8 +29669,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="125"/>
-      <c r="B69" s="121"/>
+      <c r="A69" s="113"/>
+      <c r="B69" s="114"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -29679,8 +29679,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="125"/>
-      <c r="B70" s="121"/>
+      <c r="A70" s="113"/>
+      <c r="B70" s="114"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -29689,8 +29689,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="125"/>
-      <c r="B71" s="121"/>
+      <c r="A71" s="113"/>
+      <c r="B71" s="114"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -29699,8 +29699,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="125"/>
-      <c r="B72" s="121"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="114"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -29709,16 +29709,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="125"/>
-      <c r="B73" s="121"/>
+      <c r="A73" s="113"/>
+      <c r="B73" s="114"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="125"/>
-      <c r="B74" s="121"/>
+      <c r="A74" s="113"/>
+      <c r="B74" s="114"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -29727,18 +29727,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="125"/>
-      <c r="B75" s="121"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="126" t="s">
+      <c r="A75" s="113"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="115" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="125"/>
-      <c r="B76" s="121"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="126"/>
+      <c r="A76" s="113"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="115"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -29762,8 +29762,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -29772,19 +29772,25 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="A49:A54"/>
@@ -29797,18 +29803,12 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -29820,7 +29820,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29862,10 +29862,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="119" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -29876,36 +29876,36 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="142" t="s">
+      <c r="A5" s="120"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="128" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="111"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="141"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="128"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
@@ -29913,96 +29913,96 @@
       <c r="A10" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="141" t="s">
+      <c r="C10" s="131"/>
+      <c r="D10" s="128" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="122"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="141"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="128"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="122"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="141"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="128"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="141" t="s">
+      <c r="C13" s="130"/>
+      <c r="D13" s="128" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="109"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="141"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="128"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="109"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="143"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="109"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="143"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="130"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="143"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="130"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="143"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="143"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="143"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="130"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="143"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="130"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="143"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="143"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="130"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30021,17 +30021,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="67" t="s">
         <v>233</v>
       </c>
     </row>
@@ -30100,13 +30100,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="139" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="91" t="s">
         <v>230</v>
       </c>
       <c r="D32" s="87" t="s">
@@ -30114,26 +30114,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="128"/>
-      <c r="B33" s="131"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="143"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="128"/>
-      <c r="B34" s="131"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="128"/>
-      <c r="B35" s="131"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="129"/>
-      <c r="B36" s="132"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30162,10 +30162,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="119" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30176,8 +30176,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="113"/>
-      <c r="B40" s="112"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30186,84 +30186,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="119" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="133" t="s">
+      <c r="C41" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="123" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="109"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="123"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="111"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="133" t="s">
+      <c r="A43" s="120"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="126" t="s">
+      <c r="D43" s="115" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="111"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="126"/>
+      <c r="A44" s="120"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="115"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="125" t="s">
+      <c r="A45" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="137"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="125"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="134" t="s">
+      <c r="A46" s="113"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="132" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="125"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="135"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="133"/>
     </row>
     <row r="48" spans="1:4" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="125"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="135"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="133"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="135"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="133"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="125"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="136"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="134"/>
     </row>
     <row r="51" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30286,10 +30286,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="121" t="s">
+      <c r="A53" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="121" t="s">
+      <c r="B53" s="114" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30300,8 +30300,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="121"/>
-      <c r="B54" s="121"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30310,8 +30310,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="121"/>
-      <c r="B55" s="121"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30320,9 +30320,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="121"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="140" t="s">
+      <c r="A56" s="114"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="138" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -30330,16 +30330,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="121"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="140"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="138"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="121"/>
-      <c r="B58" s="121"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="114"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30348,8 +30348,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="121"/>
-      <c r="B59" s="121"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="114"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30358,9 +30358,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="121"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="140" t="s">
+      <c r="A60" s="114"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="138" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -30368,25 +30368,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="121"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="140"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="138"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="121"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="140"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="138"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="121"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="133" t="s">
+      <c r="A63" s="114"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="131" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -30394,30 +30394,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="121"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="133"/>
-      <c r="D64" s="126" t="s">
+      <c r="A64" s="114"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="115" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="121"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="133"/>
-      <c r="D65" s="126"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="115"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="121"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="133"/>
-      <c r="D66" s="126"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="115"/>
     </row>
     <row r="67" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="121"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="133"/>
-      <c r="D67" s="126"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="131"/>
+      <c r="D67" s="115"/>
     </row>
     <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
@@ -30473,13 +30473,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30493,19 +30499,13 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7656" yWindow="288" windowWidth="15384" windowHeight="10008" activeTab="2"/>
+    <workbookView xWindow="7656" yWindow="288" windowWidth="15384" windowHeight="10008" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
     <sheet name="v1.0 Milestone 1" sheetId="2" r:id="rId2"/>
     <sheet name="v1.0Milestone 2" sheetId="3" r:id="rId3"/>
+    <sheet name="1.0 Release Candidate 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="257">
   <si>
     <t>Document</t>
   </si>
@@ -2401,12 +2402,106 @@
   <si>
     <t>Added "maximum time" line</t>
   </si>
+  <si>
+    <t>1.0 Release Candidate 2</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>All Enums capitalised to match REST API</t>
+  </si>
+  <si>
+    <t>Returns Schema</t>
+  </si>
+  <si>
+    <t>Reflect addition of returns to schema</t>
+  </si>
+  <si>
+    <t>REST API</t>
+  </si>
+  <si>
+    <t>Updated with Return and Reconciliation</t>
+  </si>
+  <si>
+    <t>Reflects changes to the REST API</t>
+  </si>
+  <si>
+    <t>4.1.3</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>Additional information added in relation to Content-Type for POST requests.</t>
+  </si>
+  <si>
+    <t>HTTP request example Content-Type value changed from  ‘application/json;charset=UTF-8‘ to application/x-www-form-urlencoded</t>
+  </si>
+  <si>
+    <t>Returns Reconciliation Service Data Items</t>
+  </si>
+  <si>
+    <t>LookupPayrollReturnByPeriodRequest</t>
+  </si>
+  <si>
+    <t>Section added</t>
+  </si>
+  <si>
+    <t>Section 10 added</t>
+  </si>
+  <si>
+    <t>New section addded for Returns and Reconciliation examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYE Web Service Examples </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PIT Self Service and ROS Payroll Reporting
+</t>
+  </si>
+  <si>
+    <t>Upload Examples</t>
+  </si>
+  <si>
+    <t>Request Header</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Updated date pattern on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">employmentStartDate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be a date and not a datetime</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2508,6 +2603,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3D3C40"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2949,7 +3051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3195,6 +3297,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3241,22 +3358,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3267,41 +3393,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3327,23 +3453,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3712,12 +3856,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3742,12 +3886,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3790,10 +3934,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="106">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3808,8 +3952,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3822,8 +3966,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
-      <c r="B9" s="102"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3836,8 +3980,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -3850,8 +3994,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -3864,8 +4008,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -3878,10 +4022,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="101">
+      <c r="B13" s="106">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3896,8 +4040,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -3946,12 +4090,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3994,22 +4138,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="105">
+      <c r="B21" s="110">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4024,8 +4168,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
-      <c r="B22" s="103"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4048,18 +4192,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="105">
+      <c r="B25" s="110">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4074,8 +4218,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4088,8 +4232,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4102,8 +4246,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4116,8 +4260,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4130,8 +4274,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4144,8 +4288,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="99"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4158,8 +4302,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="108"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4284,12 +4428,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4349,7 +4493,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4359,7 +4503,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4390,7 +4534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -4469,10 +4613,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="118" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4483,8 +4627,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4493,8 +4637,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="119"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4503,8 +4647,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="119"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4513,8 +4657,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4523,8 +4667,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4533,10 +4677,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="118" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4547,8 +4691,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="119"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4557,8 +4701,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122"/>
-      <c r="B15" s="119"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4567,10 +4711,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="127" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4581,8 +4725,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="123"/>
-      <c r="B17" s="114"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4591,8 +4735,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="123"/>
-      <c r="B18" s="114"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4601,8 +4745,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="114"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4611,8 +4755,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="123"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4621,8 +4765,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
-      <c r="B21" s="114"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -4631,8 +4775,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="114"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -4641,8 +4785,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="123"/>
-      <c r="B23" s="114"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -4651,26 +4795,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="123"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="123" t="s">
+      <c r="A24" s="115"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="123"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="116"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="118" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4681,8 +4825,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="120"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="118"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -4709,28 +4853,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="112" t="s">
+      <c r="D30" s="123" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="121"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="112"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="123"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="121"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -4739,8 +4883,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="121"/>
-      <c r="B33" s="119"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -4749,8 +4893,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="121"/>
-      <c r="B34" s="119"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -4759,8 +4903,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="121"/>
-      <c r="B35" s="119"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -4769,8 +4913,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="121"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="118"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -4779,26 +4923,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="121"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="125" t="s">
+      <c r="A37" s="119"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="127" t="s">
+      <c r="D37" s="122" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="121"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="127"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="122"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="119" t="s">
+      <c r="B39" s="118" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -4809,8 +4953,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="120"/>
-      <c r="B40" s="119"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -4837,10 +4981,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="119" t="s">
+      <c r="B43" s="118" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -4849,8 +4993,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="121"/>
-      <c r="B44" s="119"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -4859,10 +5003,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="116" t="s">
+      <c r="A45" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="119" t="s">
+      <c r="B45" s="118" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -4871,8 +5015,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="117"/>
-      <c r="B46" s="119"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -4881,8 +5025,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="117"/>
-      <c r="B47" s="119"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="118"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -4891,8 +5035,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="118"/>
-      <c r="B48" s="119"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="118"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -4901,10 +5045,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="127" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9008,8 +9152,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="114"/>
-      <c r="B50" s="114"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13113,8 +13257,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="114"/>
-      <c r="B51" s="114"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17218,8 +17362,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="114"/>
-      <c r="B52" s="114"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21323,12 +21467,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="114"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="111" t="s">
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="112" t="s">
+      <c r="D53" s="123" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25428,10 +25572,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="114"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="112"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="123"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29549,10 +29693,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="127" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29563,8 +29707,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="113"/>
-      <c r="B58" s="114"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29573,8 +29717,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="113"/>
-      <c r="B59" s="114"/>
+      <c r="A59" s="131"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29583,8 +29727,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="113"/>
-      <c r="B60" s="114"/>
+      <c r="A60" s="131"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29593,8 +29737,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="113"/>
-      <c r="B61" s="114"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29603,8 +29747,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="113"/>
-      <c r="B62" s="114"/>
+      <c r="A62" s="131"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29613,8 +29757,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="113"/>
-      <c r="B63" s="114"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="127"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29623,16 +29767,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="113"/>
-      <c r="B64" s="114"/>
+      <c r="A64" s="131"/>
+      <c r="B64" s="127"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="113"/>
-      <c r="B65" s="114"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29641,16 +29785,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="113"/>
-      <c r="B66" s="114"/>
+      <c r="A66" s="131"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="113"/>
-      <c r="B67" s="114"/>
+      <c r="A67" s="131"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -29659,8 +29803,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="113"/>
-      <c r="B68" s="114"/>
+      <c r="A68" s="131"/>
+      <c r="B68" s="127"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -29669,8 +29813,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="113"/>
-      <c r="B69" s="114"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -29679,8 +29823,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="113"/>
-      <c r="B70" s="114"/>
+      <c r="A70" s="131"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -29689,8 +29833,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="113"/>
-      <c r="B71" s="114"/>
+      <c r="A71" s="131"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -29699,8 +29843,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="113"/>
-      <c r="B72" s="114"/>
+      <c r="A72" s="131"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -29709,16 +29853,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="113"/>
-      <c r="B73" s="114"/>
+      <c r="A73" s="131"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="113"/>
-      <c r="B74" s="114"/>
+      <c r="A74" s="131"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -29727,18 +29871,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="113"/>
-      <c r="B75" s="114"/>
-      <c r="C75" s="110"/>
-      <c r="D75" s="115" t="s">
+      <c r="A75" s="131"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="132" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="113"/>
-      <c r="B76" s="114"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="115"/>
+      <c r="A76" s="131"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="132"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -29762,8 +29906,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -29772,13 +29916,31 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B16:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="A39:A40"/>
@@ -29791,24 +29953,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -29819,8 +29963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29862,10 +30006,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="118" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -29876,133 +30020,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="129" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="147" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="128"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="147"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
-      <c r="B7" s="119"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="119"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="128" t="s">
+      <c r="C10" s="139"/>
+      <c r="D10" s="147" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="122"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="128"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="147"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="122"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="128"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="147"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="128" t="s">
+      <c r="C13" s="149"/>
+      <c r="D13" s="147" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="128"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="147"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="123"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="130"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="149"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="130"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="123"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="130"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="123"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="130"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="130"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="149"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="123"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="130"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="149"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="123"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="130"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="130"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="149"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="123"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="130"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30100,10 +30244,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="139" t="s">
+      <c r="A32" s="133" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="136" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30114,26 +30258,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
-      <c r="B33" s="143"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="140"/>
-      <c r="B34" s="143"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
-      <c r="B35" s="143"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="141"/>
-      <c r="B36" s="144"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30162,10 +30306,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="119" t="s">
+      <c r="B39" s="118" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30176,8 +30320,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="121"/>
-      <c r="B40" s="119"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30186,84 +30330,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="120" t="s">
+      <c r="A41" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="131" t="s">
+      <c r="C41" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="123" t="s">
+      <c r="D41" s="115" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="120"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="123"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="115"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="120"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="131" t="s">
+      <c r="A43" s="117"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="115" t="s">
+      <c r="D43" s="132" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="120"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="115"/>
+      <c r="A44" s="117"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="132"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="113" t="s">
+      <c r="A45" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="135"/>
+      <c r="C45" s="143"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="113"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="132" t="s">
+      <c r="A46" s="131"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="140" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="113"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="133"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="141"/>
     </row>
     <row r="48" spans="1:4" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="113"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="133"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="141"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="113"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="133"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="141"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="113"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="134"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="142"/>
     </row>
     <row r="51" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30286,10 +30430,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="127" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30300,8 +30444,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="114"/>
-      <c r="B54" s="114"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30310,8 +30454,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="114"/>
-      <c r="B55" s="114"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30320,9 +30464,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="114"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="138" t="s">
+      <c r="A56" s="127"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="146" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -30330,16 +30474,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="114"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="138"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="146"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="114"/>
-      <c r="B58" s="114"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30348,8 +30492,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="114"/>
-      <c r="B59" s="114"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30358,9 +30502,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="114"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="138" t="s">
+      <c r="A60" s="127"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="146" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -30368,25 +30512,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="114"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="138"/>
+      <c r="A61" s="127"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="146"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="114"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="138"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="146"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="114"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="131" t="s">
+      <c r="A63" s="127"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="139" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -30394,30 +30538,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="114"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="115" t="s">
+      <c r="A64" s="127"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="132" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="114"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="115"/>
+      <c r="A65" s="127"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="132"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="114"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="131"/>
-      <c r="D66" s="115"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="132"/>
     </row>
     <row r="67" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="114"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="131"/>
-      <c r="D67" s="115"/>
+      <c r="A67" s="127"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="132"/>
     </row>
     <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
@@ -30473,19 +30617,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30499,13 +30637,285 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="146" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="120" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="151"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="121"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="151"/>
+      <c r="C5" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="152"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="159" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="160"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="58" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="146" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="153" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="146"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="155" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="44"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="154" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="115" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="99">
+        <v>10.1</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="115"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="99">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="156" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="44"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="157" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7656" yWindow="288" windowWidth="15384" windowHeight="10008" activeTab="3"/>
+    <workbookView xWindow="7650" yWindow="285" windowWidth="15390" windowHeight="10005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2412,16 +2412,7 @@
     <t>All Enums capitalised to match REST API</t>
   </si>
   <si>
-    <t>Returns Schema</t>
-  </si>
-  <si>
-    <t>Reflect addition of returns to schema</t>
-  </si>
-  <si>
     <t>REST API</t>
-  </si>
-  <si>
-    <t>Updated with Return and Reconciliation</t>
   </si>
   <si>
     <t>Reflects changes to the REST API</t>
@@ -2449,9 +2440,6 @@
   </si>
   <si>
     <t>Section 10 added</t>
-  </si>
-  <si>
-    <t>New section addded for Returns and Reconciliation examples</t>
   </si>
   <si>
     <t xml:space="preserve">PAYE Web Service Examples </t>
@@ -2495,6 +2483,18 @@
       </rPr>
       <t>to be a date and not a datetime</t>
     </r>
+  </si>
+  <si>
+    <t>New section addded for Returns Reconciliation examples</t>
+  </si>
+  <si>
+    <t>Reflect addition of Returns Reconciliation to schema</t>
+  </si>
+  <si>
+    <t>Updated with Returns Reconciliation</t>
+  </si>
+  <si>
+    <t>Returns Reconciliation Schema</t>
   </si>
 </sst>
 </file>
@@ -3312,6 +3312,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3358,19 +3370,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3381,53 +3423,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3453,14 +3456,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3471,18 +3483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3829,15 +3829,15 @@
       <selection activeCell="A25" sqref="A25:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3855,13 +3855,13 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3885,19 +3885,19 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>34</v>
       </c>
@@ -3933,11 +3933,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7" s="112">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3951,9 +3951,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="107"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="110"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3965,9 +3965,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="107"/>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="110"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3979,9 +3979,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="107"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="110"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -3993,9 +3993,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="104"/>
-      <c r="B11" s="107"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="110"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -4007,9 +4007,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
-      <c r="B12" s="108"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="111"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -4021,11 +4021,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="112">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4039,9 +4039,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
-      <c r="B14" s="108"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="118"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>44</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>45</v>
       </c>
@@ -4089,19 +4089,19 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -4137,23 +4137,23 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="113" t="s">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="110">
+      <c r="B21" s="116">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4167,9 +4167,9 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="114"/>
-      <c r="B22" s="108"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="120"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>32</v>
       </c>
@@ -4191,19 +4191,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="109" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="110">
+      <c r="B25" s="116">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4217,9 +4217,9 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
-      <c r="B26" s="107"/>
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="110"/>
+      <c r="B26" s="113"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4231,9 +4231,9 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="104"/>
-      <c r="B27" s="107"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="110"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4245,9 +4245,9 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="104"/>
-      <c r="B28" s="107"/>
+    <row r="28" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="110"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4259,9 +4259,9 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="107"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4273,9 +4273,9 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="107"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="110"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4287,9 +4287,9 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="104"/>
-      <c r="B31" s="107"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="110"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4301,9 +4301,9 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="105"/>
-      <c r="B32" s="108"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="111"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4315,7 +4315,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>48</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>49</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>51</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>52</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>53</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>46</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>47</v>
       </c>
@@ -4427,15 +4427,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="100" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="108"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>59</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>60</v>
       </c>
@@ -4493,7 +4493,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4503,7 +4503,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4538,15 +4538,15 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>81</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>82</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>78</v>
       </c>
@@ -4612,11 +4612,11 @@
       <c r="C6" s="39"/>
       <c r="D6" s="44"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+    <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4626,9 +4626,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="131"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4636,9 +4636,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="131"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4646,9 +4646,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="131"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4656,9 +4656,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="117"/>
-      <c r="B11" s="118"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="131"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4666,9 +4666,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="117"/>
-      <c r="B12" s="118"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="131"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4676,11 +4676,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="128" t="s">
+    <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4690,9 +4690,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
-      <c r="B14" s="118"/>
+    <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="133"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4700,9 +4700,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="128"/>
-      <c r="B15" s="118"/>
+    <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="133"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4710,11 +4710,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115" t="s">
+    <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4724,9 +4724,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="127"/>
+    <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="134"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4734,9 +4734,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="127"/>
+    <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="134"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4744,9 +4744,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="127"/>
+    <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="134"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4754,9 +4754,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="127"/>
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="134"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4764,9 +4764,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
-      <c r="B21" s="127"/>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="134"/>
+      <c r="B21" s="125"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -4774,9 +4774,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
-      <c r="B22" s="127"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="134"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -4784,9 +4784,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
-      <c r="B23" s="127"/>
+    <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="134"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -4794,27 +4794,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="115" t="s">
+    <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="134"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="135" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="115"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
+    <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="134"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135"/>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117" t="s">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4824,15 +4824,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
-      <c r="B27" s="118"/>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="131"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>165</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -4852,29 +4852,29 @@
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="119" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="134" t="s">
         <v>169</v>
       </c>
       <c r="D30" s="123" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="119"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="115"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="132"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="123"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="119"/>
-      <c r="B32" s="118"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="132"/>
+      <c r="B32" s="130"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -4882,9 +4882,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="119"/>
-      <c r="B33" s="118"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="132"/>
+      <c r="B33" s="130"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -4892,9 +4892,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="119"/>
-      <c r="B34" s="118"/>
+    <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="132"/>
+      <c r="B34" s="130"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -4902,9 +4902,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="119"/>
-      <c r="B35" s="118"/>
+    <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="132"/>
+      <c r="B35" s="130"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -4912,9 +4912,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="119"/>
-      <c r="B36" s="118"/>
+    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="132"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -4922,27 +4922,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="119"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="120" t="s">
+    <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="132"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="122" t="s">
+      <c r="D37" s="138" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="119"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="122"/>
+    <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="132"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="138"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="117" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -4952,15 +4952,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
-      <c r="B40" s="118"/>
+    <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="131"/>
+      <c r="B40" s="130"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>27</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>29</v>
       </c>
@@ -4980,11 +4980,11 @@
       <c r="C42" s="39"/>
       <c r="D42" s="44"/>
     </row>
-    <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="119" t="s">
+    <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -4992,9 +4992,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="119"/>
-      <c r="B44" s="118"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="132"/>
+      <c r="B44" s="130"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5002,11 +5002,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="124" t="s">
+    <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5014,9 +5014,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="125"/>
-      <c r="B46" s="118"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="128"/>
+      <c r="B46" s="130"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5024,9 +5024,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="125"/>
-      <c r="B47" s="118"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="128"/>
+      <c r="B47" s="130"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5034,9 +5034,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="126"/>
-      <c r="B48" s="118"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="129"/>
+      <c r="B48" s="130"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5044,11 +5044,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="127" t="s">
+    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A49" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="127" t="s">
+      <c r="B49" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9151,9 +9151,9 @@
       <c r="XEZ49" s="42"/>
       <c r="XFD49" s="42"/>
     </row>
-    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="127"/>
-      <c r="B50" s="127"/>
+    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="125"/>
+      <c r="B50" s="125"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13256,9 +13256,9 @@
       <c r="XEZ50" s="42"/>
       <c r="XFD50" s="42"/>
     </row>
-    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="127"/>
-      <c r="B51" s="127"/>
+    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A51" s="125"/>
+      <c r="B51" s="125"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17361,9 +17361,9 @@
       <c r="XEZ51" s="42"/>
       <c r="XFD51" s="42"/>
     </row>
-    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="127"/>
-      <c r="B52" s="127"/>
+    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A52" s="125"/>
+      <c r="B52" s="125"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21466,10 +21466,10 @@
       <c r="XEZ52" s="42"/>
       <c r="XFD52" s="42"/>
     </row>
-    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="127"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="130" t="s">
+    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A53" s="125"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="122" t="s">
         <v>109</v>
       </c>
       <c r="D53" s="123" t="s">
@@ -25571,10 +25571,10 @@
       <c r="XEZ53" s="42"/>
       <c r="XFD53" s="42"/>
     </row>
-    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="127"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="130"/>
+    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="125"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="122"/>
       <c r="D54" s="123"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
@@ -29672,7 +29672,7 @@
       <c r="XEZ54" s="42"/>
       <c r="XFD54" s="42"/>
     </row>
-    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>40</v>
       </c>
@@ -29680,7 +29680,7 @@
       <c r="C55" s="39"/>
       <c r="D55" s="44"/>
     </row>
-    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>83</v>
       </c>
@@ -29692,11 +29692,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="131" t="s">
+    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A57" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="127" t="s">
+      <c r="B57" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29706,9 +29706,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="131"/>
-      <c r="B58" s="127"/>
+    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="124"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29716,9 +29716,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="131"/>
-      <c r="B59" s="127"/>
+    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A59" s="124"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29726,9 +29726,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="131"/>
-      <c r="B60" s="127"/>
+    <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="124"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29736,9 +29736,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="131"/>
-      <c r="B61" s="127"/>
+    <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A61" s="124"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29746,9 +29746,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="131"/>
-      <c r="B62" s="127"/>
+    <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A62" s="124"/>
+      <c r="B62" s="125"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29756,9 +29756,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="131"/>
-      <c r="B63" s="127"/>
+    <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A63" s="124"/>
+      <c r="B63" s="125"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29766,17 +29766,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="131"/>
-      <c r="B64" s="127"/>
+    <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A64" s="124"/>
+      <c r="B64" s="125"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="131"/>
-      <c r="B65" s="127"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="124"/>
+      <c r="B65" s="125"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29784,17 +29784,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="131"/>
-      <c r="B66" s="127"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="124"/>
+      <c r="B66" s="125"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="131"/>
-      <c r="B67" s="127"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="124"/>
+      <c r="B67" s="125"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -29802,9 +29802,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="131"/>
-      <c r="B68" s="127"/>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="124"/>
+      <c r="B68" s="125"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -29812,9 +29812,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="131"/>
-      <c r="B69" s="127"/>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="124"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -29822,9 +29822,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="131"/>
-      <c r="B70" s="127"/>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="124"/>
+      <c r="B70" s="125"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -29832,9 +29832,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="131"/>
-      <c r="B71" s="127"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="124"/>
+      <c r="B71" s="125"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -29842,9 +29842,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="131"/>
-      <c r="B72" s="127"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="124"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -29852,17 +29852,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="131"/>
-      <c r="B73" s="127"/>
+    <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="124"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="131"/>
-      <c r="B74" s="127"/>
+    <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="124"/>
+      <c r="B74" s="125"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -29870,21 +29870,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="131"/>
-      <c r="B75" s="127"/>
-      <c r="C75" s="129"/>
-      <c r="D75" s="132" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="124"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="121"/>
+      <c r="D75" s="126" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="131"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="129"/>
-      <c r="D76" s="132"/>
+    <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="124"/>
+      <c r="B76" s="125"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="126"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
         <v>56</v>
       </c>
@@ -29892,13 +29892,13 @@
       <c r="C77" s="39"/>
       <c r="D77" s="44"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
       <c r="B78" s="40"/>
       <c r="C78" s="38"/>
       <c r="D78" s="50"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
       <c r="B79" s="40"/>
       <c r="C79" s="38"/>
@@ -29906,8 +29906,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -29916,19 +29916,25 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="A49:A54"/>
@@ -29941,18 +29947,12 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -29967,15 +29967,15 @@
       <selection activeCell="A53" sqref="A53:A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -29989,7 +29989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
@@ -30005,11 +30005,11 @@
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="130" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30019,134 +30019,134 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="148" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="131"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="147" t="s">
+      <c r="D5" s="139" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="147"/>
+    <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="131"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="139"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
+    <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="131"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
+    <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="131"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118"/>
+    <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="131"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="128" t="s">
+    <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="147" t="s">
+      <c r="C10" s="142"/>
+      <c r="D10" s="139" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="128"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="147"/>
+    <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="133"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="139"/>
     </row>
-    <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="128"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="147"/>
+    <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="133"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="139"/>
     </row>
-    <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="115" t="s">
+    <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="147" t="s">
+      <c r="C13" s="141"/>
+      <c r="D13" s="139" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="147"/>
+    <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="134"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="139"/>
     </row>
-    <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="149"/>
+    <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="134"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="141"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="149"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="141"/>
       <c r="D16" s="49"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="149"/>
+    <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="134"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="141"/>
       <c r="D17" s="49"/>
     </row>
-    <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="149"/>
+    <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="134"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="149"/>
+    <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="134"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="49"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="149"/>
+    <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="134"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="141"/>
       <c r="D20" s="49"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="149"/>
+    <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="134"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="141"/>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="115"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="149"/>
+    <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="134"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="141"/>
       <c r="D22" s="49"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="115"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="149"/>
+    <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="134"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30165,7 +30165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="s">
         <v>231</v>
       </c>
@@ -30179,7 +30179,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>165</v>
       </c>
@@ -30199,7 +30199,7 @@
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="85" t="s">
         <v>26</v>
       </c>
@@ -30223,7 +30223,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
       <c r="B30" s="84"/>
       <c r="C30" s="88" t="s">
@@ -30233,7 +30233,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
       <c r="B31" s="84"/>
       <c r="C31" s="89" t="s">
@@ -30243,11 +30243,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="133" t="s">
+    <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="150" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="153" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30257,27 +30257,27 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="134"/>
-      <c r="B33" s="137"/>
+    <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="151"/>
+      <c r="B33" s="154"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="134"/>
-      <c r="B34" s="137"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="154"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
-    <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="134"/>
-      <c r="B35" s="137"/>
+    <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="151"/>
+      <c r="B35" s="154"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
-    <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="135"/>
-      <c r="B36" s="138"/>
+    <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="152"/>
+      <c r="B36" s="155"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30305,11 +30305,11 @@
       <c r="C38" s="39"/>
       <c r="D38" s="44"/>
     </row>
-    <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="119" t="s">
+    <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="130" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30319,9 +30319,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="119"/>
-      <c r="B40" s="118"/>
+    <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="132"/>
+      <c r="B40" s="130"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30329,87 +30329,87 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="117" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="139" t="s">
+      <c r="C41" s="142" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="115" t="s">
+      <c r="D41" s="134" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="117"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="115"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="131"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="134"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="139" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="131"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="142" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="132" t="s">
+      <c r="D43" s="126" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="132"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="131"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="126"/>
     </row>
-    <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="131" t="s">
+    <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="127" t="s">
+      <c r="B45" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="143"/>
+      <c r="C45" s="146"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="131"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="140" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="124"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="143" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="131"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="141"/>
+    <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="124"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="144"/>
     </row>
-    <row r="48" spans="1:4" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="131"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="141"/>
+    <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="124"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="144"/>
     </row>
-    <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="131"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="141"/>
+    <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="124"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="144"/>
     </row>
-    <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="131"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="142"/>
+    <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="124"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="145"/>
     </row>
-    <row r="51" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>40</v>
       </c>
@@ -30429,11 +30429,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="127" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="125" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30443,9 +30443,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="127"/>
-      <c r="B54" s="127"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="125"/>
+      <c r="B54" s="125"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30453,9 +30453,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="127"/>
-      <c r="B55" s="127"/>
+    <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="125"/>
+      <c r="B55" s="125"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30463,27 +30463,27 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="127"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="146" t="s">
+    <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="125"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="149" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="127"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="146"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="125"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="149"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="127"/>
-      <c r="B58" s="127"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="125"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30491,9 +30491,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="127"/>
-      <c r="B59" s="127"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="125"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30501,129 +30501,135 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="127"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="146" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="125"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="149" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="127"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="146"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="125"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="149"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="127"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="146"/>
+    <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="125"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="149"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="127"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="139" t="s">
+    <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="125"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="142" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="127"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="139"/>
-      <c r="D64" s="132" t="s">
+    <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="125"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="126" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="127"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="132"/>
+    <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="125"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="126"/>
     </row>
-    <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="127"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="132"/>
+    <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="125"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="126"/>
     </row>
-    <row r="67" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="127"/>
-      <c r="B67" s="127"/>
-      <c r="C67" s="139"/>
-      <c r="D67" s="132"/>
+    <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="125"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="126"/>
     </row>
-    <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="44"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
       <c r="B69" s="83"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" s="82"/>
       <c r="B70" s="83"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="82"/>
       <c r="B71" s="83"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" s="82"/>
       <c r="B72" s="83"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30637,19 +30643,13 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30661,18 +30661,18 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="46.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -30694,33 +30694,33 @@
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="156" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="149" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="136" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="121"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="137"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="151"/>
+        <v>256</v>
+      </c>
+      <c r="B5" s="157"/>
       <c r="C5" s="99" t="s">
         <v>22</v>
       </c>
@@ -30728,14 +30728,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="152"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="58"/>
       <c r="D6" s="98" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -30746,26 +30746,26 @@
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="159" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="146" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="149" t="s">
         <v>234</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="160"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="158"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="58" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
         <v>27</v>
       </c>
@@ -30774,31 +30774,31 @@
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="149" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="149" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="100" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="146" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="155" t="s">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="149"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="61" t="s">
         <v>242</v>
-      </c>
-      <c r="D11" s="153" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="146"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="155" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30809,9 +30809,9 @@
       <c r="C13" s="39"/>
       <c r="D13" s="44"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="95" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" s="95" t="s">
         <v>234</v>
@@ -30823,21 +30823,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="96" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="154" t="s">
-        <v>247</v>
+      <c r="C15" s="101" t="s">
+        <v>244</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>40</v>
       </c>
@@ -30845,7 +30845,7 @@
       <c r="C16" s="39"/>
       <c r="D16" s="44"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
         <v>84</v>
       </c>
@@ -30853,17 +30853,17 @@
         <v>234</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="146" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="149" t="s">
         <v>234</v>
       </c>
       <c r="C18" s="99">
@@ -30873,9 +30873,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="146"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="134"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -30884,38 +30884,38 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="156" t="s">
-        <v>252</v>
+      <c r="A20" s="103" t="s">
+        <v>248</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="44"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="58" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B21" s="99" t="s">
         <v>234</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="157" t="s">
-        <v>255</v>
+        <v>250</v>
+      </c>
+      <c r="D21" s="104" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PMOD_Documentation\paye-employers-documentation\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="285" windowWidth="15390" windowHeight="10005" activeTab="3"/>
+    <workbookView xWindow="7656" yWindow="288" windowWidth="15396" windowHeight="10008" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -14,15 +19,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="263">
   <si>
     <t>Document</t>
   </si>
@@ -2488,19 +2493,118 @@
     <t>New section addded for Returns Reconciliation examples</t>
   </si>
   <si>
-    <t>Reflect addition of Returns Reconciliation to schema</t>
-  </si>
-  <si>
     <t>Updated with Returns Reconciliation</t>
   </si>
   <si>
     <t>Returns Reconciliation Schema</t>
   </si>
+  <si>
+    <t xml:space="preserve">All Enums capitalised to match REST API </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EmployeeASC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>property added</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EmployeeASC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>property added to payslip object</t>
+    </r>
+  </si>
+  <si>
+    <t>Reflect addition of Returns Reconciliation to schema and new payslip property</t>
+  </si>
+  <si>
+    <t>Payroll Submission: Data Items</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>payslip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' changed to '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>submission item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>Payroll Scenario Examples</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2635,7 +2739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3047,11 +3151,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3300,9 +3433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3323,7 +3453,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3370,22 +3508,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3396,41 +3543,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3456,38 +3603,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3531,6 +3690,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3579,7 +3741,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3612,9 +3774,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3647,6 +3826,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3829,15 +4025,15 @@
       <selection activeCell="A25" sqref="A25:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3855,19 +4051,19 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
@@ -3885,19 +4081,19 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
@@ -3915,7 +4111,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>34</v>
       </c>
@@ -3933,11 +4129,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="113">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3951,9 +4147,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="113"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="111"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3965,9 +4161,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="113"/>
+    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="111"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3979,9 +4175,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="113"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="111"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -3993,9 +4189,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="113"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="111"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -4007,9 +4203,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="114"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="112"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -4021,11 +4217,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="117" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="112">
+      <c r="B13" s="113">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4039,9 +4235,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
-      <c r="B14" s="114"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="119"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -4053,7 +4249,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>44</v>
       </c>
@@ -4071,7 +4267,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>45</v>
       </c>
@@ -4089,19 +4285,19 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -4119,7 +4315,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -4137,23 +4333,23 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="106" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="116">
+      <c r="B21" s="117">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4167,9 +4363,9 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="114"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="121"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4177,7 +4373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>32</v>
       </c>
@@ -4191,19 +4387,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="106" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="115" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="116">
+      <c r="B25" s="117">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4217,9 +4413,9 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="113"/>
+    <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="111"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4231,9 +4427,9 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="113"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="111"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4245,9 +4441,9 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="110"/>
-      <c r="B28" s="113"/>
+    <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="111"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4259,9 +4455,9 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="113"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="111"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4273,9 +4469,9 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="113"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="111"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4287,9 +4483,9 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="110"/>
-      <c r="B31" s="113"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="111"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4301,9 +4497,9 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="111"/>
-      <c r="B32" s="114"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="112"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4315,7 +4511,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>48</v>
       </c>
@@ -4329,7 +4525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>49</v>
       </c>
@@ -4343,7 +4539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
@@ -4357,7 +4553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>51</v>
       </c>
@@ -4371,7 +4567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>52</v>
       </c>
@@ -4385,7 +4581,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>53</v>
       </c>
@@ -4399,7 +4595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>46</v>
       </c>
@@ -4413,7 +4609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>47</v>
       </c>
@@ -4427,15 +4623,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="106" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="109"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
@@ -4449,7 +4645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -4463,7 +4659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>59</v>
       </c>
@@ -4477,7 +4673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>60</v>
       </c>
@@ -4493,7 +4689,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4503,7 +4699,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4534,19 +4730,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
@@ -4568,7 +4764,7 @@
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>81</v>
       </c>
@@ -4580,7 +4776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>82</v>
       </c>
@@ -4592,7 +4788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>78</v>
       </c>
@@ -4612,11 +4808,11 @@
       <c r="C6" s="39"/>
       <c r="D6" s="44"/>
     </row>
-    <row r="7" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
+    <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4626,9 +4822,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="131"/>
-      <c r="B8" s="130"/>
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="124"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4636,9 +4832,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="131"/>
-      <c r="B9" s="130"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="124"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4646,9 +4842,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="131"/>
-      <c r="B10" s="130"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="124"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4656,9 +4852,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="130"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="124"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4666,9 +4862,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="131"/>
-      <c r="B12" s="130"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="124"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4676,11 +4872,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="133" t="s">
+    <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4690,9 +4886,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
-      <c r="B14" s="130"/>
+    <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="135"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4700,9 +4896,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="130"/>
+    <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="135"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4710,11 +4906,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+    <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4724,9 +4920,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="125"/>
+    <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="122"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4734,9 +4930,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="125"/>
+    <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="122"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4744,9 +4940,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="125"/>
+    <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="122"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4754,9 +4950,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="125"/>
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="122"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4764,9 +4960,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="125"/>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="122"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -4774,9 +4970,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="125"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="122"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -4784,9 +4980,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="125"/>
+    <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="122"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -4794,27 +4990,27 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="134"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="134" t="s">
+    <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="122"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
+    <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="122"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4824,15 +5020,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="131"/>
-      <c r="B27" s="130"/>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="124"/>
+      <c r="B27" s="125"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>165</v>
       </c>
@@ -4844,7 +5040,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
@@ -4852,29 +5048,29 @@
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="132" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="130" t="s">
+      <c r="B30" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="134" t="s">
+      <c r="C30" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="130" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="132"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="123"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="126"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="130"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
-      <c r="B32" s="130"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="126"/>
+      <c r="B32" s="125"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -4882,9 +5078,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
-      <c r="B33" s="130"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="126"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -4892,9 +5088,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
-      <c r="B34" s="130"/>
+    <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="126"/>
+      <c r="B34" s="125"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -4902,9 +5098,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
-      <c r="B35" s="130"/>
+    <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="126"/>
+      <c r="B35" s="125"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -4912,9 +5108,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="130"/>
+    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="126"/>
+      <c r="B36" s="125"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -4922,27 +5118,27 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="136" t="s">
+    <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="126"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="138" t="s">
+      <c r="D37" s="129" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
-      <c r="B38" s="130"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="138"/>
+    <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="126"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="129"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="131" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -4952,15 +5148,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="131"/>
-      <c r="B40" s="130"/>
+    <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="124"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>27</v>
       </c>
@@ -4972,7 +5168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>29</v>
       </c>
@@ -4980,11 +5176,11 @@
       <c r="C42" s="39"/>
       <c r="D42" s="44"/>
     </row>
-    <row r="43" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="132" t="s">
+    <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -4992,9 +5188,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="132"/>
-      <c r="B44" s="130"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="126"/>
+      <c r="B44" s="125"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5002,11 +5198,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="127" t="s">
+    <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="125" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5014,9 +5210,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="128"/>
-      <c r="B46" s="130"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="132"/>
+      <c r="B46" s="125"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5024,9 +5220,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="128"/>
-      <c r="B47" s="130"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="132"/>
+      <c r="B47" s="125"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5034,9 +5230,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="129"/>
-      <c r="B48" s="130"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="133"/>
+      <c r="B48" s="125"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5044,11 +5240,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A49" s="125" t="s">
+    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A49" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="125" t="s">
+      <c r="B49" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9151,9 +9347,9 @@
       <c r="XEZ49" s="42"/>
       <c r="XFD49" s="42"/>
     </row>
-    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="125"/>
-      <c r="B50" s="125"/>
+    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="134"/>
+      <c r="B50" s="134"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13256,9 +13452,9 @@
       <c r="XEZ50" s="42"/>
       <c r="XFD50" s="42"/>
     </row>
-    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A51" s="125"/>
-      <c r="B51" s="125"/>
+    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A51" s="134"/>
+      <c r="B51" s="134"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17361,9 +17557,9 @@
       <c r="XEZ51" s="42"/>
       <c r="XFD51" s="42"/>
     </row>
-    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A52" s="125"/>
-      <c r="B52" s="125"/>
+    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A52" s="134"/>
+      <c r="B52" s="134"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21466,13 +21662,13 @@
       <c r="XEZ52" s="42"/>
       <c r="XFD52" s="42"/>
     </row>
-    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A53" s="125"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="122" t="s">
+    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A53" s="134"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="123" t="s">
+      <c r="D53" s="130" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25571,11 +25767,11 @@
       <c r="XEZ53" s="42"/>
       <c r="XFD53" s="42"/>
     </row>
-    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="125"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="123"/>
+    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="134"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="130"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29672,7 +29868,7 @@
       <c r="XEZ54" s="42"/>
       <c r="XFD54" s="42"/>
     </row>
-    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>40</v>
       </c>
@@ -29680,7 +29876,7 @@
       <c r="C55" s="39"/>
       <c r="D55" s="44"/>
     </row>
-    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>83</v>
       </c>
@@ -29692,11 +29888,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A57" s="124" t="s">
+    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A57" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="125" t="s">
+      <c r="B57" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29706,9 +29902,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="124"/>
-      <c r="B58" s="125"/>
+    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="138"/>
+      <c r="B58" s="134"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29716,9 +29912,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A59" s="124"/>
-      <c r="B59" s="125"/>
+    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A59" s="138"/>
+      <c r="B59" s="134"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29726,9 +29922,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="124"/>
-      <c r="B60" s="125"/>
+    <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="138"/>
+      <c r="B60" s="134"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29736,9 +29932,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A61" s="124"/>
-      <c r="B61" s="125"/>
+    <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A61" s="138"/>
+      <c r="B61" s="134"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29746,9 +29942,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A62" s="124"/>
-      <c r="B62" s="125"/>
+    <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A62" s="138"/>
+      <c r="B62" s="134"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29756,9 +29952,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A63" s="124"/>
-      <c r="B63" s="125"/>
+    <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A63" s="138"/>
+      <c r="B63" s="134"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29766,17 +29962,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A64" s="124"/>
-      <c r="B64" s="125"/>
+    <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A64" s="138"/>
+      <c r="B64" s="134"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="124"/>
-      <c r="B65" s="125"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="138"/>
+      <c r="B65" s="134"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29784,17 +29980,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="124"/>
-      <c r="B66" s="125"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="138"/>
+      <c r="B66" s="134"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="124"/>
-      <c r="B67" s="125"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="138"/>
+      <c r="B67" s="134"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -29802,9 +29998,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="124"/>
-      <c r="B68" s="125"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="138"/>
+      <c r="B68" s="134"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -29812,9 +30008,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="124"/>
-      <c r="B69" s="125"/>
+    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="138"/>
+      <c r="B69" s="134"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -29822,9 +30018,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="124"/>
-      <c r="B70" s="125"/>
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="138"/>
+      <c r="B70" s="134"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -29832,9 +30028,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="124"/>
-      <c r="B71" s="125"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="138"/>
+      <c r="B71" s="134"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -29842,9 +30038,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="124"/>
-      <c r="B72" s="125"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="138"/>
+      <c r="B72" s="134"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -29852,17 +30048,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="124"/>
-      <c r="B73" s="125"/>
+    <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="138"/>
+      <c r="B73" s="134"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="124"/>
-      <c r="B74" s="125"/>
+    <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="138"/>
+      <c r="B74" s="134"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -29870,21 +30066,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="124"/>
-      <c r="B75" s="125"/>
-      <c r="C75" s="121"/>
-      <c r="D75" s="126" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="138"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="139" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="124"/>
-      <c r="B76" s="125"/>
-      <c r="C76" s="121"/>
-      <c r="D76" s="126"/>
+    <row r="76" spans="1:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="138"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="136"/>
+      <c r="D76" s="139"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
         <v>56</v>
       </c>
@@ -29892,13 +30088,13 @@
       <c r="C77" s="39"/>
       <c r="D77" s="44"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="40"/>
       <c r="C78" s="38"/>
       <c r="D78" s="50"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="48"/>
       <c r="B79" s="40"/>
       <c r="C79" s="38"/>
@@ -29906,8 +30102,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -29916,13 +30112,31 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B16:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="A39:A40"/>
@@ -29935,24 +30149,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -29967,15 +30163,15 @@
       <selection activeCell="A53" sqref="A53:A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="80.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -29989,7 +30185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
@@ -30005,11 +30201,11 @@
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="125" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30019,134 +30215,134 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="140" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="154" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="139"/>
+    <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="154"/>
     </row>
-    <row r="7" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
-      <c r="B7" s="130"/>
+    <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="124"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
-    <row r="8" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="130"/>
+    <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="124"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
-    <row r="9" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="131"/>
-      <c r="B9" s="130"/>
+    <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="124"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
-    <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+    <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="139" t="s">
+      <c r="C10" s="146"/>
+      <c r="D10" s="154" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="139"/>
+    <row r="11" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="135"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="154"/>
     </row>
-    <row r="12" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="139"/>
+    <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="135"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="154"/>
     </row>
-    <row r="13" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134" t="s">
+    <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="139" t="s">
+      <c r="C13" s="156"/>
+      <c r="D13" s="154" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="139"/>
+    <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="122"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="154"/>
     </row>
-    <row r="15" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="134"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="141"/>
+    <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="122"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="156"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="134"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="141"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="156"/>
       <c r="D16" s="49"/>
     </row>
-    <row r="17" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="134"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="141"/>
+    <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="122"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="49"/>
     </row>
-    <row r="18" spans="1:4" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="134"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="141"/>
+    <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="122"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="156"/>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="134"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="141"/>
+    <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="122"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="156"/>
       <c r="D19" s="49"/>
     </row>
-    <row r="20" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="134"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="141"/>
+    <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="122"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="156"/>
       <c r="D20" s="49"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="134"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="141"/>
+    <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="122"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="156"/>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="134"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="141"/>
+    <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="122"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="156"/>
       <c r="D22" s="49"/>
     </row>
-    <row r="23" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="141"/>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="122"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="156"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30165,7 +30361,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="s">
         <v>231</v>
       </c>
@@ -30179,7 +30375,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>165</v>
       </c>
@@ -30199,7 +30395,7 @@
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
         <v>26</v>
       </c>
@@ -30223,7 +30419,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
       <c r="B30" s="84"/>
       <c r="C30" s="88" t="s">
@@ -30233,7 +30429,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
       <c r="B31" s="84"/>
       <c r="C31" s="89" t="s">
@@ -30243,11 +30439,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="150" t="s">
+    <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="153" t="s">
+      <c r="B32" s="143" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30257,27 +30453,27 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="151"/>
-      <c r="B33" s="154"/>
+    <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="141"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="151"/>
-      <c r="B34" s="154"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="144"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
-    <row r="35" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="151"/>
-      <c r="B35" s="154"/>
+    <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="141"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
-    <row r="36" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
-      <c r="B36" s="155"/>
+    <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="142"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30305,11 +30501,11 @@
       <c r="C38" s="39"/>
       <c r="D38" s="44"/>
     </row>
-    <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="132" t="s">
+    <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="125" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30319,9 +30515,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
-      <c r="B40" s="130"/>
+    <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="126"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30329,87 +30525,87 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="131" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="142" t="s">
+      <c r="C41" s="146" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="134" t="s">
+      <c r="D41" s="122" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="131"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="134"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="124"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="122"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="131"/>
-      <c r="B43" s="130"/>
-      <c r="C43" s="142" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="124"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="146" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="126" t="s">
+      <c r="D43" s="139" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="131"/>
-      <c r="B44" s="130"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="126"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="124"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="139"/>
     </row>
-    <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="124" t="s">
+    <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="125" t="s">
+      <c r="B45" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="146"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="124"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="143" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="138"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="147" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="144"/>
+    <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="138"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="148"/>
     </row>
-    <row r="48" spans="1:4" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="124"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="144"/>
+    <row r="48" spans="1:4" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="138"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="148"/>
     </row>
-    <row r="49" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="124"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="144"/>
+    <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="138"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="148"/>
     </row>
-    <row r="50" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="124"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="145"/>
+    <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="138"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="149"/>
     </row>
-    <row r="51" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>40</v>
       </c>
@@ -30429,11 +30625,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="125" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="125" t="s">
+      <c r="B53" s="134" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30443,9 +30639,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="125"/>
-      <c r="B54" s="125"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="134"/>
+      <c r="B54" s="134"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30453,9 +30649,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="125"/>
-      <c r="B55" s="125"/>
+    <row r="55" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="134"/>
+      <c r="B55" s="134"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30463,27 +30659,27 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="125"/>
-      <c r="B56" s="125"/>
-      <c r="C56" s="149" t="s">
+    <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="134"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="153" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="125"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="149"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="134"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="153"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="125"/>
-      <c r="B58" s="125"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="134"/>
+      <c r="B58" s="134"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30491,9 +30687,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
-      <c r="B59" s="125"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="134"/>
+      <c r="B59" s="134"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30501,135 +30697,129 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="125"/>
-      <c r="B60" s="125"/>
-      <c r="C60" s="149" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="134"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="153" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="125"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="149"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="134"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="153"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="125"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="149"/>
+    <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="134"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="153"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="125"/>
-      <c r="B63" s="125"/>
-      <c r="C63" s="142" t="s">
+    <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="134"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="146" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="125"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="126" t="s">
+    <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="134"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="139" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="125"/>
-      <c r="B65" s="125"/>
-      <c r="C65" s="142"/>
-      <c r="D65" s="126"/>
+    <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="134"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="146"/>
+      <c r="D65" s="139"/>
     </row>
-    <row r="66" spans="1:4" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="125"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="126"/>
+    <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="134"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="139"/>
     </row>
-    <row r="67" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="125"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="142"/>
-      <c r="D67" s="126"/>
+    <row r="67" spans="1:4" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="134"/>
+      <c r="B67" s="134"/>
+      <c r="C67" s="146"/>
+      <c r="D67" s="139"/>
     </row>
-    <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="44"/>
     </row>
-    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
       <c r="B69" s="83"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="82"/>
       <c r="B70" s="83"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="82"/>
       <c r="B71" s="83"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="82"/>
       <c r="B72" s="83"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30643,13 +30833,19 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30658,21 +30854,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -30694,228 +30890,292 @@
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="153" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="122"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="136" t="s">
+      <c r="D4" s="162" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="153"/>
+      <c r="C5" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="163" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="157"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="137"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="153"/>
+      <c r="C6" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="163" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>30</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="153"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="163" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="98" t="s">
-        <v>254</v>
-      </c>
+    <row r="8" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
     </row>
-    <row r="7" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="164" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="153" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="149" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="58" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>234</v>
-      </c>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="165"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="166"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="149" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="153" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B13" s="153" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C13" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D13" s="99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="102" t="s">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="153"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D14" s="61" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="44"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="44"/>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="167" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="153" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="168"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="159" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B18" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C18" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D18" s="97" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+    <row r="19" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B19" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C19" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D19" s="97" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+    <row r="20" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="44"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="149" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="99">
-        <v>10.1</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="99">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103" t="s">
-        <v>248</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="44"/>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="160" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="153" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="161"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="157" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="98">
+        <v>10.1</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="128"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="106">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="106" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="98"/>
+      <c r="D25" s="79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B27" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C27" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D27" s="103" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B3:B6"/>
+  <mergeCells count="12">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -19,15 +19,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="263">
   <si>
     <t>Document</t>
   </si>
@@ -3184,7 +3184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3462,6 +3462,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3508,19 +3520,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3531,53 +3573,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3603,35 +3606,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3642,10 +3645,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4021,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4052,12 +4055,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4082,12 +4085,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4130,10 +4133,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="117">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4148,8 +4151,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
-      <c r="B8" s="114"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4162,8 +4165,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="114"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -4176,8 +4179,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="114"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -4190,8 +4193,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="114"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -4204,8 +4207,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -4218,10 +4221,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="113">
+      <c r="B13" s="117">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4236,8 +4239,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="119"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -4286,12 +4289,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4334,22 +4337,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="117">
+      <c r="B21" s="121">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4364,8 +4367,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
-      <c r="B22" s="115"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4388,18 +4391,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="117">
+      <c r="B25" s="121">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4414,8 +4417,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="114"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4428,8 +4431,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="114"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="118"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4442,8 +4445,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="114"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="118"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4456,8 +4459,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4470,8 +4473,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="114"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4484,8 +4487,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="114"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4498,8 +4501,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="112"/>
-      <c r="B32" s="115"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4624,12 +4627,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="109"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4689,7 +4692,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4699,7 +4702,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4809,10 +4812,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="135" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4823,8 +4826,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4833,8 +4836,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="125"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4843,8 +4846,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4853,8 +4856,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4863,8 +4866,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="124"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4873,10 +4876,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="135" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4887,8 +4890,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="135"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4897,8 +4900,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="135"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4907,10 +4910,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4921,8 +4924,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4931,8 +4934,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4941,8 +4944,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="122"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4951,8 +4954,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="122"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4961,8 +4964,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="122"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -4971,8 +4974,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="122"/>
-      <c r="B22" s="134"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -4981,8 +4984,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="122"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -4991,26 +4994,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="122"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="122" t="s">
+      <c r="A24" s="139"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="140" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="122"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="123"/>
+      <c r="A25" s="139"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="125" t="s">
+      <c r="B26" s="135" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5021,8 +5024,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124"/>
-      <c r="B27" s="125"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="135"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5049,28 +5052,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="130" t="s">
+      <c r="D30" s="128" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="126"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="130"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="128"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="126"/>
-      <c r="B32" s="125"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5079,8 +5082,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="126"/>
-      <c r="B33" s="125"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5089,8 +5092,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="126"/>
-      <c r="B34" s="125"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5099,8 +5102,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="126"/>
-      <c r="B35" s="125"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5109,8 +5112,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="126"/>
-      <c r="B36" s="125"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5119,26 +5122,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="126"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="127" t="s">
+      <c r="A37" s="137"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="129" t="s">
+      <c r="D37" s="143" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="126"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="129"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="142"/>
+      <c r="D38" s="143"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="124" t="s">
+      <c r="A39" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="135" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5149,8 +5152,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="124"/>
-      <c r="B40" s="125"/>
+      <c r="A40" s="136"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -5177,10 +5180,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="126" t="s">
+      <c r="A43" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="125" t="s">
+      <c r="B43" s="135" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -5189,8 +5192,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="126"/>
-      <c r="B44" s="125"/>
+      <c r="A44" s="137"/>
+      <c r="B44" s="135"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5199,10 +5202,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="131" t="s">
+      <c r="A45" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="125" t="s">
+      <c r="B45" s="135" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5211,8 +5214,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="132"/>
-      <c r="B46" s="125"/>
+      <c r="A46" s="133"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5221,8 +5224,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="132"/>
-      <c r="B47" s="125"/>
+      <c r="A47" s="133"/>
+      <c r="B47" s="135"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5231,8 +5234,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="133"/>
-      <c r="B48" s="125"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="135"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5241,10 +5244,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="134" t="s">
+      <c r="A49" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="134" t="s">
+      <c r="B49" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9348,8 +9351,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="134"/>
-      <c r="B50" s="134"/>
+      <c r="A50" s="130"/>
+      <c r="B50" s="130"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13453,8 +13456,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="134"/>
-      <c r="B51" s="134"/>
+      <c r="A51" s="130"/>
+      <c r="B51" s="130"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17558,8 +17561,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="134"/>
-      <c r="B52" s="134"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="130"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21663,12 +21666,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="134"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="137" t="s">
+      <c r="A53" s="130"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="130" t="s">
+      <c r="D53" s="128" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25768,10 +25771,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="134"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="130"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="128"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29889,10 +29892,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="134" t="s">
+      <c r="B57" s="130" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29903,8 +29906,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="138"/>
-      <c r="B58" s="134"/>
+      <c r="A58" s="129"/>
+      <c r="B58" s="130"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29913,8 +29916,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="138"/>
-      <c r="B59" s="134"/>
+      <c r="A59" s="129"/>
+      <c r="B59" s="130"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29923,8 +29926,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="138"/>
-      <c r="B60" s="134"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29933,8 +29936,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="138"/>
-      <c r="B61" s="134"/>
+      <c r="A61" s="129"/>
+      <c r="B61" s="130"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29943,8 +29946,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="138"/>
-      <c r="B62" s="134"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="130"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29953,8 +29956,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="138"/>
-      <c r="B63" s="134"/>
+      <c r="A63" s="129"/>
+      <c r="B63" s="130"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29963,16 +29966,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="138"/>
-      <c r="B64" s="134"/>
+      <c r="A64" s="129"/>
+      <c r="B64" s="130"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="138"/>
-      <c r="B65" s="134"/>
+      <c r="A65" s="129"/>
+      <c r="B65" s="130"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29981,16 +29984,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="138"/>
-      <c r="B66" s="134"/>
+      <c r="A66" s="129"/>
+      <c r="B66" s="130"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="138"/>
-      <c r="B67" s="134"/>
+      <c r="A67" s="129"/>
+      <c r="B67" s="130"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -29999,8 +30002,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="138"/>
-      <c r="B68" s="134"/>
+      <c r="A68" s="129"/>
+      <c r="B68" s="130"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30009,8 +30012,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="138"/>
-      <c r="B69" s="134"/>
+      <c r="A69" s="129"/>
+      <c r="B69" s="130"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30019,8 +30022,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="138"/>
-      <c r="B70" s="134"/>
+      <c r="A70" s="129"/>
+      <c r="B70" s="130"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30029,8 +30032,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="138"/>
-      <c r="B71" s="134"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="130"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30039,8 +30042,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="138"/>
-      <c r="B72" s="134"/>
+      <c r="A72" s="129"/>
+      <c r="B72" s="130"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30049,16 +30052,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="138"/>
-      <c r="B73" s="134"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="130"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="138"/>
-      <c r="B74" s="134"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="130"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30067,18 +30070,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="138"/>
-      <c r="B75" s="134"/>
-      <c r="C75" s="136"/>
-      <c r="D75" s="139" t="s">
+      <c r="A75" s="129"/>
+      <c r="B75" s="130"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="131" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="138"/>
-      <c r="B76" s="134"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="139"/>
+      <c r="A76" s="129"/>
+      <c r="B76" s="130"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="131"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30102,8 +30105,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30112,19 +30115,25 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="A49:A54"/>
@@ -30137,18 +30146,12 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30202,10 +30205,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="135" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30216,133 +30219,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="124"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="155" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="144" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="154"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="144"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="124"/>
-      <c r="B7" s="125"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="125"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="154" t="s">
+      <c r="C10" s="147"/>
+      <c r="D10" s="144" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="135"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="154"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="144"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="154"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="144"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="154" t="s">
+      <c r="C13" s="146"/>
+      <c r="D13" s="144" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="154"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="144"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="156"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="146"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="156"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="156"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="156"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="122"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="156"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="122"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="156"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="122"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="156"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="156"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="122"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="156"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30440,10 +30443,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="155" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="158" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30454,26 +30457,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="141"/>
-      <c r="B33" s="144"/>
+      <c r="A33" s="156"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="141"/>
-      <c r="B34" s="144"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="141"/>
-      <c r="B35" s="144"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="142"/>
-      <c r="B36" s="145"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30502,10 +30505,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="135" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30516,8 +30519,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="126"/>
-      <c r="B40" s="125"/>
+      <c r="A40" s="137"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30526,84 +30529,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="124" t="s">
+      <c r="A41" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="147" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="122" t="s">
+      <c r="D41" s="139" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="124"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="122"/>
+      <c r="A42" s="136"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="139"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="124"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="146" t="s">
+      <c r="A43" s="136"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="139" t="s">
+      <c r="D43" s="131" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="139"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="131"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="138" t="s">
+      <c r="A45" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="150"/>
+      <c r="C45" s="151"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="138"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="147" t="s">
+      <c r="A46" s="129"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="148" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="138"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="148"/>
+      <c r="A47" s="129"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="149"/>
     </row>
     <row r="48" spans="1:4" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="138"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="148"/>
+      <c r="A48" s="129"/>
+      <c r="B48" s="130"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="149"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="138"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="148"/>
+      <c r="A49" s="129"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="149"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="138"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="149"/>
+      <c r="A50" s="129"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="127"/>
+      <c r="D50" s="150"/>
     </row>
     <row r="51" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30626,10 +30629,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="134" t="s">
+      <c r="A53" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="134" t="s">
+      <c r="B53" s="130" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30640,8 +30643,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="134"/>
-      <c r="B54" s="134"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="130"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30650,8 +30653,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="134"/>
-      <c r="B55" s="134"/>
+      <c r="A55" s="130"/>
+      <c r="B55" s="130"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30660,9 +30663,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="134"/>
-      <c r="B56" s="134"/>
-      <c r="C56" s="153" t="s">
+      <c r="A56" s="130"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="154" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -30670,16 +30673,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="134"/>
-      <c r="B57" s="134"/>
-      <c r="C57" s="153"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="154"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="134"/>
-      <c r="B58" s="134"/>
+      <c r="A58" s="130"/>
+      <c r="B58" s="130"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30688,8 +30691,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="134"/>
-      <c r="B59" s="134"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="130"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30698,9 +30701,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="134"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="153" t="s">
+      <c r="A60" s="130"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="154" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -30708,25 +30711,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="134"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="153"/>
+      <c r="A61" s="130"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="154"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="134"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="153"/>
+      <c r="A62" s="130"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="154"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="134"/>
-      <c r="B63" s="134"/>
-      <c r="C63" s="146" t="s">
+      <c r="A63" s="130"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="147" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -30734,30 +30737,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="134"/>
-      <c r="B64" s="134"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="139" t="s">
+      <c r="A64" s="130"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="131" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="134"/>
-      <c r="B65" s="134"/>
-      <c r="C65" s="146"/>
-      <c r="D65" s="139"/>
+      <c r="A65" s="130"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="131"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="134"/>
-      <c r="B66" s="134"/>
-      <c r="C66" s="146"/>
-      <c r="D66" s="139"/>
+      <c r="A66" s="130"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="131"/>
     </row>
     <row r="67" spans="1:4" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="134"/>
-      <c r="B67" s="134"/>
-      <c r="C67" s="146"/>
-      <c r="D67" s="139"/>
+      <c r="A67" s="130"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="131"/>
     </row>
     <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
@@ -30813,13 +30816,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30833,19 +30842,13 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30854,10 +30857,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30891,10 +30894,10 @@
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="154" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
@@ -30903,12 +30906,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="122"/>
-      <c r="B4" s="153"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="109" t="s">
         <v>256</v>
       </c>
     </row>
@@ -30916,11 +30919,11 @@
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="153"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="163" t="s">
+      <c r="D5" s="110" t="s">
         <v>236</v>
       </c>
     </row>
@@ -30928,11 +30931,11 @@
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="153"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="110" t="s">
         <v>30</v>
       </c>
     </row>
@@ -30940,9 +30943,9 @@
       <c r="A7" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="153"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="110" t="s">
         <v>259</v>
       </c>
     </row>
@@ -30955,10 +30958,10 @@
       <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="165" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="154" t="s">
         <v>234</v>
       </c>
       <c r="C9" s="58"/>
@@ -30967,16 +30970,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="165"/>
-      <c r="B10" s="153"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="166"/>
-      <c r="B11" s="153"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="154"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58" t="s">
         <v>254</v>
@@ -30995,10 +30998,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="154" t="s">
         <v>234</v>
       </c>
       <c r="C13" s="101" t="s">
@@ -31009,8 +31012,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="153"/>
-      <c r="B14" s="153"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
       <c r="C14" s="101" t="s">
         <v>240</v>
       </c>
@@ -31027,10 +31030,10 @@
       <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="161" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="154" t="s">
         <v>234</v>
       </c>
       <c r="C16" s="58"/>
@@ -31039,15 +31042,15 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="168"/>
-      <c r="B17" s="153"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="108" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="95" t="s">
@@ -31083,10 +31086,10 @@
       <c r="D20" s="44"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="154" t="s">
         <v>234</v>
       </c>
       <c r="C21" s="58"/>
@@ -31095,8 +31098,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="161"/>
-      <c r="B22" s="153"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="154"/>
       <c r="C22" s="106" t="s">
         <v>246</v>
       </c>
@@ -31105,10 +31108,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="163" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="98">
@@ -31119,8 +31122,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="128"/>
-      <c r="B24" s="158"/>
+      <c r="A24" s="142"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="106">
         <v>10.199999999999999</v>
       </c>
@@ -31162,13 +31165,73 @@
         <v>251</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="113"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
+  <mergeCells count="13">
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A9:A11"/>
@@ -31176,6 +31239,11 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -19,15 +19,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="268">
   <si>
     <t>Document</t>
   </si>
@@ -2600,6 +2600,21 @@
   <si>
     <t>Payroll Scenario Examples</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Description updated</t>
+  </si>
+  <si>
+    <t>Employment ID and Director</t>
+  </si>
+  <si>
+    <t>employmentId</t>
+  </si>
+  <si>
+    <t>Changed from type 'ros:alpha20' to type 'ns1:employmentID'</t>
+  </si>
+  <si>
+    <t>added as a simpleType</t>
+  </si>
 </sst>
 </file>
 
@@ -3184,7 +3199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3463,9 +3478,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3473,6 +3485,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3520,22 +3535,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3546,41 +3570,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3606,35 +3630,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3650,6 +3653,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4692,7 +4723,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4702,7 +4733,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4812,10 +4843,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="129" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4826,8 +4857,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4836,8 +4867,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="136"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4846,8 +4877,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="136"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4856,8 +4887,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="136"/>
-      <c r="B11" s="135"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4866,8 +4897,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="136"/>
-      <c r="B12" s="135"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4876,10 +4907,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="129" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4890,8 +4921,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="138"/>
-      <c r="B14" s="135"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4900,8 +4931,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="138"/>
-      <c r="B15" s="135"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4910,10 +4941,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4924,8 +4955,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="139"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4934,8 +4965,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="139"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4944,8 +4975,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="139"/>
-      <c r="B19" s="130"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="138"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4954,8 +4985,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="139"/>
-      <c r="B20" s="130"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4964,8 +4995,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="139"/>
-      <c r="B21" s="130"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="138"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -4974,8 +5005,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="139"/>
-      <c r="B22" s="130"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="138"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -4984,8 +5015,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="139"/>
-      <c r="B23" s="130"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="138"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -4994,26 +5025,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="139"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="139" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="140" t="s">
+      <c r="D24" s="127" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="139"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="140"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="127"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="136" t="s">
+      <c r="A26" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="129" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5024,8 +5055,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
-      <c r="B27" s="135"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5052,28 +5083,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="128" t="s">
+      <c r="D30" s="134" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="137"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="128"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="134"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="137"/>
-      <c r="B32" s="135"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5082,8 +5113,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="137"/>
-      <c r="B33" s="135"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5092,8 +5123,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="137"/>
-      <c r="B34" s="135"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5102,8 +5133,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="137"/>
-      <c r="B35" s="135"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5112,8 +5143,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="137"/>
-      <c r="B36" s="135"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5122,26 +5153,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="137"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="141" t="s">
+      <c r="A37" s="130"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="143" t="s">
+      <c r="D37" s="133" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="137"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="143"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="133"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="129" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5152,8 +5183,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="136"/>
-      <c r="B40" s="135"/>
+      <c r="A40" s="128"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -5180,10 +5211,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="137" t="s">
+      <c r="A43" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="135" t="s">
+      <c r="B43" s="129" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -5192,8 +5223,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="137"/>
-      <c r="B44" s="135"/>
+      <c r="A44" s="130"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5202,10 +5233,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="135" t="s">
+      <c r="B45" s="129" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5214,8 +5245,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="133"/>
-      <c r="B46" s="135"/>
+      <c r="A46" s="136"/>
+      <c r="B46" s="129"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5224,8 +5255,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="133"/>
-      <c r="B47" s="135"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5234,8 +5265,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="134"/>
-      <c r="B48" s="135"/>
+      <c r="A48" s="137"/>
+      <c r="B48" s="129"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5244,10 +5275,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9351,8 +9382,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="130"/>
-      <c r="B50" s="130"/>
+      <c r="A50" s="138"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13456,8 +13487,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="130"/>
-      <c r="B51" s="130"/>
+      <c r="A51" s="138"/>
+      <c r="B51" s="138"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17561,8 +17592,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="130"/>
-      <c r="B52" s="130"/>
+      <c r="A52" s="138"/>
+      <c r="B52" s="138"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21666,12 +21697,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="130"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="127" t="s">
+      <c r="A53" s="138"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="128" t="s">
+      <c r="D53" s="134" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25771,10 +25802,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="130"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="128"/>
+      <c r="A54" s="138"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="134"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29892,10 +29923,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="129" t="s">
+      <c r="A57" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="130" t="s">
+      <c r="B57" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29906,8 +29937,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="129"/>
-      <c r="B58" s="130"/>
+      <c r="A58" s="142"/>
+      <c r="B58" s="138"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29916,8 +29947,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="129"/>
-      <c r="B59" s="130"/>
+      <c r="A59" s="142"/>
+      <c r="B59" s="138"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29926,8 +29957,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="129"/>
-      <c r="B60" s="130"/>
+      <c r="A60" s="142"/>
+      <c r="B60" s="138"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29936,8 +29967,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="129"/>
-      <c r="B61" s="130"/>
+      <c r="A61" s="142"/>
+      <c r="B61" s="138"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29946,8 +29977,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="129"/>
-      <c r="B62" s="130"/>
+      <c r="A62" s="142"/>
+      <c r="B62" s="138"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29956,8 +29987,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="129"/>
-      <c r="B63" s="130"/>
+      <c r="A63" s="142"/>
+      <c r="B63" s="138"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29966,16 +29997,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="129"/>
-      <c r="B64" s="130"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="138"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="129"/>
-      <c r="B65" s="130"/>
+      <c r="A65" s="142"/>
+      <c r="B65" s="138"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -29984,16 +30015,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="129"/>
-      <c r="B66" s="130"/>
+      <c r="A66" s="142"/>
+      <c r="B66" s="138"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="129"/>
-      <c r="B67" s="130"/>
+      <c r="A67" s="142"/>
+      <c r="B67" s="138"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30002,8 +30033,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="129"/>
-      <c r="B68" s="130"/>
+      <c r="A68" s="142"/>
+      <c r="B68" s="138"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30012,8 +30043,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="129"/>
-      <c r="B69" s="130"/>
+      <c r="A69" s="142"/>
+      <c r="B69" s="138"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30022,8 +30053,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="129"/>
-      <c r="B70" s="130"/>
+      <c r="A70" s="142"/>
+      <c r="B70" s="138"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30032,8 +30063,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="129"/>
-      <c r="B71" s="130"/>
+      <c r="A71" s="142"/>
+      <c r="B71" s="138"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30042,8 +30073,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="129"/>
-      <c r="B72" s="130"/>
+      <c r="A72" s="142"/>
+      <c r="B72" s="138"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30052,16 +30083,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="129"/>
-      <c r="B73" s="130"/>
+      <c r="A73" s="142"/>
+      <c r="B73" s="138"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="129"/>
-      <c r="B74" s="130"/>
+      <c r="A74" s="142"/>
+      <c r="B74" s="138"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30070,18 +30101,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="129"/>
-      <c r="B75" s="130"/>
-      <c r="C75" s="126"/>
-      <c r="D75" s="131" t="s">
+      <c r="A75" s="142"/>
+      <c r="B75" s="138"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="143" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="129"/>
-      <c r="B76" s="130"/>
-      <c r="C76" s="126"/>
-      <c r="D76" s="131"/>
+      <c r="A76" s="142"/>
+      <c r="B76" s="138"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="143"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30105,8 +30136,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30115,13 +30146,31 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B16:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="A39:A40"/>
@@ -30134,24 +30183,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30205,10 +30236,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="129" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30219,133 +30250,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="136"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="145" t="s">
+      <c r="A5" s="128"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="159" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="158" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="136"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="144"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="158"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136"/>
-      <c r="B7" s="135"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="136"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="139" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="144" t="s">
+      <c r="C10" s="150"/>
+      <c r="D10" s="158" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="144"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="158"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="138"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="144"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="158"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="144" t="s">
+      <c r="C13" s="160"/>
+      <c r="D13" s="158" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="139"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="144"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="158"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="139"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="146"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="139"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="146"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="139"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="146"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="139"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="146"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="139"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="146"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="139"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="146"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="139"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="146"/>
+      <c r="A21" s="126"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="139"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="146"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="160"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="139"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="146"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30443,10 +30474,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="155" t="s">
+      <c r="A32" s="144" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="158" t="s">
+      <c r="B32" s="147" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30457,26 +30488,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="156"/>
-      <c r="B33" s="159"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="156"/>
-      <c r="B34" s="159"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="148"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="156"/>
-      <c r="B35" s="159"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="157"/>
-      <c r="B36" s="160"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="149"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30505,10 +30536,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="129" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30519,8 +30550,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="137"/>
-      <c r="B40" s="135"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30529,84 +30560,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="136" t="s">
+      <c r="A41" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="147" t="s">
+      <c r="C41" s="150" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="139" t="s">
+      <c r="D41" s="126" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="136"/>
-      <c r="B42" s="135"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="139"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="126"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="136"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="147" t="s">
+      <c r="A43" s="128"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="131" t="s">
+      <c r="D43" s="143" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="136"/>
-      <c r="B44" s="135"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="131"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="143"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="129" t="s">
+      <c r="A45" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="151"/>
+      <c r="C45" s="154"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="129"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="148" t="s">
+      <c r="A46" s="142"/>
+      <c r="B46" s="138"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="151" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="129"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="149"/>
+      <c r="A47" s="142"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="152"/>
     </row>
     <row r="48" spans="1:4" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="129"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="149"/>
+      <c r="A48" s="142"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="152"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="129"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="149"/>
+      <c r="A49" s="142"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="152"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="129"/>
-      <c r="B50" s="130"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="150"/>
+      <c r="A50" s="142"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="153"/>
     </row>
     <row r="51" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30629,10 +30660,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="130" t="s">
+      <c r="A53" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="138" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30643,8 +30674,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="130"/>
-      <c r="B54" s="130"/>
+      <c r="A54" s="138"/>
+      <c r="B54" s="138"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30653,8 +30684,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="130"/>
-      <c r="B55" s="130"/>
+      <c r="A55" s="138"/>
+      <c r="B55" s="138"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30663,9 +30694,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="130"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="154" t="s">
+      <c r="A56" s="138"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="157" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -30673,16 +30704,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="130"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="154"/>
+      <c r="A57" s="138"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="157"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="130"/>
-      <c r="B58" s="130"/>
+      <c r="A58" s="138"/>
+      <c r="B58" s="138"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30691,8 +30722,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="130"/>
-      <c r="B59" s="130"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="138"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30701,9 +30732,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="130"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="154" t="s">
+      <c r="A60" s="138"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="157" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -30711,25 +30742,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="130"/>
-      <c r="B61" s="130"/>
-      <c r="C61" s="154"/>
+      <c r="A61" s="138"/>
+      <c r="B61" s="138"/>
+      <c r="C61" s="157"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="130"/>
-      <c r="B62" s="130"/>
-      <c r="C62" s="154"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="157"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="130"/>
-      <c r="B63" s="130"/>
-      <c r="C63" s="147" t="s">
+      <c r="A63" s="138"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="150" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -30737,30 +30768,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="130"/>
-      <c r="B64" s="130"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="131" t="s">
+      <c r="A64" s="138"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="143" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="130"/>
-      <c r="B65" s="130"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="131"/>
+      <c r="A65" s="138"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="143"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="130"/>
-      <c r="B66" s="130"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="131"/>
+      <c r="A66" s="138"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="150"/>
+      <c r="D66" s="143"/>
     </row>
     <row r="67" spans="1:4" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="130"/>
-      <c r="B67" s="130"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="131"/>
+      <c r="A67" s="138"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="143"/>
     </row>
     <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
@@ -30816,19 +30847,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30842,13 +30867,19 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30860,7 +30891,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30894,10 +30925,10 @@
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="157" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
@@ -30906,12 +30937,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="139"/>
-      <c r="B4" s="154"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="108" t="s">
         <v>256</v>
       </c>
     </row>
@@ -30919,11 +30950,11 @@
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="154"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="109" t="s">
         <v>236</v>
       </c>
     </row>
@@ -30931,11 +30962,11 @@
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="154"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="109" t="s">
         <v>30</v>
       </c>
     </row>
@@ -30943,9 +30974,9 @@
       <c r="A7" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="154"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>259</v>
       </c>
     </row>
@@ -30958,10 +30989,10 @@
       <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="161" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="157" t="s">
         <v>234</v>
       </c>
       <c r="C9" s="58"/>
@@ -30970,16 +31001,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="166"/>
-      <c r="B10" s="154"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="167"/>
-      <c r="B11" s="154"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58" t="s">
         <v>254</v>
@@ -30998,10 +31029,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="157" t="s">
         <v>234</v>
       </c>
       <c r="C13" s="101" t="s">
@@ -31012,8 +31043,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="154"/>
-      <c r="B14" s="154"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="157"/>
       <c r="C14" s="101" t="s">
         <v>240</v>
       </c>
@@ -31030,10 +31061,10 @@
       <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="166" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="157" t="s">
         <v>234</v>
       </c>
       <c r="C16" s="58"/>
@@ -31042,15 +31073,15 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="162"/>
-      <c r="B17" s="154"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="157"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="107" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="95" t="s">
@@ -31086,10 +31117,10 @@
       <c r="D20" s="44"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="168" t="s">
+      <c r="A21" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="157" t="s">
         <v>234</v>
       </c>
       <c r="C21" s="58"/>
@@ -31098,8 +31129,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="169"/>
-      <c r="B22" s="154"/>
+      <c r="A22" s="165"/>
+      <c r="B22" s="157"/>
       <c r="C22" s="106" t="s">
         <v>246</v>
       </c>
@@ -31108,10 +31139,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="168" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="98">
@@ -31122,8 +31153,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="142"/>
-      <c r="B24" s="164"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="106">
         <v>10.199999999999999</v>
       </c>
@@ -31174,63 +31205,61 @@
       <c r="D28" s="113"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="107" t="s">
+      <c r="A29" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="174" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>30</v>
+      <c r="C29" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="107" t="s">
+      <c r="A30" s="173"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="170" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>30</v>
+      <c r="C31" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="107" t="s">
+    <row r="32" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="170" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="107" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>30</v>
+      <c r="C32" s="171" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B7"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -19,15 +19,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="270">
   <si>
     <t>Document</t>
   </si>
@@ -2615,6 +2615,12 @@
   <si>
     <t>added as a simpleType</t>
   </si>
+  <si>
+    <t>code 2050</t>
+  </si>
+  <si>
+    <t>code 2049</t>
+  </si>
 </sst>
 </file>
 
@@ -3469,9 +3475,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3488,6 +3491,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3535,19 +3545,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3558,53 +3598,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3630,14 +3631,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3666,21 +3682,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4055,7 +4061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:D45"/>
     </sheetView>
   </sheetViews>
@@ -4086,12 +4092,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4116,12 +4122,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4164,10 +4170,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="119">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4182,8 +4188,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="115"/>
-      <c r="B8" s="118"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4196,8 +4202,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="115"/>
-      <c r="B9" s="118"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -4210,8 +4216,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="115"/>
-      <c r="B10" s="118"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -4224,8 +4230,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
-      <c r="B11" s="118"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -4238,8 +4244,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="116"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -4252,10 +4258,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="119">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4270,8 +4276,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="123"/>
-      <c r="B14" s="119"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -4320,12 +4326,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4368,22 +4374,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="121">
+      <c r="B21" s="123">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4398,8 +4404,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="125"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4422,18 +4428,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="115"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="121">
+      <c r="B25" s="123">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4448,8 +4454,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
-      <c r="B26" s="118"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4462,8 +4468,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="115"/>
-      <c r="B27" s="118"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4476,8 +4482,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="115"/>
-      <c r="B28" s="118"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4490,8 +4496,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
-      <c r="B29" s="118"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4504,8 +4510,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="115"/>
-      <c r="B30" s="118"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4518,8 +4524,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="115"/>
-      <c r="B31" s="118"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4532,8 +4538,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="116"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4658,12 +4664,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="111" t="s">
+      <c r="A41" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="115"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4723,7 +4729,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4733,7 +4739,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4764,7 +4770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:A76"/>
     </sheetView>
   </sheetViews>
@@ -4843,10 +4849,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="137" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4857,8 +4863,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4867,8 +4873,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4877,8 +4883,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4887,8 +4893,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4897,8 +4903,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="128"/>
-      <c r="B12" s="129"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4907,10 +4913,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="137" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4921,8 +4927,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="139"/>
-      <c r="B14" s="129"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4931,8 +4937,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="139"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4941,10 +4947,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4955,8 +4961,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
-      <c r="B17" s="138"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4965,8 +4971,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
-      <c r="B18" s="138"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4975,8 +4981,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="126"/>
-      <c r="B19" s="138"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4985,8 +4991,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="126"/>
-      <c r="B20" s="138"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -4995,8 +5001,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="138"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5005,8 +5011,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="126"/>
-      <c r="B22" s="138"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5015,8 +5021,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="126"/>
-      <c r="B23" s="138"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5025,26 +5031,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="126"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="126" t="s">
+      <c r="A24" s="141"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="142" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="126"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="127"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="142"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="137" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5055,8 +5061,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5083,28 +5089,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="126" t="s">
+      <c r="C30" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="134" t="s">
+      <c r="D30" s="130" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="130"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="134"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="130"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="130"/>
-      <c r="B32" s="129"/>
+      <c r="A32" s="139"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5113,8 +5119,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="130"/>
-      <c r="B33" s="129"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5123,8 +5129,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="130"/>
-      <c r="B34" s="129"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5133,8 +5139,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="130"/>
-      <c r="B35" s="129"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5143,8 +5149,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="130"/>
-      <c r="B36" s="129"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5153,26 +5159,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="130"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="131" t="s">
+      <c r="A37" s="139"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="133" t="s">
+      <c r="D37" s="145" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="130"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="133"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="137" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5183,8 +5189,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="128"/>
-      <c r="B40" s="129"/>
+      <c r="A40" s="138"/>
+      <c r="B40" s="137"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -5211,10 +5217,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="129" t="s">
+      <c r="B43" s="137" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -5223,8 +5229,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="130"/>
-      <c r="B44" s="129"/>
+      <c r="A44" s="139"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5233,10 +5239,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="135" t="s">
+      <c r="A45" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="129" t="s">
+      <c r="B45" s="137" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5245,8 +5251,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="136"/>
-      <c r="B46" s="129"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="137"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5255,8 +5261,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="136"/>
-      <c r="B47" s="129"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="137"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5265,8 +5271,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="137"/>
-      <c r="B48" s="129"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="137"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5275,10 +5281,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="138" t="s">
+      <c r="B49" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9382,8 +9388,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="138"/>
-      <c r="B50" s="138"/>
+      <c r="A50" s="132"/>
+      <c r="B50" s="132"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13487,8 +13493,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="138"/>
-      <c r="B51" s="138"/>
+      <c r="A51" s="132"/>
+      <c r="B51" s="132"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17592,8 +17598,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="138"/>
-      <c r="B52" s="138"/>
+      <c r="A52" s="132"/>
+      <c r="B52" s="132"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21697,12 +21703,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="138"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="141" t="s">
+      <c r="A53" s="132"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="134" t="s">
+      <c r="D53" s="130" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25802,10 +25808,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="138"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="134"/>
+      <c r="A54" s="132"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="130"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29923,10 +29929,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="142" t="s">
+      <c r="A57" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="132" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29937,8 +29943,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="142"/>
-      <c r="B58" s="138"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29947,8 +29953,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="142"/>
-      <c r="B59" s="138"/>
+      <c r="A59" s="131"/>
+      <c r="B59" s="132"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29957,8 +29963,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="142"/>
-      <c r="B60" s="138"/>
+      <c r="A60" s="131"/>
+      <c r="B60" s="132"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29967,8 +29973,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="142"/>
-      <c r="B61" s="138"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="132"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29977,8 +29983,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="142"/>
-      <c r="B62" s="138"/>
+      <c r="A62" s="131"/>
+      <c r="B62" s="132"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29987,8 +29993,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="142"/>
-      <c r="B63" s="138"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="132"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -29997,16 +30003,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="142"/>
-      <c r="B64" s="138"/>
+      <c r="A64" s="131"/>
+      <c r="B64" s="132"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="142"/>
-      <c r="B65" s="138"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="132"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30015,16 +30021,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="142"/>
-      <c r="B66" s="138"/>
+      <c r="A66" s="131"/>
+      <c r="B66" s="132"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="142"/>
-      <c r="B67" s="138"/>
+      <c r="A67" s="131"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30033,8 +30039,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="142"/>
-      <c r="B68" s="138"/>
+      <c r="A68" s="131"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30043,8 +30049,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="142"/>
-      <c r="B69" s="138"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="132"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30053,8 +30059,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="142"/>
-      <c r="B70" s="138"/>
+      <c r="A70" s="131"/>
+      <c r="B70" s="132"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30063,8 +30069,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="142"/>
-      <c r="B71" s="138"/>
+      <c r="A71" s="131"/>
+      <c r="B71" s="132"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30073,8 +30079,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="142"/>
-      <c r="B72" s="138"/>
+      <c r="A72" s="131"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30083,16 +30089,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="142"/>
-      <c r="B73" s="138"/>
+      <c r="A73" s="131"/>
+      <c r="B73" s="132"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="142"/>
-      <c r="B74" s="138"/>
+      <c r="A74" s="131"/>
+      <c r="B74" s="132"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30101,18 +30107,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="142"/>
-      <c r="B75" s="138"/>
-      <c r="C75" s="140"/>
-      <c r="D75" s="143" t="s">
+      <c r="A75" s="131"/>
+      <c r="B75" s="132"/>
+      <c r="C75" s="128"/>
+      <c r="D75" s="133" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="142"/>
-      <c r="B76" s="138"/>
-      <c r="C76" s="140"/>
-      <c r="D76" s="143"/>
+      <c r="A76" s="131"/>
+      <c r="B76" s="132"/>
+      <c r="C76" s="128"/>
+      <c r="D76" s="133"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30136,8 +30142,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30146,19 +30152,25 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="A49:A54"/>
@@ -30171,18 +30183,12 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30236,10 +30242,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="137" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30250,133 +30256,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="159" t="s">
+      <c r="A5" s="138"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="158" t="s">
+      <c r="D5" s="146" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="158"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="146"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128"/>
-      <c r="B7" s="129"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
-      <c r="B8" s="129"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="158" t="s">
+      <c r="C10" s="149"/>
+      <c r="D10" s="146" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="139"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="158"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="146"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="139"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="158"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="146"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="158" t="s">
+      <c r="C13" s="148"/>
+      <c r="D13" s="146" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="158"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="146"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="126"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="160"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="160"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="148"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="160"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="160"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="126"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="160"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="148"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="126"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="160"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="148"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="160"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="126"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="160"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="148"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="126"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="160"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30474,10 +30480,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="144" t="s">
+      <c r="A32" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="160" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30488,26 +30494,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
-      <c r="B33" s="148"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="145"/>
-      <c r="B34" s="148"/>
+      <c r="A34" s="158"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
-      <c r="B35" s="148"/>
+      <c r="A35" s="158"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="146"/>
-      <c r="B36" s="149"/>
+      <c r="A36" s="159"/>
+      <c r="B36" s="162"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30536,10 +30542,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="130" t="s">
+      <c r="A39" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="137" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30550,8 +30556,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="130"/>
-      <c r="B40" s="129"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="137"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30560,84 +30566,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="150" t="s">
+      <c r="C41" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="126" t="s">
+      <c r="D41" s="141" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="128"/>
-      <c r="B42" s="129"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="126"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="141"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="128"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="150" t="s">
+      <c r="A43" s="138"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="143" t="s">
+      <c r="D43" s="133" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="128"/>
-      <c r="B44" s="129"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="143"/>
+      <c r="A44" s="138"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="133"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="154"/>
+      <c r="C45" s="153"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="142"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="155"/>
-      <c r="D46" s="151" t="s">
+      <c r="A46" s="131"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="150" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="142"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="155"/>
-      <c r="D47" s="152"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="151"/>
     </row>
     <row r="48" spans="1:4" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="142"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="152"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="151"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="142"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="152"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="151"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="142"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="153"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="152"/>
     </row>
     <row r="51" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30660,10 +30666,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="138" t="s">
+      <c r="A53" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="138" t="s">
+      <c r="B53" s="132" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30674,8 +30680,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="138"/>
-      <c r="B54" s="138"/>
+      <c r="A54" s="132"/>
+      <c r="B54" s="132"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30684,8 +30690,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="138"/>
-      <c r="B55" s="138"/>
+      <c r="A55" s="132"/>
+      <c r="B55" s="132"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30694,9 +30700,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="138"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="157" t="s">
+      <c r="A56" s="132"/>
+      <c r="B56" s="132"/>
+      <c r="C56" s="156" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -30704,16 +30710,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="138"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="157"/>
+      <c r="A57" s="132"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="156"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="138"/>
-      <c r="B58" s="138"/>
+      <c r="A58" s="132"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30722,8 +30728,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="138"/>
-      <c r="B59" s="138"/>
+      <c r="A59" s="132"/>
+      <c r="B59" s="132"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30732,9 +30738,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="138"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="157" t="s">
+      <c r="A60" s="132"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="156" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -30742,25 +30748,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="138"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="157"/>
+      <c r="A61" s="132"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="156"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="138"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="157"/>
+      <c r="A62" s="132"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="156"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="138"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="150" t="s">
+      <c r="A63" s="132"/>
+      <c r="B63" s="132"/>
+      <c r="C63" s="149" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -30768,30 +30774,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="138"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="143" t="s">
+      <c r="A64" s="132"/>
+      <c r="B64" s="132"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="133" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="138"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="143"/>
+      <c r="A65" s="132"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="133"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="138"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="143"/>
+      <c r="A66" s="132"/>
+      <c r="B66" s="132"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="133"/>
     </row>
     <row r="67" spans="1:4" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="138"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="150"/>
-      <c r="D67" s="143"/>
+      <c r="A67" s="132"/>
+      <c r="B67" s="132"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="133"/>
     </row>
     <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
@@ -30847,13 +30853,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30867,19 +30879,13 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30888,10 +30894,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30925,10 +30931,10 @@
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="156" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
@@ -30937,12 +30943,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="106" t="s">
+      <c r="A4" s="141"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>256</v>
       </c>
     </row>
@@ -30950,11 +30956,11 @@
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="106" t="s">
+      <c r="B5" s="156"/>
+      <c r="C5" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>236</v>
       </c>
     </row>
@@ -30962,11 +30968,11 @@
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="106" t="s">
+      <c r="B6" s="156"/>
+      <c r="C6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="108" t="s">
         <v>30</v>
       </c>
     </row>
@@ -30974,9 +30980,9 @@
       <c r="A7" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="157"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>259</v>
       </c>
     </row>
@@ -30989,10 +30995,10 @@
       <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="165" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="156" t="s">
         <v>234</v>
       </c>
       <c r="C9" s="58"/>
@@ -31001,16 +31007,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="162"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="163"/>
-      <c r="B11" s="157"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58" t="s">
         <v>254</v>
@@ -31029,10 +31035,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="156" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="156" t="s">
         <v>234</v>
       </c>
       <c r="C13" s="101" t="s">
@@ -31043,8 +31049,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="157"/>
-      <c r="B14" s="157"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="101" t="s">
         <v>240</v>
       </c>
@@ -31061,10 +31067,10 @@
       <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="170" t="s">
         <v>260</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="156" t="s">
         <v>234</v>
       </c>
       <c r="C16" s="58"/>
@@ -31073,15 +31079,15 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="167"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="106" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="95" t="s">
@@ -31094,185 +31100,207 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="104" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="156" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="132"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="132"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D21" s="110" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+    <row r="22" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="44"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="164" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="157" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="165"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>253</v>
-      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="131" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="168" t="s">
+      <c r="A23" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="156" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="98">
-        <v>10.1</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>30</v>
+      <c r="C23" s="58"/>
+      <c r="D23" s="79" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="132"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="106">
-        <v>10.199999999999999</v>
+      <c r="A24" s="169"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="105" t="s">
+        <v>246</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="105" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="106" t="s">
+      <c r="A25" s="143" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="79" t="s">
-        <v>261</v>
+      <c r="C25" s="98">
+        <v>10.1</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="44"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="144"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="105">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="98" t="s">
+      <c r="A27" s="104" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="103" t="s">
-        <v>251</v>
+      <c r="C27" s="98"/>
+      <c r="D27" s="79" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113"/>
+    <row r="28" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="172" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="174" t="s">
+      <c r="A29" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" t="s">
-        <v>267</v>
+      <c r="C29" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="173"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="171" t="s">
+      <c r="A30" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="115"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="174" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="163" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="170" t="s">
+      <c r="D31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="175"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="112" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="111" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="170" t="s">
+    <row r="33" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B33" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="C31" s="171" t="s">
+      <c r="C33" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D33" s="58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="170" t="s">
+    <row r="34" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B34" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="C34" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D34" s="58" t="s">
         <v>263</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A28:D28"/>
+  <mergeCells count="17">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -19,15 +19,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="277">
   <si>
     <t>Document</t>
   </si>
@@ -2621,6 +2621,27 @@
   <si>
     <t>code 2049</t>
   </si>
+  <si>
+    <t xml:space="preserve">code 3002 - 3006 </t>
+  </si>
+  <si>
+    <t>1.0 Final</t>
+  </si>
+  <si>
+    <t>New Section</t>
+  </si>
+  <si>
+    <t>Sample Code Gists</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>SOAP Integration Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHA1 changed to SHA512withRSA </t>
+  </si>
 </sst>
 </file>
 
@@ -3205,7 +3226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3475,9 +3496,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3489,15 +3507,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3545,22 +3572,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3571,41 +3607,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3631,29 +3667,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3663,12 +3684,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3682,10 +3697,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4061,7 +4091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41:D45"/>
     </sheetView>
   </sheetViews>
@@ -4092,12 +4122,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4122,12 +4152,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4170,10 +4200,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="121">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4188,8 +4218,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="117"/>
-      <c r="B8" s="120"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4202,8 +4232,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="117"/>
-      <c r="B9" s="120"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -4216,8 +4246,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="117"/>
-      <c r="B10" s="120"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -4230,8 +4260,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="117"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -4244,8 +4274,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="118"/>
-      <c r="B12" s="121"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -4258,10 +4288,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="119">
+      <c r="B13" s="121">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4276,8 +4306,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="125"/>
-      <c r="B14" s="121"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -4326,12 +4356,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4374,22 +4404,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="126" t="s">
+      <c r="A21" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="123">
+      <c r="B21" s="125">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4404,8 +4434,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="127"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4428,18 +4458,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="122" t="s">
+      <c r="A25" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="123">
+      <c r="B25" s="125">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4454,8 +4484,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="117"/>
-      <c r="B26" s="120"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4468,8 +4498,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="117"/>
-      <c r="B27" s="120"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4482,8 +4512,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="117"/>
-      <c r="B28" s="120"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4496,8 +4526,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="117"/>
-      <c r="B29" s="120"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4510,8 +4540,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="117"/>
-      <c r="B30" s="120"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="122"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4524,8 +4554,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
-      <c r="B31" s="120"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4538,8 +4568,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="118"/>
-      <c r="B32" s="121"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4664,12 +4694,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="113" t="s">
+      <c r="A41" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="117"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4729,7 +4759,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4739,7 +4769,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4849,10 +4879,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="133" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4863,8 +4893,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="138"/>
-      <c r="B8" s="137"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4873,8 +4903,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
-      <c r="B9" s="137"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4883,8 +4913,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="138"/>
-      <c r="B10" s="137"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4893,8 +4923,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="138"/>
-      <c r="B11" s="137"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4903,8 +4933,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="138"/>
-      <c r="B12" s="137"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4913,10 +4943,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="133" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4927,8 +4957,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
-      <c r="B14" s="137"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4937,8 +4967,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="140"/>
-      <c r="B15" s="137"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4947,10 +4977,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="142" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4961,8 +4991,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="141"/>
-      <c r="B17" s="132"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -4971,8 +5001,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="141"/>
-      <c r="B18" s="132"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -4981,8 +5011,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="141"/>
-      <c r="B19" s="132"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -4991,8 +5021,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="141"/>
-      <c r="B20" s="132"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5001,8 +5031,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="141"/>
-      <c r="B21" s="132"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="142"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5011,8 +5041,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="141"/>
-      <c r="B22" s="132"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="142"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5021,8 +5051,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="141"/>
-      <c r="B23" s="132"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5031,26 +5061,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="141" t="s">
+      <c r="A24" s="130"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="142" t="s">
+      <c r="D24" s="131" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="141"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138" t="s">
+      <c r="A26" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="133" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5061,8 +5091,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="138"/>
-      <c r="B27" s="137"/>
+      <c r="A27" s="132"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5089,28 +5119,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="141" t="s">
+      <c r="C30" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="130" t="s">
+      <c r="D30" s="138" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="139"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="130"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="138"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="139"/>
-      <c r="B32" s="137"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5119,8 +5149,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="139"/>
-      <c r="B33" s="137"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5129,8 +5159,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="139"/>
-      <c r="B34" s="137"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5139,8 +5169,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="139"/>
-      <c r="B35" s="137"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5149,8 +5179,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="139"/>
-      <c r="B36" s="137"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5159,26 +5189,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="139"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="143" t="s">
+      <c r="A37" s="134"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="145" t="s">
+      <c r="D37" s="137" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="139"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="145"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="137"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="133" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5189,8 +5219,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="138"/>
-      <c r="B40" s="137"/>
+      <c r="A40" s="132"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -5217,10 +5247,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="139" t="s">
+      <c r="A43" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="133" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -5229,8 +5259,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="139"/>
-      <c r="B44" s="137"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5239,10 +5269,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="133" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5251,8 +5281,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="135"/>
-      <c r="B46" s="137"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="133"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5261,8 +5291,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="135"/>
-      <c r="B47" s="137"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="133"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5271,8 +5301,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="136"/>
-      <c r="B48" s="137"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5281,10 +5311,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="132" t="s">
+      <c r="A49" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="132" t="s">
+      <c r="B49" s="142" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9388,8 +9418,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="132"/>
-      <c r="B50" s="132"/>
+      <c r="A50" s="142"/>
+      <c r="B50" s="142"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13493,8 +13523,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="132"/>
-      <c r="B51" s="132"/>
+      <c r="A51" s="142"/>
+      <c r="B51" s="142"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17598,8 +17628,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="132"/>
-      <c r="B52" s="132"/>
+      <c r="A52" s="142"/>
+      <c r="B52" s="142"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21703,12 +21733,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="132"/>
-      <c r="B53" s="132"/>
-      <c r="C53" s="129" t="s">
+      <c r="A53" s="142"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="130" t="s">
+      <c r="D53" s="138" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25808,10 +25838,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="132"/>
-      <c r="B54" s="132"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="130"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="138"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29929,10 +29959,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="132" t="s">
+      <c r="B57" s="142" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29943,8 +29973,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="131"/>
-      <c r="B58" s="132"/>
+      <c r="A58" s="146"/>
+      <c r="B58" s="142"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29953,8 +29983,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="131"/>
-      <c r="B59" s="132"/>
+      <c r="A59" s="146"/>
+      <c r="B59" s="142"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29963,8 +29993,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="131"/>
-      <c r="B60" s="132"/>
+      <c r="A60" s="146"/>
+      <c r="B60" s="142"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -29973,8 +30003,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="131"/>
-      <c r="B61" s="132"/>
+      <c r="A61" s="146"/>
+      <c r="B61" s="142"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -29983,8 +30013,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="131"/>
-      <c r="B62" s="132"/>
+      <c r="A62" s="146"/>
+      <c r="B62" s="142"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -29993,8 +30023,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="131"/>
-      <c r="B63" s="132"/>
+      <c r="A63" s="146"/>
+      <c r="B63" s="142"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30003,16 +30033,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="131"/>
-      <c r="B64" s="132"/>
+      <c r="A64" s="146"/>
+      <c r="B64" s="142"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="131"/>
-      <c r="B65" s="132"/>
+      <c r="A65" s="146"/>
+      <c r="B65" s="142"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30021,16 +30051,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="131"/>
-      <c r="B66" s="132"/>
+      <c r="A66" s="146"/>
+      <c r="B66" s="142"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="131"/>
-      <c r="B67" s="132"/>
+      <c r="A67" s="146"/>
+      <c r="B67" s="142"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30039,8 +30069,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="131"/>
-      <c r="B68" s="132"/>
+      <c r="A68" s="146"/>
+      <c r="B68" s="142"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30049,8 +30079,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="131"/>
-      <c r="B69" s="132"/>
+      <c r="A69" s="146"/>
+      <c r="B69" s="142"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30059,8 +30089,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="131"/>
-      <c r="B70" s="132"/>
+      <c r="A70" s="146"/>
+      <c r="B70" s="142"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30069,8 +30099,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="131"/>
-      <c r="B71" s="132"/>
+      <c r="A71" s="146"/>
+      <c r="B71" s="142"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30079,8 +30109,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="131"/>
-      <c r="B72" s="132"/>
+      <c r="A72" s="146"/>
+      <c r="B72" s="142"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30089,16 +30119,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="131"/>
-      <c r="B73" s="132"/>
+      <c r="A73" s="146"/>
+      <c r="B73" s="142"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="131"/>
-      <c r="B74" s="132"/>
+      <c r="A74" s="146"/>
+      <c r="B74" s="142"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30107,18 +30137,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="131"/>
-      <c r="B75" s="132"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="133" t="s">
+      <c r="A75" s="146"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="144"/>
+      <c r="D75" s="147" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="131"/>
-      <c r="B76" s="132"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="133"/>
+      <c r="A76" s="146"/>
+      <c r="B76" s="142"/>
+      <c r="C76" s="144"/>
+      <c r="D76" s="147"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30142,8 +30172,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30152,13 +30182,31 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B16:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="A39:A40"/>
@@ -30171,24 +30219,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30242,10 +30272,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="133" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30256,133 +30286,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="138"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="147" t="s">
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="163" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="162" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="138"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="146"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="162"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138"/>
-      <c r="B7" s="137"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="138"/>
-      <c r="B8" s="137"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
-      <c r="B9" s="137"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="146" t="s">
+      <c r="C10" s="154"/>
+      <c r="D10" s="162" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="146"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="162"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="140"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="146"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="162"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="146" t="s">
+      <c r="C13" s="164"/>
+      <c r="D13" s="162" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="141"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="146"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="162"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="141"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="148"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="141"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="148"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="141"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="148"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="141"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="148"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="141"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="148"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="141"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="148"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="141"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="148"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="141"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="148"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="164"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="141"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="148"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="164"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30480,10 +30510,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="157" t="s">
+      <c r="A32" s="148" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="160" t="s">
+      <c r="B32" s="151" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30494,26 +30524,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="158"/>
-      <c r="B33" s="161"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="152"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="158"/>
-      <c r="B34" s="161"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="158"/>
-      <c r="B35" s="161"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="159"/>
-      <c r="B36" s="162"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30542,10 +30572,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="139" t="s">
+      <c r="A39" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="133" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30556,8 +30586,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="139"/>
-      <c r="B40" s="137"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30566,84 +30596,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="138" t="s">
+      <c r="A41" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="149" t="s">
+      <c r="C41" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="141" t="s">
+      <c r="D41" s="130" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="138"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="141"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="130"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="138"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="149" t="s">
+      <c r="A43" s="132"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="154" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="133" t="s">
+      <c r="D43" s="147" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="138"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="133"/>
+      <c r="A44" s="132"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="147"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="131" t="s">
+      <c r="A45" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="153"/>
+      <c r="C45" s="158"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="131"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="150" t="s">
+      <c r="A46" s="146"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="155" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="131"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="151"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="159"/>
+      <c r="D47" s="156"/>
     </row>
     <row r="48" spans="1:4" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="131"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="151"/>
+      <c r="A48" s="146"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="156"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="131"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="151"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="156"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="131"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="152"/>
+      <c r="A50" s="146"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="157"/>
     </row>
     <row r="51" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30666,10 +30696,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="132" t="s">
+      <c r="A53" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="132" t="s">
+      <c r="B53" s="142" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30680,8 +30710,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="132"/>
-      <c r="B54" s="132"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="142"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30690,8 +30720,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="132"/>
-      <c r="B55" s="132"/>
+      <c r="A55" s="142"/>
+      <c r="B55" s="142"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30700,9 +30730,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="132"/>
-      <c r="B56" s="132"/>
-      <c r="C56" s="156" t="s">
+      <c r="A56" s="142"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="161" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -30710,16 +30740,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="132"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="156"/>
+      <c r="A57" s="142"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="161"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="132"/>
-      <c r="B58" s="132"/>
+      <c r="A58" s="142"/>
+      <c r="B58" s="142"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30728,8 +30758,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="132"/>
-      <c r="B59" s="132"/>
+      <c r="A59" s="142"/>
+      <c r="B59" s="142"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30738,9 +30768,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="132"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="156" t="s">
+      <c r="A60" s="142"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="161" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -30748,25 +30778,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="132"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="156"/>
+      <c r="A61" s="142"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="161"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="132"/>
-      <c r="B62" s="132"/>
-      <c r="C62" s="156"/>
+      <c r="A62" s="142"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="161"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="132"/>
-      <c r="B63" s="132"/>
-      <c r="C63" s="149" t="s">
+      <c r="A63" s="142"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="154" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -30774,30 +30804,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="132"/>
-      <c r="B64" s="132"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="133" t="s">
+      <c r="A64" s="142"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="147" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="132"/>
-      <c r="B65" s="132"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="133"/>
+      <c r="A65" s="142"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="154"/>
+      <c r="D65" s="147"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="132"/>
-      <c r="B66" s="132"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="133"/>
+      <c r="A66" s="142"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="147"/>
     </row>
     <row r="67" spans="1:4" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="132"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="133"/>
+      <c r="A67" s="142"/>
+      <c r="B67" s="142"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="147"/>
     </row>
     <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
@@ -30853,19 +30883,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30879,13 +30903,19 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30894,10 +30924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30931,10 +30961,10 @@
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="161" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
@@ -30943,12 +30973,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="105" t="s">
+      <c r="A4" s="130"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="106" t="s">
         <v>256</v>
       </c>
     </row>
@@ -30956,11 +30986,11 @@
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="105" t="s">
+      <c r="B5" s="161"/>
+      <c r="C5" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="107" t="s">
         <v>236</v>
       </c>
     </row>
@@ -30968,339 +30998,403 @@
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="105" t="s">
+      <c r="B6" s="161"/>
+      <c r="C6" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="107" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="156"/>
+      <c r="A7" s="168" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="161"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="108" t="s">
-        <v>259</v>
+      <c r="D7" s="79" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="169"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="165" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="156" t="s">
-        <v>234</v>
-      </c>
+      <c r="A9" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="161"/>
       <c r="C9" s="58"/>
-      <c r="D9" t="s">
-        <v>258</v>
+      <c r="D9" s="107" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="166"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58" t="s">
-        <v>252</v>
-      </c>
+    <row r="10" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="167"/>
-      <c r="B11" s="156"/>
+      <c r="A11" s="165" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>234</v>
+      </c>
       <c r="C11" s="58"/>
-      <c r="D11" s="58" t="s">
-        <v>254</v>
+      <c r="D11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>234</v>
-      </c>
+      <c r="A12" s="166"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="167"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B15" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C15" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D15" s="99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="101" t="s">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="161"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D16" s="61" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="44"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="170" t="s">
-        <v>260</v>
-      </c>
-      <c r="B16" s="156" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="171"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58" t="s">
-        <v>257</v>
-      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="95" t="s">
+      <c r="A18" s="168" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>30</v>
+      <c r="C18" s="58"/>
+      <c r="D18" s="79" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="132" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="156" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>268</v>
-      </c>
+      <c r="A19" s="169"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="58" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="132"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="58" t="s">
+      <c r="A20" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="58" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="132"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="100" t="s">
-        <v>244</v>
-      </c>
-      <c r="D21" s="110" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="44"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="175"/>
+      <c r="B22" s="177"/>
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="168" t="s">
+      <c r="A23" s="175"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="176"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="113" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="44"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="173"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="156" t="s">
+      <c r="B27" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="79" t="s">
-        <v>261</v>
+      <c r="C27" s="114" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="169"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="105" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="143" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="172" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="98">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="130"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="114">
         <v>10.1</v>
       </c>
-      <c r="D25" s="58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="144"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="105">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="104" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" s="105" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="44"/>
+      <c r="D28" s="58" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="98" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="103" t="s">
-        <v>251</v>
+      <c r="A29" s="130"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="114">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="115"/>
+      <c r="A30" s="130" t="s">
+        <v>247</v>
+      </c>
+      <c r="B30" s="161" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="161"/>
+      <c r="D30" s="178" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="174" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="163" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="112" t="s">
-        <v>265</v>
-      </c>
-      <c r="D31" t="s">
-        <v>267</v>
-      </c>
+      <c r="A31" s="130"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="178"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="175"/>
-      <c r="B32" s="164"/>
-      <c r="C32" s="112" t="s">
+      <c r="A32" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D34" s="58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="112"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="58" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="111" t="s">
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="109" t="s">
+      <c r="B38" s="114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="172" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="114" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="112" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="109" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="112" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>263</v>
+      <c r="C41" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="103" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="283">
   <si>
     <t>Document</t>
   </si>
@@ -2642,6 +2642,24 @@
   <si>
     <t xml:space="preserve">SHA1 changed to SHA512withRSA </t>
   </si>
+  <si>
+    <t>code 2006</t>
+  </si>
+  <si>
+    <t>Request-target updated</t>
+  </si>
+  <si>
+    <t>REST Request Authentication Presentation</t>
+  </si>
+  <si>
+    <t>REST_Web_Service_Integration_Guide_Sample_Http_Messages</t>
+  </si>
+  <si>
+    <t>updated header's Request-target</t>
+  </si>
+  <si>
+    <t>Sample HTTP Request with full 'Signature' Header</t>
+  </si>
 </sst>
 </file>
 
@@ -2781,7 +2799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -3222,11 +3240,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3526,6 +3553,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3676,6 +3716,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3685,23 +3731,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3712,11 +3743,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4122,12 +4163,12 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4152,12 +4193,12 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4200,10 +4241,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B7" s="126">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4218,8 +4259,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="119"/>
-      <c r="B8" s="122"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4232,8 +4273,8 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="119"/>
-      <c r="B9" s="122"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -4246,8 +4287,8 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="119"/>
-      <c r="B10" s="122"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -4260,8 +4301,8 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="119"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -4274,8 +4315,8 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
-      <c r="B12" s="123"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -4288,10 +4329,10 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="126">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4306,8 +4347,8 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="127"/>
-      <c r="B14" s="123"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -4356,12 +4397,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4404,22 +4445,22 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="130">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4434,8 +4475,8 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="129"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4458,18 +4499,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="124" t="s">
+      <c r="A25" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="125">
+      <c r="B25" s="130">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4484,8 +4525,8 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="119"/>
-      <c r="B26" s="122"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4498,8 +4539,8 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="119"/>
-      <c r="B27" s="122"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4512,8 +4553,8 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="119"/>
-      <c r="B28" s="122"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4526,8 +4567,8 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="119"/>
-      <c r="B29" s="122"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="127"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4540,8 +4581,8 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="119"/>
-      <c r="B30" s="122"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4554,8 +4595,8 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="119"/>
-      <c r="B31" s="122"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4568,8 +4609,8 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="120"/>
-      <c r="B32" s="123"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4694,12 +4735,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="117"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="122"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4879,10 +4920,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4893,8 +4934,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4903,8 +4944,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4913,8 +4954,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="132"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4923,8 +4964,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="132"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4933,8 +4974,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4943,10 +4984,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4957,8 +4998,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="143"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -4967,8 +5008,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="143"/>
-      <c r="B15" s="133"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -4977,10 +5018,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="147" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -4991,8 +5032,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="142"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5001,8 +5042,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="130"/>
-      <c r="B18" s="142"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5011,8 +5052,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="130"/>
-      <c r="B19" s="142"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5021,8 +5062,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="130"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5031,8 +5072,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="130"/>
-      <c r="B21" s="142"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5041,8 +5082,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="142"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5051,8 +5092,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="130"/>
-      <c r="B23" s="142"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5061,26 +5102,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="130"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="130" t="s">
+      <c r="A24" s="135"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="131" t="s">
+      <c r="D24" s="136" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="130"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="136"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5091,8 +5132,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="132"/>
-      <c r="B27" s="133"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5119,28 +5160,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="130" t="s">
+      <c r="C30" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="138" t="s">
+      <c r="D30" s="143" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="134"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="138"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="143"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="134"/>
-      <c r="B32" s="133"/>
+      <c r="A32" s="139"/>
+      <c r="B32" s="138"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5149,8 +5190,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="134"/>
-      <c r="B33" s="133"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="138"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5159,8 +5200,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="134"/>
-      <c r="B34" s="133"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="138"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5169,8 +5210,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="134"/>
-      <c r="B35" s="133"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="138"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5179,8 +5220,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="134"/>
-      <c r="B36" s="133"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5189,26 +5230,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="134"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="135" t="s">
+      <c r="A37" s="139"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="137" t="s">
+      <c r="D37" s="142" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="134"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="137"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="142"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="132" t="s">
+      <c r="A39" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5219,8 +5260,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="132"/>
-      <c r="B40" s="133"/>
+      <c r="A40" s="137"/>
+      <c r="B40" s="138"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -5247,10 +5288,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -5259,8 +5300,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="134"/>
-      <c r="B44" s="133"/>
+      <c r="A44" s="139"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5269,10 +5310,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="139" t="s">
+      <c r="A45" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5281,8 +5322,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="140"/>
-      <c r="B46" s="133"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="138"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5291,8 +5332,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="140"/>
-      <c r="B47" s="133"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="138"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5301,8 +5342,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="141"/>
-      <c r="B48" s="133"/>
+      <c r="A48" s="146"/>
+      <c r="B48" s="138"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5311,10 +5352,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="142" t="s">
+      <c r="A49" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="147" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9418,8 +9459,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="142"/>
-      <c r="B50" s="142"/>
+      <c r="A50" s="147"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13523,8 +13564,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="142"/>
-      <c r="B51" s="142"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17628,8 +17669,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="142"/>
-      <c r="B52" s="142"/>
+      <c r="A52" s="147"/>
+      <c r="B52" s="147"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21733,12 +21774,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="142"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="145" t="s">
+      <c r="A53" s="147"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="138" t="s">
+      <c r="D53" s="143" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25838,10 +25879,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="142"/>
-      <c r="B54" s="142"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="138"/>
+      <c r="A54" s="147"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="143"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29959,10 +30000,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="146" t="s">
+      <c r="A57" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="142" t="s">
+      <c r="B57" s="147" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -29973,8 +30014,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="146"/>
-      <c r="B58" s="142"/>
+      <c r="A58" s="151"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -29983,8 +30024,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="146"/>
-      <c r="B59" s="142"/>
+      <c r="A59" s="151"/>
+      <c r="B59" s="147"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -29993,8 +30034,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="146"/>
-      <c r="B60" s="142"/>
+      <c r="A60" s="151"/>
+      <c r="B60" s="147"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30003,8 +30044,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="146"/>
-      <c r="B61" s="142"/>
+      <c r="A61" s="151"/>
+      <c r="B61" s="147"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30013,8 +30054,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="146"/>
-      <c r="B62" s="142"/>
+      <c r="A62" s="151"/>
+      <c r="B62" s="147"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30023,8 +30064,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="146"/>
-      <c r="B63" s="142"/>
+      <c r="A63" s="151"/>
+      <c r="B63" s="147"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30033,16 +30074,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="146"/>
-      <c r="B64" s="142"/>
+      <c r="A64" s="151"/>
+      <c r="B64" s="147"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="146"/>
-      <c r="B65" s="142"/>
+      <c r="A65" s="151"/>
+      <c r="B65" s="147"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30051,16 +30092,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="146"/>
-      <c r="B66" s="142"/>
+      <c r="A66" s="151"/>
+      <c r="B66" s="147"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="146"/>
-      <c r="B67" s="142"/>
+      <c r="A67" s="151"/>
+      <c r="B67" s="147"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30069,8 +30110,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="146"/>
-      <c r="B68" s="142"/>
+      <c r="A68" s="151"/>
+      <c r="B68" s="147"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30079,8 +30120,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="146"/>
-      <c r="B69" s="142"/>
+      <c r="A69" s="151"/>
+      <c r="B69" s="147"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30089,8 +30130,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="146"/>
-      <c r="B70" s="142"/>
+      <c r="A70" s="151"/>
+      <c r="B70" s="147"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30099,8 +30140,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="146"/>
-      <c r="B71" s="142"/>
+      <c r="A71" s="151"/>
+      <c r="B71" s="147"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30109,8 +30150,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="146"/>
-      <c r="B72" s="142"/>
+      <c r="A72" s="151"/>
+      <c r="B72" s="147"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30119,16 +30160,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="146"/>
-      <c r="B73" s="142"/>
+      <c r="A73" s="151"/>
+      <c r="B73" s="147"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="146"/>
-      <c r="B74" s="142"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="147"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30137,18 +30178,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="146"/>
-      <c r="B75" s="142"/>
-      <c r="C75" s="144"/>
-      <c r="D75" s="147" t="s">
+      <c r="A75" s="151"/>
+      <c r="B75" s="147"/>
+      <c r="C75" s="149"/>
+      <c r="D75" s="152" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="146"/>
-      <c r="B76" s="142"/>
-      <c r="C76" s="144"/>
-      <c r="D76" s="147"/>
+      <c r="A76" s="151"/>
+      <c r="B76" s="147"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="152"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30272,10 +30313,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="138" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30286,133 +30327,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="163" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="168" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="162" t="s">
+      <c r="D5" s="167" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="162"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="167"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="154"/>
-      <c r="D10" s="162" t="s">
+      <c r="C10" s="159"/>
+      <c r="D10" s="167" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="143"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="162"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="167"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="143"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="162"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="167"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="162" t="s">
+      <c r="C13" s="169"/>
+      <c r="D13" s="167" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="162"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="167"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="130"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="164"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="169"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="130"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="164"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="169"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="164"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="169"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="130"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="164"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="169"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="130"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="164"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="169"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="130"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="164"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="169"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="130"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="164"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="169"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="164"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="169"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="130"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="164"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="169"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30510,10 +30551,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="153" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="156" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30524,26 +30565,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="149"/>
-      <c r="B33" s="152"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="157"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="149"/>
-      <c r="B34" s="152"/>
+      <c r="A34" s="154"/>
+      <c r="B34" s="157"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="149"/>
-      <c r="B35" s="152"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="150"/>
-      <c r="B36" s="153"/>
+      <c r="A36" s="155"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30572,10 +30613,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="138" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30586,8 +30627,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="134"/>
-      <c r="B40" s="133"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="138"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30596,84 +30637,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="132" t="s">
+      <c r="A41" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="154" t="s">
+      <c r="C41" s="159" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="130" t="s">
+      <c r="D41" s="135" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="132"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="130"/>
+      <c r="A42" s="137"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="135"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="132"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="154" t="s">
+      <c r="A43" s="137"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="159" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="147" t="s">
+      <c r="D43" s="152" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="132"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="147"/>
+      <c r="A44" s="137"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="159"/>
+      <c r="D44" s="152"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="146" t="s">
+      <c r="A45" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="142" t="s">
+      <c r="B45" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="158"/>
+      <c r="C45" s="163"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="146"/>
-      <c r="B46" s="142"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="155" t="s">
+      <c r="A46" s="151"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="160" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="146"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="159"/>
-      <c r="D47" s="156"/>
+      <c r="A47" s="151"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="161"/>
     </row>
     <row r="48" spans="1:4" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="146"/>
-      <c r="B48" s="142"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="156"/>
+      <c r="A48" s="151"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="161"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="146"/>
-      <c r="B49" s="142"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="156"/>
+      <c r="A49" s="151"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="161"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="146"/>
-      <c r="B50" s="142"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="157"/>
+      <c r="A50" s="151"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="162"/>
     </row>
     <row r="51" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30696,10 +30737,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="142" t="s">
+      <c r="A53" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="142" t="s">
+      <c r="B53" s="147" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30710,8 +30751,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="142"/>
-      <c r="B54" s="142"/>
+      <c r="A54" s="147"/>
+      <c r="B54" s="147"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30720,8 +30761,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="142"/>
-      <c r="B55" s="142"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30730,9 +30771,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="142"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="161" t="s">
+      <c r="A56" s="147"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="166" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -30740,16 +30781,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="142"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="161"/>
+      <c r="A57" s="147"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="166"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="142"/>
-      <c r="B58" s="142"/>
+      <c r="A58" s="147"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30758,8 +30799,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="142"/>
-      <c r="B59" s="142"/>
+      <c r="A59" s="147"/>
+      <c r="B59" s="147"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30768,9 +30809,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="142"/>
-      <c r="B60" s="142"/>
-      <c r="C60" s="161" t="s">
+      <c r="A60" s="147"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="166" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -30778,25 +30819,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="142"/>
-      <c r="B61" s="142"/>
-      <c r="C61" s="161"/>
+      <c r="A61" s="147"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="166"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="142"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="161"/>
+      <c r="A62" s="147"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="166"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="142"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="154" t="s">
+      <c r="A63" s="147"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="159" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -30804,30 +30845,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="142"/>
-      <c r="B64" s="142"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="147" t="s">
+      <c r="A64" s="147"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="152" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="142"/>
-      <c r="B65" s="142"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="147"/>
+      <c r="A65" s="147"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="152"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="142"/>
-      <c r="B66" s="142"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="147"/>
+      <c r="A66" s="147"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="152"/>
     </row>
     <row r="67" spans="1:4" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="142"/>
-      <c r="B67" s="142"/>
-      <c r="C67" s="154"/>
-      <c r="D67" s="147"/>
+      <c r="A67" s="147"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="152"/>
     </row>
     <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
@@ -30924,10 +30965,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30961,10 +31002,10 @@
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="166" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
@@ -30973,8 +31014,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130"/>
-      <c r="B4" s="161"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="104" t="s">
         <v>235</v>
       </c>
@@ -30986,7 +31027,7 @@
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="161"/>
+      <c r="B5" s="166"/>
       <c r="C5" s="104" t="s">
         <v>235</v>
       </c>
@@ -30998,7 +31039,7 @@
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="161"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="104" t="s">
         <v>22</v>
       </c>
@@ -31007,18 +31048,18 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="170" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="161"/>
+      <c r="B7" s="166"/>
       <c r="C7" s="58"/>
       <c r="D7" s="79" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="169"/>
-      <c r="B8" s="161"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58" t="s">
         <v>276</v>
@@ -31028,7 +31069,7 @@
       <c r="A9" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="161"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="58"/>
       <c r="D9" s="107" t="s">
         <v>259</v>
@@ -31043,10 +31084,10 @@
       <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="172" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="166" t="s">
         <v>234</v>
       </c>
       <c r="C11" s="58"/>
@@ -31055,16 +31096,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="166"/>
-      <c r="B12" s="161"/>
+      <c r="A12" s="173"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="167"/>
-      <c r="B13" s="161"/>
+      <c r="A13" s="174"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58" t="s">
         <v>254</v>
@@ -31083,317 +31124,367 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="166" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="166" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="183" t="s">
         <v>239</v>
       </c>
       <c r="D15" s="99" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="161"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="101" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="166"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="182" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="166"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D17" s="61" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="44"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="168" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="161" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="169"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58" t="s">
-        <v>257</v>
-      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="44"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="95" t="s">
+      <c r="A20" s="170" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="166" t="s">
         <v>234</v>
       </c>
-      <c r="C20" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="97" t="s">
-        <v>30</v>
+      <c r="C20" s="58"/>
+      <c r="D20" s="79" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="174" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>268</v>
-      </c>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="171"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="58" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="175"/>
-      <c r="B22" s="177"/>
-      <c r="C22" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>251</v>
+      <c r="A22" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="175"/>
-      <c r="B23" s="177"/>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="179" t="s">
+        <v>234</v>
+      </c>
       <c r="C23" s="58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="176"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="100" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="177"/>
+      <c r="B24" s="180"/>
+      <c r="C24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="177"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="177"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="119" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="178"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="113" t="s">
+      <c r="D27" s="113" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+    <row r="28" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="44"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="44"/>
     </row>
-    <row r="26" spans="1:4" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="173"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="79" t="s">
+    <row r="29" spans="1:4" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="116"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="79" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="130" t="s">
+    <row r="30" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="161" t="s">
+      <c r="B30" s="166" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C30" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D30" s="58" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="130"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="114">
-        <v>10.1</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="114">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="130" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="161" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="161"/>
-      <c r="D30" s="178" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="130"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="178"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="114">
+        <v>10.1</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="113" t="s">
-        <v>262</v>
-      </c>
-      <c r="B32" s="114" t="s">
+      <c r="A32" s="135"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="114">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="135" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="166" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="103" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="175" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="109" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>267</v>
-      </c>
+      <c r="A34" s="135"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="175"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="172" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
+      <c r="A35" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" s="114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="103" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="114" t="s">
-        <v>271</v>
-      </c>
-      <c r="C36" s="109" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>267</v>
-      </c>
+    <row r="36" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="111"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="112"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="114" t="s">
+        <v>234</v>
+      </c>
       <c r="C37" s="109" t="s">
         <v>265</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="114" t="s">
-        <v>271</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>100</v>
-      </c>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
     </row>
-    <row r="39" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="108" t="s">
-        <v>60</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="112" t="s">
+        <v>58</v>
       </c>
       <c r="B39" s="114" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="61" t="s">
-        <v>264</v>
+      <c r="C39" s="109" t="s">
+        <v>265</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="172" t="s">
+      <c r="A40" s="112"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="115" t="s">
         <v>273</v>
       </c>
-      <c r="B40" s="172"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="114" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="114" t="s">
         <v>234</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C44" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="103" t="s">
+      <c r="D44" s="103" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="103" t="s">
         <v>274</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
+  <mergeCells count="18">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -19,9 +19,9 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3253,7 +3253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3544,9 +3544,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3566,6 +3563,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3612,19 +3610,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3635,53 +3663,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3707,28 +3696,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -3752,12 +3741,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4800,7 +4803,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4810,7 +4813,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4920,10 +4923,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="144" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4934,8 +4937,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="137"/>
-      <c r="B8" s="138"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -4944,8 +4947,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -4954,8 +4957,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="137"/>
-      <c r="B10" s="138"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -4964,8 +4967,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="137"/>
-      <c r="B11" s="138"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -4974,8 +4977,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="137"/>
-      <c r="B12" s="138"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -4984,10 +4987,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="144" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4998,8 +5001,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="148"/>
-      <c r="B14" s="138"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="144"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5008,8 +5011,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="148"/>
-      <c r="B15" s="138"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5018,10 +5021,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="139" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5032,8 +5035,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135"/>
-      <c r="B17" s="147"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5042,8 +5045,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
-      <c r="B18" s="147"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5052,8 +5055,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5062,8 +5065,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="135"/>
-      <c r="B20" s="147"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5072,8 +5075,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="135"/>
-      <c r="B21" s="147"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5082,8 +5085,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="135"/>
-      <c r="B22" s="147"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5092,8 +5095,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
-      <c r="B23" s="147"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5102,26 +5105,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="135"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="135" t="s">
+      <c r="A24" s="148"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="136" t="s">
+      <c r="D24" s="149" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="135"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="149"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="144" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5132,8 +5135,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="137"/>
-      <c r="B27" s="138"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5160,28 +5163,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="138" t="s">
+      <c r="B30" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="143" t="s">
+      <c r="D30" s="137" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="139"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="143"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="137"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="139"/>
-      <c r="B32" s="138"/>
+      <c r="A32" s="146"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5190,8 +5193,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="139"/>
-      <c r="B33" s="138"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5200,8 +5203,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="139"/>
-      <c r="B34" s="138"/>
+      <c r="A34" s="146"/>
+      <c r="B34" s="144"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5210,8 +5213,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="139"/>
-      <c r="B35" s="138"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5220,8 +5223,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="139"/>
-      <c r="B36" s="138"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5230,26 +5233,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="139"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="140" t="s">
+      <c r="A37" s="146"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="142" t="s">
+      <c r="D37" s="152" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="139"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="142"/>
+      <c r="A38" s="146"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="152"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="144" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5260,8 +5263,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="137"/>
-      <c r="B40" s="138"/>
+      <c r="A40" s="145"/>
+      <c r="B40" s="144"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -5288,10 +5291,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="139" t="s">
+      <c r="A43" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="138" t="s">
+      <c r="B43" s="144" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -5300,8 +5303,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="139"/>
-      <c r="B44" s="138"/>
+      <c r="A44" s="146"/>
+      <c r="B44" s="144"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5310,10 +5313,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="144" t="s">
+      <c r="A45" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="144" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5322,8 +5325,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="145"/>
-      <c r="B46" s="138"/>
+      <c r="A46" s="142"/>
+      <c r="B46" s="144"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5332,8 +5335,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="145"/>
-      <c r="B47" s="138"/>
+      <c r="A47" s="142"/>
+      <c r="B47" s="144"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5342,8 +5345,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="146"/>
-      <c r="B48" s="138"/>
+      <c r="A48" s="143"/>
+      <c r="B48" s="144"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5352,10 +5355,10 @@
       </c>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="147" t="s">
+      <c r="A49" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="147" t="s">
+      <c r="B49" s="139" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9459,8 +9462,8 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="147"/>
-      <c r="B50" s="147"/>
+      <c r="A50" s="139"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13564,8 +13567,8 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="147"/>
-      <c r="B51" s="147"/>
+      <c r="A51" s="139"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17669,8 +17672,8 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="147"/>
-      <c r="B52" s="147"/>
+      <c r="A52" s="139"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21774,12 +21777,12 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="147"/>
-      <c r="B53" s="147"/>
-      <c r="C53" s="150" t="s">
+      <c r="A53" s="139"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="143" t="s">
+      <c r="D53" s="137" t="s">
         <v>144</v>
       </c>
       <c r="H53" s="42"/>
@@ -25879,10 +25882,10 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="147"/>
-      <c r="B54" s="147"/>
-      <c r="C54" s="150"/>
-      <c r="D54" s="143"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="137"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -30000,10 +30003,10 @@
       </c>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="151" t="s">
+      <c r="A57" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="147" t="s">
+      <c r="B57" s="139" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30014,8 +30017,8 @@
       </c>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="151"/>
-      <c r="B58" s="147"/>
+      <c r="A58" s="138"/>
+      <c r="B58" s="139"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30024,8 +30027,8 @@
       </c>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="151"/>
-      <c r="B59" s="147"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="139"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30034,8 +30037,8 @@
       </c>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="151"/>
-      <c r="B60" s="147"/>
+      <c r="A60" s="138"/>
+      <c r="B60" s="139"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30044,8 +30047,8 @@
       </c>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="151"/>
-      <c r="B61" s="147"/>
+      <c r="A61" s="138"/>
+      <c r="B61" s="139"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30054,8 +30057,8 @@
       </c>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="151"/>
-      <c r="B62" s="147"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="139"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30064,8 +30067,8 @@
       </c>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="151"/>
-      <c r="B63" s="147"/>
+      <c r="A63" s="138"/>
+      <c r="B63" s="139"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30074,16 +30077,16 @@
       </c>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="151"/>
-      <c r="B64" s="147"/>
+      <c r="A64" s="138"/>
+      <c r="B64" s="139"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="151"/>
-      <c r="B65" s="147"/>
+      <c r="A65" s="138"/>
+      <c r="B65" s="139"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30092,16 +30095,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="151"/>
-      <c r="B66" s="147"/>
+      <c r="A66" s="138"/>
+      <c r="B66" s="139"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="151"/>
-      <c r="B67" s="147"/>
+      <c r="A67" s="138"/>
+      <c r="B67" s="139"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30110,8 +30113,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="151"/>
-      <c r="B68" s="147"/>
+      <c r="A68" s="138"/>
+      <c r="B68" s="139"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30120,8 +30123,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="151"/>
-      <c r="B69" s="147"/>
+      <c r="A69" s="138"/>
+      <c r="B69" s="139"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30130,8 +30133,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="151"/>
-      <c r="B70" s="147"/>
+      <c r="A70" s="138"/>
+      <c r="B70" s="139"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30140,8 +30143,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="151"/>
-      <c r="B71" s="147"/>
+      <c r="A71" s="138"/>
+      <c r="B71" s="139"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30150,8 +30153,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="151"/>
-      <c r="B72" s="147"/>
+      <c r="A72" s="138"/>
+      <c r="B72" s="139"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30160,16 +30163,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="151"/>
-      <c r="B73" s="147"/>
+      <c r="A73" s="138"/>
+      <c r="B73" s="139"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="151"/>
-      <c r="B74" s="147"/>
+      <c r="A74" s="138"/>
+      <c r="B74" s="139"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30178,18 +30181,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="151"/>
-      <c r="B75" s="147"/>
-      <c r="C75" s="149"/>
-      <c r="D75" s="152" t="s">
+      <c r="A75" s="138"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="140" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="151"/>
-      <c r="B76" s="147"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="152"/>
+      <c r="A76" s="138"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="135"/>
+      <c r="D76" s="140"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30213,8 +30216,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30223,19 +30226,25 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="A49:A54"/>
@@ -30248,18 +30257,12 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30313,10 +30316,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="144" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30327,133 +30330,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="168" t="s">
+      <c r="A5" s="145"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="154" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="153" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="167"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="153"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="137"/>
-      <c r="B7" s="138"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="137"/>
-      <c r="B8" s="138"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="137"/>
-      <c r="B9" s="138"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="167" t="s">
+      <c r="C10" s="156"/>
+      <c r="D10" s="153" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="148"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="167"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="153"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="148"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="167"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="153"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="167" t="s">
+      <c r="C13" s="155"/>
+      <c r="D13" s="153" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="135"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="167"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="153"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="135"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="169"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="155"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="135"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="169"/>
+      <c r="A16" s="148"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="169"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="155"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="169"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="169"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="135"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="169"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="155"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="135"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="169"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="155"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="135"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="169"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="155"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="169"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="155"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30551,10 +30554,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="153" t="s">
+      <c r="A32" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="156" t="s">
+      <c r="B32" s="167" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30565,26 +30568,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="154"/>
-      <c r="B33" s="157"/>
+      <c r="A33" s="165"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="154"/>
-      <c r="B34" s="157"/>
+      <c r="A34" s="165"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="154"/>
-      <c r="B35" s="157"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="155"/>
-      <c r="B36" s="158"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="169"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30613,10 +30616,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="139" t="s">
+      <c r="A39" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="144" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30627,8 +30630,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="139"/>
-      <c r="B40" s="138"/>
+      <c r="A40" s="146"/>
+      <c r="B40" s="144"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30637,84 +30640,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="159" t="s">
+      <c r="C41" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="135" t="s">
+      <c r="D41" s="148" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="137"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="135"/>
+      <c r="A42" s="145"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="148"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="137"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="159" t="s">
+      <c r="A43" s="145"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="156" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="152" t="s">
+      <c r="D43" s="140" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="137"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="159"/>
-      <c r="D44" s="152"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="140"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="151" t="s">
+      <c r="A45" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="147" t="s">
+      <c r="B45" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="163"/>
+      <c r="C45" s="160"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="151"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="160" t="s">
+      <c r="A46" s="138"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="157" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="151"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="161"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="158"/>
     </row>
     <row r="48" spans="1:4" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="151"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="161"/>
+      <c r="A48" s="138"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="158"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="151"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="150"/>
-      <c r="D49" s="161"/>
+      <c r="A49" s="138"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="158"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="151"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="150"/>
-      <c r="D50" s="162"/>
+      <c r="A50" s="138"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="159"/>
     </row>
     <row r="51" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30737,10 +30740,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="147" t="s">
+      <c r="A53" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="147" t="s">
+      <c r="B53" s="139" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30751,8 +30754,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="147"/>
-      <c r="B54" s="147"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="139"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30761,8 +30764,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="147"/>
-      <c r="B55" s="147"/>
+      <c r="A55" s="139"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30771,9 +30774,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="147"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="166" t="s">
+      <c r="A56" s="139"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="163" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -30781,16 +30784,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="147"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="166"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="139"/>
+      <c r="C57" s="163"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="147"/>
-      <c r="B58" s="147"/>
+      <c r="A58" s="139"/>
+      <c r="B58" s="139"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30799,8 +30802,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="147"/>
-      <c r="B59" s="147"/>
+      <c r="A59" s="139"/>
+      <c r="B59" s="139"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30809,9 +30812,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="147"/>
-      <c r="B60" s="147"/>
-      <c r="C60" s="166" t="s">
+      <c r="A60" s="139"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="163" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -30819,25 +30822,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="147"/>
-      <c r="B61" s="147"/>
-      <c r="C61" s="166"/>
+      <c r="A61" s="139"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="163"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="147"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="166"/>
+      <c r="A62" s="139"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="163"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="147"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="159" t="s">
+      <c r="A63" s="139"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="156" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -30845,30 +30848,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="147"/>
-      <c r="B64" s="147"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="152" t="s">
+      <c r="A64" s="139"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="140" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="147"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="152"/>
+      <c r="A65" s="139"/>
+      <c r="B65" s="139"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="140"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="147"/>
-      <c r="B66" s="147"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="152"/>
+      <c r="A66" s="139"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="140"/>
     </row>
     <row r="67" spans="1:4" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="147"/>
-      <c r="B67" s="147"/>
-      <c r="C67" s="159"/>
-      <c r="D67" s="152"/>
+      <c r="A67" s="139"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="140"/>
     </row>
     <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
@@ -30924,13 +30927,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30944,19 +30953,13 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30967,8 +30970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31002,10 +31005,10 @@
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="163" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
@@ -31014,8 +31017,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="135"/>
-      <c r="B4" s="166"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="163"/>
       <c r="C4" s="104" t="s">
         <v>235</v>
       </c>
@@ -31027,7 +31030,7 @@
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="166"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="104" t="s">
         <v>235</v>
       </c>
@@ -31039,7 +31042,7 @@
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="166"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="104" t="s">
         <v>22</v>
       </c>
@@ -31048,18 +31051,18 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="179" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="166"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="58"/>
       <c r="D7" s="79" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="171"/>
-      <c r="B8" s="166"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58" t="s">
         <v>276</v>
@@ -31069,7 +31072,7 @@
       <c r="A9" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="166"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="58"/>
       <c r="D9" s="107" t="s">
         <v>259</v>
@@ -31084,10 +31087,10 @@
       <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="181" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="163" t="s">
         <v>234</v>
       </c>
       <c r="C11" s="58"/>
@@ -31096,16 +31099,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="173"/>
-      <c r="B12" s="166"/>
+      <c r="A12" s="182"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="174"/>
-      <c r="B13" s="166"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58" t="s">
         <v>254</v>
@@ -31124,13 +31127,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="183" t="s">
+      <c r="C15" s="170" t="s">
         <v>239</v>
       </c>
       <c r="D15" s="99" t="s">
@@ -31138,16 +31141,16 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="166"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="182" t="s">
+      <c r="A16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="119" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="166"/>
-      <c r="B17" s="166"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="101" t="s">
         <v>240</v>
       </c>
@@ -31156,7 +31159,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="116" t="s">
         <v>280</v>
       </c>
       <c r="B18" s="58"/>
@@ -31176,10 +31179,10 @@
       <c r="D19" s="44"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="170" t="s">
+      <c r="A20" s="179" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="166" t="s">
+      <c r="B20" s="163" t="s">
         <v>234</v>
       </c>
       <c r="C20" s="58"/>
@@ -31188,8 +31191,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="171"/>
-      <c r="B21" s="166"/>
+      <c r="A21" s="180"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="58"/>
       <c r="D21" s="58" t="s">
         <v>257</v>
@@ -31210,10 +31213,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="176" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="58" t="s">
@@ -31224,8 +31227,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
-      <c r="B24" s="180"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="177"/>
       <c r="C24" t="s">
         <v>270</v>
       </c>
@@ -31234,8 +31237,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="180"/>
+      <c r="A25" s="174"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="58" t="s">
         <v>269</v>
       </c>
@@ -31244,22 +31247,22 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="119" t="s">
+      <c r="A26" s="174"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="119" t="s">
+      <c r="D26" s="118" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="178"/>
-      <c r="B27" s="181"/>
+      <c r="A27" s="175"/>
+      <c r="B27" s="178"/>
       <c r="C27" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="113" t="s">
+      <c r="D27" s="112" t="s">
         <v>245</v>
       </c>
     </row>
@@ -31272,7 +31275,7 @@
       <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:4" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="67"/>
       <c r="C29" s="58"/>
       <c r="D29" s="79" t="s">
@@ -31280,13 +31283,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="135" t="s">
+      <c r="A30" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="113" t="s">
         <v>246</v>
       </c>
       <c r="D30" s="58" t="s">
@@ -31294,9 +31297,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="135"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="114">
+      <c r="A31" s="148"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="113">
         <v>10.1</v>
       </c>
       <c r="D31" s="58" t="s">
@@ -31304,9 +31307,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="135"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="114">
+      <c r="A32" s="148"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="113">
         <v>10.199999999999999</v>
       </c>
       <c r="D32" s="58" t="s">
@@ -31314,31 +31317,31 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="135" t="s">
+      <c r="A33" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="166" t="s">
+      <c r="B33" s="163" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="D33" s="175" t="s">
+      <c r="C33" s="163"/>
+      <c r="D33" s="172" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="135"/>
-      <c r="B34" s="166"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="175"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="172"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="112" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="114" t="s">
+      <c r="C35" s="113" t="s">
         <v>250</v>
       </c>
       <c r="D35" s="103" t="s">
@@ -31357,7 +31360,7 @@
       <c r="A37" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="113" t="s">
         <v>234</v>
       </c>
       <c r="C37" s="109" t="s">
@@ -31368,18 +31371,18 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="176" t="s">
         <v>271</v>
       </c>
       <c r="C39" s="109" t="s">
@@ -31390,8 +31393,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="112"/>
-      <c r="B40" s="114"/>
+      <c r="A40" s="185"/>
+      <c r="B40" s="178"/>
       <c r="C40" s="109" t="s">
         <v>265</v>
       </c>
@@ -31403,7 +31406,7 @@
       <c r="A41" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="113" t="s">
         <v>271</v>
       </c>
       <c r="C41" s="61" t="s">
@@ -31417,7 +31420,7 @@
       <c r="A42" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="113" t="s">
         <v>271</v>
       </c>
       <c r="C42" s="61" t="s">
@@ -31428,16 +31431,16 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="58"/>
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="113" t="s">
         <v>234</v>
       </c>
       <c r="C44" s="58" t="s">
@@ -31448,15 +31451,16 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="115" t="s">
+      <c r="A45" s="114" t="s">
         <v>279</v>
       </c>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="118" t="s">
+      <c r="A46" s="58"/>
+      <c r="B46" s="117" t="s">
         <v>234</v>
       </c>
       <c r="C46" s="58" t="s">
@@ -31467,7 +31471,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
@@ -31479,13 +31492,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -19,15 +19,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="284">
   <si>
     <t>Document</t>
   </si>
@@ -2660,6 +2660,9 @@
   <si>
     <t>Sample HTTP Request with full 'Signature' Header</t>
   </si>
+  <si>
+    <t>Date Updated</t>
+  </si>
 </sst>
 </file>
 
@@ -3253,7 +3256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3506,12 +3509,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3521,27 +3520,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3564,6 +3553,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3610,22 +3605,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3636,41 +3640,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3696,32 +3700,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3732,35 +3751,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4136,7 +4172,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:D45"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4145,9 +4181,10 @@
     <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4160,19 +4197,23 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="197">
+        <v>43056</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4190,19 +4231,19 @@
       <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="197"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="197"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4220,7 +4261,7 @@
       <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="197"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4238,16 +4279,16 @@
       <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="197"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="126">
+      <c r="B7" s="122">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4256,86 +4297,86 @@
       <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="197"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
-      <c r="B8" s="127"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="197"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="127"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="197"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
-      <c r="B10" s="127"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="197"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="197"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="125"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="197"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="126">
+      <c r="B13" s="122">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4344,21 +4385,21 @@
       <c r="D13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="197"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="132"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="197"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -4376,7 +4417,7 @@
       <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="197"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -4394,19 +4435,19 @@
       <c r="D16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="197"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="197"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4424,7 +4465,7 @@
       <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="197"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4442,28 +4483,28 @@
       <c r="D19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="197"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="197"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="130">
+      <c r="B21" s="126">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4472,20 +4513,21 @@
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="197"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="134"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="E22" s="197"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
@@ -4500,20 +4542,22 @@
       <c r="D23" s="36" t="s">
         <v>30</v>
       </c>
+      <c r="E23" s="197"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="197"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="130">
+      <c r="B25" s="126">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4522,110 +4566,110 @@
       <c r="D25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="197"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
-      <c r="B26" s="127"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="197"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="124"/>
-      <c r="B27" s="127"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="123"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="197"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="124"/>
-      <c r="B28" s="127"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="197"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="124"/>
-      <c r="B29" s="127"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="123"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="197"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="124"/>
-      <c r="B30" s="127"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="197"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="124"/>
-      <c r="B31" s="127"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="197"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="125"/>
-      <c r="B32" s="128"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="197"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>48</v>
       </c>
@@ -4638,8 +4682,9 @@
       <c r="D33" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="E33" s="197"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>49</v>
       </c>
@@ -4652,8 +4697,9 @@
       <c r="D34" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="E34" s="197"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
@@ -4666,8 +4712,9 @@
       <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="E35" s="197"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>51</v>
       </c>
@@ -4680,8 +4727,9 @@
       <c r="D36" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="E36" s="197"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>52</v>
       </c>
@@ -4694,8 +4742,9 @@
       <c r="D37" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="E37" s="197"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>53</v>
       </c>
@@ -4708,8 +4757,9 @@
       <c r="D38" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="E38" s="197"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>46</v>
       </c>
@@ -4722,8 +4772,9 @@
       <c r="D39" s="24" t="s">
         <v>55</v>
       </c>
+      <c r="E39" s="197"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>47</v>
       </c>
@@ -4736,16 +4787,18 @@
       <c r="D40" s="26" t="s">
         <v>55</v>
       </c>
+      <c r="E40" s="197"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="120" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="122"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="197"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
@@ -4758,8 +4811,9 @@
       <c r="D42" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="E42" s="197"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -4772,8 +4826,9 @@
       <c r="D43" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="E43" s="197"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>59</v>
       </c>
@@ -4786,8 +4841,9 @@
       <c r="D44" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="E44" s="197"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>60</v>
       </c>
@@ -4800,10 +4856,11 @@
       <c r="D45" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="E45" s="197"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4813,13 +4870,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="E2:E45"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A41:D41"/>
@@ -4844,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A76"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4854,9 +4912,10 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" customWidth="1"/>
     <col min="4" max="4" width="51.33203125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4869,16 +4928,22 @@
       <c r="D1" s="57" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
+      <c r="E2" s="198">
+        <v>43140</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>81</v>
       </c>
@@ -4889,8 +4954,9 @@
       <c r="D3" s="53" t="s">
         <v>30</v>
       </c>
+      <c r="E3" s="198"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>82</v>
       </c>
@@ -4901,8 +4967,9 @@
       <c r="D4" s="53" t="s">
         <v>30</v>
       </c>
+      <c r="E4" s="198"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>78</v>
       </c>
@@ -4913,20 +4980,22 @@
       <c r="D5" s="53" t="s">
         <v>30</v>
       </c>
+      <c r="E5" s="198"/>
     </row>
-    <row r="6" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="44"/>
+      <c r="E6" s="198"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="145" t="s">
+    <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -4935,62 +5004,68 @@
       <c r="D7" s="41" t="s">
         <v>92</v>
       </c>
+      <c r="E7" s="198"/>
     </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
-      <c r="B8" s="144"/>
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>91</v>
       </c>
+      <c r="E8" s="198"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="145"/>
-      <c r="B9" s="144"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="133"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>90</v>
       </c>
+      <c r="E9" s="198"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="145"/>
-      <c r="B10" s="144"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="133"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>95</v>
       </c>
+      <c r="E10" s="198"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="145"/>
-      <c r="B11" s="144"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="133"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>94</v>
       </c>
+      <c r="E11" s="198"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="145"/>
-      <c r="B12" s="144"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="133"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>97</v>
       </c>
+      <c r="E12" s="198"/>
     </row>
-    <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147" t="s">
+    <row r="13" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -4999,32 +5074,35 @@
       <c r="D13" s="49" t="s">
         <v>179</v>
       </c>
+      <c r="E13" s="198"/>
     </row>
-    <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
-      <c r="B14" s="144"/>
+    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="144"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>181</v>
       </c>
+      <c r="E14" s="198"/>
     </row>
-    <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
-      <c r="B15" s="144"/>
+    <row r="15" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="144"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>183</v>
       </c>
+      <c r="E15" s="198"/>
     </row>
-    <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="148" t="s">
+    <row r="16" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="143" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5033,98 +5111,108 @@
       <c r="D16" s="41" t="s">
         <v>184</v>
       </c>
+      <c r="E16" s="198"/>
     </row>
-    <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
-      <c r="B17" s="139"/>
+    <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="131"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="49" t="s">
         <v>149</v>
       </c>
+      <c r="E17" s="198"/>
     </row>
-    <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
-      <c r="B18" s="139"/>
+    <row r="18" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="131"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>150</v>
       </c>
+      <c r="E18" s="198"/>
     </row>
-    <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
-      <c r="B19" s="139"/>
+    <row r="19" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="131"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>152</v>
       </c>
+      <c r="E19" s="198"/>
     </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
-      <c r="B20" s="139"/>
+    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="131"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>154</v>
       </c>
+      <c r="E20" s="198"/>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
-      <c r="B21" s="139"/>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="131"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>156</v>
       </c>
+      <c r="E21" s="198"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
-      <c r="B22" s="139"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="131"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>158</v>
       </c>
+      <c r="E22" s="198"/>
     </row>
-    <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
-      <c r="B23" s="139"/>
+    <row r="23" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="131"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>160</v>
       </c>
+      <c r="E23" s="198"/>
     </row>
-    <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="148"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="148" t="s">
+    <row r="24" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="131"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="149" t="s">
+      <c r="D24" s="132" t="s">
         <v>162</v>
       </c>
+      <c r="E24" s="198"/>
     </row>
-    <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="149"/>
+    <row r="25" spans="1:5" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="131"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="198"/>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="145" t="s">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5133,16 +5221,18 @@
       <c r="D26" s="41" t="s">
         <v>164</v>
       </c>
+      <c r="E26" s="198"/>
     </row>
-    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
-      <c r="B27" s="144"/>
+    <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="133"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
       </c>
+      <c r="E27" s="198"/>
     </row>
-    <row r="28" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>165</v>
       </c>
@@ -5153,106 +5243,117 @@
       <c r="D28" s="48" t="s">
         <v>166</v>
       </c>
+      <c r="E28" s="198"/>
     </row>
-    <row r="29" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
+      <c r="E29" s="198"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="146" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="148" t="s">
+      <c r="C30" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="139" t="s">
         <v>177</v>
       </c>
+      <c r="E30" s="198"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="146"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="137"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="135"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="198"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="146"/>
-      <c r="B32" s="144"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="135"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>176</v>
       </c>
+      <c r="E32" s="198"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="146"/>
-      <c r="B33" s="144"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="135"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="62" t="s">
         <v>175</v>
       </c>
+      <c r="E33" s="198"/>
     </row>
-    <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="146"/>
-      <c r="B34" s="144"/>
+    <row r="34" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="135"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>174</v>
       </c>
+      <c r="E34" s="198"/>
     </row>
-    <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="146"/>
-      <c r="B35" s="144"/>
+    <row r="35" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="135"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="62" t="s">
         <v>173</v>
       </c>
+      <c r="E35" s="198"/>
     </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="146"/>
-      <c r="B36" s="144"/>
+    <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="135"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
       <c r="D36" s="68" t="s">
         <v>172</v>
       </c>
+      <c r="E36" s="198"/>
     </row>
-    <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="146"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="150" t="s">
+    <row r="37" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="135"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="136" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="152" t="s">
+      <c r="D37" s="138" t="s">
         <v>171</v>
       </c>
+      <c r="E37" s="198"/>
     </row>
-    <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="146"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="152"/>
+    <row r="38" spans="1:5" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="135"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="198"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="145" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5261,16 +5362,18 @@
       <c r="D39" s="52" t="s">
         <v>132</v>
       </c>
+      <c r="E39" s="198"/>
     </row>
-    <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="145"/>
-      <c r="B40" s="144"/>
+    <row r="40" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="133"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
       </c>
+      <c r="E40" s="198"/>
     </row>
-    <row r="41" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>27</v>
       </c>
@@ -5281,90 +5384,99 @@
       <c r="D41" s="50" t="s">
         <v>79</v>
       </c>
+      <c r="E41" s="198"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="44"/>
+      <c r="E42" s="198"/>
     </row>
-    <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="146" t="s">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="49" t="s">
         <v>131</v>
       </c>
+      <c r="E43" s="198"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="146"/>
-      <c r="B44" s="144"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="135"/>
+      <c r="B44" s="134"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>132</v>
       </c>
+      <c r="E44" s="198"/>
     </row>
-    <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="141" t="s">
+    <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="144" t="s">
+      <c r="B45" s="134" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="64" t="s">
         <v>103</v>
       </c>
+      <c r="E45" s="198"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="142"/>
-      <c r="B46" s="144"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="141"/>
+      <c r="B46" s="134"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>102</v>
       </c>
+      <c r="E46" s="198"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="142"/>
-      <c r="B47" s="144"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="141"/>
+      <c r="B47" s="134"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="49" t="s">
         <v>100</v>
       </c>
+      <c r="E47" s="198"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="143"/>
-      <c r="B48" s="144"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="142"/>
+      <c r="B48" s="134"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>132</v>
       </c>
+      <c r="E48" s="198"/>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="139" t="s">
+      <c r="A49" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="139" t="s">
+      <c r="B49" s="143" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="47" t="s">
         <v>104</v>
       </c>
+      <c r="E49" s="198"/>
       <c r="H49" s="42"/>
       <c r="L49" s="42"/>
       <c r="P49" s="42"/>
@@ -9462,14 +9574,15 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="139"/>
-      <c r="B50" s="139"/>
+      <c r="A50" s="143"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="60" t="s">
         <v>106</v>
       </c>
+      <c r="E50" s="198"/>
       <c r="H50" s="42"/>
       <c r="L50" s="42"/>
       <c r="P50" s="42"/>
@@ -13567,14 +13680,15 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="139"/>
-      <c r="B51" s="139"/>
+      <c r="A51" s="143"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>133</v>
       </c>
+      <c r="E51" s="198"/>
       <c r="H51" s="42"/>
       <c r="L51" s="42"/>
       <c r="P51" s="42"/>
@@ -17672,14 +17786,15 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="139"/>
-      <c r="B52" s="139"/>
+      <c r="A52" s="143"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="47" t="s">
         <v>134</v>
       </c>
+      <c r="E52" s="198"/>
       <c r="H52" s="42"/>
       <c r="L52" s="42"/>
       <c r="P52" s="42"/>
@@ -21777,14 +21892,15 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="139"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="136" t="s">
+      <c r="A53" s="143"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="137" t="s">
+      <c r="D53" s="139" t="s">
         <v>144</v>
       </c>
+      <c r="E53" s="198"/>
       <c r="H53" s="42"/>
       <c r="L53" s="42"/>
       <c r="P53" s="42"/>
@@ -25882,10 +25998,11 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="139"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="137"/>
+      <c r="A54" s="143"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="146"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="198"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -29989,6 +30106,7 @@
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="44"/>
+      <c r="E55" s="198"/>
     </row>
     <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
@@ -30001,12 +30119,13 @@
       <c r="D56" s="49" t="s">
         <v>110</v>
       </c>
+      <c r="E56" s="198"/>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="143" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30015,200 +30134,221 @@
       <c r="D57" s="47" t="s">
         <v>111</v>
       </c>
+      <c r="E57" s="198"/>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="138"/>
-      <c r="B58" s="139"/>
+      <c r="A58" s="147"/>
+      <c r="B58" s="143"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="47" t="s">
         <v>135</v>
       </c>
+      <c r="E58" s="198"/>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="138"/>
-      <c r="B59" s="139"/>
+      <c r="A59" s="147"/>
+      <c r="B59" s="143"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D59" s="47" t="s">
         <v>136</v>
       </c>
+      <c r="E59" s="198"/>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="138"/>
-      <c r="B60" s="139"/>
+      <c r="A60" s="147"/>
+      <c r="B60" s="143"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>116</v>
       </c>
+      <c r="E60" s="198"/>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="138"/>
-      <c r="B61" s="139"/>
+      <c r="A61" s="147"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D61" s="47" t="s">
         <v>137</v>
       </c>
+      <c r="E61" s="198"/>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="138"/>
-      <c r="B62" s="139"/>
+      <c r="A62" s="147"/>
+      <c r="B62" s="143"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D62" s="47" t="s">
         <v>138</v>
       </c>
+      <c r="E62" s="198"/>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="138"/>
-      <c r="B63" s="139"/>
+      <c r="A63" s="147"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D63" s="47" t="s">
         <v>139</v>
       </c>
+      <c r="E63" s="198"/>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="138"/>
-      <c r="B64" s="139"/>
+      <c r="A64" s="147"/>
+      <c r="B64" s="143"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
+      <c r="E64" s="198"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="138"/>
-      <c r="B65" s="139"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="147"/>
+      <c r="B65" s="143"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
       <c r="D65" s="47" t="s">
         <v>119</v>
       </c>
+      <c r="E65" s="198"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="138"/>
-      <c r="B66" s="139"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="147"/>
+      <c r="B66" s="143"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
+      <c r="E66" s="198"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="138"/>
-      <c r="B67" s="139"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="147"/>
+      <c r="B67" s="143"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
       <c r="D67" s="62" t="s">
         <v>140</v>
       </c>
+      <c r="E67" s="198"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="138"/>
-      <c r="B68" s="139"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="147"/>
+      <c r="B68" s="143"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
       <c r="D68" s="62" t="s">
         <v>124</v>
       </c>
+      <c r="E68" s="198"/>
     </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="138"/>
-      <c r="B69" s="139"/>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="147"/>
+      <c r="B69" s="143"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
       <c r="D69" s="47" t="s">
         <v>141</v>
       </c>
+      <c r="E69" s="198"/>
     </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="138"/>
-      <c r="B70" s="139"/>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="147"/>
+      <c r="B70" s="143"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
       <c r="D70" s="47" t="s">
         <v>141</v>
       </c>
+      <c r="E70" s="198"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="138"/>
-      <c r="B71" s="139"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="147"/>
+      <c r="B71" s="143"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="47" t="s">
         <v>142</v>
       </c>
+      <c r="E71" s="198"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="138"/>
-      <c r="B72" s="139"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="147"/>
+      <c r="B72" s="143"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="47" t="s">
         <v>140</v>
       </c>
+      <c r="E72" s="198"/>
     </row>
-    <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="138"/>
-      <c r="B73" s="139"/>
+    <row r="73" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="147"/>
+      <c r="B73" s="143"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
+      <c r="E73" s="198"/>
     </row>
-    <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="138"/>
-      <c r="B74" s="139"/>
+    <row r="74" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="147"/>
+      <c r="B74" s="143"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="47" t="s">
         <v>143</v>
       </c>
+      <c r="E74" s="198"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="138"/>
-      <c r="B75" s="139"/>
-      <c r="C75" s="135"/>
-      <c r="D75" s="140" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="147"/>
+      <c r="B75" s="143"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="148" t="s">
         <v>130</v>
       </c>
+      <c r="E75" s="198"/>
     </row>
-    <row r="76" spans="1:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="138"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="135"/>
-      <c r="D76" s="140"/>
+    <row r="76" spans="1:5" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="147"/>
+      <c r="B76" s="143"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="198"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="44"/>
+      <c r="E77" s="198"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="40"/>
       <c r="C78" s="38"/>
       <c r="D78" s="50"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="48"/>
       <c r="B79" s="40"/>
       <c r="C79" s="38"/>
@@ -30216,8 +30356,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30226,13 +30366,32 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="E2:E77"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B16:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="A39:A40"/>
@@ -30245,24 +30404,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30271,10 +30412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A67"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30283,9 +30424,10 @@
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
     <col min="4" max="4" width="80.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -30298,28 +30440,35 @@
       <c r="D1" s="57" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
+      <c r="E2" s="197">
+        <v>43179</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
+      <c r="E3" s="197"/>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="145" t="s">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="134" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30328,140 +30477,160 @@
       <c r="D4" s="49" t="s">
         <v>196</v>
       </c>
+      <c r="E4" s="197"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="145"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="154" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="164" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="163" t="s">
         <v>202</v>
       </c>
+      <c r="E5" s="197"/>
     </row>
-    <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="145"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="153"/>
+    <row r="6" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="197"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="145"/>
-      <c r="B7" s="144"/>
+    <row r="7" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="133"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
+      <c r="E7" s="197"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="145"/>
-      <c r="B8" s="144"/>
+    <row r="8" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
+      <c r="E8" s="197"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="145"/>
-      <c r="B9" s="144"/>
+    <row r="9" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="133"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
+      <c r="E9" s="197"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="153" t="s">
+      <c r="C10" s="155"/>
+      <c r="D10" s="163" t="s">
         <v>186</v>
       </c>
+      <c r="E10" s="197"/>
     </row>
-    <row r="11" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="153"/>
+    <row r="11" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="144"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="197"/>
     </row>
-    <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="153"/>
+    <row r="12" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="144"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="197"/>
     </row>
-    <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148" t="s">
+    <row r="13" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="153" t="s">
+      <c r="C13" s="165"/>
+      <c r="D13" s="163" t="s">
         <v>203</v>
       </c>
+      <c r="E13" s="197"/>
     </row>
-    <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="148"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="153"/>
+    <row r="14" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="131"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="197"/>
     </row>
-    <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="148"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="155"/>
+    <row r="15" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="131"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="165"/>
       <c r="D15" s="49"/>
+      <c r="E15" s="197"/>
     </row>
-    <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="155"/>
+    <row r="16" spans="1:5" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="131"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="49"/>
+      <c r="E16" s="197"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="148"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="155"/>
+    <row r="17" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="131"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="49"/>
+      <c r="E17" s="197"/>
     </row>
-    <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="148"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="155"/>
+    <row r="18" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="131"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="165"/>
       <c r="D18" s="49"/>
+      <c r="E18" s="197"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="148"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="155"/>
+    <row r="19" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="131"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="165"/>
       <c r="D19" s="49"/>
+      <c r="E19" s="197"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="148"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="155"/>
+    <row r="20" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="131"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="165"/>
       <c r="D20" s="49"/>
+      <c r="E20" s="197"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="148"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="155"/>
+    <row r="21" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="131"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="165"/>
       <c r="D21" s="49"/>
+      <c r="E21" s="197"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="148"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="155"/>
+    <row r="22" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="131"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="165"/>
       <c r="D22" s="49"/>
+      <c r="E22" s="197"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="148"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="155"/>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="131"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="165"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
+      <c r="E23" s="197"/>
     </row>
-    <row r="24" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="73" t="s">
         <v>187</v>
       </c>
@@ -30474,8 +30643,9 @@
       <c r="D24" s="77" t="s">
         <v>188</v>
       </c>
+      <c r="E24" s="197"/>
     </row>
-    <row r="25" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="s">
         <v>231</v>
       </c>
@@ -30488,8 +30658,9 @@
       <c r="D25" s="67" t="s">
         <v>233</v>
       </c>
+      <c r="E25" s="197"/>
     </row>
-    <row r="26" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>165</v>
       </c>
@@ -30500,16 +30671,18 @@
       <c r="D26" s="73" t="s">
         <v>166</v>
       </c>
+      <c r="E26" s="197"/>
     </row>
-    <row r="27" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
+      <c r="E27" s="197"/>
     </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
         <v>26</v>
       </c>
@@ -30522,8 +30695,9 @@
       <c r="D28" s="58" t="s">
         <v>227</v>
       </c>
+      <c r="E28" s="197"/>
     </row>
-    <row r="29" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
       <c r="B29" s="84"/>
       <c r="C29" s="70" t="s">
@@ -30532,8 +30706,9 @@
       <c r="D29" s="68" t="s">
         <v>204</v>
       </c>
+      <c r="E29" s="197"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
       <c r="B30" s="84"/>
       <c r="C30" s="88" t="s">
@@ -30542,8 +30717,9 @@
       <c r="D30" s="86" t="s">
         <v>201</v>
       </c>
+      <c r="E30" s="197"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
       <c r="B31" s="84"/>
       <c r="C31" s="89" t="s">
@@ -30552,12 +30728,13 @@
       <c r="D31" s="86" t="s">
         <v>225</v>
       </c>
+      <c r="E31" s="197"/>
     </row>
-    <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="164" t="s">
+    <row r="32" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="149" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="152" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30566,36 +30743,41 @@
       <c r="D32" s="87" t="s">
         <v>229</v>
       </c>
+      <c r="E32" s="197"/>
     </row>
-    <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="165"/>
-      <c r="B33" s="168"/>
+    <row r="33" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="150"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
+      <c r="E33" s="197"/>
     </row>
-    <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="165"/>
-      <c r="B34" s="168"/>
+    <row r="34" spans="1:5" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="150"/>
+      <c r="B34" s="153"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
+      <c r="E34" s="197"/>
     </row>
-    <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165"/>
-      <c r="B35" s="168"/>
+    <row r="35" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="150"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
+      <c r="E35" s="197"/>
     </row>
-    <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="166"/>
-      <c r="B36" s="169"/>
+    <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="151"/>
+      <c r="B36" s="154"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
       <c r="D36" s="75" t="s">
         <v>224</v>
       </c>
+      <c r="E36" s="197"/>
     </row>
-    <row r="37" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>27</v>
       </c>
@@ -30606,20 +30788,22 @@
       <c r="D37" s="50" t="s">
         <v>79</v>
       </c>
+      <c r="E37" s="197"/>
     </row>
-    <row r="38" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="44"/>
+      <c r="E38" s="197"/>
     </row>
-    <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="146" t="s">
+    <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="134" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30628,106 +30812,119 @@
       <c r="D39" s="81" t="s">
         <v>193</v>
       </c>
+      <c r="E39" s="197"/>
     </row>
-    <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="146"/>
-      <c r="B40" s="144"/>
+    <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="135"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>188</v>
       </c>
+      <c r="E40" s="197"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="145" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="144" t="s">
+      <c r="B41" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="156" t="s">
+      <c r="C41" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="148" t="s">
+      <c r="D41" s="131" t="s">
         <v>228</v>
       </c>
+      <c r="E41" s="197"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="145"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="148"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="133"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="197"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="145"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="156" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="133"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="155" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="140" t="s">
+      <c r="D43" s="148" t="s">
         <v>188</v>
       </c>
+      <c r="E43" s="197"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="145"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="140"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="133"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="197"/>
     </row>
-    <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="138" t="s">
+    <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="160"/>
+      <c r="C45" s="159"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
+      <c r="E45" s="197"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="138"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="157" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="147"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="156" t="s">
         <v>200</v>
       </c>
+      <c r="E46" s="197"/>
     </row>
-    <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="138"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="161"/>
-      <c r="D47" s="158"/>
+    <row r="47" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="147"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="197"/>
     </row>
-    <row r="48" spans="1:4" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="138"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="162"/>
-      <c r="D48" s="158"/>
+    <row r="48" spans="1:5" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="147"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="161"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="197"/>
     </row>
-    <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="138"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="158"/>
+    <row r="49" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="147"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="197"/>
     </row>
-    <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="138"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="159"/>
+    <row r="50" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="147"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="197"/>
     </row>
-    <row r="51" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="44"/>
+      <c r="E51" s="197"/>
     </row>
-    <row r="52" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>83</v>
       </c>
@@ -30738,12 +30935,13 @@
       <c r="D52" s="49" t="s">
         <v>110</v>
       </c>
+      <c r="E52" s="197"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="139" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="139" t="s">
+      <c r="B53" s="143" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30752,194 +30950,205 @@
       <c r="D53" s="47" t="s">
         <v>198</v>
       </c>
+      <c r="E53" s="197"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="139"/>
-      <c r="B54" s="139"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="143"/>
+      <c r="B54" s="143"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
       <c r="D54" s="47" t="s">
         <v>188</v>
       </c>
+      <c r="E54" s="197"/>
     </row>
-    <row r="55" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="139"/>
-      <c r="B55" s="139"/>
+    <row r="55" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="143"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
       <c r="D55" s="80" t="s">
         <v>212</v>
       </c>
+      <c r="E55" s="197"/>
     </row>
-    <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="139"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="163" t="s">
+    <row r="56" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="143"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="162" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
         <v>211</v>
       </c>
+      <c r="E56" s="197"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="139"/>
-      <c r="B57" s="139"/>
-      <c r="C57" s="163"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="143"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="162"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
+      <c r="E57" s="197"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="139"/>
-      <c r="B58" s="139"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="143"/>
+      <c r="B58" s="143"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>214</v>
       </c>
+      <c r="E58" s="197"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="139"/>
-      <c r="B59" s="139"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="143"/>
+      <c r="B59" s="143"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
       <c r="D59" s="79" t="s">
         <v>215</v>
       </c>
+      <c r="E59" s="197"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="139"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="163" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="143"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="162" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>216</v>
       </c>
+      <c r="E60" s="197"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="139"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="163"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="143"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="162"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
+      <c r="E61" s="197"/>
     </row>
-    <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="139"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="163"/>
+    <row r="62" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="143"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="162"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
+      <c r="E62" s="197"/>
     </row>
-    <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="139"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="156" t="s">
+    <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="143"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="155" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>219</v>
       </c>
+      <c r="E63" s="197"/>
     </row>
-    <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="139"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="140" t="s">
+    <row r="64" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="143"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="148" t="s">
         <v>220</v>
       </c>
+      <c r="E64" s="197"/>
     </row>
-    <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="139"/>
-      <c r="B65" s="139"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="140"/>
+    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="143"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="197"/>
     </row>
-    <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="139"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="140"/>
+    <row r="66" spans="1:5" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="143"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="155"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="197"/>
     </row>
-    <row r="67" spans="1:4" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="139"/>
-      <c r="B67" s="139"/>
-      <c r="C67" s="156"/>
-      <c r="D67" s="140"/>
+    <row r="67" spans="1:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="143"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="197"/>
     </row>
-    <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="44"/>
+      <c r="E68" s="197"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
       <c r="B69" s="83"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="82"/>
       <c r="B70" s="83"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="82"/>
       <c r="B71" s="83"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="82"/>
       <c r="B72" s="83"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
+  <mergeCells count="34">
+    <mergeCell ref="E2:E68"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="D64:D67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
@@ -30953,13 +31162,19 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30968,10 +31183,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30980,9 +31195,10 @@
     <col min="2" max="2" width="46.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -30992,129 +31208,164 @@
       <c r="C1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="181" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="57" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
-      <c r="D2" s="44"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="148" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="162" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
-      <c r="D3" t="s">
+      <c r="D3" s="183" t="s">
         <v>257</v>
       </c>
+      <c r="E3" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="148"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="104" t="s">
+    <row r="4" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="131"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="184" t="s">
         <v>256</v>
       </c>
+      <c r="E4" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="162"/>
+      <c r="C5" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="185" t="s">
         <v>236</v>
       </c>
+      <c r="E5" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="104" t="s">
+      <c r="B6" s="162"/>
+      <c r="C6" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="185" t="s">
         <v>30</v>
       </c>
+      <c r="E6" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="179" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="173" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="163"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="186" t="s">
         <v>261</v>
       </c>
+      <c r="E7" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
-      <c r="B8" s="163"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="174"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="58"/>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="183" t="s">
         <v>276</v>
       </c>
+      <c r="E8" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="163"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="58"/>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="185" t="s">
         <v>259</v>
       </c>
+      <c r="E9" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="181" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="170" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="162" t="s">
         <v>234</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" t="s">
         <v>258</v>
       </c>
+      <c r="E11" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="182"/>
-      <c r="B12" s="163"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="171"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="58"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="183" t="s">
         <v>252</v>
       </c>
+      <c r="E12" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="183"/>
-      <c r="B13" s="163"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="172"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="183" t="s">
         <v>254</v>
       </c>
+      <c r="E13" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="96" t="s">
         <v>27</v>
       </c>
@@ -31122,365 +31373,440 @@
         <v>234</v>
       </c>
       <c r="C14" s="58"/>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="183" t="s">
         <v>238</v>
       </c>
+      <c r="E14" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="163" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="162" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="162" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="175" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="188" t="s">
         <v>241</v>
       </c>
+      <c r="E15" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="163"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="119" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="162"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="113" t="s">
         <v>278</v>
       </c>
+      <c r="E16" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="163"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="101" t="s">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="162"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="189" t="s">
         <v>242</v>
       </c>
+      <c r="E17" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="116" t="s">
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="110" t="s">
         <v>280</v>
       </c>
       <c r="B18" s="58"/>
       <c r="C18" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="183" t="s">
         <v>281</v>
       </c>
+      <c r="E18" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="44"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="58"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="179" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="173" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="162" t="s">
         <v>234</v>
       </c>
       <c r="C20" s="58"/>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="186" t="s">
         <v>261</v>
       </c>
+      <c r="E20" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="180"/>
-      <c r="B21" s="163"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="174"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="183" t="s">
         <v>257</v>
       </c>
+      <c r="E21" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="105" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="102" t="s">
         <v>243</v>
       </c>
       <c r="B22" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="190" t="s">
         <v>30</v>
       </c>
+      <c r="E22" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="173" t="s">
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="168" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="183" t="s">
         <v>251</v>
       </c>
+      <c r="E23" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="177"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="178"/>
+      <c r="B24" s="180"/>
       <c r="C24" t="s">
         <v>270</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="183" t="s">
         <v>251</v>
       </c>
+      <c r="E24" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="174"/>
-      <c r="B25" s="177"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="178"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="183" t="s">
         <v>251</v>
       </c>
+      <c r="E25" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="174"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="118" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="178"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="112" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="113" t="s">
         <v>102</v>
       </c>
+      <c r="E26" s="194">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="175"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="100" t="s">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="179"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="190" t="s">
         <v>245</v>
       </c>
+      <c r="E27" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="44"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="58"/>
     </row>
-    <row r="29" spans="1:4" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
+    <row r="29" spans="1:5" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="109"/>
       <c r="B29" s="67"/>
       <c r="C29" s="58"/>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="186" t="s">
         <v>261</v>
       </c>
+      <c r="E29" s="58"/>
     </row>
-    <row r="30" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148" t="s">
+    <row r="30" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="162" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="183" t="s">
         <v>253</v>
       </c>
+      <c r="E30" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="148"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="113">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="131"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="107">
         <v>10.1</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="183" t="s">
         <v>272</v>
       </c>
+      <c r="E31" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="148"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="113">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="131"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="107">
         <v>10.199999999999999</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="183" t="s">
         <v>272</v>
       </c>
+      <c r="E32" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="148" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="162" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="163"/>
-      <c r="D33" s="172" t="s">
+      <c r="C33" s="162"/>
+      <c r="D33" s="191" t="s">
         <v>261</v>
       </c>
+      <c r="E33" s="195">
+        <v>43270</v>
+      </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="148"/>
-      <c r="B34" s="163"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="172"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="131"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="196"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="112" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="107" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="103" t="s">
+      <c r="D35" s="192" t="s">
         <v>251</v>
       </c>
+      <c r="E35" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="102" t="s">
+    <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="100" t="s">
         <v>248</v>
       </c>
       <c r="B36" s="39"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="58"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="183" t="s">
         <v>267</v>
       </c>
+      <c r="E37" s="193">
+        <v>43244</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="114" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="114"/>
+      <c r="E38" s="58"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="184" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="168" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="183" t="s">
         <v>267</v>
       </c>
+      <c r="E39" s="193">
+        <v>43259</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="185"/>
-      <c r="B40" s="178"/>
-      <c r="C40" s="109" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="167"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="183" t="s">
         <v>266</v>
       </c>
+      <c r="E40" s="193">
+        <v>43259</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="108" t="s">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="107" t="s">
         <v>271</v>
       </c>
       <c r="C41" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="183" t="s">
         <v>100</v>
       </c>
+      <c r="E41" s="193">
+        <v>43259</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="108" t="s">
+    <row r="42" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="107" t="s">
         <v>271</v>
       </c>
       <c r="C42" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="183" t="s">
         <v>263</v>
       </c>
+      <c r="E42" s="193">
+        <v>43259</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="114" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="114"/>
+      <c r="E43" s="58"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="58"/>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="107" t="s">
         <v>234</v>
       </c>
       <c r="C44" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="103" t="s">
+      <c r="D44" s="192" t="s">
         <v>274</v>
       </c>
+      <c r="E44" s="193">
+        <v>43265</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="114" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
       <c r="D45" s="114"/>
+      <c r="E45" s="58"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="58"/>
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="111" t="s">
         <v>234</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="103" t="s">
+      <c r="D46" s="192" t="s">
         <v>274</v>
+      </c>
+      <c r="E46" s="194">
+        <v>43270</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A7:A8"/>
+  <mergeCells count="21">
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
@@ -31492,6 +31818,15 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PMOD_Documentation\paye-employers-documentation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\userdatadubc11\homedir\pbarre02\Desktop_vdi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7656" yWindow="288" windowWidth="15396" windowHeight="10008" activeTab="3"/>
+    <workbookView xWindow="7650" yWindow="285" windowWidth="15390" windowHeight="10005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="290">
   <si>
     <t>Document</t>
   </si>
@@ -2663,6 +2663,24 @@
   <si>
     <t>Date Updated</t>
   </si>
+  <si>
+    <t>code 3007</t>
+  </si>
+  <si>
+    <t>code 1011</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>PIT Self Service Application Guide</t>
+  </si>
+  <si>
+    <t>Section 7 added (Agent functionality)</t>
+  </si>
+  <si>
+    <t>New section</t>
+  </si>
 </sst>
 </file>
 
@@ -3256,7 +3274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3559,6 +3577,44 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3604,11 +3660,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3619,32 +3684,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3657,6 +3707,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3736,12 +3795,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3754,49 +3807,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4175,16 +4199,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4204,21 +4228,21 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="197">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="131">
         <v>43056</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
@@ -4231,24 +4255,24 @@
       <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="197"/>
+      <c r="E3" s="131"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="197"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
@@ -4261,12 +4285,12 @@
       <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="197"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>34</v>
       </c>
@@ -4279,16 +4303,16 @@
       <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="197"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="119" t="s">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="122">
+      <c r="B7" s="138">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4297,86 +4321,86 @@
       <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="197"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="123"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="136"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="197"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="123"/>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="136"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="197"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="123"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="136"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="197"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="123"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="136"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="197"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="121"/>
-      <c r="B12" s="124"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="137"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="197"/>
+      <c r="E12" s="131"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="127" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="122">
+      <c r="B13" s="138">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4385,26 +4409,26 @@
       <c r="D13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="197"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
-      <c r="B14" s="124"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="144"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="197"/>
+      <c r="E14" s="131"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>44</v>
       </c>
@@ -4417,12 +4441,12 @@
       <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="197"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>45</v>
       </c>
@@ -4435,24 +4459,24 @@
       <c r="D16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="197"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="116" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="197"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -4465,12 +4489,12 @@
       <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="197"/>
+      <c r="E18" s="131"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -4483,28 +4507,28 @@
       <c r="D19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="197"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="116" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="197"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="131"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="129" t="s">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="126">
+      <c r="B21" s="142">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4513,23 +4537,23 @@
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="197"/>
+      <c r="E21" s="131"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="124"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="146"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="197"/>
+      <c r="E22" s="131"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>32</v>
       </c>
@@ -4542,22 +4566,22 @@
       <c r="D23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="197"/>
+      <c r="E23" s="131"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="116" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="197"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="131"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="125" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="126">
+      <c r="B25" s="142">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4566,110 +4590,110 @@
       <c r="D25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="197"/>
+      <c r="E25" s="131"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="120"/>
-      <c r="B26" s="123"/>
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="136"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="197"/>
+      <c r="E26" s="131"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="120"/>
-      <c r="B27" s="123"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="136"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="197"/>
+      <c r="E27" s="131"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="120"/>
-      <c r="B28" s="123"/>
+    <row r="28" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="136"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="197"/>
+      <c r="E28" s="131"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="120"/>
-      <c r="B29" s="123"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="197"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="120"/>
-      <c r="B30" s="123"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="136"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="197"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="120"/>
-      <c r="B31" s="123"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="136"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="197"/>
+      <c r="E31" s="131"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="121"/>
-      <c r="B32" s="124"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="137"/>
+      <c r="B32" s="140"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="197"/>
+      <c r="E32" s="131"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>48</v>
       </c>
@@ -4682,9 +4706,9 @@
       <c r="D33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="197"/>
+      <c r="E33" s="131"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>49</v>
       </c>
@@ -4697,9 +4721,9 @@
       <c r="D34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="197"/>
+      <c r="E34" s="131"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
@@ -4712,9 +4736,9 @@
       <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="197"/>
+      <c r="E35" s="131"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>51</v>
       </c>
@@ -4727,9 +4751,9 @@
       <c r="D36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="197"/>
+      <c r="E36" s="131"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>52</v>
       </c>
@@ -4742,9 +4766,9 @@
       <c r="D37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="197"/>
+      <c r="E37" s="131"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>53</v>
       </c>
@@ -4757,9 +4781,9 @@
       <c r="D38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="197"/>
+      <c r="E38" s="131"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>46</v>
       </c>
@@ -4772,9 +4796,9 @@
       <c r="D39" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="197"/>
+      <c r="E39" s="131"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>47</v>
       </c>
@@ -4787,18 +4811,18 @@
       <c r="D40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="197"/>
+      <c r="E40" s="131"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="116" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="197"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="131"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
@@ -4811,9 +4835,9 @@
       <c r="D42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="197"/>
+      <c r="E42" s="131"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -4826,9 +4850,9 @@
       <c r="D43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="197"/>
+      <c r="E43" s="131"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>59</v>
       </c>
@@ -4841,9 +4865,9 @@
       <c r="D44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="197"/>
+      <c r="E44" s="131"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>60</v>
       </c>
@@ -4856,7 +4880,7 @@
       <c r="D45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="197"/>
+      <c r="E45" s="131"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -4906,16 +4930,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4932,18 +4956,18 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="198">
+      <c r="E2" s="158">
         <v>43140</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>81</v>
       </c>
@@ -4954,9 +4978,9 @@
       <c r="D3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="198"/>
+      <c r="E3" s="158"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>82</v>
       </c>
@@ -4967,9 +4991,9 @@
       <c r="D4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="198"/>
+      <c r="E4" s="158"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>78</v>
       </c>
@@ -4980,22 +5004,22 @@
       <c r="D5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="198"/>
+      <c r="E5" s="158"/>
     </row>
-    <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="198"/>
+      <c r="E6" s="158"/>
     </row>
-    <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133" t="s">
+    <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5004,68 +5028,68 @@
       <c r="D7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="198"/>
+      <c r="E7" s="158"/>
     </row>
-    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="152"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="198"/>
+      <c r="E8" s="158"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="152"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="198"/>
+      <c r="E9" s="158"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="152"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="198"/>
+      <c r="E10" s="158"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="152"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="198"/>
+      <c r="E11" s="158"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="152"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="198"/>
+      <c r="E12" s="158"/>
     </row>
-    <row r="13" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="144" t="s">
+    <row r="13" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5074,35 +5098,35 @@
       <c r="D13" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="198"/>
+      <c r="E13" s="158"/>
     </row>
-    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="144"/>
-      <c r="B14" s="134"/>
+    <row r="14" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="155"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="198"/>
+      <c r="E14" s="158"/>
     </row>
-    <row r="15" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="144"/>
-      <c r="B15" s="134"/>
+    <row r="15" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="155"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="198"/>
+      <c r="E15" s="158"/>
     </row>
-    <row r="16" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="131" t="s">
+    <row r="16" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5111,108 +5135,108 @@
       <c r="D16" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="198"/>
+      <c r="E16" s="158"/>
     </row>
-    <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="131"/>
-      <c r="B17" s="143"/>
+    <row r="17" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="150"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="198"/>
+      <c r="E17" s="158"/>
     </row>
-    <row r="18" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="131"/>
-      <c r="B18" s="143"/>
+    <row r="18" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="150"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="198"/>
+      <c r="E18" s="158"/>
     </row>
-    <row r="19" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="131"/>
-      <c r="B19" s="143"/>
+    <row r="19" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="150"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="198"/>
+      <c r="E19" s="158"/>
     </row>
-    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131"/>
-      <c r="B20" s="143"/>
+    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="150"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="198"/>
+      <c r="E20" s="158"/>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="131"/>
-      <c r="B21" s="143"/>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="150"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="198"/>
+      <c r="E21" s="158"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="131"/>
-      <c r="B22" s="143"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="150"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="198"/>
+      <c r="E22" s="158"/>
     </row>
-    <row r="23" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="131"/>
-      <c r="B23" s="143"/>
+    <row r="23" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="150"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="198"/>
+      <c r="E23" s="158"/>
     </row>
-    <row r="24" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="131"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="131" t="s">
+    <row r="24" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="150"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="132" t="s">
+      <c r="D24" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="198"/>
+      <c r="E24" s="158"/>
     </row>
-    <row r="25" spans="1:5" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="131"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="198"/>
+    <row r="25" spans="1:5" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="150"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="133" t="s">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5221,18 +5245,18 @@
       <c r="D26" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="198"/>
+      <c r="E26" s="158"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
+    <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="152"/>
+      <c r="B27" s="153"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="198"/>
+      <c r="E27" s="158"/>
     </row>
-    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>165</v>
       </c>
@@ -5243,117 +5267,117 @@
       <c r="D28" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="198"/>
+      <c r="E28" s="158"/>
     </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="198"/>
+      <c r="E29" s="158"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="135" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="139" t="s">
+      <c r="D30" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="198"/>
+      <c r="E30" s="158"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="135"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="198"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="154"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="158"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="135"/>
-      <c r="B32" s="134"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="154"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="198"/>
+      <c r="E32" s="158"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="135"/>
-      <c r="B33" s="134"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="154"/>
+      <c r="B33" s="153"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="198"/>
+      <c r="E33" s="158"/>
     </row>
-    <row r="34" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="135"/>
-      <c r="B34" s="134"/>
+    <row r="34" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="154"/>
+      <c r="B34" s="153"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="198"/>
+      <c r="E34" s="158"/>
     </row>
-    <row r="35" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="135"/>
-      <c r="B35" s="134"/>
+    <row r="35" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="154"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="198"/>
+      <c r="E35" s="158"/>
     </row>
-    <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="135"/>
-      <c r="B36" s="134"/>
+    <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="154"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
       <c r="D36" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="198"/>
+      <c r="E36" s="158"/>
     </row>
-    <row r="37" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="135"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="136" t="s">
+    <row r="37" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="154"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="138" t="s">
+      <c r="D37" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="198"/>
+      <c r="E37" s="158"/>
     </row>
-    <row r="38" spans="1:5" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="135"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="198"/>
+    <row r="38" spans="1:5" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="154"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="158"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="133" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5362,18 +5386,18 @@
       <c r="D39" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="198"/>
+      <c r="E39" s="158"/>
     </row>
-    <row r="40" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="133"/>
-      <c r="B40" s="134"/>
+    <row r="40" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="152"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="198"/>
+      <c r="E40" s="158"/>
     </row>
-    <row r="41" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>27</v>
       </c>
@@ -5384,99 +5408,99 @@
       <c r="D41" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="198"/>
+      <c r="E41" s="158"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="198"/>
+      <c r="E42" s="158"/>
     </row>
-    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="135" t="s">
+    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="198"/>
+      <c r="E43" s="158"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="135"/>
-      <c r="B44" s="134"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="154"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="198"/>
+      <c r="E44" s="158"/>
     </row>
-    <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="140" t="s">
+    <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="153" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="198"/>
+      <c r="E45" s="158"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="141"/>
-      <c r="B46" s="134"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="164"/>
+      <c r="B46" s="153"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="198"/>
+      <c r="E46" s="158"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="141"/>
-      <c r="B47" s="134"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="164"/>
+      <c r="B47" s="153"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="198"/>
+      <c r="E47" s="158"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="142"/>
-      <c r="B48" s="134"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="165"/>
+      <c r="B48" s="153"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="198"/>
+      <c r="E48" s="158"/>
     </row>
-    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="143" t="s">
+    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A49" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="143" t="s">
+      <c r="B49" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="198"/>
+      <c r="E49" s="158"/>
       <c r="H49" s="42"/>
       <c r="L49" s="42"/>
       <c r="P49" s="42"/>
@@ -9573,16 +9597,16 @@
       <c r="XEZ49" s="42"/>
       <c r="XFD49" s="42"/>
     </row>
-    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="143"/>
-      <c r="B50" s="143"/>
+    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="156"/>
+      <c r="B50" s="156"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="198"/>
+      <c r="E50" s="158"/>
       <c r="H50" s="42"/>
       <c r="L50" s="42"/>
       <c r="P50" s="42"/>
@@ -13679,16 +13703,16 @@
       <c r="XEZ50" s="42"/>
       <c r="XFD50" s="42"/>
     </row>
-    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="143"/>
-      <c r="B51" s="143"/>
+    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A51" s="156"/>
+      <c r="B51" s="156"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="198"/>
+      <c r="E51" s="158"/>
       <c r="H51" s="42"/>
       <c r="L51" s="42"/>
       <c r="P51" s="42"/>
@@ -17785,16 +17809,16 @@
       <c r="XEZ51" s="42"/>
       <c r="XFD51" s="42"/>
     </row>
-    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="143"/>
-      <c r="B52" s="143"/>
+    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A52" s="156"/>
+      <c r="B52" s="156"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="198"/>
+      <c r="E52" s="158"/>
       <c r="H52" s="42"/>
       <c r="L52" s="42"/>
       <c r="P52" s="42"/>
@@ -21891,16 +21915,16 @@
       <c r="XEZ52" s="42"/>
       <c r="XFD52" s="42"/>
     </row>
-    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="143"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="146" t="s">
+    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A53" s="156"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="139" t="s">
+      <c r="D53" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="198"/>
+      <c r="E53" s="158"/>
       <c r="H53" s="42"/>
       <c r="L53" s="42"/>
       <c r="P53" s="42"/>
@@ -25997,12 +26021,12 @@
       <c r="XEZ53" s="42"/>
       <c r="XFD53" s="42"/>
     </row>
-    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="143"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="146"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="198"/>
+    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="156"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="158"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -30099,16 +30123,16 @@
       <c r="XEZ54" s="42"/>
       <c r="XFD54" s="42"/>
     </row>
-    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="198"/>
+      <c r="E55" s="158"/>
     </row>
-    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>83</v>
       </c>
@@ -30119,13 +30143,13 @@
       <c r="D56" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="198"/>
+      <c r="E56" s="158"/>
     </row>
-    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="147" t="s">
+    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A57" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="156" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30134,221 +30158,221 @@
       <c r="D57" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="198"/>
+      <c r="E57" s="158"/>
     </row>
-    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="147"/>
-      <c r="B58" s="143"/>
+    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="161"/>
+      <c r="B58" s="156"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="198"/>
+      <c r="E58" s="158"/>
     </row>
-    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="147"/>
-      <c r="B59" s="143"/>
+    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A59" s="161"/>
+      <c r="B59" s="156"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D59" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="198"/>
+      <c r="E59" s="158"/>
     </row>
-    <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="147"/>
-      <c r="B60" s="143"/>
+    <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="161"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="198"/>
+      <c r="E60" s="158"/>
     </row>
-    <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="147"/>
-      <c r="B61" s="143"/>
+    <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A61" s="161"/>
+      <c r="B61" s="156"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D61" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="198"/>
+      <c r="E61" s="158"/>
     </row>
-    <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="147"/>
-      <c r="B62" s="143"/>
+    <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A62" s="161"/>
+      <c r="B62" s="156"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D62" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="198"/>
+      <c r="E62" s="158"/>
     </row>
-    <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="147"/>
-      <c r="B63" s="143"/>
+    <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A63" s="161"/>
+      <c r="B63" s="156"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D63" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="198"/>
+      <c r="E63" s="158"/>
     </row>
-    <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="147"/>
-      <c r="B64" s="143"/>
+    <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+      <c r="A64" s="161"/>
+      <c r="B64" s="156"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="198"/>
+      <c r="E64" s="158"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="147"/>
-      <c r="B65" s="143"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="161"/>
+      <c r="B65" s="156"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
       <c r="D65" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="198"/>
+      <c r="E65" s="158"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="147"/>
-      <c r="B66" s="143"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="161"/>
+      <c r="B66" s="156"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="198"/>
+      <c r="E66" s="158"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="147"/>
-      <c r="B67" s="143"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="161"/>
+      <c r="B67" s="156"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
       <c r="D67" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="198"/>
+      <c r="E67" s="158"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="147"/>
-      <c r="B68" s="143"/>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="161"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
       <c r="D68" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="198"/>
+      <c r="E68" s="158"/>
     </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="147"/>
-      <c r="B69" s="143"/>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="161"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
       <c r="D69" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E69" s="198"/>
+      <c r="E69" s="158"/>
     </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="147"/>
-      <c r="B70" s="143"/>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="161"/>
+      <c r="B70" s="156"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
       <c r="D70" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="198"/>
+      <c r="E70" s="158"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="147"/>
-      <c r="B71" s="143"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="161"/>
+      <c r="B71" s="156"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="198"/>
+      <c r="E71" s="158"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="147"/>
-      <c r="B72" s="143"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="161"/>
+      <c r="B72" s="156"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="198"/>
+      <c r="E72" s="158"/>
     </row>
-    <row r="73" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="147"/>
-      <c r="B73" s="143"/>
+    <row r="73" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="161"/>
+      <c r="B73" s="156"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="198"/>
+      <c r="E73" s="158"/>
     </row>
-    <row r="74" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="147"/>
-      <c r="B74" s="143"/>
+    <row r="74" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="161"/>
+      <c r="B74" s="156"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="198"/>
+      <c r="E74" s="158"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="147"/>
-      <c r="B75" s="143"/>
-      <c r="C75" s="145"/>
-      <c r="D75" s="148" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="161"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="159"/>
+      <c r="D75" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="198"/>
+      <c r="E75" s="158"/>
     </row>
-    <row r="76" spans="1:5" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="147"/>
-      <c r="B76" s="143"/>
-      <c r="C76" s="145"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="198"/>
+    <row r="76" spans="1:5" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="161"/>
+      <c r="B76" s="156"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="162"/>
+      <c r="E76" s="158"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="198"/>
+      <c r="E77" s="158"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
       <c r="B78" s="40"/>
       <c r="C78" s="38"/>
       <c r="D78" s="50"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
       <c r="B79" s="40"/>
       <c r="C79" s="38"/>
@@ -30373,10 +30397,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="31">
-    <mergeCell ref="E2:E77"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="A57:A76"/>
     <mergeCell ref="B57:B76"/>
     <mergeCell ref="D75:D76"/>
@@ -30384,26 +30409,25 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="A49:A54"/>
     <mergeCell ref="B49:B54"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B16:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E2:E77"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="B30:B38"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B16:B25"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30418,16 +30442,16 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="4" max="4" width="80.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -30444,31 +30468,31 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="197">
+      <c r="E2" s="131">
         <v>43179</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="197"/>
+      <c r="E3" s="131"/>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="133" t="s">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="153" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30477,160 +30501,160 @@
       <c r="D4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="197"/>
+      <c r="E4" s="131"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="164" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="152"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="181" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="163" t="s">
+      <c r="D5" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="197"/>
+      <c r="E5" s="131"/>
     </row>
-    <row r="6" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="197"/>
+    <row r="6" spans="1:5" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="152"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="131"/>
     </row>
-    <row r="7" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
+    <row r="7" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="152"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
-      <c r="E7" s="197"/>
+      <c r="E7" s="131"/>
     </row>
-    <row r="8" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
+    <row r="8" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="152"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
-      <c r="E8" s="197"/>
+      <c r="E8" s="131"/>
     </row>
-    <row r="9" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
+    <row r="9" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="152"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
-      <c r="E9" s="197"/>
+      <c r="E9" s="131"/>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="144" t="s">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="163" t="s">
+      <c r="C10" s="172"/>
+      <c r="D10" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="197"/>
+      <c r="E10" s="131"/>
     </row>
-    <row r="11" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="197"/>
+    <row r="11" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="155"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="131"/>
     </row>
-    <row r="12" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="144"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="197"/>
+    <row r="12" spans="1:5" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="155"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="131"/>
     </row>
-    <row r="13" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="131" t="s">
+    <row r="13" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="163" t="s">
+      <c r="C13" s="182"/>
+      <c r="D13" s="180" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="197"/>
+      <c r="E13" s="131"/>
     </row>
-    <row r="14" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="131"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="197"/>
+    <row r="14" spans="1:5" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="150"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="131"/>
     </row>
-    <row r="15" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="131"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="165"/>
+    <row r="15" spans="1:5" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="150"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="49"/>
-      <c r="E15" s="197"/>
+      <c r="E15" s="131"/>
     </row>
-    <row r="16" spans="1:5" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="131"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="165"/>
+    <row r="16" spans="1:5" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="150"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="197"/>
+      <c r="E16" s="131"/>
     </row>
-    <row r="17" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="131"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="165"/>
+    <row r="17" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="150"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="182"/>
       <c r="D17" s="49"/>
-      <c r="E17" s="197"/>
+      <c r="E17" s="131"/>
     </row>
-    <row r="18" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="131"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="165"/>
+    <row r="18" spans="1:5" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="150"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="182"/>
       <c r="D18" s="49"/>
-      <c r="E18" s="197"/>
+      <c r="E18" s="131"/>
     </row>
-    <row r="19" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="131"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="165"/>
+    <row r="19" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="150"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="182"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="197"/>
+      <c r="E19" s="131"/>
     </row>
-    <row r="20" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="131"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="165"/>
+    <row r="20" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="150"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="182"/>
       <c r="D20" s="49"/>
-      <c r="E20" s="197"/>
+      <c r="E20" s="131"/>
     </row>
-    <row r="21" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="131"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="165"/>
+    <row r="21" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="150"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="49"/>
-      <c r="E21" s="197"/>
+      <c r="E21" s="131"/>
     </row>
-    <row r="22" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="131"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="165"/>
+    <row r="22" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="150"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="182"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="197"/>
+      <c r="E22" s="131"/>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="131"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="165"/>
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="150"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="197"/>
+      <c r="E23" s="131"/>
     </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="73" t="s">
         <v>187</v>
       </c>
@@ -30643,9 +30667,9 @@
       <c r="D24" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="197"/>
+      <c r="E24" s="131"/>
     </row>
-    <row r="25" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="s">
         <v>231</v>
       </c>
@@ -30658,9 +30682,9 @@
       <c r="D25" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="197"/>
+      <c r="E25" s="131"/>
     </row>
-    <row r="26" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>165</v>
       </c>
@@ -30671,18 +30695,18 @@
       <c r="D26" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="197"/>
+      <c r="E26" s="131"/>
     </row>
-    <row r="27" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="197"/>
+      <c r="E27" s="131"/>
     </row>
-    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="85" t="s">
         <v>26</v>
       </c>
@@ -30695,9 +30719,9 @@
       <c r="D28" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="E28" s="197"/>
+      <c r="E28" s="131"/>
     </row>
-    <row r="29" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85"/>
       <c r="B29" s="84"/>
       <c r="C29" s="70" t="s">
@@ -30706,9 +30730,9 @@
       <c r="D29" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="197"/>
+      <c r="E29" s="131"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="85"/>
       <c r="B30" s="84"/>
       <c r="C30" s="88" t="s">
@@ -30717,9 +30741,9 @@
       <c r="D30" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="197"/>
+      <c r="E30" s="131"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="85"/>
       <c r="B31" s="84"/>
       <c r="C31" s="89" t="s">
@@ -30728,13 +30752,13 @@
       <c r="D31" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="197"/>
+      <c r="E31" s="131"/>
     </row>
-    <row r="32" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="149" t="s">
+    <row r="32" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="166" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="152" t="s">
+      <c r="B32" s="169" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30743,41 +30767,41 @@
       <c r="D32" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="197"/>
+      <c r="E32" s="131"/>
     </row>
-    <row r="33" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="150"/>
-      <c r="B33" s="153"/>
+    <row r="33" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="167"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
-      <c r="E33" s="197"/>
+      <c r="E33" s="131"/>
     </row>
-    <row r="34" spans="1:5" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="150"/>
-      <c r="B34" s="153"/>
+    <row r="34" spans="1:5" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="167"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
-      <c r="E34" s="197"/>
+      <c r="E34" s="131"/>
     </row>
-    <row r="35" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="150"/>
-      <c r="B35" s="153"/>
+    <row r="35" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="167"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
-      <c r="E35" s="197"/>
+      <c r="E35" s="131"/>
     </row>
-    <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="151"/>
-      <c r="B36" s="154"/>
+    <row r="36" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="168"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
       <c r="D36" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="197"/>
+      <c r="E36" s="131"/>
     </row>
-    <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>27</v>
       </c>
@@ -30788,22 +30812,22 @@
       <c r="D37" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="197"/>
+      <c r="E37" s="131"/>
     </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="197"/>
+      <c r="E38" s="131"/>
     </row>
-    <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="135" t="s">
+    <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="153" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30812,119 +30836,119 @@
       <c r="D39" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="197"/>
+      <c r="E39" s="131"/>
     </row>
-    <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="135"/>
-      <c r="B40" s="134"/>
+    <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="154"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E40" s="197"/>
+      <c r="E40" s="131"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="133" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="134" t="s">
+      <c r="B41" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="155" t="s">
+      <c r="C41" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="131" t="s">
+      <c r="D41" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="197"/>
+      <c r="E41" s="131"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="133"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="197"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="152"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="131"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="133"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="155" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="152"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="172" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="148" t="s">
+      <c r="D43" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="197"/>
+      <c r="E43" s="131"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="133"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="197"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="152"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="131"/>
     </row>
-    <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="147" t="s">
+    <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="159"/>
+      <c r="C45" s="176"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="197"/>
+      <c r="E45" s="131"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="147"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="156" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="161"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="173" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="197"/>
+      <c r="E46" s="131"/>
     </row>
-    <row r="47" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="147"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="197"/>
+    <row r="47" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="161"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="174"/>
+      <c r="E47" s="131"/>
     </row>
-    <row r="48" spans="1:5" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="147"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="161"/>
-      <c r="D48" s="157"/>
-      <c r="E48" s="197"/>
+    <row r="48" spans="1:5" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="161"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="174"/>
+      <c r="E48" s="131"/>
     </row>
-    <row r="49" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="147"/>
-      <c r="B49" s="143"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="197"/>
+    <row r="49" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="161"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="131"/>
     </row>
-    <row r="50" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="147"/>
-      <c r="B50" s="143"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="197"/>
+    <row r="50" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="161"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="175"/>
+      <c r="E50" s="131"/>
     </row>
-    <row r="51" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="44"/>
-      <c r="E51" s="197"/>
+      <c r="E51" s="131"/>
     </row>
-    <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>83</v>
       </c>
@@ -30935,13 +30959,13 @@
       <c r="D52" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="197"/>
+      <c r="E52" s="131"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="143" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="156" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30950,191 +30974,191 @@
       <c r="D53" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="197"/>
+      <c r="E53" s="131"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="143"/>
-      <c r="B54" s="143"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="156"/>
+      <c r="B54" s="156"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
       <c r="D54" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="197"/>
+      <c r="E54" s="131"/>
     </row>
-    <row r="55" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="143"/>
-      <c r="B55" s="143"/>
+    <row r="55" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="156"/>
+      <c r="B55" s="156"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
       <c r="D55" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E55" s="197"/>
+      <c r="E55" s="131"/>
     </row>
-    <row r="56" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="143"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="162" t="s">
+    <row r="56" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="156"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="179" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="E56" s="197"/>
+      <c r="E56" s="131"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="143"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="162"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="156"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="179"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="197"/>
+      <c r="E57" s="131"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="143"/>
-      <c r="B58" s="143"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="156"/>
+      <c r="B58" s="156"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="197"/>
+      <c r="E58" s="131"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="143"/>
-      <c r="B59" s="143"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="156"/>
+      <c r="B59" s="156"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
       <c r="D59" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="E59" s="197"/>
+      <c r="E59" s="131"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="143"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="162" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="179" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="197"/>
+      <c r="E60" s="131"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="143"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="162"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="156"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="179"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="197"/>
+      <c r="E61" s="131"/>
     </row>
-    <row r="62" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="143"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="162"/>
+    <row r="62" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="156"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="179"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="197"/>
+      <c r="E62" s="131"/>
     </row>
-    <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="143"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="155" t="s">
+    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="156"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="172" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="197"/>
+      <c r="E63" s="131"/>
     </row>
-    <row r="64" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="143"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="155"/>
-      <c r="D64" s="148" t="s">
+    <row r="64" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="156"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="162" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="197"/>
+      <c r="E64" s="131"/>
     </row>
-    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="143"/>
-      <c r="B65" s="143"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="197"/>
+    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="156"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="172"/>
+      <c r="D65" s="162"/>
+      <c r="E65" s="131"/>
     </row>
-    <row r="66" spans="1:5" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="143"/>
-      <c r="B66" s="143"/>
-      <c r="C66" s="155"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="197"/>
+    <row r="66" spans="1:5" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="156"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="172"/>
+      <c r="D66" s="162"/>
+      <c r="E66" s="131"/>
     </row>
-    <row r="67" spans="1:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="143"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="197"/>
+    <row r="67" spans="1:5" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="156"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="172"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="131"/>
     </row>
-    <row r="68" spans="1:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="197"/>
+      <c r="E68" s="131"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="82"/>
       <c r="B69" s="83"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="82"/>
       <c r="B70" s="83"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="82"/>
       <c r="B71" s="83"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="82"/>
       <c r="B72" s="83"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -31150,23 +31174,23 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="B53:B67"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="A45:A50"/>
     <mergeCell ref="B45:B50"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C56:C57"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="C63:C67"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="B53:B67"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C56:C57"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A4:A9"/>
@@ -31183,22 +31207,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="46.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -31208,164 +31232,164 @@
       <c r="C1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="116" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
-      <c r="D2" s="182"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="131" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="179" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
-      <c r="D3" s="183" t="s">
+      <c r="D3" s="118" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="194">
+      <c r="E3" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
-      <c r="B4" s="162"/>
+    <row r="4" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="150"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="184" t="s">
+      <c r="D4" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="193">
+      <c r="E4" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="179"/>
       <c r="C5" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="193">
+      <c r="E5" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="162"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="185" t="s">
+      <c r="D6" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="193">
+      <c r="E6" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="173" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="190" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="162"/>
+      <c r="B7" s="179"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="186" t="s">
+      <c r="D7" s="121" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="194">
+      <c r="E7" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="174"/>
-      <c r="B8" s="162"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="191"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="58"/>
-      <c r="D8" s="183" t="s">
+      <c r="D8" s="118" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="194">
+      <c r="E8" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="162"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="58"/>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="193">
+      <c r="E9" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="187"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="170" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="187" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="179" t="s">
         <v>234</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="194">
+      <c r="E11" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="171"/>
-      <c r="B12" s="162"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="188"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="58"/>
-      <c r="D12" s="183" t="s">
+      <c r="D12" s="118" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="193">
+      <c r="E12" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="172"/>
-      <c r="B13" s="162"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="189"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="193">
+      <c r="E13" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
         <v>27</v>
       </c>
@@ -31373,55 +31397,55 @@
         <v>234</v>
       </c>
       <c r="C14" s="58"/>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="194">
+      <c r="E14" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="162" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="179" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="179" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="175" t="s">
+      <c r="C15" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="188" t="s">
+      <c r="D15" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="193">
+      <c r="E15" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="162"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="176"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="179"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="199"/>
       <c r="D16" s="113" t="s">
         <v>278</v>
       </c>
-      <c r="E16" s="194">
+      <c r="E16" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="162"/>
-      <c r="B17" s="162"/>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="179"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="189" t="s">
+      <c r="D17" s="124" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="193">
+      <c r="E17" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
         <v>280</v>
       </c>
@@ -31429,49 +31453,49 @@
       <c r="C18" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="183" t="s">
+      <c r="D18" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="194">
+      <c r="E18" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="182"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="58"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="173" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="190" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="179" t="s">
         <v>234</v>
       </c>
       <c r="C20" s="58"/>
-      <c r="D20" s="186" t="s">
+      <c r="D20" s="121" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="194">
+      <c r="E20" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
-      <c r="B21" s="162"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="191"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="183" t="s">
+      <c r="D21" s="118" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="194">
+      <c r="E21" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="102" t="s">
         <v>243</v>
       </c>
@@ -31481,345 +31505,383 @@
       <c r="C22" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="190" t="s">
+      <c r="D22" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="193">
+      <c r="E22" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="177" t="s">
+    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="185" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="183" t="s">
+      <c r="D23" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="193">
+      <c r="E23" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="178"/>
-      <c r="B24" s="180"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="193"/>
+      <c r="B24" s="195"/>
       <c r="C24" t="s">
         <v>270</v>
       </c>
-      <c r="D24" s="183" t="s">
+      <c r="D24" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="194">
+      <c r="E24" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="178"/>
-      <c r="B25" s="180"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="193"/>
+      <c r="B25" s="195"/>
       <c r="C25" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="183" t="s">
+      <c r="D25" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="194">
+      <c r="E25" s="128">
         <v>43270</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="178"/>
-      <c r="B26" s="180"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="193"/>
+      <c r="B26" s="195"/>
       <c r="C26" s="112" t="s">
         <v>277</v>
       </c>
       <c r="D26" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="194">
+      <c r="E26" s="130">
         <v>43270</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="179"/>
-      <c r="B27" s="169"/>
-      <c r="C27" s="98" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="193"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="127">
+        <v>43279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="193"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="127">
+        <v>43279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="194"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="190" t="s">
+      <c r="D29" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="193">
+      <c r="E29" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+    <row r="30" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="58"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="58"/>
     </row>
-    <row r="29" spans="1:5" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="186" t="s">
+    <row r="31" spans="1:5" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="109"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="121" t="s">
         <v>261</v>
       </c>
-      <c r="E29" s="58"/>
+      <c r="E31" s="58"/>
     </row>
-    <row r="30" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="131" t="s">
+    <row r="32" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B32" s="179" t="s">
         <v>234</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C32" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="D30" s="183" t="s">
+      <c r="D32" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="E30" s="193">
+      <c r="E32" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="131"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="107">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="150"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="107">
         <v>10.1</v>
       </c>
-      <c r="D31" s="183" t="s">
+      <c r="D33" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="E31" s="193">
+      <c r="E33" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="131"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="107">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="150"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="107">
         <v>10.199999999999999</v>
       </c>
-      <c r="D32" s="183" t="s">
+      <c r="D34" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="E32" s="193">
+      <c r="E34" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="131" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="162" t="s">
+      <c r="B35" s="179" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="162"/>
-      <c r="D33" s="191" t="s">
+      <c r="C35" s="179"/>
+      <c r="D35" s="200" t="s">
         <v>261</v>
       </c>
-      <c r="E33" s="195">
+      <c r="E35" s="196">
         <v>43270</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="131"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="196"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="150"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="197"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="106" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="106" t="s">
         <v>262</v>
-      </c>
-      <c r="B35" s="107" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="107" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" s="192" t="s">
-        <v>251</v>
-      </c>
-      <c r="E35" s="193">
-        <v>43244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="58"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="58" t="s">
-        <v>249</v>
       </c>
       <c r="B37" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="183" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="193">
+      <c r="C37" s="107" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="126" t="s">
+        <v>251</v>
+      </c>
+      <c r="E37" s="127">
         <v>43244</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="114"/>
+    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="58"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="166" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="168" t="s">
-        <v>271</v>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="107" t="s">
+        <v>234</v>
       </c>
       <c r="C39" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="183" t="s">
+      <c r="D39" s="118" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="193">
+      <c r="E39" s="127">
+        <v>43244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="B40" s="129" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="104" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" s="127">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="58"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="183" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="185" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="118" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="127">
         <v>43259</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="167"/>
-      <c r="B40" s="169"/>
-      <c r="C40" s="104" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="184"/>
+      <c r="B43" s="186"/>
+      <c r="C43" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="183" t="s">
+      <c r="D43" s="118" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="193">
+      <c r="E43" s="127">
         <v>43259</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="103" t="s">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="107" t="s">
+      <c r="B44" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C44" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D41" s="183" t="s">
+      <c r="D44" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="193">
+      <c r="E44" s="127">
         <v>43259</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="103" t="s">
+    <row r="45" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="107" t="s">
+      <c r="B45" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C45" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D42" s="183" t="s">
+      <c r="D45" s="118" t="s">
         <v>263</v>
       </c>
-      <c r="E42" s="193">
+      <c r="E45" s="127">
         <v>43259</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="108" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="58"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="58"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="107" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C47" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="192" t="s">
+      <c r="D47" s="126" t="s">
         <v>274</v>
       </c>
-      <c r="E44" s="193">
+      <c r="E47" s="127">
         <v>43265</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="108" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="58"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="58"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
-      <c r="B46" s="111" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+      <c r="B49" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C49" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="192" t="s">
+      <c r="D49" s="126" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="194">
+      <c r="E49" s="128">
         <v>43270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="A11:A13"/>
@@ -31827,6 +31889,11 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\userdatadubc11\homedir\pbarre02\Desktop_vdi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PMOD_Documentation\paye-employers-documentation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="285" windowWidth="15390" windowHeight="10005" activeTab="3"/>
+    <workbookView xWindow="7656" yWindow="288" windowWidth="15396" windowHeight="10008" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -3274,7 +3274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3521,15 +3521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3539,23 +3530,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3563,20 +3542,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3605,6 +3572,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4199,16 +4184,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4228,21 +4213,21 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="131">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="126">
         <v>43056</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
@@ -4255,24 +4240,24 @@
       <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="131"/>
+      <c r="E3" s="126"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="131"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
@@ -4285,12 +4270,12 @@
       <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="131"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>34</v>
       </c>
@@ -4303,16 +4288,16 @@
       <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="131"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
+    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="138">
+      <c r="B7" s="133">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4321,86 +4306,86 @@
       <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="131"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="139"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="131"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="131"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="139"/>
+    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="131"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="131"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="139"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="131"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="139"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="131"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="131"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
-      <c r="B12" s="140"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="132"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="131"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="143" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="138">
+      <c r="B13" s="133">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4409,26 +4394,26 @@
       <c r="D13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="131"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
-      <c r="B14" s="140"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="139"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="131"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>44</v>
       </c>
@@ -4441,12 +4426,12 @@
       <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="131"/>
+      <c r="E15" s="126"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>45</v>
       </c>
@@ -4459,24 +4444,24 @@
       <c r="D16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="131"/>
+      <c r="E16" s="126"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="132" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="131"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -4489,12 +4474,12 @@
       <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="131"/>
+      <c r="E18" s="126"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
@@ -4507,28 +4492,28 @@
       <c r="D19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="131"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="132" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="131"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="145" t="s">
+    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="142">
+      <c r="B21" s="137">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4537,23 +4522,23 @@
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="131"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="146"/>
-      <c r="B22" s="140"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="141"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="131"/>
+      <c r="E22" s="126"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>32</v>
       </c>
@@ -4566,22 +4551,22 @@
       <c r="D23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="131"/>
+      <c r="E23" s="126"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="132" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="131"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="126"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="141" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="142">
+      <c r="B25" s="137">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4590,110 +4575,110 @@
       <c r="D25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="131"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
-      <c r="B26" s="139"/>
+    <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="131"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="131"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
-      <c r="B27" s="139"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="131"/>
+      <c r="B27" s="134"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="131"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
-      <c r="B28" s="139"/>
+    <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="131"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="131"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="136"/>
-      <c r="B29" s="139"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="131"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="131"/>
+      <c r="E29" s="126"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
-      <c r="B30" s="139"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="131"/>
+      <c r="B30" s="134"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="131"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="136"/>
-      <c r="B31" s="139"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="131"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="131"/>
+      <c r="E31" s="126"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
-      <c r="B32" s="140"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="132"/>
+      <c r="B32" s="135"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="131"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>48</v>
       </c>
@@ -4706,9 +4691,9 @@
       <c r="D33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="131"/>
+      <c r="E33" s="126"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>49</v>
       </c>
@@ -4721,9 +4706,9 @@
       <c r="D34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="131"/>
+      <c r="E34" s="126"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
@@ -4736,9 +4721,9 @@
       <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="131"/>
+      <c r="E35" s="126"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>51</v>
       </c>
@@ -4751,9 +4736,9 @@
       <c r="D36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="131"/>
+      <c r="E36" s="126"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>52</v>
       </c>
@@ -4766,9 +4751,9 @@
       <c r="D37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="131"/>
+      <c r="E37" s="126"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>53</v>
       </c>
@@ -4781,9 +4766,9 @@
       <c r="D38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="131"/>
+      <c r="E38" s="126"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>46</v>
       </c>
@@ -4796,9 +4781,9 @@
       <c r="D39" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="131"/>
+      <c r="E39" s="126"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>47</v>
       </c>
@@ -4811,18 +4796,18 @@
       <c r="D40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="131"/>
+      <c r="E40" s="126"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="132" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="131"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="126"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>57</v>
       </c>
@@ -4835,9 +4820,9 @@
       <c r="D42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="131"/>
+      <c r="E42" s="126"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
@@ -4850,9 +4835,9 @@
       <c r="D43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="131"/>
+      <c r="E43" s="126"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>59</v>
       </c>
@@ -4865,9 +4850,9 @@
       <c r="D44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="131"/>
+      <c r="E44" s="126"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>60</v>
       </c>
@@ -4880,7 +4865,7 @@
       <c r="D45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="131"/>
+      <c r="E45" s="126"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -4930,16 +4915,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4956,18 +4941,18 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="158">
+      <c r="E2" s="153">
         <v>43140</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>81</v>
       </c>
@@ -4978,9 +4963,9 @@
       <c r="D3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="158"/>
+      <c r="E3" s="153"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>82</v>
       </c>
@@ -4991,9 +4976,9 @@
       <c r="D4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="158"/>
+      <c r="E4" s="153"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>78</v>
       </c>
@@ -5004,22 +4989,22 @@
       <c r="D5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="158"/>
+      <c r="E5" s="153"/>
     </row>
-    <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="158"/>
+      <c r="E6" s="153"/>
     </row>
-    <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+    <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5028,68 +5013,68 @@
       <c r="D7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="158"/>
+      <c r="E7" s="153"/>
     </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="152"/>
-      <c r="B8" s="153"/>
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="147"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="158"/>
+      <c r="E8" s="153"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="147"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="158"/>
+      <c r="E9" s="153"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
-      <c r="B10" s="153"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="147"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="158"/>
+      <c r="E10" s="153"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
-      <c r="B11" s="153"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="147"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="158"/>
+      <c r="E11" s="153"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
-      <c r="B12" s="153"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="147"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="158"/>
+      <c r="E12" s="153"/>
     </row>
-    <row r="13" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
+    <row r="13" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5098,35 +5083,35 @@
       <c r="D13" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="158"/>
+      <c r="E13" s="153"/>
     </row>
-    <row r="14" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
-      <c r="B14" s="153"/>
+    <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="150"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="158"/>
+      <c r="E14" s="153"/>
     </row>
-    <row r="15" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="153"/>
+    <row r="15" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="150"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="158"/>
+      <c r="E15" s="153"/>
     </row>
-    <row r="16" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="150" t="s">
+    <row r="16" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="151" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5135,108 +5120,108 @@
       <c r="D16" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="158"/>
+      <c r="E16" s="153"/>
     </row>
-    <row r="17" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
-      <c r="B17" s="156"/>
+    <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="145"/>
+      <c r="B17" s="151"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="158"/>
+      <c r="E17" s="153"/>
     </row>
-    <row r="18" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="156"/>
+    <row r="18" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="145"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="158"/>
+      <c r="E18" s="153"/>
     </row>
-    <row r="19" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
-      <c r="B19" s="156"/>
+    <row r="19" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="145"/>
+      <c r="B19" s="151"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="158"/>
+      <c r="E19" s="153"/>
     </row>
-    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="156"/>
+    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="145"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="158"/>
+      <c r="E20" s="153"/>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="156"/>
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="145"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="158"/>
+      <c r="E21" s="153"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="156"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="145"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="158"/>
+      <c r="E22" s="153"/>
     </row>
-    <row r="23" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="156"/>
+    <row r="23" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="145"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="158"/>
+      <c r="E23" s="153"/>
     </row>
-    <row r="24" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="150" t="s">
+    <row r="24" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="145"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="152" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="158"/>
+      <c r="E24" s="153"/>
     </row>
-    <row r="25" spans="1:5" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="150"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="158"/>
+    <row r="25" spans="1:5" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="145"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="153"/>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="152" t="s">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5245,18 +5230,18 @@
       <c r="D26" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="158"/>
+      <c r="E26" s="153"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
-      <c r="B27" s="153"/>
+    <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="147"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="158"/>
+      <c r="E27" s="153"/>
     </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>165</v>
       </c>
@@ -5267,117 +5252,117 @@
       <c r="D28" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="158"/>
+      <c r="E28" s="153"/>
     </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="158"/>
+      <c r="E29" s="153"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="154" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="151" t="s">
+      <c r="D30" s="146" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="158"/>
+      <c r="E30" s="153"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="154"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="158"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="149"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="153"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="154"/>
-      <c r="B32" s="153"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="149"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="158"/>
+      <c r="E32" s="153"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="154"/>
-      <c r="B33" s="153"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="149"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="158"/>
+      <c r="E33" s="153"/>
     </row>
-    <row r="34" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="154"/>
-      <c r="B34" s="153"/>
+    <row r="34" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="149"/>
+      <c r="B34" s="148"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="158"/>
+      <c r="E34" s="153"/>
     </row>
-    <row r="35" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="154"/>
-      <c r="B35" s="153"/>
+    <row r="35" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="149"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="158"/>
+      <c r="E35" s="153"/>
     </row>
-    <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="154"/>
-      <c r="B36" s="153"/>
+    <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
       <c r="D36" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="158"/>
+      <c r="E36" s="153"/>
     </row>
-    <row r="37" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="154"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="147" t="s">
+    <row r="37" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="149"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="149" t="s">
+      <c r="D37" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="158"/>
+      <c r="E37" s="153"/>
     </row>
-    <row r="38" spans="1:5" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="154"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="158"/>
+    <row r="38" spans="1:5" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="149"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="153"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="152" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="153" t="s">
+      <c r="B39" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5386,18 +5371,18 @@
       <c r="D39" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="158"/>
+      <c r="E39" s="153"/>
     </row>
-    <row r="40" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="152"/>
-      <c r="B40" s="153"/>
+    <row r="40" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="147"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="158"/>
+      <c r="E40" s="153"/>
     </row>
-    <row r="41" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>27</v>
       </c>
@@ -5408,99 +5393,99 @@
       <c r="D41" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="158"/>
+      <c r="E41" s="153"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="158"/>
+      <c r="E42" s="153"/>
     </row>
-    <row r="43" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="154" t="s">
+    <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="153" t="s">
+      <c r="B43" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="158"/>
+      <c r="E43" s="153"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="154"/>
-      <c r="B44" s="153"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="149"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="158"/>
+      <c r="E44" s="153"/>
     </row>
-    <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="163" t="s">
+    <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="153" t="s">
+      <c r="B45" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="158"/>
+      <c r="E45" s="153"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
-      <c r="B46" s="153"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="159"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="158"/>
+      <c r="E46" s="153"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="164"/>
-      <c r="B47" s="153"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="159"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="158"/>
+      <c r="E47" s="153"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="165"/>
-      <c r="B48" s="153"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="160"/>
+      <c r="B48" s="148"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="158"/>
+      <c r="E48" s="153"/>
     </row>
-    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A49" s="156" t="s">
+    <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A49" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="151" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="158"/>
+      <c r="E49" s="153"/>
       <c r="H49" s="42"/>
       <c r="L49" s="42"/>
       <c r="P49" s="42"/>
@@ -9597,16 +9582,16 @@
       <c r="XEZ49" s="42"/>
       <c r="XFD49" s="42"/>
     </row>
-    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="156"/>
-      <c r="B50" s="156"/>
+    <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="151"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="158"/>
+      <c r="E50" s="153"/>
       <c r="H50" s="42"/>
       <c r="L50" s="42"/>
       <c r="P50" s="42"/>
@@ -13703,16 +13688,16 @@
       <c r="XEZ50" s="42"/>
       <c r="XFD50" s="42"/>
     </row>
-    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A51" s="156"/>
-      <c r="B51" s="156"/>
+    <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A51" s="151"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="158"/>
+      <c r="E51" s="153"/>
       <c r="H51" s="42"/>
       <c r="L51" s="42"/>
       <c r="P51" s="42"/>
@@ -17809,16 +17794,16 @@
       <c r="XEZ51" s="42"/>
       <c r="XFD51" s="42"/>
     </row>
-    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A52" s="156"/>
-      <c r="B52" s="156"/>
+    <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A52" s="151"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="158"/>
+      <c r="E52" s="153"/>
       <c r="H52" s="42"/>
       <c r="L52" s="42"/>
       <c r="P52" s="42"/>
@@ -21915,16 +21900,16 @@
       <c r="XEZ52" s="42"/>
       <c r="XFD52" s="42"/>
     </row>
-    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A53" s="156"/>
-      <c r="B53" s="156"/>
-      <c r="C53" s="160" t="s">
+    <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A53" s="151"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="151" t="s">
+      <c r="D53" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="158"/>
+      <c r="E53" s="153"/>
       <c r="H53" s="42"/>
       <c r="L53" s="42"/>
       <c r="P53" s="42"/>
@@ -26021,12 +26006,12 @@
       <c r="XEZ53" s="42"/>
       <c r="XFD53" s="42"/>
     </row>
-    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="156"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="158"/>
+    <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="151"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="153"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -30123,16 +30108,16 @@
       <c r="XEZ54" s="42"/>
       <c r="XFD54" s="42"/>
     </row>
-    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="158"/>
+      <c r="E55" s="153"/>
     </row>
-    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>83</v>
       </c>
@@ -30143,13 +30128,13 @@
       <c r="D56" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="158"/>
+      <c r="E56" s="153"/>
     </row>
-    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A57" s="161" t="s">
+    <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A57" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="156" t="s">
+      <c r="B57" s="151" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30158,221 +30143,221 @@
       <c r="D57" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="158"/>
+      <c r="E57" s="153"/>
     </row>
-    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
-      <c r="B58" s="156"/>
+    <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="156"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="158"/>
+      <c r="E58" s="153"/>
     </row>
-    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A59" s="161"/>
-      <c r="B59" s="156"/>
+    <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A59" s="156"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D59" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="158"/>
+      <c r="E59" s="153"/>
     </row>
-    <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="161"/>
-      <c r="B60" s="156"/>
+    <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="156"/>
+      <c r="B60" s="151"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="158"/>
+      <c r="E60" s="153"/>
     </row>
-    <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A61" s="161"/>
-      <c r="B61" s="156"/>
+    <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A61" s="156"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D61" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="158"/>
+      <c r="E61" s="153"/>
     </row>
-    <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A62" s="161"/>
-      <c r="B62" s="156"/>
+    <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A62" s="156"/>
+      <c r="B62" s="151"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D62" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="158"/>
+      <c r="E62" s="153"/>
     </row>
-    <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A63" s="161"/>
-      <c r="B63" s="156"/>
+    <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A63" s="156"/>
+      <c r="B63" s="151"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D63" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="158"/>
+      <c r="E63" s="153"/>
     </row>
-    <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.25">
-      <c r="A64" s="161"/>
-      <c r="B64" s="156"/>
+    <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
+      <c r="A64" s="156"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="158"/>
+      <c r="E64" s="153"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="161"/>
-      <c r="B65" s="156"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="156"/>
+      <c r="B65" s="151"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
       <c r="D65" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="158"/>
+      <c r="E65" s="153"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="161"/>
-      <c r="B66" s="156"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="156"/>
+      <c r="B66" s="151"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="158"/>
+      <c r="E66" s="153"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="161"/>
-      <c r="B67" s="156"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="156"/>
+      <c r="B67" s="151"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
       <c r="D67" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="158"/>
+      <c r="E67" s="153"/>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="161"/>
-      <c r="B68" s="156"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="156"/>
+      <c r="B68" s="151"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
       <c r="D68" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="158"/>
+      <c r="E68" s="153"/>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="161"/>
-      <c r="B69" s="156"/>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="156"/>
+      <c r="B69" s="151"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
       <c r="D69" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E69" s="158"/>
+      <c r="E69" s="153"/>
     </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="161"/>
-      <c r="B70" s="156"/>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="156"/>
+      <c r="B70" s="151"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
       <c r="D70" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="158"/>
+      <c r="E70" s="153"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="161"/>
-      <c r="B71" s="156"/>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="156"/>
+      <c r="B71" s="151"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="158"/>
+      <c r="E71" s="153"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="161"/>
-      <c r="B72" s="156"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="156"/>
+      <c r="B72" s="151"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="158"/>
+      <c r="E72" s="153"/>
     </row>
-    <row r="73" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="161"/>
-      <c r="B73" s="156"/>
+    <row r="73" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="156"/>
+      <c r="B73" s="151"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="158"/>
+      <c r="E73" s="153"/>
     </row>
-    <row r="74" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="161"/>
-      <c r="B74" s="156"/>
+    <row r="74" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="156"/>
+      <c r="B74" s="151"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="158"/>
+      <c r="E74" s="153"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="161"/>
-      <c r="B75" s="156"/>
-      <c r="C75" s="159"/>
-      <c r="D75" s="162" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="156"/>
+      <c r="B75" s="151"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="158"/>
+      <c r="E75" s="153"/>
     </row>
-    <row r="76" spans="1:5" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="161"/>
-      <c r="B76" s="156"/>
-      <c r="C76" s="159"/>
-      <c r="D76" s="162"/>
-      <c r="E76" s="158"/>
+    <row r="76" spans="1:5" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="156"/>
+      <c r="B76" s="151"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="157"/>
+      <c r="E76" s="153"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="158"/>
+      <c r="E77" s="153"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="40"/>
       <c r="C78" s="38"/>
       <c r="D78" s="50"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="48"/>
       <c r="B79" s="40"/>
       <c r="C79" s="38"/>
@@ -30442,16 +30427,16 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="80.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -30468,31 +30453,31 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="131">
+      <c r="E2" s="126">
         <v>43179</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="131"/>
+      <c r="E3" s="126"/>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="148" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30501,160 +30486,160 @@
       <c r="D4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="131"/>
+      <c r="E4" s="126"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="152"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="181" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="147"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="175" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="131"/>
+      <c r="E5" s="126"/>
     </row>
-    <row r="6" spans="1:5" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="131"/>
+    <row r="6" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="147"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="126"/>
     </row>
-    <row r="7" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
-      <c r="B7" s="153"/>
+    <row r="7" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="147"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
-      <c r="E7" s="131"/>
+      <c r="E7" s="126"/>
     </row>
-    <row r="8" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="152"/>
-      <c r="B8" s="153"/>
+    <row r="8" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="147"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
-      <c r="E8" s="131"/>
+      <c r="E8" s="126"/>
     </row>
-    <row r="9" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
+    <row r="9" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="147"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
-      <c r="E9" s="131"/>
+      <c r="E9" s="126"/>
     </row>
-    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="148" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="180" t="s">
+      <c r="C10" s="167"/>
+      <c r="D10" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="126"/>
     </row>
-    <row r="11" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="131"/>
+    <row r="11" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="150"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="126"/>
     </row>
-    <row r="12" spans="1:5" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="131"/>
+    <row r="12" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="150"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="126"/>
     </row>
-    <row r="13" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="150" t="s">
+    <row r="13" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="151" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="180" t="s">
+      <c r="C13" s="177"/>
+      <c r="D13" s="175" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="131"/>
+      <c r="E13" s="126"/>
     </row>
-    <row r="14" spans="1:5" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="150"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="131"/>
+    <row r="14" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="145"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="126"/>
     </row>
-    <row r="15" spans="1:5" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="150"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="182"/>
+    <row r="15" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="145"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="177"/>
       <c r="D15" s="49"/>
-      <c r="E15" s="131"/>
+      <c r="E15" s="126"/>
     </row>
-    <row r="16" spans="1:5" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="182"/>
+    <row r="16" spans="1:5" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="145"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="177"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="131"/>
+      <c r="E16" s="126"/>
     </row>
-    <row r="17" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="182"/>
+    <row r="17" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="145"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="177"/>
       <c r="D17" s="49"/>
-      <c r="E17" s="131"/>
+      <c r="E17" s="126"/>
     </row>
-    <row r="18" spans="1:5" ht="41.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="182"/>
+    <row r="18" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="145"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="177"/>
       <c r="D18" s="49"/>
-      <c r="E18" s="131"/>
+      <c r="E18" s="126"/>
     </row>
-    <row r="19" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="182"/>
+    <row r="19" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="145"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="177"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="131"/>
+      <c r="E19" s="126"/>
     </row>
-    <row r="20" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="182"/>
+    <row r="20" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="145"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="177"/>
       <c r="D20" s="49"/>
-      <c r="E20" s="131"/>
+      <c r="E20" s="126"/>
     </row>
-    <row r="21" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="182"/>
+    <row r="21" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="145"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="177"/>
       <c r="D21" s="49"/>
-      <c r="E21" s="131"/>
+      <c r="E21" s="126"/>
     </row>
-    <row r="22" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="182"/>
+    <row r="22" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="145"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="177"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="131"/>
+      <c r="E22" s="126"/>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="182"/>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="145"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="177"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="131"/>
+      <c r="E23" s="126"/>
     </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="73" t="s">
         <v>187</v>
       </c>
@@ -30667,9 +30652,9 @@
       <c r="D24" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="131"/>
+      <c r="E24" s="126"/>
     </row>
-    <row r="25" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="s">
         <v>231</v>
       </c>
@@ -30682,9 +30667,9 @@
       <c r="D25" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="131"/>
+      <c r="E25" s="126"/>
     </row>
-    <row r="26" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>165</v>
       </c>
@@ -30695,18 +30680,18 @@
       <c r="D26" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="131"/>
+      <c r="E26" s="126"/>
     </row>
-    <row r="27" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="131"/>
+      <c r="E27" s="126"/>
     </row>
-    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
         <v>26</v>
       </c>
@@ -30719,9 +30704,9 @@
       <c r="D28" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="E28" s="131"/>
+      <c r="E28" s="126"/>
     </row>
-    <row r="29" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
       <c r="B29" s="84"/>
       <c r="C29" s="70" t="s">
@@ -30730,9 +30715,9 @@
       <c r="D29" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="131"/>
+      <c r="E29" s="126"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
       <c r="B30" s="84"/>
       <c r="C30" s="88" t="s">
@@ -30741,9 +30726,9 @@
       <c r="D30" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="131"/>
+      <c r="E30" s="126"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
       <c r="B31" s="84"/>
       <c r="C31" s="89" t="s">
@@ -30752,13 +30737,13 @@
       <c r="D31" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="131"/>
+      <c r="E31" s="126"/>
     </row>
-    <row r="32" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="166" t="s">
+    <row r="32" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="161" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="164" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30767,41 +30752,41 @@
       <c r="D32" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="131"/>
+      <c r="E32" s="126"/>
     </row>
-    <row r="33" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="167"/>
-      <c r="B33" s="170"/>
+    <row r="33" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="162"/>
+      <c r="B33" s="165"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
-      <c r="E33" s="131"/>
+      <c r="E33" s="126"/>
     </row>
-    <row r="34" spans="1:5" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="167"/>
-      <c r="B34" s="170"/>
+    <row r="34" spans="1:5" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="162"/>
+      <c r="B34" s="165"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
-      <c r="E34" s="131"/>
+      <c r="E34" s="126"/>
     </row>
-    <row r="35" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="167"/>
-      <c r="B35" s="170"/>
+    <row r="35" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="162"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
-      <c r="E35" s="131"/>
+      <c r="E35" s="126"/>
     </row>
-    <row r="36" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="168"/>
-      <c r="B36" s="171"/>
+    <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="163"/>
+      <c r="B36" s="166"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
       <c r="D36" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="131"/>
+      <c r="E36" s="126"/>
     </row>
-    <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>27</v>
       </c>
@@ -30812,22 +30797,22 @@
       <c r="D37" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="131"/>
+      <c r="E37" s="126"/>
     </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="131"/>
+      <c r="E38" s="126"/>
     </row>
-    <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="154" t="s">
+    <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="153" t="s">
+      <c r="B39" s="148" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30836,119 +30821,119 @@
       <c r="D39" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="131"/>
+      <c r="E39" s="126"/>
     </row>
-    <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="154"/>
-      <c r="B40" s="153"/>
+    <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="149"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E40" s="131"/>
+      <c r="E40" s="126"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="152" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="153" t="s">
+      <c r="B41" s="148" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="172" t="s">
+      <c r="C41" s="167" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="150" t="s">
+      <c r="D41" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="131"/>
+      <c r="E41" s="126"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="131"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="147"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="126"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="152"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="172" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="147"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="167" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="162" t="s">
+      <c r="D43" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="131"/>
+      <c r="E43" s="126"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="152"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="131"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="147"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="126"/>
     </row>
-    <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="161" t="s">
+    <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="156" t="s">
+      <c r="B45" s="151" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="176"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="131"/>
+      <c r="E45" s="126"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="161"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="173" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="156"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="172"/>
+      <c r="D46" s="168" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="131"/>
+      <c r="E46" s="126"/>
     </row>
-    <row r="47" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="161"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="174"/>
-      <c r="E47" s="131"/>
+    <row r="47" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="156"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="169"/>
+      <c r="E47" s="126"/>
     </row>
-    <row r="48" spans="1:5" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="161"/>
-      <c r="B48" s="156"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="174"/>
-      <c r="E48" s="131"/>
+    <row r="48" spans="1:5" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="156"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="169"/>
+      <c r="E48" s="126"/>
     </row>
-    <row r="49" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
-      <c r="B49" s="156"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="131"/>
+    <row r="49" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="156"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="126"/>
     </row>
-    <row r="50" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="161"/>
-      <c r="B50" s="156"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="175"/>
-      <c r="E50" s="131"/>
+    <row r="50" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="156"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="170"/>
+      <c r="E50" s="126"/>
     </row>
-    <row r="51" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="44"/>
-      <c r="E51" s="131"/>
+      <c r="E51" s="126"/>
     </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>83</v>
       </c>
@@ -30959,13 +30944,13 @@
       <c r="D52" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="131"/>
+      <c r="E52" s="126"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="156" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="156" t="s">
+      <c r="B53" s="151" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30974,191 +30959,191 @@
       <c r="D53" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="131"/>
+      <c r="E53" s="126"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="156"/>
-      <c r="B54" s="156"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="151"/>
+      <c r="B54" s="151"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
       <c r="D54" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="131"/>
+      <c r="E54" s="126"/>
     </row>
-    <row r="55" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="156"/>
-      <c r="B55" s="156"/>
+    <row r="55" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="151"/>
+      <c r="B55" s="151"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
       <c r="D55" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E55" s="131"/>
+      <c r="E55" s="126"/>
     </row>
-    <row r="56" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="156"/>
-      <c r="B56" s="156"/>
-      <c r="C56" s="179" t="s">
+    <row r="56" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="151"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="174" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="E56" s="131"/>
+      <c r="E56" s="126"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="156"/>
-      <c r="B57" s="156"/>
-      <c r="C57" s="179"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="151"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="174"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="131"/>
+      <c r="E57" s="126"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="156"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="151"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="131"/>
+      <c r="E58" s="126"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="156"/>
-      <c r="B59" s="156"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="151"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
       <c r="D59" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="E59" s="131"/>
+      <c r="E59" s="126"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="156"/>
-      <c r="B60" s="156"/>
-      <c r="C60" s="179" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="151"/>
+      <c r="B60" s="151"/>
+      <c r="C60" s="174" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="131"/>
+      <c r="E60" s="126"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="156"/>
-      <c r="B61" s="156"/>
-      <c r="C61" s="179"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="151"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="174"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="131"/>
+      <c r="E61" s="126"/>
     </row>
-    <row r="62" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="156"/>
-      <c r="B62" s="156"/>
-      <c r="C62" s="179"/>
+    <row r="62" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="151"/>
+      <c r="B62" s="151"/>
+      <c r="C62" s="174"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="131"/>
+      <c r="E62" s="126"/>
     </row>
-    <row r="63" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="156"/>
-      <c r="B63" s="156"/>
-      <c r="C63" s="172" t="s">
+    <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="151"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="167" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="131"/>
+      <c r="E63" s="126"/>
     </row>
-    <row r="64" spans="1:5" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="156"/>
-      <c r="B64" s="156"/>
-      <c r="C64" s="172"/>
-      <c r="D64" s="162" t="s">
+    <row r="64" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="151"/>
+      <c r="B64" s="151"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="157" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="131"/>
+      <c r="E64" s="126"/>
     </row>
-    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="156"/>
-      <c r="B65" s="156"/>
-      <c r="C65" s="172"/>
-      <c r="D65" s="162"/>
-      <c r="E65" s="131"/>
+    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="151"/>
+      <c r="B65" s="151"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="126"/>
     </row>
-    <row r="66" spans="1:5" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="156"/>
-      <c r="B66" s="156"/>
-      <c r="C66" s="172"/>
-      <c r="D66" s="162"/>
-      <c r="E66" s="131"/>
+    <row r="66" spans="1:5" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="151"/>
+      <c r="B66" s="151"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="126"/>
     </row>
-    <row r="67" spans="1:5" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="156"/>
-      <c r="B67" s="156"/>
-      <c r="C67" s="172"/>
-      <c r="D67" s="162"/>
-      <c r="E67" s="131"/>
+    <row r="67" spans="1:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="151"/>
+      <c r="B67" s="151"/>
+      <c r="C67" s="167"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="126"/>
     </row>
-    <row r="68" spans="1:5" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="131"/>
+      <c r="E68" s="126"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
       <c r="B69" s="83"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="82"/>
       <c r="B70" s="83"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="82"/>
       <c r="B71" s="83"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="82"/>
       <c r="B72" s="83"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -31209,20 +31194,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -31232,647 +31217,648 @@
       <c r="C1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="105" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
-      <c r="D2" s="117"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="174" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="128">
+      <c r="E3" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="101" t="s">
+    <row r="4" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="145"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="127">
+      <c r="E4" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="101" t="s">
+      <c r="B5" s="174"/>
+      <c r="C5" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="127">
+      <c r="E5" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="101" t="s">
+      <c r="B6" s="174"/>
+      <c r="C6" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="127">
+      <c r="E6" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="190" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="185" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="179"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="58"/>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="110" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="128">
+      <c r="E7" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
-      <c r="B8" s="179"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="186"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="58"/>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="128">
+      <c r="E8" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="179"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="58"/>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="122"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="187" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="182" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="174" t="s">
         <v>234</v>
       </c>
       <c r="C11" s="58"/>
       <c r="D11" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="128">
+      <c r="E11" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
-      <c r="B12" s="179"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="183"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="58"/>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="107" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="127">
+      <c r="E12" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="189"/>
-      <c r="B13" s="179"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="184"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="107" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="127">
+      <c r="E13" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="120" t="s">
         <v>234</v>
       </c>
       <c r="C14" s="58"/>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="179" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="174" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="174" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="198" t="s">
+      <c r="C15" s="193" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="127">
+      <c r="E15" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="113" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="174"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="E16" s="128">
+      <c r="E16" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="99" t="s">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="174"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="124" t="s">
+      <c r="D17" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="110" t="s">
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="121" t="s">
         <v>280</v>
       </c>
       <c r="B18" s="58"/>
       <c r="C18" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="117"/>
+      <c r="D19" s="106"/>
       <c r="E19" s="58"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="190" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="185" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="179" t="s">
+      <c r="B20" s="174" t="s">
         <v>234</v>
       </c>
       <c r="C20" s="58"/>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="110" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="128">
+      <c r="E20" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="191"/>
-      <c r="B21" s="179"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="186"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="58"/>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="128">
+      <c r="E21" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="127">
+      <c r="E22" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="192" t="s">
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="185" t="s">
+      <c r="B23" s="180" t="s">
         <v>234</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="127">
+      <c r="E23" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="193"/>
-      <c r="B24" s="195"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="188"/>
+      <c r="B24" s="190"/>
       <c r="C24" t="s">
         <v>270</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="128">
+      <c r="E24" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="193"/>
-      <c r="B25" s="195"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="188"/>
+      <c r="B25" s="190"/>
       <c r="C25" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="128">
+      <c r="E25" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="193"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="112" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="188"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="103" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="130">
+      <c r="E26" s="125">
         <v>43270</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="193"/>
-      <c r="B27" s="195"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="188"/>
+      <c r="B27" s="190"/>
       <c r="C27" s="58" t="s">
         <v>284</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="E27" s="127">
+      <c r="E27" s="116">
         <v>43279</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="193"/>
-      <c r="B28" s="195"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="188"/>
+      <c r="B28" s="190"/>
       <c r="C28" s="58" t="s">
         <v>285</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="E28" s="127">
+      <c r="E28" s="116">
         <v>43279</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="194"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="98" t="s">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="189"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="114" t="s">
         <v>245</v>
       </c>
-      <c r="E29" s="127">
+      <c r="E29" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
-      <c r="D30" s="117"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="58"/>
     </row>
-    <row r="31" spans="1:5" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
+    <row r="31" spans="1:5" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="102"/>
       <c r="B31" s="67"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="121" t="s">
+      <c r="D31" s="110" t="s">
         <v>261</v>
       </c>
       <c r="E31" s="58"/>
     </row>
-    <row r="32" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="150" t="s">
+    <row r="32" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="179" t="s">
+      <c r="B32" s="174" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="107" t="s">
+      <c r="C32" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="118" t="s">
+      <c r="D32" s="107" t="s">
         <v>253</v>
       </c>
-      <c r="E32" s="127">
+      <c r="E32" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="107">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="145"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="124">
         <v>10.1</v>
       </c>
-      <c r="D33" s="118" t="s">
+      <c r="D33" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="E33" s="127">
+      <c r="E33" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="107">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="145"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="124">
         <v>10.199999999999999</v>
       </c>
-      <c r="D34" s="118" t="s">
+      <c r="D34" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="E34" s="127">
+      <c r="E34" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="150" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="174" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="200" t="s">
+      <c r="C35" s="174"/>
+      <c r="D35" s="195" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="196">
+      <c r="E35" s="191">
         <v>43270</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="150"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="197"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="145"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="192"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="106" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="D37" s="126" t="s">
+      <c r="D37" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="E37" s="127">
+      <c r="E37" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100" t="s">
+    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="97" t="s">
         <v>248</v>
       </c>
       <c r="B38" s="39"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="115"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="58"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="118" t="s">
+      <c r="D39" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="E39" s="127">
+      <c r="E39" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="B40" s="129" t="s">
+      <c r="B40" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="104" t="s">
+      <c r="C40" s="100" t="s">
         <v>288</v>
       </c>
-      <c r="D40" s="118" t="s">
+      <c r="D40" s="107" t="s">
         <v>289</v>
       </c>
-      <c r="E40" s="127">
+      <c r="E40" s="116">
         <v>43280</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="108" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="114"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="118"/>
       <c r="E41" s="58"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="183" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="185" t="s">
+      <c r="B42" s="180" t="s">
         <v>271</v>
       </c>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="D42" s="118" t="s">
+      <c r="D42" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="E42" s="127">
+      <c r="E42" s="116">
         <v>43259</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
-      <c r="B43" s="186"/>
-      <c r="C43" s="104" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="179"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="E43" s="127">
+      <c r="E43" s="116">
         <v>43259</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="103" t="s">
+    <row r="44" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="124" t="s">
         <v>271</v>
       </c>
       <c r="C44" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D44" s="118" t="s">
+      <c r="D44" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="127">
+      <c r="E44" s="116">
         <v>43259</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="103" t="s">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="124" t="s">
         <v>271</v>
       </c>
       <c r="C45" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D45" s="118" t="s">
+      <c r="D45" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="E45" s="127">
+      <c r="E45" s="116">
         <v>43259</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="108" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="114"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="118"/>
       <c r="E46" s="58"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="58"/>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="124" t="s">
         <v>234</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="126" t="s">
+      <c r="D47" s="115" t="s">
         <v>274</v>
       </c>
-      <c r="E47" s="127">
+      <c r="E47" s="116">
         <v>43265</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="108" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="114"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="58"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="58"/>
-      <c r="B49" s="111" t="s">
+      <c r="B49" s="124" t="s">
         <v>234</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="126" t="s">
+      <c r="D49" s="115" t="s">
         <v>274</v>
       </c>
-      <c r="E49" s="128">
+      <c r="E49" s="117">
         <v>43270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C35:C36"/>
@@ -31880,8 +31866,6 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="A11:A13"/>
@@ -31894,6 +31878,7 @@
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="296">
   <si>
     <t>Document</t>
   </si>
@@ -2681,6 +2681,24 @@
   <si>
     <t>New section</t>
   </si>
+  <si>
+    <t>code 2048</t>
+  </si>
+  <si>
+    <t>code 3008 - 3012</t>
+  </si>
+  <si>
+    <t>code 4004</t>
+  </si>
+  <si>
+    <t>SOAP Lookup RPNs by Range Guide</t>
+  </si>
+  <si>
+    <t>listOfEmployeesSampleCSV</t>
+  </si>
+  <si>
+    <t>The number format in the DIR_MRK column was changed from ‘Date’ to ‘General’</t>
+  </si>
 </sst>
 </file>
 
@@ -3274,7 +3292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3585,9 +3603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3596,6 +3611,16 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3645,35 +3670,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3687,8 +3685,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3701,6 +3714,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3723,6 +3748,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3741,38 +3778,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3789,7 +3799,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3805,6 +3821,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4214,13 +4242,13 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="126">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="129">
         <v>43056</v>
       </c>
       <c r="F2" s="2"/>
@@ -4240,19 +4268,19 @@
       <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="126"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="126"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4270,7 +4298,7 @@
       <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="126"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4288,16 +4316,16 @@
       <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="126"/>
+      <c r="E6" s="129"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="133">
+      <c r="B7" s="136">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4306,86 +4334,86 @@
       <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="126"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="126"/>
+      <c r="E8" s="129"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="131"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="126"/>
+      <c r="E9" s="129"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="131"/>
-      <c r="B10" s="134"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="126"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="131"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="126"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
-      <c r="B12" s="135"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="126"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="133">
+      <c r="B13" s="136">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4394,21 +4422,21 @@
       <c r="D13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="126"/>
+      <c r="E13" s="129"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="139"/>
-      <c r="B14" s="135"/>
+      <c r="A14" s="142"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="126"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -4426,7 +4454,7 @@
       <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="126"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -4444,19 +4472,19 @@
       <c r="D16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="126"/>
+      <c r="E16" s="129"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="126"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="129"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4474,7 +4502,7 @@
       <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="126"/>
+      <c r="E18" s="129"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4492,28 +4520,28 @@
       <c r="D19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="126"/>
+      <c r="E19" s="129"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="127" t="s">
+      <c r="A20" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="126"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="137">
+      <c r="B21" s="140">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4522,21 +4550,21 @@
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="126"/>
+      <c r="E21" s="129"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="141"/>
-      <c r="B22" s="135"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="138"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="126"/>
+      <c r="E22" s="129"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
@@ -4551,22 +4579,22 @@
       <c r="D23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="126"/>
+      <c r="E23" s="129"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="127" t="s">
+      <c r="A24" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="126"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="129"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="137">
+      <c r="B25" s="140">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4575,105 +4603,105 @@
       <c r="D25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="126"/>
+      <c r="E25" s="129"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="131"/>
-      <c r="B26" s="134"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="126"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="131"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="126"/>
+      <c r="E27" s="129"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="131"/>
-      <c r="B28" s="134"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="126"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="131"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="126"/>
+      <c r="E29" s="129"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="131"/>
-      <c r="B30" s="134"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="137"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="126"/>
+      <c r="E30" s="129"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="131"/>
-      <c r="B31" s="134"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="137"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="126"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="132"/>
-      <c r="B32" s="135"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="138"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="126"/>
+      <c r="E32" s="129"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -4691,7 +4719,7 @@
       <c r="D33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="126"/>
+      <c r="E33" s="129"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -4706,7 +4734,7 @@
       <c r="D34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="126"/>
+      <c r="E34" s="129"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
@@ -4721,7 +4749,7 @@
       <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="126"/>
+      <c r="E35" s="129"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
@@ -4736,7 +4764,7 @@
       <c r="D36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="126"/>
+      <c r="E36" s="129"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -4751,7 +4779,7 @@
       <c r="D37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="126"/>
+      <c r="E37" s="129"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
@@ -4766,7 +4794,7 @@
       <c r="D38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="126"/>
+      <c r="E38" s="129"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
@@ -4781,7 +4809,7 @@
       <c r="D39" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="126"/>
+      <c r="E39" s="129"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
@@ -4796,16 +4824,16 @@
       <c r="D40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="126"/>
+      <c r="E40" s="129"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="127" t="s">
+      <c r="A41" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="126"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="129"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4820,7 +4848,7 @@
       <c r="D42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="126"/>
+      <c r="E42" s="129"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
@@ -4835,7 +4863,7 @@
       <c r="D43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="126"/>
+      <c r="E43" s="129"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
@@ -4850,7 +4878,7 @@
       <c r="D44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="126"/>
+      <c r="E44" s="129"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
@@ -4865,7 +4893,7 @@
       <c r="D45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="126"/>
+      <c r="E45" s="129"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -4948,7 +4976,7 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="153">
+      <c r="E2" s="147">
         <v>43140</v>
       </c>
     </row>
@@ -4963,7 +4991,7 @@
       <c r="D3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="153"/>
+      <c r="E3" s="147"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
@@ -4976,7 +5004,7 @@
       <c r="D4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="153"/>
+      <c r="E4" s="147"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
@@ -4989,7 +5017,7 @@
       <c r="D5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="153"/>
+      <c r="E5" s="147"/>
     </row>
     <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
@@ -4998,13 +5026,13 @@
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="153"/>
+      <c r="E6" s="147"/>
     </row>
     <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5013,68 +5041,68 @@
       <c r="D7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="153"/>
+      <c r="E7" s="147"/>
     </row>
     <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
-      <c r="B8" s="148"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="153"/>
+      <c r="E8" s="147"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="153"/>
+      <c r="E9" s="147"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
-      <c r="B10" s="148"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="153"/>
+      <c r="E10" s="147"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
-      <c r="B11" s="148"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="153"/>
+      <c r="E11" s="147"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
-      <c r="B12" s="148"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="153"/>
+      <c r="E12" s="147"/>
     </row>
     <row r="13" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5083,35 +5111,35 @@
       <c r="D13" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="153"/>
+      <c r="E13" s="147"/>
     </row>
     <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
-      <c r="B14" s="148"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="153"/>
+      <c r="E14" s="147"/>
     </row>
     <row r="15" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="150"/>
-      <c r="B15" s="148"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="153"/>
+      <c r="E15" s="147"/>
     </row>
     <row r="16" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="155" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5120,108 +5148,108 @@
       <c r="D16" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="153"/>
+      <c r="E16" s="147"/>
     </row>
     <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="145"/>
-      <c r="B17" s="151"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="153"/>
+      <c r="E17" s="147"/>
     </row>
     <row r="18" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="145"/>
-      <c r="B18" s="151"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="153"/>
+      <c r="E18" s="147"/>
     </row>
     <row r="19" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="145"/>
-      <c r="B19" s="151"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="153"/>
+      <c r="E19" s="147"/>
     </row>
     <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="145"/>
-      <c r="B20" s="151"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="153"/>
+      <c r="E20" s="147"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="145"/>
-      <c r="B21" s="151"/>
+      <c r="B21" s="155"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="153"/>
+      <c r="E21" s="147"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="145"/>
-      <c r="B22" s="151"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="153"/>
+      <c r="E22" s="147"/>
     </row>
     <row r="23" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="145"/>
-      <c r="B23" s="151"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="153"/>
+      <c r="E23" s="147"/>
     </row>
     <row r="24" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="145"/>
-      <c r="B24" s="151"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="152" t="s">
+      <c r="D24" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="153"/>
+      <c r="E24" s="147"/>
     </row>
     <row r="25" spans="1:5" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="145"/>
-      <c r="B25" s="151"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="145"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="153"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="147"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="161" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5230,16 +5258,16 @@
       <c r="D26" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="153"/>
+      <c r="E26" s="147"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147"/>
-      <c r="B27" s="148"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="153"/>
+      <c r="E27" s="147"/>
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
@@ -5252,7 +5280,7 @@
       <c r="D28" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="153"/>
+      <c r="E28" s="147"/>
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
@@ -5261,108 +5289,108 @@
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="153"/>
+      <c r="E29" s="147"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="146" t="s">
+      <c r="D30" s="150" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="153"/>
+      <c r="E30" s="147"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="149"/>
-      <c r="B31" s="148"/>
+      <c r="A31" s="162"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="153"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="147"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="149"/>
-      <c r="B32" s="148"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="153"/>
+      <c r="E32" s="147"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="149"/>
-      <c r="B33" s="148"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="153"/>
+      <c r="E33" s="147"/>
     </row>
     <row r="34" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="149"/>
-      <c r="B34" s="148"/>
+      <c r="A34" s="162"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="153"/>
+      <c r="E34" s="147"/>
     </row>
     <row r="35" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="149"/>
-      <c r="B35" s="148"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="153"/>
+      <c r="E35" s="147"/>
     </row>
     <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="149"/>
-      <c r="B36" s="148"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
       <c r="D36" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="153"/>
+      <c r="E36" s="147"/>
     </row>
     <row r="37" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="149"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="142" t="s">
+      <c r="A37" s="162"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="144" t="s">
+      <c r="D37" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="153"/>
+      <c r="E37" s="147"/>
     </row>
     <row r="38" spans="1:5" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="149"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="153"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="147"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5371,16 +5399,16 @@
       <c r="D39" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="153"/>
+      <c r="E39" s="147"/>
     </row>
     <row r="40" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="147"/>
-      <c r="B40" s="148"/>
+      <c r="A40" s="161"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="153"/>
+      <c r="E40" s="147"/>
     </row>
     <row r="41" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
@@ -5393,7 +5421,7 @@
       <c r="D41" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="153"/>
+      <c r="E41" s="147"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
@@ -5402,90 +5430,90 @@
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="153"/>
+      <c r="E42" s="147"/>
     </row>
     <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="149" t="s">
+      <c r="A43" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="148" t="s">
+      <c r="B43" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="153"/>
+      <c r="E43" s="147"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="149"/>
-      <c r="B44" s="148"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="153"/>
+      <c r="E44" s="147"/>
     </row>
     <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="158" t="s">
+      <c r="A45" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="148" t="s">
+      <c r="B45" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="153"/>
+      <c r="E45" s="147"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="159"/>
-      <c r="B46" s="148"/>
+      <c r="A46" s="158"/>
+      <c r="B46" s="160"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="153"/>
+      <c r="E46" s="147"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="159"/>
-      <c r="B47" s="148"/>
+      <c r="A47" s="158"/>
+      <c r="B47" s="160"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="153"/>
+      <c r="E47" s="147"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="160"/>
-      <c r="B48" s="148"/>
+      <c r="A48" s="159"/>
+      <c r="B48" s="160"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="153"/>
+      <c r="E48" s="147"/>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="151" t="s">
+      <c r="A49" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="151" t="s">
+      <c r="B49" s="155" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="153"/>
+      <c r="E49" s="147"/>
       <c r="H49" s="42"/>
       <c r="L49" s="42"/>
       <c r="P49" s="42"/>
@@ -9583,15 +9611,15 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="151"/>
-      <c r="B50" s="151"/>
+      <c r="A50" s="155"/>
+      <c r="B50" s="155"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="153"/>
+      <c r="E50" s="147"/>
       <c r="H50" s="42"/>
       <c r="L50" s="42"/>
       <c r="P50" s="42"/>
@@ -13689,15 +13717,15 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="151"/>
-      <c r="B51" s="151"/>
+      <c r="A51" s="155"/>
+      <c r="B51" s="155"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="153"/>
+      <c r="E51" s="147"/>
       <c r="H51" s="42"/>
       <c r="L51" s="42"/>
       <c r="P51" s="42"/>
@@ -17795,15 +17823,15 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="151"/>
-      <c r="B52" s="151"/>
+      <c r="A52" s="155"/>
+      <c r="B52" s="155"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="153"/>
+      <c r="E52" s="147"/>
       <c r="H52" s="42"/>
       <c r="L52" s="42"/>
       <c r="P52" s="42"/>
@@ -21901,15 +21929,15 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="151"/>
-      <c r="B53" s="151"/>
-      <c r="C53" s="155" t="s">
+      <c r="A53" s="155"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="146" t="s">
+      <c r="D53" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="153"/>
+      <c r="E53" s="147"/>
       <c r="H53" s="42"/>
       <c r="L53" s="42"/>
       <c r="P53" s="42"/>
@@ -26007,11 +26035,11 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="151"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="155"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="153"/>
+      <c r="A54" s="155"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="147"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -30115,7 +30143,7 @@
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="153"/>
+      <c r="E55" s="147"/>
     </row>
     <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
@@ -30128,13 +30156,13 @@
       <c r="D56" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="153"/>
+      <c r="E56" s="147"/>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="156" t="s">
+      <c r="A57" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="155" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30143,204 +30171,204 @@
       <c r="D57" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="153"/>
+      <c r="E57" s="147"/>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="156"/>
-      <c r="B58" s="151"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="155"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="153"/>
+      <c r="E58" s="147"/>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="156"/>
-      <c r="B59" s="151"/>
+      <c r="A59" s="154"/>
+      <c r="B59" s="155"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D59" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="153"/>
+      <c r="E59" s="147"/>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="156"/>
-      <c r="B60" s="151"/>
+      <c r="A60" s="154"/>
+      <c r="B60" s="155"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="153"/>
+      <c r="E60" s="147"/>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="156"/>
-      <c r="B61" s="151"/>
+      <c r="A61" s="154"/>
+      <c r="B61" s="155"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D61" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="153"/>
+      <c r="E61" s="147"/>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="156"/>
-      <c r="B62" s="151"/>
+      <c r="A62" s="154"/>
+      <c r="B62" s="155"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D62" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="153"/>
+      <c r="E62" s="147"/>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="156"/>
-      <c r="B63" s="151"/>
+      <c r="A63" s="154"/>
+      <c r="B63" s="155"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D63" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="153"/>
+      <c r="E63" s="147"/>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="156"/>
-      <c r="B64" s="151"/>
+      <c r="A64" s="154"/>
+      <c r="B64" s="155"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="153"/>
+      <c r="E64" s="147"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="156"/>
-      <c r="B65" s="151"/>
+      <c r="A65" s="154"/>
+      <c r="B65" s="155"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
       <c r="D65" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="153"/>
+      <c r="E65" s="147"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="156"/>
-      <c r="B66" s="151"/>
+      <c r="A66" s="154"/>
+      <c r="B66" s="155"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="153"/>
+      <c r="E66" s="147"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="156"/>
-      <c r="B67" s="151"/>
+      <c r="A67" s="154"/>
+      <c r="B67" s="155"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
       <c r="D67" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="153"/>
+      <c r="E67" s="147"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="156"/>
-      <c r="B68" s="151"/>
+      <c r="A68" s="154"/>
+      <c r="B68" s="155"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
       <c r="D68" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="153"/>
+      <c r="E68" s="147"/>
     </row>
     <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="156"/>
-      <c r="B69" s="151"/>
+      <c r="A69" s="154"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
       <c r="D69" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E69" s="153"/>
+      <c r="E69" s="147"/>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="156"/>
-      <c r="B70" s="151"/>
+      <c r="A70" s="154"/>
+      <c r="B70" s="155"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
       <c r="D70" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="153"/>
+      <c r="E70" s="147"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="156"/>
-      <c r="B71" s="151"/>
+      <c r="A71" s="154"/>
+      <c r="B71" s="155"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="153"/>
+      <c r="E71" s="147"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="156"/>
-      <c r="B72" s="151"/>
+      <c r="A72" s="154"/>
+      <c r="B72" s="155"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="153"/>
+      <c r="E72" s="147"/>
     </row>
     <row r="73" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="156"/>
-      <c r="B73" s="151"/>
+      <c r="A73" s="154"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="153"/>
+      <c r="E73" s="147"/>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="156"/>
-      <c r="B74" s="151"/>
+      <c r="A74" s="154"/>
+      <c r="B74" s="155"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="153"/>
+      <c r="E74" s="147"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="156"/>
-      <c r="B75" s="151"/>
-      <c r="C75" s="154"/>
-      <c r="D75" s="157" t="s">
+      <c r="A75" s="154"/>
+      <c r="B75" s="155"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="153"/>
+      <c r="E75" s="147"/>
     </row>
     <row r="76" spans="1:5" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="156"/>
-      <c r="B76" s="151"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="157"/>
-      <c r="E76" s="153"/>
+      <c r="A76" s="154"/>
+      <c r="B76" s="155"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="156"/>
+      <c r="E76" s="147"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30349,7 +30377,7 @@
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="153"/>
+      <c r="E77" s="147"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
@@ -30387,6 +30415,15 @@
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="A57:A76"/>
     <mergeCell ref="B57:B76"/>
     <mergeCell ref="D75:D76"/>
@@ -30400,19 +30437,10 @@
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B16:B25"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30460,7 +30488,7 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="126">
+      <c r="E2" s="129">
         <v>43179</v>
       </c>
     </row>
@@ -30471,13 +30499,13 @@
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="126"/>
+      <c r="E3" s="129"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="160" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30486,158 +30514,158 @@
       <c r="D4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="126"/>
+      <c r="E4" s="129"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="147"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="176" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="175" t="s">
+      <c r="D5" s="172" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="126"/>
+      <c r="E5" s="129"/>
     </row>
     <row r="6" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="147"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="126"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="129"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147"/>
-      <c r="B7" s="148"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="160"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
-      <c r="E7" s="126"/>
+      <c r="E7" s="129"/>
     </row>
     <row r="8" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
-      <c r="B8" s="148"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
-      <c r="E8" s="126"/>
+      <c r="E8" s="129"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
-      <c r="E9" s="126"/>
+      <c r="E9" s="129"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="175" t="s">
+      <c r="C10" s="170"/>
+      <c r="D10" s="172" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="126"/>
+      <c r="E10" s="129"/>
     </row>
     <row r="11" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="126"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="129"/>
     </row>
     <row r="12" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="150"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="126"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="129"/>
     </row>
     <row r="13" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="175" t="s">
+      <c r="C13" s="174"/>
+      <c r="D13" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="126"/>
+      <c r="E13" s="129"/>
     </row>
     <row r="14" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="145"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="126"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="129"/>
     </row>
     <row r="15" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="145"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="177"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="174"/>
       <c r="D15" s="49"/>
-      <c r="E15" s="126"/>
+      <c r="E15" s="129"/>
     </row>
     <row r="16" spans="1:5" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="145"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="177"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="126"/>
+      <c r="E16" s="129"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="145"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="177"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="49"/>
-      <c r="E17" s="126"/>
+      <c r="E17" s="129"/>
     </row>
     <row r="18" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="145"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="177"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="49"/>
-      <c r="E18" s="126"/>
+      <c r="E18" s="129"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="145"/>
-      <c r="B19" s="151"/>
-      <c r="C19" s="177"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="126"/>
+      <c r="E19" s="129"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="145"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="177"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="49"/>
-      <c r="E20" s="126"/>
+      <c r="E20" s="129"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="145"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="177"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="174"/>
       <c r="D21" s="49"/>
-      <c r="E21" s="126"/>
+      <c r="E21" s="129"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="145"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="177"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="126"/>
+      <c r="E22" s="129"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="145"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="177"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="174"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="126"/>
+      <c r="E23" s="129"/>
     </row>
     <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="73" t="s">
@@ -30652,7 +30680,7 @@
       <c r="D24" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="126"/>
+      <c r="E24" s="129"/>
     </row>
     <row r="25" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="s">
@@ -30667,7 +30695,7 @@
       <c r="D25" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="126"/>
+      <c r="E25" s="129"/>
     </row>
     <row r="26" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
@@ -30680,7 +30708,7 @@
       <c r="D26" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="126"/>
+      <c r="E26" s="129"/>
     </row>
     <row r="27" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
@@ -30689,7 +30717,7 @@
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="126"/>
+      <c r="E27" s="129"/>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
@@ -30704,7 +30732,7 @@
       <c r="D28" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="E28" s="126"/>
+      <c r="E28" s="129"/>
     </row>
     <row r="29" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
@@ -30715,7 +30743,7 @@
       <c r="D29" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="126"/>
+      <c r="E29" s="129"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
@@ -30726,7 +30754,7 @@
       <c r="D30" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="126"/>
+      <c r="E30" s="129"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
@@ -30737,13 +30765,13 @@
       <c r="D31" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="126"/>
+      <c r="E31" s="129"/>
     </row>
     <row r="32" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="167" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30752,39 +30780,39 @@
       <c r="D32" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="126"/>
+      <c r="E32" s="129"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="162"/>
-      <c r="B33" s="165"/>
+      <c r="A33" s="165"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
-      <c r="E33" s="126"/>
+      <c r="E33" s="129"/>
     </row>
     <row r="34" spans="1:5" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="162"/>
-      <c r="B34" s="165"/>
+      <c r="A34" s="165"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
-      <c r="E34" s="126"/>
+      <c r="E34" s="129"/>
     </row>
     <row r="35" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="168"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
-      <c r="E35" s="126"/>
+      <c r="E35" s="129"/>
     </row>
     <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="163"/>
-      <c r="B36" s="166"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="169"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
       <c r="D36" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="126"/>
+      <c r="E36" s="129"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
@@ -30797,7 +30825,7 @@
       <c r="D37" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="126"/>
+      <c r="E37" s="129"/>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
@@ -30806,13 +30834,13 @@
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="126"/>
+      <c r="E38" s="129"/>
     </row>
     <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="149" t="s">
+      <c r="A39" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="160" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30821,108 +30849,108 @@
       <c r="D39" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="126"/>
+      <c r="E39" s="129"/>
     </row>
     <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="149"/>
-      <c r="B40" s="148"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E40" s="126"/>
+      <c r="E40" s="129"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="167" t="s">
+      <c r="C41" s="170" t="s">
         <v>194</v>
       </c>
       <c r="D41" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="126"/>
+      <c r="E41" s="129"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="147"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="167"/>
+      <c r="A42" s="161"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="170"/>
       <c r="D42" s="145"/>
-      <c r="E42" s="126"/>
+      <c r="E42" s="129"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="147"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="167" t="s">
+      <c r="A43" s="161"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="170" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="157" t="s">
+      <c r="D43" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="126"/>
+      <c r="E43" s="129"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="147"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="126"/>
+      <c r="A44" s="161"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="129"/>
     </row>
     <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="151" t="s">
+      <c r="B45" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="171"/>
+      <c r="C45" s="178"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="126"/>
+      <c r="E45" s="129"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="156"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="168" t="s">
+      <c r="A46" s="154"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="126"/>
+      <c r="E46" s="129"/>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="156"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="172"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="126"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="129"/>
     </row>
     <row r="48" spans="1:5" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="156"/>
-      <c r="B48" s="151"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="126"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="180"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="129"/>
     </row>
     <row r="49" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="156"/>
-      <c r="B49" s="151"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="126"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="129"/>
     </row>
     <row r="50" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="156"/>
-      <c r="B50" s="151"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="126"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="129"/>
     </row>
     <row r="51" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30931,7 +30959,7 @@
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="44"/>
-      <c r="E51" s="126"/>
+      <c r="E51" s="129"/>
     </row>
     <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
@@ -30944,13 +30972,13 @@
       <c r="D52" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="126"/>
+      <c r="E52" s="129"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="151" t="s">
+      <c r="A53" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="151" t="s">
+      <c r="B53" s="155" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30959,148 +30987,148 @@
       <c r="D53" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="126"/>
+      <c r="E53" s="129"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="151"/>
-      <c r="B54" s="151"/>
+      <c r="A54" s="155"/>
+      <c r="B54" s="155"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
       <c r="D54" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="126"/>
+      <c r="E54" s="129"/>
     </row>
     <row r="55" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="151"/>
-      <c r="B55" s="151"/>
+      <c r="A55" s="155"/>
+      <c r="B55" s="155"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
       <c r="D55" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E55" s="126"/>
+      <c r="E55" s="129"/>
     </row>
     <row r="56" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="151"/>
-      <c r="B56" s="151"/>
-      <c r="C56" s="174" t="s">
+      <c r="A56" s="155"/>
+      <c r="B56" s="155"/>
+      <c r="C56" s="171" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="E56" s="126"/>
+      <c r="E56" s="129"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="151"/>
-      <c r="B57" s="151"/>
-      <c r="C57" s="174"/>
+      <c r="A57" s="155"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="171"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="126"/>
+      <c r="E57" s="129"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="151"/>
-      <c r="B58" s="151"/>
+      <c r="A58" s="155"/>
+      <c r="B58" s="155"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="126"/>
+      <c r="E58" s="129"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="151"/>
-      <c r="B59" s="151"/>
+      <c r="A59" s="155"/>
+      <c r="B59" s="155"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
       <c r="D59" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="E59" s="126"/>
+      <c r="E59" s="129"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="151"/>
-      <c r="B60" s="151"/>
-      <c r="C60" s="174" t="s">
+      <c r="A60" s="155"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="171" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="126"/>
+      <c r="E60" s="129"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="151"/>
-      <c r="B61" s="151"/>
-      <c r="C61" s="174"/>
+      <c r="A61" s="155"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="171"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="126"/>
+      <c r="E61" s="129"/>
     </row>
     <row r="62" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="151"/>
-      <c r="B62" s="151"/>
-      <c r="C62" s="174"/>
+      <c r="A62" s="155"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="171"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="126"/>
+      <c r="E62" s="129"/>
     </row>
     <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="151"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="167" t="s">
+      <c r="A63" s="155"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="170" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="126"/>
+      <c r="E63" s="129"/>
     </row>
     <row r="64" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="151"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="157" t="s">
+      <c r="A64" s="155"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="156" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="126"/>
+      <c r="E64" s="129"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="151"/>
-      <c r="B65" s="151"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="126"/>
+      <c r="A65" s="155"/>
+      <c r="B65" s="155"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="129"/>
     </row>
     <row r="66" spans="1:5" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="151"/>
-      <c r="B66" s="151"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="126"/>
+      <c r="A66" s="155"/>
+      <c r="B66" s="155"/>
+      <c r="C66" s="170"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="129"/>
     </row>
     <row r="67" spans="1:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="151"/>
-      <c r="B67" s="151"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="157"/>
-      <c r="E67" s="126"/>
+      <c r="A67" s="155"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="129"/>
     </row>
     <row r="68" spans="1:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="126"/>
+      <c r="E68" s="129"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
@@ -31150,6 +31178,10 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
     <mergeCell ref="E2:E68"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
@@ -31162,20 +31194,16 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C63:C67"/>
     <mergeCell ref="A53:A67"/>
     <mergeCell ref="B53:B67"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C63:C67"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A4:A9"/>
@@ -31192,10 +31220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31237,7 +31265,7 @@
       <c r="A3" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="171" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
@@ -31250,8 +31278,8 @@
     </row>
     <row r="4" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="145"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="124" t="s">
+      <c r="B4" s="171"/>
+      <c r="C4" s="123" t="s">
         <v>235</v>
       </c>
       <c r="D4" s="108" t="s">
@@ -31265,8 +31293,8 @@
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="124" t="s">
+      <c r="B5" s="171"/>
+      <c r="C5" s="123" t="s">
         <v>235</v>
       </c>
       <c r="D5" s="109" t="s">
@@ -31280,8 +31308,8 @@
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="124" t="s">
+      <c r="B6" s="171"/>
+      <c r="C6" s="123" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="109" t="s">
@@ -31292,10 +31320,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="183" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="174"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="58"/>
       <c r="D7" s="110" t="s">
         <v>261</v>
@@ -31305,8 +31333,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
-      <c r="B8" s="174"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="58"/>
       <c r="D8" s="107" t="s">
         <v>276</v>
@@ -31316,501 +31344,495 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="171"/>
+      <c r="C9" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="116">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="109" t="s">
+      <c r="B10" s="171"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E10" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+    <row r="11" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="58"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="182" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="174" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" s="117">
-        <v>43270</v>
-      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="183"/>
-      <c r="B12" s="174"/>
+      <c r="A12" s="197" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="171" t="s">
+        <v>234</v>
+      </c>
       <c r="C12" s="58"/>
-      <c r="D12" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="116">
-        <v>43244</v>
+      <c r="D12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="117">
+        <v>43270</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="184"/>
-      <c r="B13" s="174"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="58"/>
       <c r="D13" s="107" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E13" s="116">
         <v>43244</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>234</v>
-      </c>
+      <c r="A14" s="199"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="58"/>
       <c r="D14" s="107" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="117">
-        <v>43270</v>
+        <v>254</v>
+      </c>
+      <c r="E14" s="116">
+        <v>43244</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="174" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="174" t="s">
+      <c r="A15" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="193" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="112" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" s="116">
-        <v>43244</v>
+      <c r="C15" s="58"/>
+      <c r="D15" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="117">
+        <v>43270</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="174"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="104" t="s">
+      <c r="A16" s="145" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="171" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="193" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="116">
+        <v>43244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="145"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="E16" s="117">
+      <c r="E17" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="174"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="96" t="s">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="145"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D18" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="116">
+      <c r="E18" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="121" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="116">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="61" t="s">
+      <c r="B20" s="58"/>
+      <c r="C20" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D20" s="107" t="s">
         <v>281</v>
-      </c>
-      <c r="E18" s="117">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="58"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="185" t="s">
-        <v>260</v>
-      </c>
-      <c r="B20" s="174" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="110" t="s">
-        <v>261</v>
       </c>
       <c r="E20" s="117">
         <v>43270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="186"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" s="117">
-        <v>43270</v>
-      </c>
+    <row r="21" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="120" t="s">
+      <c r="A22" s="183" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="116">
-        <v>43244</v>
+      <c r="C22" s="58"/>
+      <c r="D22" s="110" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="117">
+        <v>43270</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="187" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="180" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>268</v>
-      </c>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="184"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="107" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="116">
-        <v>43244</v>
+        <v>257</v>
+      </c>
+      <c r="E23" s="117">
+        <v>43270</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="188"/>
-      <c r="B24" s="190"/>
-      <c r="C24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>251</v>
-      </c>
-      <c r="E24" s="117">
-        <v>43270</v>
+      <c r="A24" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="116">
+        <v>43244</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="188"/>
-      <c r="B25" s="190"/>
+    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="185" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="188" t="s">
+        <v>234</v>
+      </c>
       <c r="C25" s="58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="117">
-        <v>43270</v>
+      <c r="E25" s="116">
+        <v>43244</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="188"/>
-      <c r="B26" s="190"/>
-      <c r="C26" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="125">
+      <c r="A26" s="186"/>
+      <c r="B26" s="189"/>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="117">
         <v>43270</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="188"/>
-      <c r="B27" s="190"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="189"/>
       <c r="C27" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="D27" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="E27" s="116">
-        <v>43279</v>
+      <c r="E27" s="117">
+        <v>43270</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="188"/>
-      <c r="B28" s="190"/>
-      <c r="C28" s="58" t="s">
+      <c r="A28" s="186"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="124">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="186"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="116">
+        <v>43279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="186"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D30" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="E28" s="116">
+      <c r="E30" s="116">
         <v>43279</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="189"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="E29" s="116">
-        <v>43244</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="186"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="125" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" s="125" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="116">
+        <v>43299</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="58"/>
-    </row>
-    <row r="31" spans="1:5" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="102"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="110" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="58"/>
-    </row>
-    <row r="32" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="145" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="174" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="124" t="s">
-        <v>246</v>
-      </c>
-      <c r="D32" s="107" t="s">
-        <v>253</v>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="186"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="125" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="125" t="s">
+        <v>251</v>
       </c>
       <c r="E32" s="116">
-        <v>43244</v>
+        <v>43299</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="124">
-        <v>10.1</v>
-      </c>
-      <c r="D33" s="107" t="s">
-        <v>272</v>
+      <c r="A33" s="186"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="125" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="125" t="s">
+        <v>102</v>
       </c>
       <c r="E33" s="116">
-        <v>43244</v>
+        <v>43299</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="145"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="124">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D34" s="107" t="s">
-        <v>272</v>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="187"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="114" t="s">
+        <v>245</v>
       </c>
       <c r="E34" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="B35" s="174" t="s">
+    <row r="35" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="58"/>
+    </row>
+    <row r="36" spans="1:5" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="102"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="110" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="58"/>
+    </row>
+    <row r="37" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="145" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="195" t="s">
-        <v>261</v>
-      </c>
-      <c r="E35" s="191">
-        <v>43270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="145"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="192"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="123" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" s="124" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" s="115" t="s">
-        <v>251</v>
+      <c r="C37" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="107" t="s">
+        <v>253</v>
       </c>
       <c r="E37" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="97" t="s">
-        <v>248</v>
-      </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="58"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="145"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="123">
+        <v>10.1</v>
+      </c>
+      <c r="D38" s="107" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="116">
+        <v>43244</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="B39" s="124" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="100" t="s">
-        <v>265</v>
+      <c r="A39" s="145"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="123">
+        <v>10.199999999999999</v>
       </c>
       <c r="D39" s="107" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E39" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="B40" s="124" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="145" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="100" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="107" t="s">
-        <v>289</v>
-      </c>
-      <c r="E40" s="116">
-        <v>43280</v>
+      <c r="C40" s="171"/>
+      <c r="D40" s="195" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="191">
+        <v>43270</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="58"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="192"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="178" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="180" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42" s="100" t="s">
+      <c r="A42" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="115" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="116">
+        <v>43244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" s="39"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="58"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="D42" s="107" t="s">
+      <c r="D44" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="E42" s="116">
-        <v>43259</v>
+      <c r="E44" s="116">
+        <v>43244</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="179"/>
-      <c r="B43" s="181"/>
-      <c r="C43" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="D43" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="E43" s="116">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="124" t="s">
-        <v>271</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="116">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="124" t="s">
-        <v>271</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>264</v>
+    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="100" t="s">
+        <v>288</v>
       </c>
       <c r="D45" s="107" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="E45" s="116">
-        <v>43259</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="101" t="s">
-        <v>273</v>
+        <v>56</v>
       </c>
       <c r="B46" s="101"/>
       <c r="C46" s="101"/>
@@ -31818,67 +31840,155 @@
       <c r="E46" s="58"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
-      <c r="B47" s="124" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="115" t="s">
-        <v>274</v>
+      <c r="A47" s="181" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="188" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="107" t="s">
+        <v>267</v>
       </c>
       <c r="E47" s="116">
-        <v>43265</v>
+        <v>43259</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="182"/>
+      <c r="B48" s="190"/>
+      <c r="C48" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="107" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="116">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="123" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="116">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="58"/>
+      <c r="D50" s="196" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50" s="116">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="123" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" s="116">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="101" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="58"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="58"/>
+      <c r="B53" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="116">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="58"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="58"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
-      <c r="B49" s="124" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="B55" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C55" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="115" t="s">
+      <c r="D55" s="115" t="s">
         <v>274</v>
       </c>
-      <c r="E49" s="117">
+      <c r="E55" s="117">
         <v>43270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -19,15 +19,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="299">
   <si>
     <t>Document</t>
   </si>
@@ -2699,6 +2699,15 @@
   <si>
     <t>The number format in the DIR_MRK column was changed from ‘Date’ to ‘General’</t>
   </si>
+  <si>
+    <t>Section 5.9 Figure 26</t>
+  </si>
+  <si>
+    <t>Changed to New RPN request structure.</t>
+  </si>
+  <si>
+    <t>Section 6.1</t>
+  </si>
 </sst>
 </file>
 
@@ -2818,7 +2827,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2837,8 +2846,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -3288,11 +3303,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3622,6 +3648,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3670,8 +3702,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3697,35 +3759,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3745,43 +3810,34 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3808,31 +3864,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4242,13 +4291,13 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="129">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="131">
         <v>43056</v>
       </c>
       <c r="F2" s="2"/>
@@ -4268,19 +4317,19 @@
       <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="129"/>
+      <c r="E3" s="131"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="129"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4298,7 +4347,7 @@
       <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4316,16 +4365,16 @@
       <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="136">
+      <c r="B7" s="138">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4334,86 +4383,86 @@
       <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="129"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="134"/>
-      <c r="B8" s="137"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="129"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="134"/>
-      <c r="B9" s="137"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="129"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="134"/>
-      <c r="B10" s="137"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="129"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="134"/>
-      <c r="B11" s="137"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
-      <c r="B12" s="138"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="129"/>
+      <c r="E12" s="131"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="136">
+      <c r="B13" s="138">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4422,21 +4471,21 @@
       <c r="D13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="129"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="142"/>
-      <c r="B14" s="138"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="129"/>
+      <c r="E14" s="131"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -4454,7 +4503,7 @@
       <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="129"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -4472,19 +4521,19 @@
       <c r="D16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="129"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="129"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4502,7 +4551,7 @@
       <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="129"/>
+      <c r="E18" s="131"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4520,28 +4569,28 @@
       <c r="D19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="129"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="131"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="140">
+      <c r="B21" s="142">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4550,21 +4599,21 @@
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="129"/>
+      <c r="E21" s="131"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="138"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="129"/>
+      <c r="E22" s="131"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
@@ -4579,22 +4628,22 @@
       <c r="D23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="129"/>
+      <c r="E23" s="131"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="129"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="131"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="140">
+      <c r="B25" s="142">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4603,105 +4652,105 @@
       <c r="D25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="129"/>
+      <c r="E25" s="131"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="134"/>
-      <c r="B26" s="137"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="129"/>
+      <c r="E26" s="131"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="134"/>
-      <c r="B27" s="137"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="129"/>
+      <c r="E27" s="131"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="134"/>
-      <c r="B28" s="137"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="129"/>
+      <c r="E28" s="131"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="134"/>
-      <c r="B29" s="137"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="129"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="134"/>
-      <c r="B30" s="137"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="129"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="134"/>
-      <c r="B31" s="137"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="129"/>
+      <c r="E31" s="131"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="135"/>
-      <c r="B32" s="138"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="140"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="129"/>
+      <c r="E32" s="131"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -4719,7 +4768,7 @@
       <c r="D33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="129"/>
+      <c r="E33" s="131"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -4734,7 +4783,7 @@
       <c r="D34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="129"/>
+      <c r="E34" s="131"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
@@ -4749,7 +4798,7 @@
       <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="129"/>
+      <c r="E35" s="131"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
@@ -4764,7 +4813,7 @@
       <c r="D36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="129"/>
+      <c r="E36" s="131"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -4779,7 +4828,7 @@
       <c r="D37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="129"/>
+      <c r="E37" s="131"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
@@ -4794,7 +4843,7 @@
       <c r="D38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="129"/>
+      <c r="E38" s="131"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
@@ -4809,7 +4858,7 @@
       <c r="D39" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="129"/>
+      <c r="E39" s="131"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
@@ -4824,16 +4873,16 @@
       <c r="D40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="129"/>
+      <c r="E40" s="131"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="130" t="s">
+      <c r="A41" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="129"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="131"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4848,7 +4897,7 @@
       <c r="D42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="129"/>
+      <c r="E42" s="131"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
@@ -4863,7 +4912,7 @@
       <c r="D43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="129"/>
+      <c r="E43" s="131"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
@@ -4878,7 +4927,7 @@
       <c r="D44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="129"/>
+      <c r="E44" s="131"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
@@ -4893,11 +4942,11 @@
       <c r="D45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="129"/>
+      <c r="E45" s="131"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4907,7 +4956,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4976,7 +5025,7 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="147">
+      <c r="E2" s="159">
         <v>43140</v>
       </c>
     </row>
@@ -4991,7 +5040,7 @@
       <c r="D3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="147"/>
+      <c r="E3" s="159"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
@@ -5004,7 +5053,7 @@
       <c r="D4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="147"/>
+      <c r="E4" s="159"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
@@ -5017,7 +5066,7 @@
       <c r="D5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="147"/>
+      <c r="E5" s="159"/>
     </row>
     <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
@@ -5026,13 +5075,13 @@
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="147"/>
+      <c r="E6" s="159"/>
     </row>
     <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5041,68 +5090,68 @@
       <c r="D7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="147"/>
+      <c r="E7" s="159"/>
     </row>
     <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="161"/>
-      <c r="B8" s="160"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="147"/>
+      <c r="E8" s="159"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="161"/>
-      <c r="B9" s="160"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="147"/>
+      <c r="E9" s="159"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="161"/>
-      <c r="B10" s="160"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="147"/>
+      <c r="E10" s="159"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="161"/>
-      <c r="B11" s="160"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="147"/>
+      <c r="E11" s="159"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="161"/>
-      <c r="B12" s="160"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="147"/>
+      <c r="E12" s="159"/>
     </row>
     <row r="13" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5111,35 +5160,35 @@
       <c r="D13" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="147"/>
+      <c r="E13" s="159"/>
     </row>
     <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="163"/>
-      <c r="B14" s="160"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="147"/>
+      <c r="E14" s="159"/>
     </row>
     <row r="15" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="163"/>
-      <c r="B15" s="160"/>
+      <c r="A15" s="150"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="147"/>
+      <c r="E15" s="159"/>
     </row>
     <row r="16" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5148,108 +5197,108 @@
       <c r="D16" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="147"/>
+      <c r="E16" s="159"/>
     </row>
     <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
-      <c r="B17" s="155"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="147"/>
+      <c r="E17" s="159"/>
     </row>
     <row r="18" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
-      <c r="B18" s="155"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="147"/>
+      <c r="E18" s="159"/>
     </row>
     <row r="19" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
-      <c r="B19" s="155"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="152"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="147"/>
+      <c r="E19" s="159"/>
     </row>
     <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="145"/>
-      <c r="B20" s="155"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="147"/>
+      <c r="E20" s="159"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="145"/>
-      <c r="B21" s="155"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="147"/>
+      <c r="E21" s="159"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="145"/>
-      <c r="B22" s="155"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="147"/>
+      <c r="E22" s="159"/>
     </row>
     <row r="23" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
-      <c r="B23" s="155"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="147"/>
+      <c r="E23" s="159"/>
     </row>
     <row r="24" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="145"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="145" t="s">
+      <c r="A24" s="151"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="158" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="147"/>
+      <c r="E24" s="159"/>
     </row>
     <row r="25" spans="1:5" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="145"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="147"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="159"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="161" t="s">
+      <c r="A26" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="160" t="s">
+      <c r="B26" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5258,16 +5307,16 @@
       <c r="D26" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="147"/>
+      <c r="E26" s="159"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="161"/>
-      <c r="B27" s="160"/>
+      <c r="A27" s="147"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="147"/>
+      <c r="E27" s="159"/>
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
@@ -5280,7 +5329,7 @@
       <c r="D28" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="147"/>
+      <c r="E28" s="159"/>
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
@@ -5289,108 +5338,108 @@
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="147"/>
+      <c r="E29" s="159"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="162" t="s">
+      <c r="A30" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="160" t="s">
+      <c r="B30" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="145" t="s">
+      <c r="C30" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="150" t="s">
+      <c r="D30" s="162" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="147"/>
+      <c r="E30" s="159"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="147"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="162"/>
+      <c r="E31" s="159"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="162"/>
-      <c r="B32" s="160"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="147"/>
+      <c r="E32" s="159"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="162"/>
-      <c r="B33" s="160"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="147"/>
+      <c r="E33" s="159"/>
     </row>
     <row r="34" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="162"/>
-      <c r="B34" s="160"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="148"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="147"/>
+      <c r="E34" s="159"/>
     </row>
     <row r="35" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162"/>
-      <c r="B35" s="160"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="147"/>
+      <c r="E35" s="159"/>
     </row>
     <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="162"/>
-      <c r="B36" s="160"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
       <c r="D36" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="147"/>
+      <c r="E36" s="159"/>
     </row>
     <row r="37" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="162"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="151" t="s">
+      <c r="A37" s="149"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="153" t="s">
+      <c r="D37" s="165" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="147"/>
+      <c r="E37" s="159"/>
     </row>
     <row r="38" spans="1:5" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="162"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="147"/>
+      <c r="A38" s="149"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="159"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="160" t="s">
+      <c r="B39" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5399,16 +5448,16 @@
       <c r="D39" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="147"/>
+      <c r="E39" s="159"/>
     </row>
     <row r="40" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="161"/>
-      <c r="B40" s="160"/>
+      <c r="A40" s="147"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="147"/>
+      <c r="E40" s="159"/>
     </row>
     <row r="41" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
@@ -5421,7 +5470,7 @@
       <c r="D41" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="147"/>
+      <c r="E41" s="159"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
@@ -5430,90 +5479,90 @@
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="147"/>
+      <c r="E42" s="159"/>
     </row>
     <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="162" t="s">
+      <c r="A43" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="160" t="s">
+      <c r="B43" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="147"/>
+      <c r="E43" s="159"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="162"/>
-      <c r="B44" s="160"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="147"/>
+      <c r="E44" s="159"/>
     </row>
     <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="160" t="s">
+      <c r="B45" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="147"/>
+      <c r="E45" s="159"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="158"/>
-      <c r="B46" s="160"/>
+      <c r="A46" s="156"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="147"/>
+      <c r="E46" s="159"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="158"/>
-      <c r="B47" s="160"/>
+      <c r="A47" s="156"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="147"/>
+      <c r="E47" s="159"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="159"/>
-      <c r="B48" s="160"/>
+      <c r="A48" s="157"/>
+      <c r="B48" s="148"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="147"/>
+      <c r="E48" s="159"/>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="155" t="s">
+      <c r="A49" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="155" t="s">
+      <c r="B49" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="147"/>
+      <c r="E49" s="159"/>
       <c r="H49" s="42"/>
       <c r="L49" s="42"/>
       <c r="P49" s="42"/>
@@ -9611,15 +9660,15 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="155"/>
-      <c r="B50" s="155"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="152"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="147"/>
+      <c r="E50" s="159"/>
       <c r="H50" s="42"/>
       <c r="L50" s="42"/>
       <c r="P50" s="42"/>
@@ -13717,15 +13766,15 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="155"/>
-      <c r="B51" s="155"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="152"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="147"/>
+      <c r="E51" s="159"/>
       <c r="H51" s="42"/>
       <c r="L51" s="42"/>
       <c r="P51" s="42"/>
@@ -17823,15 +17872,15 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="155"/>
-      <c r="B52" s="155"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="152"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="147"/>
+      <c r="E52" s="159"/>
       <c r="H52" s="42"/>
       <c r="L52" s="42"/>
       <c r="P52" s="42"/>
@@ -21929,15 +21978,15 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="155"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="149" t="s">
+      <c r="A53" s="152"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="150" t="s">
+      <c r="D53" s="162" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="147"/>
+      <c r="E53" s="159"/>
       <c r="H53" s="42"/>
       <c r="L53" s="42"/>
       <c r="P53" s="42"/>
@@ -26035,11 +26084,11 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="155"/>
-      <c r="B54" s="155"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="150"/>
-      <c r="E54" s="147"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="162"/>
+      <c r="E54" s="159"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -30143,7 +30192,7 @@
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="147"/>
+      <c r="E55" s="159"/>
     </row>
     <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
@@ -30156,13 +30205,13 @@
       <c r="D56" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="147"/>
+      <c r="E56" s="159"/>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="154" t="s">
+      <c r="A57" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30171,204 +30220,204 @@
       <c r="D57" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="147"/>
+      <c r="E57" s="159"/>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="154"/>
-      <c r="B58" s="155"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="152"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="147"/>
+      <c r="E58" s="159"/>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="154"/>
-      <c r="B59" s="155"/>
+      <c r="A59" s="153"/>
+      <c r="B59" s="152"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D59" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="147"/>
+      <c r="E59" s="159"/>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="154"/>
-      <c r="B60" s="155"/>
+      <c r="A60" s="153"/>
+      <c r="B60" s="152"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="147"/>
+      <c r="E60" s="159"/>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="154"/>
-      <c r="B61" s="155"/>
+      <c r="A61" s="153"/>
+      <c r="B61" s="152"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D61" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="147"/>
+      <c r="E61" s="159"/>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="154"/>
-      <c r="B62" s="155"/>
+      <c r="A62" s="153"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D62" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="147"/>
+      <c r="E62" s="159"/>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="154"/>
-      <c r="B63" s="155"/>
+      <c r="A63" s="153"/>
+      <c r="B63" s="152"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D63" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="147"/>
+      <c r="E63" s="159"/>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="154"/>
-      <c r="B64" s="155"/>
+      <c r="A64" s="153"/>
+      <c r="B64" s="152"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="147"/>
+      <c r="E64" s="159"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="154"/>
-      <c r="B65" s="155"/>
+      <c r="A65" s="153"/>
+      <c r="B65" s="152"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
       <c r="D65" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="147"/>
+      <c r="E65" s="159"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="154"/>
-      <c r="B66" s="155"/>
+      <c r="A66" s="153"/>
+      <c r="B66" s="152"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="147"/>
+      <c r="E66" s="159"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="154"/>
-      <c r="B67" s="155"/>
+      <c r="A67" s="153"/>
+      <c r="B67" s="152"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
       <c r="D67" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="147"/>
+      <c r="E67" s="159"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="154"/>
-      <c r="B68" s="155"/>
+      <c r="A68" s="153"/>
+      <c r="B68" s="152"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
       <c r="D68" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="147"/>
+      <c r="E68" s="159"/>
     </row>
     <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="154"/>
-      <c r="B69" s="155"/>
+      <c r="A69" s="153"/>
+      <c r="B69" s="152"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
       <c r="D69" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E69" s="147"/>
+      <c r="E69" s="159"/>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="154"/>
-      <c r="B70" s="155"/>
+      <c r="A70" s="153"/>
+      <c r="B70" s="152"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
       <c r="D70" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="147"/>
+      <c r="E70" s="159"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="154"/>
-      <c r="B71" s="155"/>
+      <c r="A71" s="153"/>
+      <c r="B71" s="152"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="147"/>
+      <c r="E71" s="159"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="154"/>
-      <c r="B72" s="155"/>
+      <c r="A72" s="153"/>
+      <c r="B72" s="152"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="147"/>
+      <c r="E72" s="159"/>
     </row>
     <row r="73" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="154"/>
-      <c r="B73" s="155"/>
+      <c r="A73" s="153"/>
+      <c r="B73" s="152"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="147"/>
+      <c r="E73" s="159"/>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="154"/>
-      <c r="B74" s="155"/>
+      <c r="A74" s="153"/>
+      <c r="B74" s="152"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="147"/>
+      <c r="E74" s="159"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="154"/>
-      <c r="B75" s="155"/>
-      <c r="C75" s="148"/>
-      <c r="D75" s="156" t="s">
+      <c r="A75" s="153"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="154" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="147"/>
+      <c r="E75" s="159"/>
     </row>
     <row r="76" spans="1:5" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="154"/>
-      <c r="B76" s="155"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="156"/>
-      <c r="E76" s="147"/>
+      <c r="A76" s="153"/>
+      <c r="B76" s="152"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="154"/>
+      <c r="E76" s="159"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30377,7 +30426,7 @@
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="147"/>
+      <c r="E77" s="159"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
@@ -30393,8 +30442,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30403,13 +30452,30 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="31">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E2:E77"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -30424,23 +30490,6 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E2:E77"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30488,7 +30537,7 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="129">
+      <c r="E2" s="131">
         <v>43179</v>
       </c>
     </row>
@@ -30499,13 +30548,13 @@
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="129"/>
+      <c r="E3" s="131"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="148" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30514,158 +30563,158 @@
       <c r="D4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="129"/>
+      <c r="E4" s="131"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="161"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="173" t="s">
+      <c r="A5" s="147"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="167" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="131"/>
     </row>
     <row r="6" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="129"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="131"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161"/>
-      <c r="B7" s="160"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
-      <c r="E7" s="129"/>
+      <c r="E7" s="131"/>
     </row>
     <row r="8" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161"/>
-      <c r="B8" s="160"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
-      <c r="E8" s="129"/>
+      <c r="E8" s="131"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="161"/>
-      <c r="B9" s="160"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
-      <c r="E9" s="129"/>
+      <c r="E9" s="131"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="148" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="170"/>
-      <c r="D10" s="172" t="s">
+      <c r="C10" s="169"/>
+      <c r="D10" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="129"/>
+      <c r="E10" s="131"/>
     </row>
     <row r="11" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="163"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="129"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="131"/>
     </row>
     <row r="12" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="163"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="129"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="131"/>
     </row>
     <row r="13" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="172" t="s">
+      <c r="C13" s="168"/>
+      <c r="D13" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="129"/>
+      <c r="E13" s="131"/>
     </row>
     <row r="14" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="145"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="129"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="131"/>
     </row>
     <row r="15" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="145"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="174"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="168"/>
       <c r="D15" s="49"/>
-      <c r="E15" s="129"/>
+      <c r="E15" s="131"/>
     </row>
     <row r="16" spans="1:5" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="174"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="168"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="129"/>
+      <c r="E16" s="131"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="174"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="168"/>
       <c r="D17" s="49"/>
-      <c r="E17" s="129"/>
+      <c r="E17" s="131"/>
     </row>
     <row r="18" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="174"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="168"/>
       <c r="D18" s="49"/>
-      <c r="E18" s="129"/>
+      <c r="E18" s="131"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="174"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="168"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="129"/>
+      <c r="E19" s="131"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="145"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="174"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="168"/>
       <c r="D20" s="49"/>
-      <c r="E20" s="129"/>
+      <c r="E20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="145"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="174"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="168"/>
       <c r="D21" s="49"/>
-      <c r="E21" s="129"/>
+      <c r="E21" s="131"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="145"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="174"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="168"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="129"/>
+      <c r="E22" s="131"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="145"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="174"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="168"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="129"/>
+      <c r="E23" s="131"/>
     </row>
     <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="73" t="s">
@@ -30680,7 +30729,7 @@
       <c r="D24" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="129"/>
+      <c r="E24" s="131"/>
     </row>
     <row r="25" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="s">
@@ -30695,7 +30744,7 @@
       <c r="D25" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="129"/>
+      <c r="E25" s="131"/>
     </row>
     <row r="26" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
@@ -30708,7 +30757,7 @@
       <c r="D26" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="129"/>
+      <c r="E26" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
@@ -30717,7 +30766,7 @@
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="129"/>
+      <c r="E27" s="131"/>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
@@ -30732,7 +30781,7 @@
       <c r="D28" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="E28" s="129"/>
+      <c r="E28" s="131"/>
     </row>
     <row r="29" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
@@ -30743,7 +30792,7 @@
       <c r="D29" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="129"/>
+      <c r="E29" s="131"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
@@ -30754,7 +30803,7 @@
       <c r="D30" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="129"/>
+      <c r="E30" s="131"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
@@ -30765,13 +30814,13 @@
       <c r="D31" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="129"/>
+      <c r="E31" s="131"/>
     </row>
     <row r="32" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="177" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="180" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30780,39 +30829,39 @@
       <c r="D32" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="129"/>
+      <c r="E32" s="131"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="165"/>
-      <c r="B33" s="168"/>
+      <c r="A33" s="178"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
-      <c r="E33" s="129"/>
+      <c r="E33" s="131"/>
     </row>
     <row r="34" spans="1:5" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="165"/>
-      <c r="B34" s="168"/>
+      <c r="A34" s="178"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
-      <c r="E34" s="129"/>
+      <c r="E34" s="131"/>
     </row>
     <row r="35" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="165"/>
-      <c r="B35" s="168"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
-      <c r="E35" s="129"/>
+      <c r="E35" s="131"/>
     </row>
     <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="166"/>
-      <c r="B36" s="169"/>
+      <c r="A36" s="179"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
       <c r="D36" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="129"/>
+      <c r="E36" s="131"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
@@ -30825,7 +30874,7 @@
       <c r="D37" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="129"/>
+      <c r="E37" s="131"/>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
@@ -30834,13 +30883,13 @@
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="129"/>
+      <c r="E38" s="131"/>
     </row>
     <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="160" t="s">
+      <c r="B39" s="148" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30849,108 +30898,108 @@
       <c r="D39" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="129"/>
+      <c r="E39" s="131"/>
     </row>
     <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="162"/>
-      <c r="B40" s="160"/>
+      <c r="A40" s="149"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E40" s="129"/>
+      <c r="E40" s="131"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="160" t="s">
+      <c r="B41" s="148" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="170" t="s">
+      <c r="C41" s="169" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="145" t="s">
+      <c r="D41" s="151" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="129"/>
+      <c r="E41" s="131"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="161"/>
-      <c r="B42" s="160"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="129"/>
+      <c r="A42" s="147"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="131"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="161"/>
-      <c r="B43" s="160"/>
-      <c r="C43" s="170" t="s">
+      <c r="A43" s="147"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="169" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="156" t="s">
+      <c r="D43" s="154" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="129"/>
+      <c r="E43" s="131"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="161"/>
-      <c r="B44" s="160"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="129"/>
+      <c r="A44" s="147"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="131"/>
     </row>
     <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="154" t="s">
+      <c r="A45" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="178"/>
+      <c r="C45" s="173"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="129"/>
+      <c r="E45" s="131"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="154"/>
-      <c r="B46" s="155"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="175" t="s">
+      <c r="A46" s="153"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="170" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="129"/>
+      <c r="E46" s="131"/>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="154"/>
-      <c r="B47" s="155"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="129"/>
+      <c r="A47" s="153"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="131"/>
     </row>
     <row r="48" spans="1:5" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="154"/>
-      <c r="B48" s="155"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="129"/>
+      <c r="A48" s="153"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="131"/>
     </row>
     <row r="49" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="154"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="149"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="129"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="161"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="131"/>
     </row>
     <row r="50" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="154"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="149"/>
-      <c r="D50" s="177"/>
-      <c r="E50" s="129"/>
+      <c r="A50" s="153"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="161"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="131"/>
     </row>
     <row r="51" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30959,7 +31008,7 @@
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="44"/>
-      <c r="E51" s="129"/>
+      <c r="E51" s="131"/>
     </row>
     <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
@@ -30972,13 +31021,13 @@
       <c r="D52" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="129"/>
+      <c r="E52" s="131"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="155" t="s">
+      <c r="A53" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="152" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30987,148 +31036,148 @@
       <c r="D53" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="129"/>
+      <c r="E53" s="131"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="155"/>
-      <c r="B54" s="155"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="152"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
       <c r="D54" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="129"/>
+      <c r="E54" s="131"/>
     </row>
     <row r="55" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="155"/>
-      <c r="B55" s="155"/>
+      <c r="A55" s="152"/>
+      <c r="B55" s="152"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
       <c r="D55" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E55" s="129"/>
+      <c r="E55" s="131"/>
     </row>
     <row r="56" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="155"/>
-      <c r="B56" s="155"/>
-      <c r="C56" s="171" t="s">
+      <c r="A56" s="152"/>
+      <c r="B56" s="152"/>
+      <c r="C56" s="176" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="E56" s="129"/>
+      <c r="E56" s="131"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="155"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="171"/>
+      <c r="A57" s="152"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="176"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="129"/>
+      <c r="E57" s="131"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="155"/>
-      <c r="B58" s="155"/>
+      <c r="A58" s="152"/>
+      <c r="B58" s="152"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="129"/>
+      <c r="E58" s="131"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="155"/>
-      <c r="B59" s="155"/>
+      <c r="A59" s="152"/>
+      <c r="B59" s="152"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
       <c r="D59" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="E59" s="129"/>
+      <c r="E59" s="131"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="155"/>
-      <c r="B60" s="155"/>
-      <c r="C60" s="171" t="s">
+      <c r="A60" s="152"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="176" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="129"/>
+      <c r="E60" s="131"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="155"/>
-      <c r="B61" s="155"/>
-      <c r="C61" s="171"/>
+      <c r="A61" s="152"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="176"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="129"/>
+      <c r="E61" s="131"/>
     </row>
     <row r="62" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="155"/>
-      <c r="B62" s="155"/>
-      <c r="C62" s="171"/>
+      <c r="A62" s="152"/>
+      <c r="B62" s="152"/>
+      <c r="C62" s="176"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="129"/>
+      <c r="E62" s="131"/>
     </row>
     <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="155"/>
-      <c r="B63" s="155"/>
-      <c r="C63" s="170" t="s">
+      <c r="A63" s="152"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="169" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="129"/>
+      <c r="E63" s="131"/>
     </row>
     <row r="64" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="155"/>
-      <c r="B64" s="155"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="156" t="s">
+      <c r="A64" s="152"/>
+      <c r="B64" s="152"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="154" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="129"/>
+      <c r="E64" s="131"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="155"/>
-      <c r="B65" s="155"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="129"/>
+      <c r="A65" s="152"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="154"/>
+      <c r="E65" s="131"/>
     </row>
     <row r="66" spans="1:5" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="155"/>
-      <c r="B66" s="155"/>
-      <c r="C66" s="170"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="129"/>
+      <c r="A66" s="152"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="154"/>
+      <c r="E66" s="131"/>
     </row>
     <row r="67" spans="1:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="155"/>
-      <c r="B67" s="155"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="129"/>
+      <c r="A67" s="152"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="131"/>
     </row>
     <row r="68" spans="1:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="129"/>
+      <c r="E68" s="131"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
@@ -31178,6 +31227,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="B53:B67"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C63:C67"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A41:A44"/>
@@ -31194,24 +31261,6 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="C45:C48"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="B53:B67"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31220,10 +31269,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31262,10 +31311,10 @@
       <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="176" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="58"/>
@@ -31277,8 +31326,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="145"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="123" t="s">
         <v>235</v>
       </c>
@@ -31293,7 +31342,7 @@
       <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="171"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="123" t="s">
         <v>235</v>
       </c>
@@ -31308,7 +31357,7 @@
       <c r="A6" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="171"/>
+      <c r="B6" s="176"/>
       <c r="C6" s="123" t="s">
         <v>22</v>
       </c>
@@ -31320,10 +31369,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="193" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="171"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="58"/>
       <c r="D7" s="110" t="s">
         <v>261</v>
@@ -31333,8 +31382,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="184"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="58"/>
       <c r="D8" s="107" t="s">
         <v>276</v>
@@ -31347,7 +31396,7 @@
       <c r="A9" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="171"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="58" t="s">
         <v>30</v>
       </c>
@@ -31360,7 +31409,7 @@
       <c r="A10" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="171"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="58"/>
       <c r="D10" s="109" t="s">
         <v>259</v>
@@ -31379,10 +31428,10 @@
       <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="190" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="176" t="s">
         <v>234</v>
       </c>
       <c r="C12" s="58"/>
@@ -31394,8 +31443,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="198"/>
-      <c r="B13" s="171"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="58"/>
       <c r="D13" s="107" t="s">
         <v>252</v>
@@ -31405,8 +31454,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="199"/>
-      <c r="B14" s="171"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="58"/>
       <c r="D14" s="107" t="s">
         <v>254</v>
@@ -31431,13 +31480,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="151" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="176" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="185" t="s">
         <v>239</v>
       </c>
       <c r="D16" s="112" t="s">
@@ -31448,9 +31497,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="194"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="104" t="s">
         <v>278</v>
       </c>
@@ -31459,8 +31508,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
-      <c r="B18" s="171"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="96" t="s">
         <v>240</v>
       </c>
@@ -31511,10 +31560,10 @@
       <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="183" t="s">
+      <c r="A22" s="193" t="s">
         <v>260</v>
       </c>
-      <c r="B22" s="171" t="s">
+      <c r="B22" s="176" t="s">
         <v>234</v>
       </c>
       <c r="C22" s="58"/>
@@ -31526,8 +31575,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="184"/>
-      <c r="B23" s="171"/>
+      <c r="A23" s="194"/>
+      <c r="B23" s="176"/>
       <c r="C23" s="58"/>
       <c r="D23" s="107" t="s">
         <v>257</v>
@@ -31554,10 +31603,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="185" t="s">
+      <c r="A25" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="188" t="s">
+      <c r="B25" s="198" t="s">
         <v>234</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -31571,8 +31620,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="186"/>
-      <c r="B26" s="189"/>
+      <c r="A26" s="196"/>
+      <c r="B26" s="199"/>
       <c r="C26" t="s">
         <v>270</v>
       </c>
@@ -31584,8 +31633,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="186"/>
-      <c r="B27" s="189"/>
+      <c r="A27" s="196"/>
+      <c r="B27" s="199"/>
       <c r="C27" s="58" t="s">
         <v>269</v>
       </c>
@@ -31597,8 +31646,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="186"/>
-      <c r="B28" s="189"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="199"/>
       <c r="C28" s="103" t="s">
         <v>277</v>
       </c>
@@ -31610,8 +31659,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="186"/>
-      <c r="B29" s="189"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="199"/>
       <c r="C29" s="58" t="s">
         <v>284</v>
       </c>
@@ -31623,8 +31672,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="186"/>
-      <c r="B30" s="189"/>
+      <c r="A30" s="196"/>
+      <c r="B30" s="199"/>
       <c r="C30" s="58" t="s">
         <v>285</v>
       </c>
@@ -31636,8 +31685,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="186"/>
-      <c r="B31" s="189"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="199"/>
       <c r="C31" s="125" t="s">
         <v>290</v>
       </c>
@@ -31649,8 +31698,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="186"/>
-      <c r="B32" s="189"/>
+      <c r="A32" s="196"/>
+      <c r="B32" s="199"/>
       <c r="C32" s="125" t="s">
         <v>291</v>
       </c>
@@ -31662,8 +31711,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="186"/>
-      <c r="B33" s="189"/>
+      <c r="A33" s="196"/>
+      <c r="B33" s="199"/>
       <c r="C33" s="125" t="s">
         <v>292</v>
       </c>
@@ -31675,8 +31724,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="187"/>
-      <c r="B34" s="190"/>
+      <c r="A34" s="197"/>
+      <c r="B34" s="200"/>
       <c r="C34" s="95" t="s">
         <v>244</v>
       </c>
@@ -31706,204 +31755,198 @@
       <c r="E36" s="58"/>
     </row>
     <row r="37" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="171" t="s">
+      <c r="B37" s="176" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="D37" s="107" t="s">
+      <c r="D37" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="E37" s="116">
+      <c r="E37" s="203">
         <v>43244</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="145"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="123">
+      <c r="A38" s="176"/>
+      <c r="B38" s="176"/>
+      <c r="C38" s="129">
         <v>10.1</v>
       </c>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="E38" s="116">
+      <c r="E38" s="203">
         <v>43244</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="145"/>
-      <c r="B39" s="171"/>
-      <c r="C39" s="123">
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
+      <c r="C39" s="129">
         <v>10.199999999999999</v>
       </c>
-      <c r="D39" s="107" t="s">
+      <c r="D39" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="E39" s="116">
+      <c r="E39" s="203">
         <v>43244</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="B40" s="171" t="s">
-        <v>234</v>
-      </c>
-      <c r="C40" s="171"/>
-      <c r="D40" s="195" t="s">
-        <v>261</v>
-      </c>
-      <c r="E40" s="191">
-        <v>43270</v>
+      <c r="A40" s="176"/>
+      <c r="B40" s="176"/>
+      <c r="C40" s="205" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="206" t="s">
+        <v>297</v>
+      </c>
+      <c r="E40" s="116">
+        <v>43299</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="145"/>
-      <c r="B41" s="171"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="192"/>
+      <c r="A41" s="151" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="176" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="200"/>
+      <c r="D41" s="204" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" s="183">
+        <v>43270</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="122" t="s">
+      <c r="A42" s="151"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="184"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="122" t="s">
         <v>262</v>
       </c>
-      <c r="B42" s="123" t="s">
+      <c r="B43" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="C42" s="123" t="s">
+      <c r="C43" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="D42" s="115" t="s">
+      <c r="D43" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="116">
+      <c r="E43" s="116">
         <v>43244</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="97" t="s">
+    <row r="44" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="58"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="58"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="58" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
         <v>249</v>
-      </c>
-      <c r="B44" s="123" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" s="107" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="116">
-        <v>43244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="58" t="s">
-        <v>287</v>
       </c>
       <c r="B45" s="123" t="s">
         <v>234</v>
       </c>
       <c r="C45" s="100" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="D45" s="107" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="E45" s="116">
-        <v>43280</v>
+        <v>43244</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="58"/>
+      <c r="A46" s="207" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="201" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="206" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="116">
+        <v>43299</v>
+      </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="181" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="188" t="s">
-        <v>271</v>
-      </c>
+    <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="208"/>
+      <c r="B47" s="202"/>
       <c r="C47" s="100" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="D47" s="107" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="E47" s="116">
-        <v>43259</v>
+        <v>43280</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="182"/>
-      <c r="B48" s="190"/>
-      <c r="C48" s="100" t="s">
+      <c r="A48" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="58"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="198" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="D48" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="E48" s="116">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="123" t="s">
-        <v>271</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>264</v>
-      </c>
       <c r="D49" s="107" t="s">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="E49" s="116">
         <v>43259</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="B50" s="128" t="s">
-        <v>271</v>
-      </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="196" t="s">
-        <v>295</v>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="189"/>
+      <c r="B50" s="200"/>
+      <c r="C50" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="107" t="s">
+        <v>266</v>
       </c>
       <c r="E50" s="116">
-        <v>43299</v>
+        <v>43259</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="123" t="s">
         <v>271</v>
@@ -31912,39 +31955,47 @@
         <v>264</v>
       </c>
       <c r="D51" s="107" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="E51" s="116">
         <v>43259</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="101" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="58"/>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="128" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="58"/>
+      <c r="D52" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" s="116">
+        <v>43299</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="99" t="s">
+        <v>60</v>
+      </c>
       <c r="B53" s="123" t="s">
-        <v>234</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="115" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53" s="107" t="s">
+        <v>263</v>
       </c>
       <c r="E53" s="116">
-        <v>43265</v>
+        <v>43259</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="101" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="101"/>
@@ -31962,20 +32013,40 @@
       <c r="D55" s="115" t="s">
         <v>274</v>
       </c>
-      <c r="E55" s="117">
+      <c r="E55" s="116">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="101" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="58"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="58"/>
+      <c r="B57" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="E57" s="117">
         <v>43270</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A40:A41"/>
+  <mergeCells count="23">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="A12:A14"/>
@@ -31983,12 +32054,18 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A25:A34"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B37:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -19,9 +19,9 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3654,6 +3654,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3702,38 +3707,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3759,6 +3734,60 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3767,9 +3796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3789,41 +3815,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3864,24 +3866,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4291,13 +4291,13 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="131">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="134">
         <v>43056</v>
       </c>
       <c r="F2" s="2"/>
@@ -4317,19 +4317,19 @@
       <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="131"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="131"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4347,7 +4347,7 @@
       <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="131"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4365,16 +4365,16 @@
       <c r="D6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="131"/>
+      <c r="E6" s="134"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="138">
+      <c r="B7" s="141">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4383,86 +4383,86 @@
       <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="131"/>
+      <c r="E7" s="134"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="131"/>
+      <c r="E8" s="134"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="136"/>
-      <c r="B9" s="139"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="131"/>
+      <c r="E9" s="134"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="136"/>
-      <c r="B10" s="139"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="136"/>
-      <c r="B11" s="139"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="131"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="137"/>
-      <c r="B12" s="140"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="131"/>
+      <c r="E12" s="134"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="138">
+      <c r="B13" s="141">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4471,21 +4471,21 @@
       <c r="D13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="131"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="144"/>
-      <c r="B14" s="140"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="131"/>
+      <c r="E14" s="134"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -4503,7 +4503,7 @@
       <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="131"/>
+      <c r="E15" s="134"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -4521,19 +4521,19 @@
       <c r="D16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="131"/>
+      <c r="E16" s="134"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="132" t="s">
+      <c r="A17" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="131"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4551,7 +4551,7 @@
       <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="131"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4569,28 +4569,28 @@
       <c r="D19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="131"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="131"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="142">
+      <c r="B21" s="145">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4599,21 +4599,21 @@
       <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="131"/>
+      <c r="E21" s="134"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="146"/>
-      <c r="B22" s="140"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="131"/>
+      <c r="E22" s="134"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
@@ -4628,22 +4628,22 @@
       <c r="D23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="131"/>
+      <c r="E23" s="134"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="131"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="134"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="142">
+      <c r="B25" s="145">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4652,105 +4652,105 @@
       <c r="D25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="131"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="136"/>
-      <c r="B26" s="139"/>
+      <c r="A26" s="139"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="131"/>
+      <c r="E26" s="134"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
-      <c r="B27" s="139"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="131"/>
+      <c r="E27" s="134"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="136"/>
-      <c r="B28" s="139"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="131"/>
+      <c r="E28" s="134"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="136"/>
-      <c r="B29" s="139"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="142"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="131"/>
+      <c r="E29" s="134"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="136"/>
-      <c r="B30" s="139"/>
+      <c r="A30" s="139"/>
+      <c r="B30" s="142"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="131"/>
+      <c r="E30" s="134"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="136"/>
-      <c r="B31" s="139"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="142"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="131"/>
+      <c r="E31" s="134"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="137"/>
-      <c r="B32" s="140"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="131"/>
+      <c r="E32" s="134"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -4768,7 +4768,7 @@
       <c r="D33" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="131"/>
+      <c r="E33" s="134"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
@@ -4783,7 +4783,7 @@
       <c r="D34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="131"/>
+      <c r="E34" s="134"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
@@ -4798,7 +4798,7 @@
       <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="131"/>
+      <c r="E35" s="134"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
@@ -4813,7 +4813,7 @@
       <c r="D36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="131"/>
+      <c r="E36" s="134"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -4828,7 +4828,7 @@
       <c r="D37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="131"/>
+      <c r="E37" s="134"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
@@ -4843,7 +4843,7 @@
       <c r="D38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="131"/>
+      <c r="E38" s="134"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
@@ -4858,7 +4858,7 @@
       <c r="D39" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="131"/>
+      <c r="E39" s="134"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
@@ -4873,16 +4873,16 @@
       <c r="D40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="131"/>
+      <c r="E40" s="134"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="132" t="s">
+      <c r="A41" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="131"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="134"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4897,7 +4897,7 @@
       <c r="D42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="131"/>
+      <c r="E42" s="134"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
@@ -4912,7 +4912,7 @@
       <c r="D43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="131"/>
+      <c r="E43" s="134"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
@@ -4927,7 +4927,7 @@
       <c r="D44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="131"/>
+      <c r="E44" s="134"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
@@ -4942,11 +4942,11 @@
       <c r="D45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="131"/>
+      <c r="E45" s="134"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4956,7 +4956,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5025,7 +5025,7 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="159">
+      <c r="E2" s="152">
         <v>43140</v>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       <c r="D3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="159"/>
+      <c r="E3" s="152"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
@@ -5053,7 +5053,7 @@
       <c r="D4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="159"/>
+      <c r="E4" s="152"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
@@ -5066,7 +5066,7 @@
       <c r="D5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="159"/>
+      <c r="E5" s="152"/>
     </row>
     <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
@@ -5075,13 +5075,13 @@
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="159"/>
+      <c r="E6" s="152"/>
     </row>
     <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="165" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5090,68 +5090,68 @@
       <c r="D7" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="159"/>
+      <c r="E7" s="152"/>
     </row>
     <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
-      <c r="B8" s="148"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="159"/>
+      <c r="E8" s="152"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="159"/>
+      <c r="E9" s="152"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="147"/>
-      <c r="B10" s="148"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="159"/>
+      <c r="E10" s="152"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
-      <c r="B11" s="148"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="159"/>
+      <c r="E11" s="152"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
-      <c r="B12" s="148"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="159"/>
+      <c r="E12" s="152"/>
     </row>
     <row r="13" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="165" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5160,35 +5160,35 @@
       <c r="D13" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="159"/>
+      <c r="E13" s="152"/>
     </row>
     <row r="14" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
-      <c r="B14" s="148"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="159"/>
+      <c r="E14" s="152"/>
     </row>
     <row r="15" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="150"/>
-      <c r="B15" s="148"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="159"/>
+      <c r="E15" s="152"/>
     </row>
     <row r="16" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5197,108 +5197,108 @@
       <c r="D16" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="159"/>
+      <c r="E16" s="152"/>
     </row>
     <row r="17" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
       <c r="D17" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="159"/>
+      <c r="E17" s="152"/>
     </row>
     <row r="18" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="159"/>
+      <c r="E18" s="152"/>
     </row>
     <row r="19" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="152"/>
+      <c r="A19" s="150"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="159"/>
+      <c r="E19" s="152"/>
     </row>
     <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="152"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="159"/>
+      <c r="E20" s="152"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
-      <c r="B21" s="152"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="E21" s="159"/>
+      <c r="E21" s="152"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="151"/>
-      <c r="B22" s="152"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="159"/>
+      <c r="E22" s="152"/>
     </row>
     <row r="23" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="151"/>
-      <c r="B23" s="152"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="159"/>
+      <c r="E23" s="152"/>
     </row>
     <row r="24" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="151"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="151" t="s">
+      <c r="A24" s="150"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="159"/>
+      <c r="E24" s="152"/>
     </row>
     <row r="25" spans="1:5" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="151"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="159"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="166" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="165" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5307,16 +5307,16 @@
       <c r="D26" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="159"/>
+      <c r="E26" s="152"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147"/>
-      <c r="B27" s="148"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="159"/>
+      <c r="E27" s="152"/>
     </row>
     <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
@@ -5329,7 +5329,7 @@
       <c r="D28" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="159"/>
+      <c r="E28" s="152"/>
     </row>
     <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
@@ -5338,108 +5338,108 @@
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="159"/>
+      <c r="E29" s="152"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="151" t="s">
+      <c r="C30" s="150" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="162" t="s">
+      <c r="D30" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="159"/>
+      <c r="E30" s="152"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="149"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="159"/>
+      <c r="A31" s="167"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="152"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="149"/>
-      <c r="B32" s="148"/>
+      <c r="A32" s="167"/>
+      <c r="B32" s="165"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="159"/>
+      <c r="E32" s="152"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="149"/>
-      <c r="B33" s="148"/>
+      <c r="A33" s="167"/>
+      <c r="B33" s="165"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="159"/>
+      <c r="E33" s="152"/>
     </row>
     <row r="34" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="149"/>
-      <c r="B34" s="148"/>
+      <c r="A34" s="167"/>
+      <c r="B34" s="165"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="159"/>
+      <c r="E34" s="152"/>
     </row>
     <row r="35" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="149"/>
-      <c r="B35" s="148"/>
+      <c r="A35" s="167"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
       <c r="D35" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="159"/>
+      <c r="E35" s="152"/>
     </row>
     <row r="36" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="149"/>
-      <c r="B36" s="148"/>
+      <c r="A36" s="167"/>
+      <c r="B36" s="165"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
       <c r="D36" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="159"/>
+      <c r="E36" s="152"/>
     </row>
     <row r="37" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="149"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="163" t="s">
+      <c r="A37" s="167"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="165" t="s">
+      <c r="D37" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="159"/>
+      <c r="E37" s="152"/>
     </row>
     <row r="38" spans="1:5" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="149"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="159"/>
+      <c r="A38" s="167"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="152"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="165" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5448,16 +5448,16 @@
       <c r="D39" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="159"/>
+      <c r="E39" s="152"/>
     </row>
     <row r="40" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="147"/>
-      <c r="B40" s="148"/>
+      <c r="A40" s="166"/>
+      <c r="B40" s="165"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="159"/>
+      <c r="E40" s="152"/>
     </row>
     <row r="41" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
@@ -5470,7 +5470,7 @@
       <c r="D41" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="159"/>
+      <c r="E41" s="152"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
@@ -5479,90 +5479,90 @@
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="159"/>
+      <c r="E42" s="152"/>
     </row>
     <row r="43" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="149" t="s">
+      <c r="A43" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="148" t="s">
+      <c r="B43" s="165" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="159"/>
+      <c r="E43" s="152"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="149"/>
-      <c r="B44" s="148"/>
+      <c r="A44" s="167"/>
+      <c r="B44" s="165"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="159"/>
+      <c r="E44" s="152"/>
     </row>
     <row r="45" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="148" t="s">
+      <c r="B45" s="165" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="159"/>
+      <c r="E45" s="152"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="156"/>
-      <c r="B46" s="148"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="165"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="159"/>
+      <c r="E46" s="152"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="156"/>
-      <c r="B47" s="148"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="165"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="159"/>
+      <c r="E47" s="152"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="157"/>
-      <c r="B48" s="148"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="159"/>
+      <c r="E48" s="152"/>
     </row>
     <row r="49" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A49" s="152" t="s">
+      <c r="A49" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="152" t="s">
+      <c r="B49" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="159"/>
+      <c r="E49" s="152"/>
       <c r="H49" s="42"/>
       <c r="L49" s="42"/>
       <c r="P49" s="42"/>
@@ -9660,15 +9660,15 @@
       <c r="XFD49" s="42"/>
     </row>
     <row r="50" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="152"/>
-      <c r="B50" s="152"/>
+      <c r="A50" s="160"/>
+      <c r="B50" s="160"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="159"/>
+      <c r="E50" s="152"/>
       <c r="H50" s="42"/>
       <c r="L50" s="42"/>
       <c r="P50" s="42"/>
@@ -13766,15 +13766,15 @@
       <c r="XFD50" s="42"/>
     </row>
     <row r="51" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A51" s="152"/>
-      <c r="B51" s="152"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="160"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="159"/>
+      <c r="E51" s="152"/>
       <c r="H51" s="42"/>
       <c r="L51" s="42"/>
       <c r="P51" s="42"/>
@@ -17872,15 +17872,15 @@
       <c r="XFD51" s="42"/>
     </row>
     <row r="52" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A52" s="152"/>
-      <c r="B52" s="152"/>
+      <c r="A52" s="160"/>
+      <c r="B52" s="160"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
       <c r="D52" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="159"/>
+      <c r="E52" s="152"/>
       <c r="H52" s="42"/>
       <c r="L52" s="42"/>
       <c r="P52" s="42"/>
@@ -21978,15 +21978,15 @@
       <c r="XFD52" s="42"/>
     </row>
     <row r="53" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A53" s="152"/>
-      <c r="B53" s="152"/>
-      <c r="C53" s="161" t="s">
+      <c r="A53" s="160"/>
+      <c r="B53" s="160"/>
+      <c r="C53" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="162" t="s">
+      <c r="D53" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="159"/>
+      <c r="E53" s="152"/>
       <c r="H53" s="42"/>
       <c r="L53" s="42"/>
       <c r="P53" s="42"/>
@@ -26084,11 +26084,11 @@
       <c r="XFD53" s="42"/>
     </row>
     <row r="54" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="152"/>
-      <c r="B54" s="152"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="159"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="160"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="152"/>
       <c r="H54" s="42"/>
       <c r="L54" s="42"/>
       <c r="P54" s="42"/>
@@ -30192,7 +30192,7 @@
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="159"/>
+      <c r="E55" s="152"/>
     </row>
     <row r="56" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
@@ -30205,13 +30205,13 @@
       <c r="D56" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="159"/>
+      <c r="E56" s="152"/>
     </row>
     <row r="57" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="152" t="s">
+      <c r="B57" s="160" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30220,204 +30220,204 @@
       <c r="D57" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="159"/>
+      <c r="E57" s="152"/>
     </row>
     <row r="58" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="153"/>
-      <c r="B58" s="152"/>
+      <c r="A58" s="159"/>
+      <c r="B58" s="160"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="159"/>
+      <c r="E58" s="152"/>
     </row>
     <row r="59" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A59" s="153"/>
-      <c r="B59" s="152"/>
+      <c r="A59" s="159"/>
+      <c r="B59" s="160"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
       <c r="D59" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="159"/>
+      <c r="E59" s="152"/>
     </row>
     <row r="60" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="153"/>
-      <c r="B60" s="152"/>
+      <c r="A60" s="159"/>
+      <c r="B60" s="160"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="159"/>
+      <c r="E60" s="152"/>
     </row>
     <row r="61" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A61" s="153"/>
-      <c r="B61" s="152"/>
+      <c r="A61" s="159"/>
+      <c r="B61" s="160"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D61" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="159"/>
+      <c r="E61" s="152"/>
     </row>
     <row r="62" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A62" s="153"/>
-      <c r="B62" s="152"/>
+      <c r="A62" s="159"/>
+      <c r="B62" s="160"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D62" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="159"/>
+      <c r="E62" s="152"/>
     </row>
     <row r="63" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A63" s="153"/>
-      <c r="B63" s="152"/>
+      <c r="A63" s="159"/>
+      <c r="B63" s="160"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
       <c r="D63" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="159"/>
+      <c r="E63" s="152"/>
     </row>
     <row r="64" spans="1:1024 1028:2048 2052:3072 3076:4096 4100:5120 5124:6144 6148:7168 7172:8192 8196:9216 9220:10240 10244:11264 11268:12288 12292:13312 13316:14336 14340:15360 15364:16384" x14ac:dyDescent="0.3">
-      <c r="A64" s="153"/>
-      <c r="B64" s="152"/>
+      <c r="A64" s="159"/>
+      <c r="B64" s="160"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="159"/>
+      <c r="E64" s="152"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="153"/>
-      <c r="B65" s="152"/>
+      <c r="A65" s="159"/>
+      <c r="B65" s="160"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
       <c r="D65" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="159"/>
+      <c r="E65" s="152"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="153"/>
-      <c r="B66" s="152"/>
+      <c r="A66" s="159"/>
+      <c r="B66" s="160"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="159"/>
+      <c r="E66" s="152"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="153"/>
-      <c r="B67" s="152"/>
+      <c r="A67" s="159"/>
+      <c r="B67" s="160"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
       <c r="D67" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E67" s="159"/>
+      <c r="E67" s="152"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="153"/>
-      <c r="B68" s="152"/>
+      <c r="A68" s="159"/>
+      <c r="B68" s="160"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
       <c r="D68" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="159"/>
+      <c r="E68" s="152"/>
     </row>
     <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="153"/>
-      <c r="B69" s="152"/>
+      <c r="A69" s="159"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
       <c r="D69" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E69" s="159"/>
+      <c r="E69" s="152"/>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="153"/>
-      <c r="B70" s="152"/>
+      <c r="A70" s="159"/>
+      <c r="B70" s="160"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
       <c r="D70" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="159"/>
+      <c r="E70" s="152"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="153"/>
-      <c r="B71" s="152"/>
+      <c r="A71" s="159"/>
+      <c r="B71" s="160"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="159"/>
+      <c r="E71" s="152"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="153"/>
-      <c r="B72" s="152"/>
+      <c r="A72" s="159"/>
+      <c r="B72" s="160"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="159"/>
+      <c r="E72" s="152"/>
     </row>
     <row r="73" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="153"/>
-      <c r="B73" s="152"/>
+      <c r="A73" s="159"/>
+      <c r="B73" s="160"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E73" s="159"/>
+      <c r="E73" s="152"/>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="153"/>
-      <c r="B74" s="152"/>
+      <c r="A74" s="159"/>
+      <c r="B74" s="160"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="159"/>
+      <c r="E74" s="152"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="153"/>
-      <c r="B75" s="152"/>
-      <c r="C75" s="160"/>
-      <c r="D75" s="154" t="s">
+      <c r="A75" s="159"/>
+      <c r="B75" s="160"/>
+      <c r="C75" s="153"/>
+      <c r="D75" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="159"/>
+      <c r="E75" s="152"/>
     </row>
     <row r="76" spans="1:5" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="153"/>
-      <c r="B76" s="152"/>
-      <c r="C76" s="160"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="159"/>
+      <c r="A76" s="159"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="153"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="152"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30426,7 +30426,7 @@
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="159"/>
+      <c r="E77" s="152"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
@@ -30442,8 +30442,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30452,30 +30452,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="31">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E2:E77"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -30490,6 +30473,23 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E2:E77"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30537,7 +30537,7 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="131">
+      <c r="E2" s="134">
         <v>43179</v>
       </c>
     </row>
@@ -30548,13 +30548,13 @@
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="44"/>
-      <c r="E3" s="131"/>
+      <c r="E3" s="134"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="165" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30563,158 +30563,158 @@
       <c r="D4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="131"/>
+      <c r="E4" s="134"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="147"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="167" t="s">
+      <c r="A5" s="166"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="178" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="177" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="131"/>
+      <c r="E5" s="134"/>
     </row>
     <row r="6" spans="1:5" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="147"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="131"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="134"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147"/>
-      <c r="B7" s="148"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
-      <c r="E7" s="131"/>
+      <c r="E7" s="134"/>
     </row>
     <row r="8" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
-      <c r="B8" s="148"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
-      <c r="E8" s="131"/>
+      <c r="E8" s="134"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
-      <c r="E9" s="131"/>
+      <c r="E9" s="134"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="166" t="s">
+      <c r="C10" s="175"/>
+      <c r="D10" s="177" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="134"/>
     </row>
     <row r="11" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="131"/>
+      <c r="A11" s="168"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="134"/>
     </row>
     <row r="12" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="150"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="131"/>
+      <c r="A12" s="168"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="134"/>
     </row>
     <row r="13" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="152" t="s">
+      <c r="B13" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="166" t="s">
+      <c r="C13" s="179"/>
+      <c r="D13" s="177" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="131"/>
+      <c r="E13" s="134"/>
     </row>
     <row r="14" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="151"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="131"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="134"/>
     </row>
     <row r="15" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="151"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="168"/>
+      <c r="A15" s="150"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="179"/>
       <c r="D15" s="49"/>
-      <c r="E15" s="131"/>
+      <c r="E15" s="134"/>
     </row>
     <row r="16" spans="1:5" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="168"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="179"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="131"/>
+      <c r="E16" s="134"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="168"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="49"/>
-      <c r="E17" s="131"/>
+      <c r="E17" s="134"/>
     </row>
     <row r="18" spans="1:5" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="168"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="179"/>
       <c r="D18" s="49"/>
-      <c r="E18" s="131"/>
+      <c r="E18" s="134"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="168"/>
+      <c r="A19" s="150"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="179"/>
       <c r="D19" s="49"/>
-      <c r="E19" s="131"/>
+      <c r="E19" s="134"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="168"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="179"/>
       <c r="D20" s="49"/>
-      <c r="E20" s="131"/>
+      <c r="E20" s="134"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="168"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="179"/>
       <c r="D21" s="49"/>
-      <c r="E21" s="131"/>
+      <c r="E21" s="134"/>
     </row>
     <row r="22" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="151"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="168"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="179"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="131"/>
+      <c r="E22" s="134"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="151"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="168"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="179"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="131"/>
+      <c r="E23" s="134"/>
     </row>
     <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="73" t="s">
@@ -30729,7 +30729,7 @@
       <c r="D24" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="131"/>
+      <c r="E24" s="134"/>
     </row>
     <row r="25" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="s">
@@ -30744,7 +30744,7 @@
       <c r="D25" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="131"/>
+      <c r="E25" s="134"/>
     </row>
     <row r="26" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
@@ -30757,7 +30757,7 @@
       <c r="D26" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="131"/>
+      <c r="E26" s="134"/>
     </row>
     <row r="27" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
@@ -30766,7 +30766,7 @@
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="131"/>
+      <c r="E27" s="134"/>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
@@ -30781,7 +30781,7 @@
       <c r="D28" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="E28" s="131"/>
+      <c r="E28" s="134"/>
     </row>
     <row r="29" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
@@ -30792,7 +30792,7 @@
       <c r="D29" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="131"/>
+      <c r="E29" s="134"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
@@ -30803,7 +30803,7 @@
       <c r="D30" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="131"/>
+      <c r="E30" s="134"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
@@ -30814,13 +30814,13 @@
       <c r="D31" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="131"/>
+      <c r="E31" s="134"/>
     </row>
     <row r="32" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="177" t="s">
+      <c r="A32" s="169" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="180" t="s">
+      <c r="B32" s="172" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30829,39 +30829,39 @@
       <c r="D32" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="131"/>
+      <c r="E32" s="134"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="178"/>
-      <c r="B33" s="181"/>
+      <c r="A33" s="170"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
-      <c r="E33" s="131"/>
+      <c r="E33" s="134"/>
     </row>
     <row r="34" spans="1:5" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="178"/>
-      <c r="B34" s="181"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="173"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
-      <c r="E34" s="131"/>
+      <c r="E34" s="134"/>
     </row>
     <row r="35" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="178"/>
-      <c r="B35" s="181"/>
+      <c r="A35" s="170"/>
+      <c r="B35" s="173"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
-      <c r="E35" s="131"/>
+      <c r="E35" s="134"/>
     </row>
     <row r="36" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
-      <c r="B36" s="182"/>
+      <c r="A36" s="171"/>
+      <c r="B36" s="174"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
       <c r="D36" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="131"/>
+      <c r="E36" s="134"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
@@ -30874,7 +30874,7 @@
       <c r="D37" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="131"/>
+      <c r="E37" s="134"/>
     </row>
     <row r="38" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
@@ -30883,13 +30883,13 @@
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="131"/>
+      <c r="E38" s="134"/>
     </row>
     <row r="39" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="149" t="s">
+      <c r="A39" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="165" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30898,108 +30898,108 @@
       <c r="D39" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="131"/>
+      <c r="E39" s="134"/>
     </row>
     <row r="40" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="149"/>
-      <c r="B40" s="148"/>
+      <c r="A40" s="167"/>
+      <c r="B40" s="165"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E40" s="131"/>
+      <c r="E40" s="134"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="169" t="s">
+      <c r="C41" s="175" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="151" t="s">
+      <c r="D41" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="131"/>
+      <c r="E41" s="134"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="147"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="131"/>
+      <c r="A42" s="166"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="134"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="147"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="169" t="s">
+      <c r="A43" s="166"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="154" t="s">
+      <c r="D43" s="161" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="131"/>
+      <c r="E43" s="134"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="147"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="131"/>
+      <c r="A44" s="166"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="175"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="134"/>
     </row>
     <row r="45" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="152" t="s">
+      <c r="B45" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="173"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="131"/>
+      <c r="E45" s="134"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="153"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="174"/>
-      <c r="D46" s="170" t="s">
+      <c r="A46" s="159"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="180" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="131"/>
+      <c r="E46" s="134"/>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="153"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="174"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="131"/>
+      <c r="A47" s="159"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="134"/>
     </row>
     <row r="48" spans="1:5" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="153"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="131"/>
+      <c r="A48" s="159"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="185"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="134"/>
     </row>
     <row r="49" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="153"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="161"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="131"/>
+      <c r="A49" s="159"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="181"/>
+      <c r="E49" s="134"/>
     </row>
     <row r="50" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="153"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="131"/>
+      <c r="A50" s="159"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="134"/>
     </row>
     <row r="51" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -31008,7 +31008,7 @@
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="44"/>
-      <c r="E51" s="131"/>
+      <c r="E51" s="134"/>
     </row>
     <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
@@ -31021,13 +31021,13 @@
       <c r="D52" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="131"/>
+      <c r="E52" s="134"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="152" t="s">
+      <c r="A53" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="152" t="s">
+      <c r="B53" s="160" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -31036,148 +31036,148 @@
       <c r="D53" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="131"/>
+      <c r="E53" s="134"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="152"/>
-      <c r="B54" s="152"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="160"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
       <c r="D54" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="131"/>
+      <c r="E54" s="134"/>
     </row>
     <row r="55" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="152"/>
-      <c r="B55" s="152"/>
+      <c r="A55" s="160"/>
+      <c r="B55" s="160"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
       <c r="D55" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="E55" s="131"/>
+      <c r="E55" s="134"/>
     </row>
     <row r="56" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="152"/>
-      <c r="B56" s="152"/>
+      <c r="A56" s="160"/>
+      <c r="B56" s="160"/>
       <c r="C56" s="176" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="E56" s="131"/>
+      <c r="E56" s="134"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="152"/>
-      <c r="B57" s="152"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="160"/>
       <c r="C57" s="176"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="131"/>
+      <c r="E57" s="134"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="152"/>
-      <c r="B58" s="152"/>
+      <c r="A58" s="160"/>
+      <c r="B58" s="160"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
       <c r="D58" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="131"/>
+      <c r="E58" s="134"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="152"/>
-      <c r="B59" s="152"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="160"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
       <c r="D59" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="E59" s="131"/>
+      <c r="E59" s="134"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="152"/>
-      <c r="B60" s="152"/>
+      <c r="A60" s="160"/>
+      <c r="B60" s="160"/>
       <c r="C60" s="176" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="131"/>
+      <c r="E60" s="134"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="152"/>
-      <c r="B61" s="152"/>
+      <c r="A61" s="160"/>
+      <c r="B61" s="160"/>
       <c r="C61" s="176"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="131"/>
+      <c r="E61" s="134"/>
     </row>
     <row r="62" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="152"/>
-      <c r="B62" s="152"/>
+      <c r="A62" s="160"/>
+      <c r="B62" s="160"/>
       <c r="C62" s="176"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="131"/>
+      <c r="E62" s="134"/>
     </row>
     <row r="63" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="152"/>
-      <c r="B63" s="152"/>
-      <c r="C63" s="169" t="s">
+      <c r="A63" s="160"/>
+      <c r="B63" s="160"/>
+      <c r="C63" s="175" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="131"/>
+      <c r="E63" s="134"/>
     </row>
     <row r="64" spans="1:5" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="152"/>
-      <c r="B64" s="152"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="154" t="s">
+      <c r="A64" s="160"/>
+      <c r="B64" s="160"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="161" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="131"/>
+      <c r="E64" s="134"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="152"/>
-      <c r="B65" s="152"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="131"/>
+      <c r="A65" s="160"/>
+      <c r="B65" s="160"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="134"/>
     </row>
     <row r="66" spans="1:5" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="152"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="131"/>
+      <c r="A66" s="160"/>
+      <c r="B66" s="160"/>
+      <c r="C66" s="175"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="134"/>
     </row>
     <row r="67" spans="1:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="152"/>
-      <c r="B67" s="152"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="131"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="160"/>
+      <c r="C67" s="175"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="134"/>
     </row>
     <row r="68" spans="1:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="44"/>
-      <c r="E68" s="131"/>
+      <c r="E68" s="134"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="82"/>
@@ -31227,24 +31227,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="B53:B67"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C63:C67"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A41:A44"/>
@@ -31261,6 +31243,24 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="B53:B67"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B13:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31311,7 +31311,7 @@
       <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="150" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="176" t="s">
@@ -31326,7 +31326,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="151"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="176"/>
       <c r="C4" s="123" t="s">
         <v>235</v>
@@ -31369,7 +31369,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="195" t="s">
         <v>275</v>
       </c>
       <c r="B7" s="176"/>
@@ -31382,7 +31382,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="194"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="176"/>
       <c r="C8" s="58"/>
       <c r="D8" s="107" t="s">
@@ -31428,7 +31428,7 @@
       <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="192" t="s">
         <v>237</v>
       </c>
       <c r="B12" s="176" t="s">
@@ -31443,7 +31443,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="176"/>
       <c r="C13" s="58"/>
       <c r="D13" s="107" t="s">
@@ -31454,7 +31454,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="192"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="176"/>
       <c r="C14" s="58"/>
       <c r="D14" s="107" t="s">
@@ -31480,13 +31480,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="150" t="s">
         <v>222</v>
       </c>
       <c r="B16" s="176" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="205" t="s">
         <v>239</v>
       </c>
       <c r="D16" s="112" t="s">
@@ -31497,9 +31497,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
+      <c r="A17" s="150"/>
       <c r="B17" s="176"/>
-      <c r="C17" s="186"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="104" t="s">
         <v>278</v>
       </c>
@@ -31508,7 +31508,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
+      <c r="A18" s="150"/>
       <c r="B18" s="176"/>
       <c r="C18" s="96" t="s">
         <v>240</v>
@@ -31560,7 +31560,7 @@
       <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="193" t="s">
+      <c r="A22" s="195" t="s">
         <v>260</v>
       </c>
       <c r="B22" s="176" t="s">
@@ -31575,7 +31575,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="194"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="176"/>
       <c r="C23" s="58"/>
       <c r="D23" s="107" t="s">
@@ -31603,10 +31603,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="195" t="s">
+      <c r="A25" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="198" t="s">
+      <c r="B25" s="200" t="s">
         <v>234</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -31620,8 +31620,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="196"/>
-      <c r="B26" s="199"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="201"/>
       <c r="C26" t="s">
         <v>270</v>
       </c>
@@ -31633,8 +31633,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="196"/>
-      <c r="B27" s="199"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="201"/>
       <c r="C27" s="58" t="s">
         <v>269</v>
       </c>
@@ -31646,8 +31646,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
-      <c r="B28" s="199"/>
+      <c r="A28" s="198"/>
+      <c r="B28" s="201"/>
       <c r="C28" s="103" t="s">
         <v>277</v>
       </c>
@@ -31659,8 +31659,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
-      <c r="B29" s="199"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="58" t="s">
         <v>284</v>
       </c>
@@ -31672,8 +31672,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="196"/>
-      <c r="B30" s="199"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="201"/>
       <c r="C30" s="58" t="s">
         <v>285</v>
       </c>
@@ -31685,8 +31685,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="196"/>
-      <c r="B31" s="199"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="201"/>
       <c r="C31" s="125" t="s">
         <v>290</v>
       </c>
@@ -31698,8 +31698,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="196"/>
-      <c r="B32" s="199"/>
+      <c r="A32" s="198"/>
+      <c r="B32" s="201"/>
       <c r="C32" s="125" t="s">
         <v>291</v>
       </c>
@@ -31711,8 +31711,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="196"/>
-      <c r="B33" s="199"/>
+      <c r="A33" s="198"/>
+      <c r="B33" s="201"/>
       <c r="C33" s="125" t="s">
         <v>292</v>
       </c>
@@ -31724,8 +31724,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="197"/>
-      <c r="B34" s="200"/>
+      <c r="A34" s="199"/>
+      <c r="B34" s="202"/>
       <c r="C34" s="95" t="s">
         <v>244</v>
       </c>
@@ -31767,7 +31767,7 @@
       <c r="D37" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="E37" s="203">
+      <c r="E37" s="131">
         <v>43244</v>
       </c>
     </row>
@@ -31780,7 +31780,7 @@
       <c r="D38" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="E38" s="203">
+      <c r="E38" s="131">
         <v>43244</v>
       </c>
     </row>
@@ -31793,17 +31793,17 @@
       <c r="D39" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="E39" s="203">
+      <c r="E39" s="131">
         <v>43244</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="176"/>
       <c r="B40" s="176"/>
-      <c r="C40" s="205" t="s">
+      <c r="C40" s="132" t="s">
         <v>296</v>
       </c>
-      <c r="D40" s="206" t="s">
+      <c r="D40" s="133" t="s">
         <v>297</v>
       </c>
       <c r="E40" s="116">
@@ -31811,26 +31811,26 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="151" t="s">
+      <c r="A41" s="150" t="s">
         <v>247</v>
       </c>
       <c r="B41" s="176" t="s">
         <v>234</v>
       </c>
-      <c r="C41" s="200"/>
-      <c r="D41" s="204" t="s">
+      <c r="C41" s="202"/>
+      <c r="D41" s="207" t="s">
         <v>261</v>
       </c>
-      <c r="E41" s="183">
+      <c r="E41" s="203">
         <v>43270</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="151"/>
+      <c r="A42" s="150"/>
       <c r="B42" s="176"/>
       <c r="C42" s="176"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="184"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="204"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="122" t="s">
@@ -31876,13 +31876,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="207" t="s">
+      <c r="A46" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="B46" s="201" t="s">
+      <c r="B46" s="188" t="s">
         <v>234</v>
       </c>
-      <c r="C46" s="206" t="s">
+      <c r="C46" s="133" t="s">
         <v>298</v>
       </c>
       <c r="D46" s="58" t="s">
@@ -31893,8 +31893,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="208"/>
-      <c r="B47" s="202"/>
+      <c r="A47" s="187"/>
+      <c r="B47" s="189"/>
       <c r="C47" s="100" t="s">
         <v>288</v>
       </c>
@@ -31915,10 +31915,10 @@
       <c r="E48" s="58"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="188" t="s">
+      <c r="A49" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="198" t="s">
+      <c r="B49" s="200" t="s">
         <v>271</v>
       </c>
       <c r="C49" s="100" t="s">
@@ -31932,8 +31932,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="189"/>
-      <c r="B50" s="200"/>
+      <c r="A50" s="191"/>
+      <c r="B50" s="202"/>
       <c r="C50" s="100" t="s">
         <v>265</v>
       </c>
@@ -32043,6 +32043,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B37:B40"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A49:A50"/>
@@ -32059,13 +32066,6 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B37:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Schema Publication Changelog.xlsx
+++ b/Schema Publication Changelog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7656" yWindow="288" windowWidth="15396" windowHeight="10008"/>
+    <workbookView xWindow="7656" yWindow="288" windowWidth="15396" windowHeight="10008" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="v0.10" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,15 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
+    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
     <customWorkbookView name="Walsh, David P - Personal View" guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1436" windowHeight="675" activeSheetId="2"/>
-    <customWorkbookView name="Arnold, Eve - Personal View" guid="{057DBB0B-BBF6-4A94-8406-46C99A7DC1D6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="758" activeSheetId="2"/>
-    <customWorkbookView name="O'Brien, Ciaran - Personal View" guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="751" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="303">
   <si>
     <t>Document</t>
   </si>
@@ -2652,9 +2652,6 @@
     <t>REST Request Authentication Presentation</t>
   </si>
   <si>
-    <t>REST_Web_Service_Integration_Guide_Sample_Http_Messages</t>
-  </si>
-  <si>
     <t>updated header's Request-target</t>
   </si>
   <si>
@@ -2704,6 +2701,24 @@
   </si>
   <si>
     <t>Section 6.1</t>
+  </si>
+  <si>
+    <t>REST Web Service Integration Guide Sample Http Messages</t>
+  </si>
+  <si>
+    <t>HTTP Method Override</t>
+  </si>
+  <si>
+    <t>Samples added</t>
+  </si>
+  <si>
+    <t>HTTP request example updated to include Digest and Signature elements.</t>
+  </si>
+  <si>
+    <t>pensionTracingNumber</t>
+  </si>
+  <si>
+    <t>Data item number changed from 38 to 39</t>
   </si>
 </sst>
 </file>
@@ -3601,9 +3616,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3612,9 +3624,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3626,6 +3635,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3671,38 +3700,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3725,38 +3724,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3776,8 +3772,38 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3827,10 +3853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3839,31 +3862,23 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4238,7 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4268,12 +4283,12 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4296,12 +4311,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -4341,10 +4356,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="123">
+      <c r="B7" s="129">
         <v>0.1</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -4358,8 +4373,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
-      <c r="B8" s="124"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -4371,8 +4386,8 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="121"/>
-      <c r="B9" s="124"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
@@ -4384,8 +4399,8 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="121"/>
-      <c r="B10" s="124"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
@@ -4397,8 +4412,8 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="121"/>
-      <c r="B11" s="124"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="11" t="s">
         <v>73</v>
       </c>
@@ -4410,8 +4425,8 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="122"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
@@ -4423,10 +4438,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="129">
         <v>0.1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -4440,8 +4455,8 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="129"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
@@ -4487,12 +4502,12 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4532,21 +4547,21 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="119"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="127">
+      <c r="B21" s="133">
         <v>0.1</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4560,8 +4575,8 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="131"/>
-      <c r="B22" s="125"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
@@ -4584,18 +4599,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="119"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="127">
+      <c r="B25" s="133">
         <v>0.1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4609,8 +4624,8 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="121"/>
-      <c r="B26" s="124"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="11" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4637,8 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
-      <c r="B27" s="124"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
@@ -4635,8 +4650,8 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="121"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="21" t="s">
         <v>72</v>
       </c>
@@ -4648,8 +4663,8 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="121"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="11" t="s">
         <v>9</v>
       </c>
@@ -4661,8 +4676,8 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="121"/>
-      <c r="B30" s="124"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="130"/>
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -4674,8 +4689,8 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="121"/>
-      <c r="B31" s="124"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -4687,8 +4702,8 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="122"/>
-      <c r="B32" s="125"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
@@ -4812,12 +4827,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="117" t="s">
+      <c r="A41" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="125"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -4877,7 +4892,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4887,7 +4902,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="B1">
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}" topLeftCell="B1">
       <selection activeCell="C15" sqref="C15:D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4997,10 +5012,10 @@
       <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5011,8 +5026,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="38" t="s">
         <v>88</v>
       </c>
@@ -5021,8 +5036,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="38" t="s">
         <v>89</v>
       </c>
@@ -5031,8 +5046,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="132"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="38" t="s">
         <v>6</v>
       </c>
@@ -5041,8 +5056,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="132"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="38" t="s">
         <v>93</v>
       </c>
@@ -5051,8 +5066,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
-      <c r="B12" s="133"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="38" t="s">
         <v>96</v>
       </c>
@@ -5061,10 +5076,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="38" t="s">
@@ -5075,8 +5090,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="135"/>
-      <c r="B14" s="133"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="38" t="s">
         <v>180</v>
       </c>
@@ -5085,8 +5100,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="135"/>
-      <c r="B15" s="133"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="43" t="s">
         <v>182</v>
       </c>
@@ -5095,10 +5110,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="147" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="59" t="s">
@@ -5109,8 +5124,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="58" t="s">
         <v>148</v>
       </c>
@@ -5119,8 +5134,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="58" t="s">
         <v>93</v>
       </c>
@@ -5129,8 +5144,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="58" t="s">
         <v>151</v>
       </c>
@@ -5139,8 +5154,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="136"/>
-      <c r="B20" s="137"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="58" t="s">
         <v>153</v>
       </c>
@@ -5149,8 +5164,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="136"/>
-      <c r="B21" s="137"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="58" t="s">
         <v>155</v>
       </c>
@@ -5159,8 +5174,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="58" t="s">
         <v>157</v>
       </c>
@@ -5169,8 +5184,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="136"/>
-      <c r="B23" s="137"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="66" t="s">
         <v>159</v>
       </c>
@@ -5179,26 +5194,26 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="136"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="136" t="s">
+      <c r="A24" s="138"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="143" t="s">
+      <c r="D24" s="139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="136"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="143"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5209,8 +5224,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="132"/>
-      <c r="B27" s="133"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="38"/>
       <c r="D27" s="41" t="s">
         <v>118</v>
@@ -5237,28 +5252,28 @@
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="138" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="146" t="s">
+      <c r="D30" s="142" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="134"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="146"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="142"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="134"/>
-      <c r="B32" s="133"/>
+      <c r="A32" s="154"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="58" t="s">
         <v>167</v>
       </c>
@@ -5267,8 +5282,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="134"/>
-      <c r="B33" s="133"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="152"/>
       <c r="C33" s="58" t="s">
         <v>168</v>
       </c>
@@ -5277,8 +5292,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="134"/>
-      <c r="B34" s="133"/>
+      <c r="A34" s="154"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="67" t="s">
         <v>170</v>
       </c>
@@ -5287,8 +5302,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="134"/>
-      <c r="B35" s="133"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="58" t="s">
         <v>157</v>
       </c>
@@ -5297,8 +5312,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="134"/>
-      <c r="B36" s="133"/>
+      <c r="A36" s="154"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="67" t="s">
         <v>159</v>
       </c>
@@ -5307,26 +5322,26 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="134"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="147" t="s">
+      <c r="A37" s="154"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="149" t="s">
+      <c r="D37" s="145" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="134"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="149"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="132" t="s">
+      <c r="A39" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="38" t="s">
@@ -5337,8 +5352,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="132"/>
-      <c r="B40" s="133"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="152"/>
       <c r="C40" s="38"/>
       <c r="D40" s="49" t="s">
         <v>98</v>
@@ -5365,10 +5380,10 @@
       <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="38"/>
@@ -5377,8 +5392,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="134"/>
-      <c r="B44" s="133"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="38" t="s">
         <v>145</v>
       </c>
@@ -5387,10 +5402,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="140" t="s">
+      <c r="A45" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="38"/>
@@ -5399,8 +5414,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="141"/>
-      <c r="B46" s="133"/>
+      <c r="A46" s="150"/>
+      <c r="B46" s="152"/>
       <c r="C46" s="38" t="s">
         <v>101</v>
       </c>
@@ -5409,8 +5424,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="141"/>
-      <c r="B47" s="133"/>
+      <c r="A47" s="150"/>
+      <c r="B47" s="152"/>
       <c r="C47" s="38" t="s">
         <v>99</v>
       </c>
@@ -5419,8 +5434,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="142"/>
-      <c r="B48" s="133"/>
+      <c r="A48" s="151"/>
+      <c r="B48" s="152"/>
       <c r="C48" s="38" t="s">
         <v>145</v>
       </c>
@@ -5429,10 +5444,10 @@
       </c>
     </row>
     <row r="49" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A49" s="137" t="s">
+      <c r="A49" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="137" t="s">
+      <c r="B49" s="147" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="58"/>
@@ -9536,8 +9551,8 @@
       <c r="XFC49" s="42"/>
     </row>
     <row r="50" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="137"/>
-      <c r="B50" s="137"/>
+      <c r="A50" s="147"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="59" t="s">
         <v>105</v>
       </c>
@@ -13641,8 +13656,8 @@
       <c r="XFC50" s="42"/>
     </row>
     <row r="51" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A51" s="137"/>
-      <c r="B51" s="137"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
@@ -17746,8 +17761,8 @@
       <c r="XFC51" s="42"/>
     </row>
     <row r="52" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A52" s="137"/>
-      <c r="B52" s="137"/>
+      <c r="A52" s="147"/>
+      <c r="B52" s="147"/>
       <c r="C52" s="58" t="s">
         <v>108</v>
       </c>
@@ -21851,12 +21866,12 @@
       <c r="XFC52" s="42"/>
     </row>
     <row r="53" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A53" s="137"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="145" t="s">
+      <c r="A53" s="147"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="146" t="s">
+      <c r="D53" s="142" t="s">
         <v>144</v>
       </c>
       <c r="G53" s="42"/>
@@ -25956,10 +25971,10 @@
       <c r="XFC53" s="42"/>
     </row>
     <row r="54" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="137"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="146"/>
+      <c r="A54" s="147"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="142"/>
       <c r="G54" s="42"/>
       <c r="K54" s="42"/>
       <c r="O54" s="42"/>
@@ -30077,10 +30092,10 @@
       </c>
     </row>
     <row r="57" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="137" t="s">
+      <c r="B57" s="147" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="58" t="s">
@@ -30091,8 +30106,8 @@
       </c>
     </row>
     <row r="58" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="138"/>
-      <c r="B58" s="137"/>
+      <c r="A58" s="146"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="61" t="s">
         <v>113</v>
       </c>
@@ -30101,8 +30116,8 @@
       </c>
     </row>
     <row r="59" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A59" s="138"/>
-      <c r="B59" s="137"/>
+      <c r="A59" s="146"/>
+      <c r="B59" s="147"/>
       <c r="C59" s="58" t="s">
         <v>114</v>
       </c>
@@ -30111,8 +30126,8 @@
       </c>
     </row>
     <row r="60" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="138"/>
-      <c r="B60" s="137"/>
+      <c r="A60" s="146"/>
+      <c r="B60" s="147"/>
       <c r="C60" s="58" t="s">
         <v>115</v>
       </c>
@@ -30121,8 +30136,8 @@
       </c>
     </row>
     <row r="61" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A61" s="138"/>
-      <c r="B61" s="137"/>
+      <c r="A61" s="146"/>
+      <c r="B61" s="147"/>
       <c r="C61" s="38" t="s">
         <v>145</v>
       </c>
@@ -30131,8 +30146,8 @@
       </c>
     </row>
     <row r="62" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A62" s="138"/>
-      <c r="B62" s="137"/>
+      <c r="A62" s="146"/>
+      <c r="B62" s="147"/>
       <c r="C62" s="58" t="s">
         <v>117</v>
       </c>
@@ -30141,8 +30156,8 @@
       </c>
     </row>
     <row r="63" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A63" s="138"/>
-      <c r="B63" s="137"/>
+      <c r="A63" s="146"/>
+      <c r="B63" s="147"/>
       <c r="C63" s="58" t="s">
         <v>117</v>
       </c>
@@ -30151,16 +30166,16 @@
       </c>
     </row>
     <row r="64" spans="1:1023 1027:2047 2051:3071 3075:4095 4099:5119 5123:6143 6147:7167 7171:8191 8195:9215 9219:10239 10243:11263 11267:12287 12291:13311 13315:14335 14339:15359 15363:16383" x14ac:dyDescent="0.3">
-      <c r="A64" s="138"/>
-      <c r="B64" s="137"/>
+      <c r="A64" s="146"/>
+      <c r="B64" s="147"/>
       <c r="C64" s="58"/>
       <c r="D64" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="138"/>
-      <c r="B65" s="137"/>
+      <c r="A65" s="146"/>
+      <c r="B65" s="147"/>
       <c r="C65" s="58" t="s">
         <v>120</v>
       </c>
@@ -30169,16 +30184,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="138"/>
-      <c r="B66" s="137"/>
+      <c r="A66" s="146"/>
+      <c r="B66" s="147"/>
       <c r="C66" s="58"/>
       <c r="D66" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="138"/>
-      <c r="B67" s="137"/>
+      <c r="A67" s="146"/>
+      <c r="B67" s="147"/>
       <c r="C67" s="58" t="s">
         <v>122</v>
       </c>
@@ -30187,8 +30202,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="138"/>
-      <c r="B68" s="137"/>
+      <c r="A68" s="146"/>
+      <c r="B68" s="147"/>
       <c r="C68" s="58" t="s">
         <v>123</v>
       </c>
@@ -30197,8 +30212,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="138"/>
-      <c r="B69" s="137"/>
+      <c r="A69" s="146"/>
+      <c r="B69" s="147"/>
       <c r="C69" s="61" t="s">
         <v>125</v>
       </c>
@@ -30207,8 +30222,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="138"/>
-      <c r="B70" s="137"/>
+      <c r="A70" s="146"/>
+      <c r="B70" s="147"/>
       <c r="C70" s="61" t="s">
         <v>126</v>
       </c>
@@ -30217,8 +30232,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="138"/>
-      <c r="B71" s="137"/>
+      <c r="A71" s="146"/>
+      <c r="B71" s="147"/>
       <c r="C71" s="58" t="s">
         <v>127</v>
       </c>
@@ -30227,8 +30242,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="138"/>
-      <c r="B72" s="137"/>
+      <c r="A72" s="146"/>
+      <c r="B72" s="147"/>
       <c r="C72" s="58" t="s">
         <v>128</v>
       </c>
@@ -30237,16 +30252,16 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="138"/>
-      <c r="B73" s="137"/>
+      <c r="A73" s="146"/>
+      <c r="B73" s="147"/>
       <c r="C73" s="58"/>
       <c r="D73" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="138"/>
-      <c r="B74" s="137"/>
+      <c r="A74" s="146"/>
+      <c r="B74" s="147"/>
       <c r="C74" s="58" t="s">
         <v>129</v>
       </c>
@@ -30255,18 +30270,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="138"/>
-      <c r="B75" s="137"/>
-      <c r="C75" s="144"/>
-      <c r="D75" s="139" t="s">
+      <c r="A75" s="146"/>
+      <c r="B75" s="147"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="148" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="138"/>
-      <c r="B76" s="137"/>
-      <c r="C76" s="144"/>
-      <c r="D76" s="139"/>
+      <c r="A76" s="146"/>
+      <c r="B76" s="147"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="148"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
@@ -30290,8 +30305,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
+      <selection activeCell="D20" sqref="D20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -30300,29 +30315,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{3ECA9ADB-6C26-4D30-9FA0-625C82AEEE29}" topLeftCell="A13">
-      <selection activeCell="D20" sqref="D20"/>
+    <customSheetView guid="{99CEABDF-88F7-4121-AD5F-66FD045725EC}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="30">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A57:A76"/>
-    <mergeCell ref="B57:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="B49:B54"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A43:A44"/>
@@ -30337,6 +30336,22 @@
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A57:A76"/>
+    <mergeCell ref="B57:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -30390,10 +30405,10 @@
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="152" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="72" t="s">
@@ -30404,133 +30419,133 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="151" t="s">
+      <c r="A5" s="153"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="165" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="164" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="150"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="164"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="71"/>
       <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="150" t="s">
+      <c r="C10" s="162"/>
+      <c r="D10" s="164" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="135"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="150"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="164"/>
     </row>
     <row r="12" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="150"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="164"/>
     </row>
     <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="150" t="s">
+      <c r="C13" s="166"/>
+      <c r="D13" s="164" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="136"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="150"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="164"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="152"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="166"/>
       <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="136"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="152"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="152"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="166"/>
       <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="41.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="152"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="166"/>
       <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="152"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="166"/>
       <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="136"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="152"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="136"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="152"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="152"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="166"/>
       <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="136"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="152"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="166"/>
       <c r="D23" s="58" t="s">
         <v>221</v>
       </c>
@@ -30628,10 +30643,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="156" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="159" t="s">
         <v>185</v>
       </c>
       <c r="C32" s="91" t="s">
@@ -30642,26 +30657,26 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="162"/>
-      <c r="B33" s="165"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="78"/>
       <c r="D33" s="75"/>
     </row>
     <row r="34" spans="1:4" ht="9.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="162"/>
-      <c r="B34" s="165"/>
+      <c r="A34" s="157"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="78"/>
       <c r="D34" s="75"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162"/>
-      <c r="B35" s="165"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="78"/>
       <c r="D35" s="75"/>
     </row>
     <row r="36" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="163"/>
-      <c r="B36" s="166"/>
+      <c r="A36" s="158"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="78" t="s">
         <v>223</v>
       </c>
@@ -30690,10 +30705,10 @@
       <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="152" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="76" t="s">
@@ -30704,8 +30719,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="134"/>
-      <c r="B40" s="133"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="152"/>
       <c r="C40" s="69" t="s">
         <v>190</v>
       </c>
@@ -30714,84 +30729,84 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="132" t="s">
+      <c r="A41" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="133" t="s">
+      <c r="B41" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="153" t="s">
+      <c r="C41" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="136" t="s">
+      <c r="D41" s="138" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="132"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="136"/>
+      <c r="A42" s="153"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="138"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="132"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="153" t="s">
+      <c r="A43" s="153"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="139" t="s">
+      <c r="D43" s="148" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="132"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="139"/>
+      <c r="A44" s="153"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="148"/>
     </row>
     <row r="45" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="138" t="s">
+      <c r="A45" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="157"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="90" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="138"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="154" t="s">
+      <c r="A46" s="146"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="167" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="138"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="155"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="168"/>
     </row>
     <row r="48" spans="1:4" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="138"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="155"/>
+      <c r="A48" s="146"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="168"/>
     </row>
     <row r="49" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="138"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="155"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="168"/>
     </row>
     <row r="50" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="138"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="156"/>
+      <c r="A50" s="146"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="169"/>
     </row>
     <row r="51" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
@@ -30814,10 +30829,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
+      <c r="A53" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="137" t="s">
+      <c r="B53" s="147" t="s">
         <v>185</v>
       </c>
       <c r="C53" s="78" t="s">
@@ -30828,8 +30843,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="137"/>
-      <c r="B54" s="137"/>
+      <c r="A54" s="147"/>
+      <c r="B54" s="147"/>
       <c r="C54" s="78" t="s">
         <v>190</v>
       </c>
@@ -30838,8 +30853,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="137"/>
-      <c r="B55" s="137"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="78" t="s">
         <v>205</v>
       </c>
@@ -30848,9 +30863,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="137"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="160" t="s">
+      <c r="A56" s="147"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="163" t="s">
         <v>208</v>
       </c>
       <c r="D56" s="79" t="s">
@@ -30858,16 +30873,16 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="137"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="160"/>
+      <c r="A57" s="147"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="163"/>
       <c r="D57" s="47" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="137"/>
-      <c r="B58" s="137"/>
+      <c r="A58" s="147"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="78" t="s">
         <v>209</v>
       </c>
@@ -30876,8 +30891,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="137"/>
-      <c r="B59" s="137"/>
+      <c r="A59" s="147"/>
+      <c r="B59" s="147"/>
       <c r="C59" s="78" t="s">
         <v>210</v>
       </c>
@@ -30886,9 +30901,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="137"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="160" t="s">
+      <c r="A60" s="147"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="163" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="46" t="s">
@@ -30896,25 +30911,25 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="137"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="160"/>
+      <c r="A61" s="147"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="163"/>
       <c r="D61" s="46" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="137"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="160"/>
+      <c r="A62" s="147"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="163"/>
       <c r="D62" s="79" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="137"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="153" t="s">
+      <c r="A63" s="147"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="162" t="s">
         <v>206</v>
       </c>
       <c r="D63" s="45" t="s">
@@ -30922,30 +30937,30 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="137"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="153"/>
-      <c r="D64" s="139" t="s">
+      <c r="A64" s="147"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="148" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="137"/>
-      <c r="B65" s="137"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="139"/>
+      <c r="A65" s="147"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="162"/>
+      <c r="D65" s="148"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="137"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="153"/>
-      <c r="D66" s="139"/>
+      <c r="A66" s="147"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="162"/>
+      <c r="D66" s="148"/>
     </row>
     <row r="67" spans="1:4" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="137"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="153"/>
-      <c r="D67" s="139"/>
+      <c r="A67" s="147"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="162"/>
+      <c r="D67" s="148"/>
     </row>
     <row r="68" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
@@ -31001,24 +31016,10 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="B53:B67"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="C45:C48"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A41:A44"/>
@@ -31030,10 +31031,24 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="B53:B67"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell r